--- a/BillOfMaterials/P6_BOM.xlsx
+++ b/BillOfMaterials/P6_BOM.xlsx
@@ -1730,8 +1730,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F4" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="J35" sqref="J35"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1789,36 +1789,36 @@
         <v>0</v>
       </c>
       <c r="B2" s="2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>8</v>
+        <v>26</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>49</v>
+        <v>76</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="G2" s="1" t="s">
         <v>52</v>
       </c>
       <c r="H2" s="5">
-        <v>0.13</v>
+        <v>3.2000000000000001E-2</v>
       </c>
       <c r="I2" s="5">
-        <v>0.115</v>
+        <v>1.43E-2</v>
       </c>
       <c r="J2" s="8">
         <f>H2*$B2</f>
-        <v>0.13</v>
+        <v>9.6000000000000002E-2</v>
       </c>
       <c r="K2" s="8">
         <f>I2*$B2</f>
-        <v>0.115</v>
+        <v>4.2900000000000001E-2</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
@@ -1850,11 +1850,11 @@
         <v>2.9000000000000001E-2</v>
       </c>
       <c r="J3" s="8">
-        <f t="shared" ref="J3:K30" si="0">H3*$B3</f>
+        <f>H3*$B3</f>
         <v>0.1</v>
       </c>
       <c r="K3" s="8">
-        <f t="shared" si="0"/>
+        <f>I3*$B3</f>
         <v>2.9000000000000001E-2</v>
       </c>
     </row>
@@ -1863,73 +1863,73 @@
         <v>0</v>
       </c>
       <c r="B4" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>88</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="G4" s="1" t="s">
         <v>52</v>
       </c>
       <c r="H4" s="5">
-        <v>1.0999999999999999E-2</v>
+        <v>3.2000000000000001E-2</v>
       </c>
       <c r="I4" s="5">
-        <v>4.5999999999999999E-3</v>
+        <v>1.43E-2</v>
       </c>
       <c r="J4" s="8">
-        <f t="shared" si="0"/>
-        <v>3.3000000000000002E-2</v>
+        <f>H4*$B4</f>
+        <v>6.4000000000000001E-2</v>
       </c>
       <c r="K4" s="8">
-        <f t="shared" si="0"/>
-        <v>1.38E-2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+        <f>I4*$B4</f>
+        <v>2.86E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
         <v>0</v>
       </c>
       <c r="B5" s="2">
-        <v>1</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>87</v>
+        <v>5</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>88</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>9</v>
+        <v>33</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G5" s="1" t="s">
         <v>52</v>
       </c>
       <c r="H5" s="5">
-        <v>0.1</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="I5" s="5">
-        <v>1.0999999999999999E-2</v>
+        <v>3.1300000000000001E-2</v>
       </c>
       <c r="J5" s="8">
-        <f t="shared" si="0"/>
-        <v>0.1</v>
+        <f>H5*$B5</f>
+        <v>0.35000000000000003</v>
       </c>
       <c r="K5" s="8">
-        <f t="shared" si="0"/>
-        <v>1.0999999999999999E-2</v>
+        <f>I5*$B5</f>
+        <v>0.1565</v>
       </c>
     </row>
     <row r="6" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -1937,36 +1937,36 @@
         <v>0</v>
       </c>
       <c r="B6" s="2">
-        <v>5</v>
-      </c>
-      <c r="C6" s="6" t="s">
-        <v>88</v>
+        <v>1</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>87</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>33</v>
+        <v>1</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>38</v>
+        <v>66</v>
       </c>
       <c r="G6" s="1" t="s">
         <v>52</v>
       </c>
       <c r="H6" s="5">
-        <v>7.0000000000000007E-2</v>
+        <v>0.44</v>
       </c>
       <c r="I6" s="5">
-        <v>3.1300000000000001E-2</v>
+        <v>0.317</v>
       </c>
       <c r="J6" s="8">
-        <f t="shared" si="0"/>
-        <v>0.35000000000000003</v>
+        <f>H6*$B6</f>
+        <v>0.44</v>
       </c>
       <c r="K6" s="8">
-        <f t="shared" si="0"/>
-        <v>0.1565</v>
+        <f>I6*$B6</f>
+        <v>0.317</v>
       </c>
     </row>
     <row r="7" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -1974,36 +1974,36 @@
         <v>0</v>
       </c>
       <c r="B7" s="2">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>104</v>
+        <v>2</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>81</v>
+        <v>58</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>39</v>
+        <v>59</v>
       </c>
       <c r="G7" s="1" t="s">
         <v>52</v>
       </c>
       <c r="H7" s="5">
-        <v>1.0999999999999999E-2</v>
+        <v>0.43</v>
       </c>
       <c r="I7" s="5">
-        <v>4.5999999999999999E-3</v>
+        <v>0.32100000000000001</v>
       </c>
       <c r="J7" s="8">
-        <f t="shared" si="0"/>
-        <v>4.3999999999999997E-2</v>
+        <f>H7*$B7</f>
+        <v>0.43</v>
       </c>
       <c r="K7" s="8">
-        <f t="shared" si="0"/>
-        <v>1.84E-2</v>
+        <f>I7*$B7</f>
+        <v>0.32100000000000001</v>
       </c>
     </row>
     <row r="8" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -2011,36 +2011,36 @@
         <v>0</v>
       </c>
       <c r="B8" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>40</v>
+        <v>65</v>
       </c>
       <c r="G8" s="1" t="s">
         <v>52</v>
       </c>
       <c r="H8" s="5">
-        <v>3.2000000000000001E-2</v>
+        <v>0.317</v>
       </c>
       <c r="I8" s="5">
-        <v>1.43E-2</v>
+        <v>0.24279999999999999</v>
       </c>
       <c r="J8" s="8">
-        <f t="shared" si="0"/>
-        <v>9.6000000000000002E-2</v>
+        <f>H8*$B8</f>
+        <v>0.63400000000000001</v>
       </c>
       <c r="K8" s="8">
-        <f t="shared" si="0"/>
-        <v>4.2900000000000001E-2</v>
+        <f>I8*$B8</f>
+        <v>0.48559999999999998</v>
       </c>
     </row>
     <row r="9" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -2048,36 +2048,36 @@
         <v>0</v>
       </c>
       <c r="B9" s="2">
+        <v>1</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="D9" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C9" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>27</v>
-      </c>
       <c r="E9" s="4" t="s">
-        <v>82</v>
+        <v>72</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>41</v>
+        <v>64</v>
       </c>
       <c r="G9" s="1" t="s">
         <v>52</v>
       </c>
       <c r="H9" s="5">
-        <v>1.0999999999999999E-2</v>
+        <v>0.5</v>
       </c>
       <c r="I9" s="5">
-        <v>4.5999999999999999E-3</v>
+        <v>0.35599999999999998</v>
       </c>
       <c r="J9" s="8">
-        <f t="shared" si="0"/>
-        <v>3.3000000000000002E-2</v>
+        <f>H9*$B9</f>
+        <v>0.5</v>
       </c>
       <c r="K9" s="8">
-        <f t="shared" si="0"/>
-        <v>1.38E-2</v>
+        <f>I9*$B9</f>
+        <v>0.35599999999999998</v>
       </c>
     </row>
     <row r="10" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -2085,36 +2085,36 @@
         <v>0</v>
       </c>
       <c r="B10" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>28</v>
+        <v>4</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>77</v>
+        <v>46</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="G10" s="1" t="s">
         <v>52</v>
       </c>
       <c r="H10" s="5">
-        <v>3.2000000000000001E-2</v>
+        <v>3.6</v>
       </c>
       <c r="I10" s="5">
-        <v>1.43E-2</v>
+        <v>3.2370000000000001</v>
       </c>
       <c r="J10" s="8">
-        <f t="shared" si="0"/>
-        <v>6.4000000000000001E-2</v>
+        <f>H10*$B10</f>
+        <v>3.6</v>
       </c>
       <c r="K10" s="8">
-        <f t="shared" si="0"/>
-        <v>2.86E-2</v>
+        <f>I10*$B10</f>
+        <v>3.2370000000000001</v>
       </c>
     </row>
     <row r="11" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -2125,38 +2125,38 @@
         <v>1</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="E11" s="4" t="s">
-        <v>103</v>
+        <v>5</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>67</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>78</v>
+        <v>68</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="H11" s="5">
-        <v>0.59</v>
+        <v>7.43</v>
       </c>
       <c r="I11" s="5">
-        <v>0.495</v>
+        <v>7.43</v>
       </c>
       <c r="J11" s="8">
-        <f t="shared" si="0"/>
-        <v>0.59</v>
+        <f>H11*$B11</f>
+        <v>7.43</v>
       </c>
       <c r="K11" s="8">
-        <f t="shared" si="0"/>
-        <v>0.495</v>
+        <f>I11*$B11</f>
+        <v>7.43</v>
       </c>
     </row>
     <row r="12" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="B12" s="2">
         <v>1</v>
@@ -2165,30 +2165,30 @@
         <v>87</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="E12" s="4" t="s">
-        <v>54</v>
+        <v>7</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>60</v>
+        <v>7</v>
       </c>
       <c r="G12" s="1" t="s">
         <v>52</v>
       </c>
       <c r="H12" s="5">
-        <v>0.61</v>
+        <v>2.27</v>
       </c>
       <c r="I12" s="5">
-        <v>0.56999999999999995</v>
+        <v>2.0630000000000002</v>
       </c>
       <c r="J12" s="8">
-        <f t="shared" si="0"/>
-        <v>0.61</v>
+        <f>H12*$B12</f>
+        <v>2.27</v>
       </c>
       <c r="K12" s="8">
-        <f t="shared" si="0"/>
-        <v>0.56999999999999995</v>
+        <f>I12*$B12</f>
+        <v>2.0630000000000002</v>
       </c>
     </row>
     <row r="13" spans="1:11" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -2202,30 +2202,30 @@
         <v>87</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="E13" s="4" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>57</v>
+        <v>43</v>
       </c>
       <c r="G13" s="1" t="s">
         <v>52</v>
       </c>
       <c r="H13" s="5">
-        <v>0.48</v>
+        <v>0.13</v>
       </c>
       <c r="I13" s="5">
-        <v>0.36199999999999999</v>
+        <v>0.115</v>
       </c>
       <c r="J13" s="8">
-        <f t="shared" si="0"/>
-        <v>0.48</v>
+        <f>H13*$B13</f>
+        <v>0.13</v>
       </c>
       <c r="K13" s="8">
-        <f t="shared" si="0"/>
-        <v>0.36199999999999999</v>
+        <f>I13*$B13</f>
+        <v>0.115</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
@@ -2233,36 +2233,36 @@
         <v>0</v>
       </c>
       <c r="B14" s="2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>12</v>
+        <v>34</v>
       </c>
       <c r="E14" s="4" t="s">
-        <v>61</v>
+        <v>79</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>13</v>
+        <v>36</v>
       </c>
       <c r="G14" s="1" t="s">
         <v>52</v>
       </c>
       <c r="H14" s="5">
-        <v>3.18</v>
+        <v>1.0999999999999999E-2</v>
       </c>
       <c r="I14" s="5">
-        <v>2.8832</v>
+        <v>4.5999999999999999E-3</v>
       </c>
       <c r="J14" s="8">
-        <f t="shared" si="0"/>
-        <v>3.18</v>
+        <f>H14*$B14</f>
+        <v>3.3000000000000002E-2</v>
       </c>
       <c r="K14" s="8">
-        <f t="shared" si="0"/>
-        <v>2.8832</v>
+        <f>I14*$B14</f>
+        <v>1.38E-2</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
@@ -2270,36 +2270,36 @@
         <v>0</v>
       </c>
       <c r="B15" s="2">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>3</v>
+        <v>104</v>
       </c>
       <c r="E15" s="4" t="s">
-        <v>72</v>
+        <v>81</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>64</v>
+        <v>39</v>
       </c>
       <c r="G15" s="1" t="s">
         <v>52</v>
       </c>
       <c r="H15" s="5">
-        <v>0.5</v>
+        <v>1.0999999999999999E-2</v>
       </c>
       <c r="I15" s="5">
-        <v>0.35599999999999998</v>
+        <v>4.5999999999999999E-3</v>
       </c>
       <c r="J15" s="8">
-        <f t="shared" si="0"/>
-        <v>0.5</v>
+        <f>H15*$B15</f>
+        <v>4.3999999999999997E-2</v>
       </c>
       <c r="K15" s="8">
-        <f t="shared" si="0"/>
-        <v>0.35599999999999998</v>
+        <f>I15*$B15</f>
+        <v>1.84E-2</v>
       </c>
     </row>
     <row r="16" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -2307,41 +2307,41 @@
         <v>0</v>
       </c>
       <c r="B16" s="2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>100</v>
+        <v>27</v>
       </c>
       <c r="E16" s="4" t="s">
-        <v>11</v>
+        <v>82</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>62</v>
+        <v>41</v>
       </c>
       <c r="G16" s="1" t="s">
         <v>52</v>
       </c>
       <c r="H16" s="5">
-        <v>0.48</v>
+        <v>1.0999999999999999E-2</v>
       </c>
       <c r="I16" s="5">
-        <v>0.46300000000000002</v>
+        <v>4.5999999999999999E-3</v>
       </c>
       <c r="J16" s="8">
-        <f t="shared" si="0"/>
-        <v>0.48</v>
+        <f>H16*$B16</f>
+        <v>3.3000000000000002E-2</v>
       </c>
       <c r="K16" s="8">
-        <f t="shared" si="0"/>
-        <v>0.46300000000000002</v>
+        <f>I16*$B16</f>
+        <v>1.38E-2</v>
       </c>
     </row>
     <row r="17" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B17" s="2">
         <v>1</v>
@@ -2350,30 +2350,30 @@
         <v>87</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="E17" s="4" t="s">
-        <v>48</v>
+        <v>80</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>19</v>
+        <v>37</v>
       </c>
       <c r="G17" s="1" t="s">
         <v>52</v>
       </c>
       <c r="H17" s="5">
-        <v>0.57999999999999996</v>
+        <v>0.1</v>
       </c>
       <c r="I17" s="5">
-        <v>0.54700000000000004</v>
+        <v>1.0999999999999999E-2</v>
       </c>
       <c r="J17" s="8">
-        <f t="shared" si="0"/>
-        <v>0.57999999999999996</v>
+        <f>H17*$B17</f>
+        <v>0.1</v>
       </c>
       <c r="K17" s="8">
-        <f t="shared" si="0"/>
-        <v>0.54700000000000004</v>
+        <f>I17*$B17</f>
+        <v>1.0999999999999999E-2</v>
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.25">
@@ -2387,30 +2387,30 @@
         <v>87</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>2</v>
+        <v>100</v>
       </c>
       <c r="E18" s="4" t="s">
-        <v>58</v>
+        <v>11</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="G18" s="1" t="s">
         <v>52</v>
       </c>
       <c r="H18" s="5">
-        <v>0.43</v>
+        <v>0.48</v>
       </c>
       <c r="I18" s="5">
-        <v>0.32100000000000001</v>
+        <v>0.46300000000000002</v>
       </c>
       <c r="J18" s="8">
-        <f t="shared" si="0"/>
-        <v>0.43</v>
+        <f>H18*$B18</f>
+        <v>0.48</v>
       </c>
       <c r="K18" s="8">
-        <f t="shared" si="0"/>
-        <v>0.32100000000000001</v>
+        <f>I18*$B18</f>
+        <v>0.46300000000000002</v>
       </c>
     </row>
     <row r="19" spans="1:11" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -2424,30 +2424,30 @@
         <v>87</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E19" s="1" t="s">
-        <v>86</v>
+        <v>98</v>
+      </c>
+      <c r="E19" s="4" t="s">
+        <v>69</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>63</v>
+        <v>70</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="H19" s="5">
-        <v>10.5</v>
+        <v>0.52</v>
       </c>
       <c r="I19" s="5">
-        <v>6.5250000000000004</v>
+        <v>0.499</v>
       </c>
       <c r="J19" s="8">
-        <f t="shared" si="0"/>
-        <v>10.5</v>
+        <f>H19*$B19</f>
+        <v>0.52</v>
       </c>
       <c r="K19" s="8">
-        <f t="shared" si="0"/>
-        <v>6.5250000000000004</v>
+        <f>I19*$B19</f>
+        <v>0.499</v>
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.25">
@@ -2461,30 +2461,30 @@
         <v>91</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="E20" s="4" t="s">
-        <v>17</v>
+        <v>61</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>55</v>
+        <v>13</v>
       </c>
       <c r="G20" s="1" t="s">
         <v>52</v>
       </c>
       <c r="H20" s="5">
-        <v>0.59</v>
+        <v>3.18</v>
       </c>
       <c r="I20" s="5">
-        <v>0.49840000000000001</v>
+        <v>2.8832</v>
       </c>
       <c r="J20" s="8">
-        <f t="shared" si="0"/>
-        <v>0.59</v>
+        <f>H20*$B20</f>
+        <v>3.18</v>
       </c>
       <c r="K20" s="8">
-        <f t="shared" si="0"/>
-        <v>0.49840000000000001</v>
+        <f>I20*$B20</f>
+        <v>2.8832</v>
       </c>
     </row>
     <row r="21" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -2495,33 +2495,33 @@
         <v>1</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>67</v>
+        <v>86</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="G21" s="1" t="s">
         <v>53</v>
       </c>
       <c r="H21" s="5">
-        <v>7.43</v>
+        <v>10.5</v>
       </c>
       <c r="I21" s="5">
-        <v>7.43</v>
+        <v>6.5250000000000004</v>
       </c>
       <c r="J21" s="8">
-        <f t="shared" si="0"/>
-        <v>7.43</v>
+        <f>H21*$B21</f>
+        <v>10.5</v>
       </c>
       <c r="K21" s="8">
-        <f t="shared" si="0"/>
-        <v>7.43</v>
+        <f>I21*$B21</f>
+        <v>6.5250000000000004</v>
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.25">
@@ -2535,30 +2535,30 @@
         <v>87</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="E22" s="4" t="s">
-        <v>71</v>
+        <v>56</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>66</v>
+        <v>57</v>
       </c>
       <c r="G22" s="1" t="s">
         <v>52</v>
       </c>
       <c r="H22" s="5">
-        <v>0.44</v>
+        <v>0.48</v>
       </c>
       <c r="I22" s="5">
-        <v>0.317</v>
+        <v>0.36199999999999999</v>
       </c>
       <c r="J22" s="8">
-        <f t="shared" si="0"/>
-        <v>0.44</v>
+        <f>H22*$B22</f>
+        <v>0.48</v>
       </c>
       <c r="K22" s="8">
-        <f t="shared" si="0"/>
-        <v>0.317</v>
+        <f>I22*$B22</f>
+        <v>0.36199999999999999</v>
       </c>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.25">
@@ -2572,72 +2572,72 @@
         <v>93</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>29</v>
+        <v>101</v>
       </c>
       <c r="E23" s="4" t="s">
-        <v>73</v>
+        <v>99</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>65</v>
+        <v>102</v>
       </c>
       <c r="G23" s="1" t="s">
         <v>52</v>
       </c>
       <c r="H23" s="5">
-        <v>0.317</v>
+        <v>0.28499999999999998</v>
       </c>
       <c r="I23" s="5">
-        <v>0.24279999999999999</v>
+        <v>0.27479999999999999</v>
       </c>
       <c r="J23" s="8">
-        <f t="shared" si="0"/>
-        <v>0.63400000000000001</v>
+        <f>H23*$B23</f>
+        <v>0.56999999999999995</v>
       </c>
       <c r="K23" s="8">
-        <f t="shared" si="0"/>
-        <v>0.48559999999999998</v>
+        <f>I23*$B23</f>
+        <v>0.54959999999999998</v>
       </c>
     </row>
     <row r="24" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="2">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="B24" s="2">
         <v>1</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="E24" s="4" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>7</v>
+        <v>55</v>
       </c>
       <c r="G24" s="1" t="s">
         <v>52</v>
       </c>
       <c r="H24" s="5">
-        <v>2.27</v>
+        <v>0.59</v>
       </c>
       <c r="I24" s="5">
-        <v>2.0630000000000002</v>
+        <v>0.49840000000000001</v>
       </c>
       <c r="J24" s="8">
-        <f t="shared" si="0"/>
-        <v>2.27</v>
+        <f>H24*$B24</f>
+        <v>0.59</v>
       </c>
       <c r="K24" s="8">
-        <f t="shared" si="0"/>
-        <v>2.0630000000000002</v>
+        <f>I24*$B24</f>
+        <v>0.49840000000000001</v>
       </c>
     </row>
     <row r="25" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B25" s="2">
         <v>1</v>
@@ -2646,30 +2646,30 @@
         <v>87</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>98</v>
+        <v>18</v>
       </c>
       <c r="E25" s="4" t="s">
-        <v>69</v>
+        <v>48</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>70</v>
+        <v>19</v>
       </c>
       <c r="G25" s="1" t="s">
         <v>52</v>
       </c>
       <c r="H25" s="5">
-        <v>0.52</v>
+        <v>0.57999999999999996</v>
       </c>
       <c r="I25" s="5">
-        <v>0.499</v>
+        <v>0.54700000000000004</v>
       </c>
       <c r="J25" s="8">
-        <f t="shared" si="0"/>
-        <v>0.52</v>
+        <f>H25*$B25</f>
+        <v>0.57999999999999996</v>
       </c>
       <c r="K25" s="8">
-        <f t="shared" si="0"/>
-        <v>0.499</v>
+        <f>I25*$B25</f>
+        <v>0.54700000000000004</v>
       </c>
     </row>
     <row r="26" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -2677,110 +2677,110 @@
         <v>0</v>
       </c>
       <c r="B26" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>101</v>
+        <v>20</v>
       </c>
       <c r="E26" s="4" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>102</v>
+        <v>78</v>
       </c>
       <c r="G26" s="1" t="s">
         <v>52</v>
       </c>
       <c r="H26" s="5">
-        <v>0.28499999999999998</v>
+        <v>0.59</v>
       </c>
       <c r="I26" s="5">
-        <v>0.27479999999999999</v>
+        <v>0.495</v>
       </c>
       <c r="J26" s="8">
-        <f t="shared" si="0"/>
+        <f>H26*$B26</f>
+        <v>0.59</v>
+      </c>
+      <c r="K26" s="8">
+        <f>I26*$B26</f>
+        <v>0.495</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A27" s="3">
+        <v>0</v>
+      </c>
+      <c r="B27" s="3">
+        <v>1</v>
+      </c>
+      <c r="C27" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E27" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="F27" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="G27" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="H27" s="5">
+        <v>0.46</v>
+      </c>
+      <c r="I27" s="5">
+        <v>0.437</v>
+      </c>
+      <c r="J27" s="8">
+        <f>H27*$B27</f>
+        <v>0.46</v>
+      </c>
+      <c r="K27" s="8">
+        <f>I27*$B27</f>
+        <v>0.437</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A28" s="2">
+        <v>0</v>
+      </c>
+      <c r="B28" s="2">
+        <v>1</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E28" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="F28" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="G28" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="H28" s="5">
+        <v>0.61</v>
+      </c>
+      <c r="I28" s="5">
         <v>0.56999999999999995</v>
       </c>
-      <c r="K26" s="8">
-        <f t="shared" si="0"/>
-        <v>0.54959999999999998</v>
-      </c>
-    </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A27" s="2">
-        <v>0</v>
-      </c>
-      <c r="B27" s="2">
-        <v>1</v>
-      </c>
-      <c r="C27" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="D27" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="E27" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="F27" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="G27" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="H27" s="5">
-        <v>3.6</v>
-      </c>
-      <c r="I27" s="5">
-        <v>3.2370000000000001</v>
-      </c>
-      <c r="J27" s="8">
-        <f t="shared" si="0"/>
-        <v>3.6</v>
-      </c>
-      <c r="K27" s="8">
-        <f t="shared" si="0"/>
-        <v>3.2370000000000001</v>
-      </c>
-    </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A28" s="3">
-        <v>0</v>
-      </c>
-      <c r="B28" s="3">
-        <v>1</v>
-      </c>
-      <c r="C28" s="3" t="s">
-        <v>87</v>
-      </c>
-      <c r="D28" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="E28" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="F28" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="G28" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="H28" s="5">
-        <v>0.46</v>
-      </c>
-      <c r="I28" s="5">
-        <v>0.437</v>
-      </c>
       <c r="J28" s="8">
-        <f t="shared" si="0"/>
-        <v>0.46</v>
+        <f>H28*$B28</f>
+        <v>0.61</v>
       </c>
       <c r="K28" s="8">
-        <f t="shared" si="0"/>
-        <v>0.437</v>
+        <f>I28*$B28</f>
+        <v>0.56999999999999995</v>
       </c>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.25">
@@ -2808,11 +2808,11 @@
         <v>2.9350000000000001</v>
       </c>
       <c r="J29" s="8">
-        <f t="shared" si="0"/>
+        <f>H29*$B29</f>
         <v>29.35</v>
       </c>
       <c r="K29" s="8">
-        <f t="shared" si="0"/>
+        <f>I29*$B29</f>
         <v>2.9350000000000001</v>
       </c>
     </row>
@@ -2842,11 +2842,11 @@
         <v>5.95</v>
       </c>
       <c r="J30" s="8">
-        <f t="shared" si="0"/>
+        <f>H30*$B30</f>
         <v>5.95</v>
       </c>
       <c r="K30" s="8">
-        <f t="shared" si="0"/>
+        <f>I30*$B30</f>
         <v>5.95</v>
       </c>
     </row>
@@ -2856,7 +2856,7 @@
       <c r="C31" s="2"/>
       <c r="J31" s="7">
         <f>SUM(J2:J30)</f>
-        <v>70.114000000000004</v>
+        <v>70.114000000000019</v>
       </c>
       <c r="K31" s="7">
         <f>SUM(K2:K30)</f>
@@ -2944,33 +2944,36 @@
       <c r="C47" s="3"/>
     </row>
   </sheetData>
+  <sortState ref="A2:K30">
+    <sortCondition ref="D2:D30"/>
+  </sortState>
   <hyperlinks>
-    <hyperlink ref="E28" r:id="rId1" display="https://www.digikey.com/scripts/DkSearch/dksus.dll?Detail&amp;itemSeq=255006924&amp;uq=636573277011681174"/>
-    <hyperlink ref="E27" r:id="rId2" display="https://www.digikey.com/scripts/DkSearch/dksus.dll?Detail&amp;itemSeq=255582543&amp;uq=636573277011711177"/>
-    <hyperlink ref="E17" r:id="rId3" display="https://www.digikey.com/scripts/DkSearch/dksus.dll?Detail&amp;itemSeq=255006885&amp;uq=636573277011671173"/>
-    <hyperlink ref="E2" r:id="rId4" display="https://www.digikey.com/product-detail/en/on-semiconductor/MMBT2222LT1G/MMBT2222LT1GOSCT-ND/1139808"/>
-    <hyperlink ref="E12" r:id="rId5" display="https://www.digikey.com/scripts/DkSearch/dksus.dll?Detail&amp;itemSeq=255577954&amp;uq=636573292806079726"/>
-    <hyperlink ref="E20" r:id="rId6" display="https://www.digikey.com/scripts/DkSearch/dksus.dll?Detail&amp;itemSeq=255007731&amp;uq=636573292806049726"/>
-    <hyperlink ref="E13" r:id="rId7" display="https://www.digikey.com/scripts/DkSearch/dksus.dll?Detail&amp;itemSeq=255007807&amp;uq=636573292806059726"/>
-    <hyperlink ref="E18" r:id="rId8" display="https://www.digikey.com/scripts/DkSearch/dksus.dll?Detail&amp;itemSeq=255007915&amp;uq=636573292806059726"/>
-    <hyperlink ref="E14" r:id="rId9" display="https://www.digikey.com/scripts/DkSearch/dksus.dll?Detail&amp;itemSeq=255008032&amp;uq=636573292806069726"/>
-    <hyperlink ref="E16" r:id="rId10" display="https://www.digikey.com/scripts/DkSearch/dksus.dll?Detail&amp;itemSeq=255287263&amp;uq=636573292806069726"/>
-    <hyperlink ref="E24" r:id="rId11" display="https://www.digikey.com/scripts/DkSearch/dksus.dll?Detail&amp;itemSeq=255683609&amp;uq=636573305216640966"/>
-    <hyperlink ref="E25" r:id="rId12" display="https://www.digikey.com/scripts/DkSearch/dksus.dll?Detail&amp;itemSeq=255008508&amp;uq=636573292806069726"/>
-    <hyperlink ref="E22" r:id="rId13" display="https://www.digikey.com/scripts/DkSearch/dksus.dll?Detail&amp;itemSeq=255685923&amp;uq=636573315130419726"/>
-    <hyperlink ref="E15" r:id="rId14" display="https://www.digikey.com/scripts/DkSearch/dksus.dll?Detail&amp;itemSeq=255686028&amp;uq=636573315948419447"/>
-    <hyperlink ref="E23" r:id="rId15" display="https://www.digikey.com/scripts/DkSearch/dksus.dll?Detail&amp;itemSeq=255686232&amp;uq=636573317079069726"/>
+    <hyperlink ref="E27" r:id="rId1" display="https://www.digikey.com/scripts/DkSearch/dksus.dll?Detail&amp;itemSeq=255006924&amp;uq=636573277011681174"/>
+    <hyperlink ref="E10" r:id="rId2" display="https://www.digikey.com/scripts/DkSearch/dksus.dll?Detail&amp;itemSeq=255582543&amp;uq=636573277011711177"/>
+    <hyperlink ref="E25" r:id="rId3" display="https://www.digikey.com/scripts/DkSearch/dksus.dll?Detail&amp;itemSeq=255006885&amp;uq=636573277011671173"/>
+    <hyperlink ref="E13" r:id="rId4" display="https://www.digikey.com/product-detail/en/on-semiconductor/MMBT2222LT1G/MMBT2222LT1GOSCT-ND/1139808"/>
+    <hyperlink ref="E28" r:id="rId5" display="https://www.digikey.com/scripts/DkSearch/dksus.dll?Detail&amp;itemSeq=255577954&amp;uq=636573292806079726"/>
+    <hyperlink ref="E24" r:id="rId6" display="https://www.digikey.com/scripts/DkSearch/dksus.dll?Detail&amp;itemSeq=255007731&amp;uq=636573292806049726"/>
+    <hyperlink ref="E22" r:id="rId7" display="https://www.digikey.com/scripts/DkSearch/dksus.dll?Detail&amp;itemSeq=255007807&amp;uq=636573292806059726"/>
+    <hyperlink ref="E7" r:id="rId8" display="https://www.digikey.com/scripts/DkSearch/dksus.dll?Detail&amp;itemSeq=255007915&amp;uq=636573292806059726"/>
+    <hyperlink ref="E20" r:id="rId9" display="https://www.digikey.com/scripts/DkSearch/dksus.dll?Detail&amp;itemSeq=255008032&amp;uq=636573292806069726"/>
+    <hyperlink ref="E18" r:id="rId10" display="https://www.digikey.com/scripts/DkSearch/dksus.dll?Detail&amp;itemSeq=255287263&amp;uq=636573292806069726"/>
+    <hyperlink ref="E12" r:id="rId11" display="https://www.digikey.com/scripts/DkSearch/dksus.dll?Detail&amp;itemSeq=255683609&amp;uq=636573305216640966"/>
+    <hyperlink ref="E19" r:id="rId12" display="https://www.digikey.com/scripts/DkSearch/dksus.dll?Detail&amp;itemSeq=255008508&amp;uq=636573292806069726"/>
+    <hyperlink ref="E6" r:id="rId13" display="https://www.digikey.com/scripts/DkSearch/dksus.dll?Detail&amp;itemSeq=255685923&amp;uq=636573315130419726"/>
+    <hyperlink ref="E9" r:id="rId14" display="https://www.digikey.com/scripts/DkSearch/dksus.dll?Detail&amp;itemSeq=255686028&amp;uq=636573315948419447"/>
+    <hyperlink ref="E8" r:id="rId15" display="https://www.digikey.com/scripts/DkSearch/dksus.dll?Detail&amp;itemSeq=255686232&amp;uq=636573317079069726"/>
     <hyperlink ref="E3" r:id="rId16" display="https://www.digikey.com/scripts/DkSearch/dksus.dll?Detail&amp;itemSeq=255687110&amp;uq=636573319776344879"/>
-    <hyperlink ref="E6" r:id="rId17" display="https://www.digikey.com/scripts/DkSearch/dksus.dll?Detail&amp;itemSeq=255687461&amp;uq=636573320529169726"/>
-    <hyperlink ref="E8" r:id="rId18" display="https://www.digikey.com/scripts/DkSearch/dksus.dll?Detail&amp;itemSeq=255687743&amp;uq=636573321888037133"/>
-    <hyperlink ref="E10" r:id="rId19" display="https://www.digikey.com/scripts/DkSearch/dksus.dll?Detail&amp;itemSeq=255687905&amp;uq=636573322862249726"/>
-    <hyperlink ref="E4" r:id="rId20" display="https://www.digikey.com/scripts/DkSearch/dksus.dll?Detail&amp;itemSeq=255688809&amp;uq=636573327832494815"/>
-    <hyperlink ref="E5" r:id="rId21" display="https://www.digikey.com/scripts/DkSearch/dksus.dll?Detail&amp;itemSeq=255688956&amp;uq=636573328681559713"/>
-    <hyperlink ref="E7" r:id="rId22" display="https://www.digikey.com/scripts/DkSearch/dksus.dll?Detail&amp;itemSeq=255689053&amp;uq=636573329310919726"/>
-    <hyperlink ref="E9" r:id="rId23" display="https://www.digikey.com/scripts/DkSearch/dksus.dll?Detail&amp;itemSeq=255689221&amp;uq=636573330063847928"/>
+    <hyperlink ref="E5" r:id="rId17" display="https://www.digikey.com/scripts/DkSearch/dksus.dll?Detail&amp;itemSeq=255687461&amp;uq=636573320529169726"/>
+    <hyperlink ref="E2" r:id="rId18" display="https://www.digikey.com/scripts/DkSearch/dksus.dll?Detail&amp;itemSeq=255687743&amp;uq=636573321888037133"/>
+    <hyperlink ref="E4" r:id="rId19" display="https://www.digikey.com/scripts/DkSearch/dksus.dll?Detail&amp;itemSeq=255687905&amp;uq=636573322862249726"/>
+    <hyperlink ref="E14" r:id="rId20" display="https://www.digikey.com/scripts/DkSearch/dksus.dll?Detail&amp;itemSeq=255688809&amp;uq=636573327832494815"/>
+    <hyperlink ref="E17" r:id="rId21" display="https://www.digikey.com/scripts/DkSearch/dksus.dll?Detail&amp;itemSeq=255688956&amp;uq=636573328681559713"/>
+    <hyperlink ref="E15" r:id="rId22" display="https://www.digikey.com/scripts/DkSearch/dksus.dll?Detail&amp;itemSeq=255689053&amp;uq=636573329310919726"/>
+    <hyperlink ref="E16" r:id="rId23" display="https://www.digikey.com/scripts/DkSearch/dksus.dll?Detail&amp;itemSeq=255689221&amp;uq=636573330063847928"/>
     <hyperlink ref="E30" r:id="rId24" display="https://www.digikey.com/scripts/DkSearch/dksus.dll?Detail&amp;itemSeq=255712800&amp;uq=636573577435916489"/>
-    <hyperlink ref="E26" r:id="rId25" display="https://www.digikey.com/scripts/DkSearch/dksus.dll?Detail&amp;itemSeq=255882403&amp;uq=636583008495157306"/>
-    <hyperlink ref="E11" r:id="rId26" display="https://www.digikey.com/scripts/DkSearch/dksus.dll?Detail&amp;itemSeq=256670207&amp;uq=636583008495177308"/>
+    <hyperlink ref="E23" r:id="rId25" display="https://www.digikey.com/scripts/DkSearch/dksus.dll?Detail&amp;itemSeq=255882403&amp;uq=636583008495157306"/>
+    <hyperlink ref="E26" r:id="rId26" display="https://www.digikey.com/scripts/DkSearch/dksus.dll?Detail&amp;itemSeq=256670207&amp;uq=636583008495177308"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId27"/>

--- a/BillOfMaterials/P6_BOM.xlsx
+++ b/BillOfMaterials/P6_BOM.xlsx
@@ -9,11 +9,12 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="7275" windowHeight="7500" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="7275" windowHeight="7500" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="V1" sheetId="1" r:id="rId1"/>
     <sheet name="V3" sheetId="3" r:id="rId2"/>
+    <sheet name="V4" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="171027"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="296" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="459" uniqueCount="121">
   <si>
     <t>C10</t>
   </si>
@@ -343,6 +344,51 @@
   </si>
   <si>
     <t>EXTENDED PRICE</t>
+  </si>
+  <si>
+    <t>DIGIKEY SHIPPING</t>
+  </si>
+  <si>
+    <t>MOUNTING LEASH</t>
+  </si>
+  <si>
+    <t>SELL PRICE</t>
+  </si>
+  <si>
+    <t>PROFIT</t>
+  </si>
+  <si>
+    <t>VELCRO WRAP</t>
+  </si>
+  <si>
+    <t>VELCRO STICKY</t>
+  </si>
+  <si>
+    <t>INVESTMENT</t>
+  </si>
+  <si>
+    <t>QTY PURCHASED</t>
+  </si>
+  <si>
+    <t>PRICE @ QTY PURCHASED</t>
+  </si>
+  <si>
+    <t>QTY REQUIRED</t>
+  </si>
+  <si>
+    <t>PRICE PER VARIO</t>
+  </si>
+  <si>
+    <t>GROSS</t>
+  </si>
+  <si>
+    <t>NET</t>
+  </si>
+  <si>
+    <t>PRODUCTION</t>
+  </si>
+  <si>
+    <t>LISTING FEES</t>
   </si>
 </sst>
 </file>
@@ -353,7 +399,7 @@
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="_(&quot;$&quot;* #,##0.0000_);_(&quot;$&quot;* \(#,##0.0000\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -386,21 +432,133 @@
       <name val="Consolas"/>
       <family val="3"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0" tint="-0.249977111117893"/>
+      <name val="Consolas"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0" tint="-0.249977111117893"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="8">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -409,7 +567,7 @@
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -431,6 +589,111 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="44" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="44" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="44" fontId="4" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="44" fontId="4" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="44" fontId="4" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="44" fontId="8" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1730,7 +1993,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K47"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView topLeftCell="A14" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
@@ -1813,11 +2076,11 @@
         <v>1.43E-2</v>
       </c>
       <c r="J2" s="8">
-        <f>H2*$B2</f>
+        <f t="shared" ref="J2:J30" si="0">H2*$B2</f>
         <v>9.6000000000000002E-2</v>
       </c>
       <c r="K2" s="8">
-        <f>I2*$B2</f>
+        <f t="shared" ref="K2:K30" si="1">I2*$B2</f>
         <v>4.2900000000000001E-2</v>
       </c>
     </row>
@@ -1850,11 +2113,11 @@
         <v>2.9000000000000001E-2</v>
       </c>
       <c r="J3" s="8">
-        <f>H3*$B3</f>
+        <f t="shared" si="0"/>
         <v>0.1</v>
       </c>
       <c r="K3" s="8">
-        <f>I3*$B3</f>
+        <f t="shared" si="1"/>
         <v>2.9000000000000001E-2</v>
       </c>
     </row>
@@ -1887,11 +2150,11 @@
         <v>1.43E-2</v>
       </c>
       <c r="J4" s="8">
-        <f>H4*$B4</f>
+        <f t="shared" si="0"/>
         <v>6.4000000000000001E-2</v>
       </c>
       <c r="K4" s="8">
-        <f>I4*$B4</f>
+        <f t="shared" si="1"/>
         <v>2.86E-2</v>
       </c>
     </row>
@@ -1924,11 +2187,11 @@
         <v>3.1300000000000001E-2</v>
       </c>
       <c r="J5" s="8">
-        <f>H5*$B5</f>
+        <f t="shared" si="0"/>
         <v>0.35000000000000003</v>
       </c>
       <c r="K5" s="8">
-        <f>I5*$B5</f>
+        <f t="shared" si="1"/>
         <v>0.1565</v>
       </c>
     </row>
@@ -1961,11 +2224,11 @@
         <v>0.317</v>
       </c>
       <c r="J6" s="8">
-        <f>H6*$B6</f>
+        <f t="shared" si="0"/>
         <v>0.44</v>
       </c>
       <c r="K6" s="8">
-        <f>I6*$B6</f>
+        <f t="shared" si="1"/>
         <v>0.317</v>
       </c>
     </row>
@@ -1998,11 +2261,11 @@
         <v>0.32100000000000001</v>
       </c>
       <c r="J7" s="8">
-        <f>H7*$B7</f>
+        <f t="shared" si="0"/>
         <v>0.43</v>
       </c>
       <c r="K7" s="8">
-        <f>I7*$B7</f>
+        <f t="shared" si="1"/>
         <v>0.32100000000000001</v>
       </c>
     </row>
@@ -2035,11 +2298,11 @@
         <v>0.24279999999999999</v>
       </c>
       <c r="J8" s="8">
-        <f>H8*$B8</f>
+        <f t="shared" si="0"/>
         <v>0.63400000000000001</v>
       </c>
       <c r="K8" s="8">
-        <f>I8*$B8</f>
+        <f t="shared" si="1"/>
         <v>0.48559999999999998</v>
       </c>
     </row>
@@ -2072,11 +2335,11 @@
         <v>0.35599999999999998</v>
       </c>
       <c r="J9" s="8">
-        <f>H9*$B9</f>
+        <f t="shared" si="0"/>
         <v>0.5</v>
       </c>
       <c r="K9" s="8">
-        <f>I9*$B9</f>
+        <f t="shared" si="1"/>
         <v>0.35599999999999998</v>
       </c>
     </row>
@@ -2109,11 +2372,11 @@
         <v>3.2370000000000001</v>
       </c>
       <c r="J10" s="8">
-        <f>H10*$B10</f>
+        <f t="shared" si="0"/>
         <v>3.6</v>
       </c>
       <c r="K10" s="8">
-        <f>I10*$B10</f>
+        <f t="shared" si="1"/>
         <v>3.2370000000000001</v>
       </c>
     </row>
@@ -2146,11 +2409,11 @@
         <v>7.43</v>
       </c>
       <c r="J11" s="8">
-        <f>H11*$B11</f>
+        <f t="shared" si="0"/>
         <v>7.43</v>
       </c>
       <c r="K11" s="8">
-        <f>I11*$B11</f>
+        <f t="shared" si="1"/>
         <v>7.43</v>
       </c>
     </row>
@@ -2183,11 +2446,11 @@
         <v>2.0630000000000002</v>
       </c>
       <c r="J12" s="8">
-        <f>H12*$B12</f>
+        <f t="shared" si="0"/>
         <v>2.27</v>
       </c>
       <c r="K12" s="8">
-        <f>I12*$B12</f>
+        <f t="shared" si="1"/>
         <v>2.0630000000000002</v>
       </c>
     </row>
@@ -2220,11 +2483,11 @@
         <v>0.115</v>
       </c>
       <c r="J13" s="8">
-        <f>H13*$B13</f>
+        <f t="shared" si="0"/>
         <v>0.13</v>
       </c>
       <c r="K13" s="8">
-        <f>I13*$B13</f>
+        <f t="shared" si="1"/>
         <v>0.115</v>
       </c>
     </row>
@@ -2257,11 +2520,11 @@
         <v>4.5999999999999999E-3</v>
       </c>
       <c r="J14" s="8">
-        <f>H14*$B14</f>
+        <f t="shared" si="0"/>
         <v>3.3000000000000002E-2</v>
       </c>
       <c r="K14" s="8">
-        <f>I14*$B14</f>
+        <f t="shared" si="1"/>
         <v>1.38E-2</v>
       </c>
     </row>
@@ -2294,11 +2557,11 @@
         <v>4.5999999999999999E-3</v>
       </c>
       <c r="J15" s="8">
-        <f>H15*$B15</f>
+        <f t="shared" si="0"/>
         <v>4.3999999999999997E-2</v>
       </c>
       <c r="K15" s="8">
-        <f>I15*$B15</f>
+        <f t="shared" si="1"/>
         <v>1.84E-2</v>
       </c>
     </row>
@@ -2331,11 +2594,11 @@
         <v>4.5999999999999999E-3</v>
       </c>
       <c r="J16" s="8">
-        <f>H16*$B16</f>
+        <f t="shared" si="0"/>
         <v>3.3000000000000002E-2</v>
       </c>
       <c r="K16" s="8">
-        <f>I16*$B16</f>
+        <f t="shared" si="1"/>
         <v>1.38E-2</v>
       </c>
     </row>
@@ -2368,11 +2631,11 @@
         <v>1.0999999999999999E-2</v>
       </c>
       <c r="J17" s="8">
-        <f>H17*$B17</f>
+        <f t="shared" si="0"/>
         <v>0.1</v>
       </c>
       <c r="K17" s="8">
-        <f>I17*$B17</f>
+        <f t="shared" si="1"/>
         <v>1.0999999999999999E-2</v>
       </c>
     </row>
@@ -2405,11 +2668,11 @@
         <v>0.46300000000000002</v>
       </c>
       <c r="J18" s="8">
-        <f>H18*$B18</f>
+        <f t="shared" si="0"/>
         <v>0.48</v>
       </c>
       <c r="K18" s="8">
-        <f>I18*$B18</f>
+        <f t="shared" si="1"/>
         <v>0.46300000000000002</v>
       </c>
     </row>
@@ -2442,11 +2705,11 @@
         <v>0.499</v>
       </c>
       <c r="J19" s="8">
-        <f>H19*$B19</f>
+        <f t="shared" si="0"/>
         <v>0.52</v>
       </c>
       <c r="K19" s="8">
-        <f>I19*$B19</f>
+        <f t="shared" si="1"/>
         <v>0.499</v>
       </c>
     </row>
@@ -2479,11 +2742,11 @@
         <v>2.8832</v>
       </c>
       <c r="J20" s="8">
-        <f>H20*$B20</f>
+        <f t="shared" si="0"/>
         <v>3.18</v>
       </c>
       <c r="K20" s="8">
-        <f>I20*$B20</f>
+        <f t="shared" si="1"/>
         <v>2.8832</v>
       </c>
     </row>
@@ -2516,11 +2779,11 @@
         <v>6.5250000000000004</v>
       </c>
       <c r="J21" s="8">
-        <f>H21*$B21</f>
+        <f t="shared" si="0"/>
         <v>10.5</v>
       </c>
       <c r="K21" s="8">
-        <f>I21*$B21</f>
+        <f t="shared" si="1"/>
         <v>6.5250000000000004</v>
       </c>
     </row>
@@ -2553,11 +2816,11 @@
         <v>0.36199999999999999</v>
       </c>
       <c r="J22" s="8">
-        <f>H22*$B22</f>
+        <f t="shared" si="0"/>
         <v>0.48</v>
       </c>
       <c r="K22" s="8">
-        <f>I22*$B22</f>
+        <f t="shared" si="1"/>
         <v>0.36199999999999999</v>
       </c>
     </row>
@@ -2590,11 +2853,11 @@
         <v>0.27479999999999999</v>
       </c>
       <c r="J23" s="8">
-        <f>H23*$B23</f>
+        <f t="shared" si="0"/>
         <v>0.56999999999999995</v>
       </c>
       <c r="K23" s="8">
-        <f>I23*$B23</f>
+        <f t="shared" si="1"/>
         <v>0.54959999999999998</v>
       </c>
     </row>
@@ -2627,11 +2890,11 @@
         <v>0.49840000000000001</v>
       </c>
       <c r="J24" s="8">
-        <f>H24*$B24</f>
+        <f t="shared" si="0"/>
         <v>0.59</v>
       </c>
       <c r="K24" s="8">
-        <f>I24*$B24</f>
+        <f t="shared" si="1"/>
         <v>0.49840000000000001</v>
       </c>
     </row>
@@ -2664,11 +2927,11 @@
         <v>0.54700000000000004</v>
       </c>
       <c r="J25" s="8">
-        <f>H25*$B25</f>
+        <f t="shared" si="0"/>
         <v>0.57999999999999996</v>
       </c>
       <c r="K25" s="8">
-        <f>I25*$B25</f>
+        <f t="shared" si="1"/>
         <v>0.54700000000000004</v>
       </c>
     </row>
@@ -2701,11 +2964,11 @@
         <v>0.495</v>
       </c>
       <c r="J26" s="8">
-        <f>H26*$B26</f>
+        <f t="shared" si="0"/>
         <v>0.59</v>
       </c>
       <c r="K26" s="8">
-        <f>I26*$B26</f>
+        <f t="shared" si="1"/>
         <v>0.495</v>
       </c>
     </row>
@@ -2738,11 +3001,11 @@
         <v>0.437</v>
       </c>
       <c r="J27" s="8">
-        <f>H27*$B27</f>
+        <f t="shared" si="0"/>
         <v>0.46</v>
       </c>
       <c r="K27" s="8">
-        <f>I27*$B27</f>
+        <f t="shared" si="1"/>
         <v>0.437</v>
       </c>
     </row>
@@ -2775,11 +3038,11 @@
         <v>0.56999999999999995</v>
       </c>
       <c r="J28" s="8">
-        <f>H28*$B28</f>
+        <f t="shared" si="0"/>
         <v>0.61</v>
       </c>
       <c r="K28" s="8">
-        <f>I28*$B28</f>
+        <f t="shared" si="1"/>
         <v>0.56999999999999995</v>
       </c>
     </row>
@@ -2808,11 +3071,11 @@
         <v>2.9350000000000001</v>
       </c>
       <c r="J29" s="8">
-        <f>H29*$B29</f>
+        <f t="shared" si="0"/>
         <v>29.35</v>
       </c>
       <c r="K29" s="8">
-        <f>I29*$B29</f>
+        <f t="shared" si="1"/>
         <v>2.9350000000000001</v>
       </c>
     </row>
@@ -2842,11 +3105,11 @@
         <v>5.95</v>
       </c>
       <c r="J30" s="8">
-        <f>H30*$B30</f>
+        <f t="shared" si="0"/>
         <v>5.95</v>
       </c>
       <c r="K30" s="8">
-        <f>I30*$B30</f>
+        <f t="shared" si="1"/>
         <v>5.95</v>
       </c>
     </row>
@@ -2978,4 +3241,1492 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId27"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:M51"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="9.75" style="1" customWidth="1"/>
+    <col min="2" max="2" width="11.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8" style="1" customWidth="1"/>
+    <col min="4" max="4" width="17.5" style="1" customWidth="1"/>
+    <col min="5" max="5" width="23.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="22.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="16.25" style="1" customWidth="1"/>
+    <col min="10" max="10" width="16.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="16.25" style="1" customWidth="1"/>
+    <col min="12" max="12" width="11.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="9.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="16384" width="9" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A1" s="13" t="s">
+        <v>115</v>
+      </c>
+      <c r="B1" s="13" t="s">
+        <v>113</v>
+      </c>
+      <c r="C1" s="13" t="s">
+        <v>92</v>
+      </c>
+      <c r="D1" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="E1" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="F1" s="14" t="s">
+        <v>50</v>
+      </c>
+      <c r="G1" s="14" t="s">
+        <v>51</v>
+      </c>
+      <c r="H1" s="15" t="s">
+        <v>85</v>
+      </c>
+      <c r="I1" s="15" t="s">
+        <v>84</v>
+      </c>
+      <c r="J1" s="17" t="s">
+        <v>105</v>
+      </c>
+      <c r="K1" s="24" t="s">
+        <v>114</v>
+      </c>
+      <c r="L1" s="14" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A2" s="25">
+        <v>3</v>
+      </c>
+      <c r="B2" s="25">
+        <v>30</v>
+      </c>
+      <c r="C2" s="25" t="s">
+        <v>88</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="G2" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="H2" s="16">
+        <v>3.2000000000000001E-2</v>
+      </c>
+      <c r="I2" s="16">
+        <v>1.43E-2</v>
+      </c>
+      <c r="J2" s="18">
+        <f t="shared" ref="J2:J29" si="0">H2*$A2</f>
+        <v>9.6000000000000002E-2</v>
+      </c>
+      <c r="K2" s="40">
+        <f>0.032*30</f>
+        <v>0.96</v>
+      </c>
+      <c r="L2" s="8">
+        <f>K2/10</f>
+        <v>9.6000000000000002E-2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A3" s="25">
+        <v>1</v>
+      </c>
+      <c r="B3" s="25">
+        <v>10</v>
+      </c>
+      <c r="C3" s="25" t="s">
+        <v>87</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="G3" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="H3" s="16">
+        <v>0.1</v>
+      </c>
+      <c r="I3" s="16">
+        <v>2.9000000000000001E-2</v>
+      </c>
+      <c r="J3" s="18">
+        <f t="shared" si="0"/>
+        <v>0.1</v>
+      </c>
+      <c r="K3" s="29">
+        <f>0.029*10</f>
+        <v>0.29000000000000004</v>
+      </c>
+      <c r="L3" s="8">
+        <f t="shared" ref="L3:L32" si="1">K3/10</f>
+        <v>2.9000000000000005E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A4" s="25">
+        <v>2</v>
+      </c>
+      <c r="B4" s="25">
+        <v>20</v>
+      </c>
+      <c r="C4" s="25" t="s">
+        <v>88</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="G4" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="H4" s="16">
+        <v>3.2000000000000001E-2</v>
+      </c>
+      <c r="I4" s="16">
+        <v>1.43E-2</v>
+      </c>
+      <c r="J4" s="18">
+        <f t="shared" si="0"/>
+        <v>6.4000000000000001E-2</v>
+      </c>
+      <c r="K4" s="40">
+        <f>0.032*20</f>
+        <v>0.64</v>
+      </c>
+      <c r="L4" s="8">
+        <f t="shared" si="1"/>
+        <v>6.4000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="25">
+        <v>5</v>
+      </c>
+      <c r="B5" s="25">
+        <v>50</v>
+      </c>
+      <c r="C5" s="26" t="s">
+        <v>88</v>
+      </c>
+      <c r="D5" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="E5" s="20" t="s">
+        <v>75</v>
+      </c>
+      <c r="F5" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="G5" s="21" t="s">
+        <v>52</v>
+      </c>
+      <c r="H5" s="22">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="I5" s="22">
+        <v>3.1300000000000001E-2</v>
+      </c>
+      <c r="J5" s="23">
+        <f t="shared" si="0"/>
+        <v>0.35000000000000003</v>
+      </c>
+      <c r="K5" s="41">
+        <f>0.07*50</f>
+        <v>3.5000000000000004</v>
+      </c>
+      <c r="L5" s="8">
+        <f t="shared" si="1"/>
+        <v>0.35000000000000003</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="25">
+        <v>1</v>
+      </c>
+      <c r="B6" s="25">
+        <v>10</v>
+      </c>
+      <c r="C6" s="25" t="s">
+        <v>87</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="G6" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="H6" s="16">
+        <v>0.44</v>
+      </c>
+      <c r="I6" s="16">
+        <v>0.317</v>
+      </c>
+      <c r="J6" s="18">
+        <f t="shared" si="0"/>
+        <v>0.44</v>
+      </c>
+      <c r="K6" s="29">
+        <f>0.317*10</f>
+        <v>3.17</v>
+      </c>
+      <c r="L6" s="8">
+        <f t="shared" si="1"/>
+        <v>0.317</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="25">
+        <v>1</v>
+      </c>
+      <c r="B7" s="25">
+        <v>10</v>
+      </c>
+      <c r="C7" s="25" t="s">
+        <v>87</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="G7" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="H7" s="16">
+        <v>0.43</v>
+      </c>
+      <c r="I7" s="16">
+        <v>0.32100000000000001</v>
+      </c>
+      <c r="J7" s="18">
+        <f t="shared" si="0"/>
+        <v>0.43</v>
+      </c>
+      <c r="K7" s="29">
+        <f>0.321*10</f>
+        <v>3.21</v>
+      </c>
+      <c r="L7" s="8">
+        <f t="shared" si="1"/>
+        <v>0.32100000000000001</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="25">
+        <v>2</v>
+      </c>
+      <c r="B8" s="25">
+        <v>25</v>
+      </c>
+      <c r="C8" s="25" t="s">
+        <v>93</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="G8" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="H8" s="16">
+        <v>0.317</v>
+      </c>
+      <c r="I8" s="16">
+        <v>0.24279999999999999</v>
+      </c>
+      <c r="J8" s="18">
+        <f t="shared" si="0"/>
+        <v>0.63400000000000001</v>
+      </c>
+      <c r="K8" s="40">
+        <f>0.2428*25</f>
+        <v>6.0699999999999994</v>
+      </c>
+      <c r="L8" s="8">
+        <f t="shared" si="1"/>
+        <v>0.60699999999999998</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="25">
+        <v>1</v>
+      </c>
+      <c r="B9" s="25">
+        <v>10</v>
+      </c>
+      <c r="C9" s="25" t="s">
+        <v>87</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="G9" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="H9" s="16">
+        <v>0.5</v>
+      </c>
+      <c r="I9" s="16">
+        <v>0.35599999999999998</v>
+      </c>
+      <c r="J9" s="18">
+        <f t="shared" si="0"/>
+        <v>0.5</v>
+      </c>
+      <c r="K9" s="29">
+        <f>0.356*10</f>
+        <v>3.5599999999999996</v>
+      </c>
+      <c r="L9" s="8">
+        <f t="shared" si="1"/>
+        <v>0.35599999999999998</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="25">
+        <v>1</v>
+      </c>
+      <c r="B10" s="25">
+        <v>10</v>
+      </c>
+      <c r="C10" s="25" t="s">
+        <v>87</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E10" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="G10" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="H10" s="16">
+        <v>3.6</v>
+      </c>
+      <c r="I10" s="16">
+        <v>3.2370000000000001</v>
+      </c>
+      <c r="J10" s="18">
+        <f t="shared" si="0"/>
+        <v>3.6</v>
+      </c>
+      <c r="K10" s="29">
+        <f>3.237*10</f>
+        <v>32.370000000000005</v>
+      </c>
+      <c r="L10" s="8">
+        <f t="shared" si="1"/>
+        <v>3.2370000000000005</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="25">
+        <v>1</v>
+      </c>
+      <c r="B11" s="25">
+        <v>10</v>
+      </c>
+      <c r="C11" s="25" t="s">
+        <v>90</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="G11" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="H11" s="16">
+        <v>7.43</v>
+      </c>
+      <c r="I11" s="16">
+        <v>7.43</v>
+      </c>
+      <c r="J11" s="18">
+        <f t="shared" si="0"/>
+        <v>7.43</v>
+      </c>
+      <c r="K11" s="29">
+        <f>7.43*10</f>
+        <v>74.3</v>
+      </c>
+      <c r="L11" s="8">
+        <f t="shared" si="1"/>
+        <v>7.43</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="25">
+        <v>1</v>
+      </c>
+      <c r="B12" s="25">
+        <v>10</v>
+      </c>
+      <c r="C12" s="25" t="s">
+        <v>87</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E12" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G12" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="H12" s="16">
+        <v>2.27</v>
+      </c>
+      <c r="I12" s="16">
+        <v>2.0630000000000002</v>
+      </c>
+      <c r="J12" s="18">
+        <f t="shared" si="0"/>
+        <v>2.27</v>
+      </c>
+      <c r="K12" s="29">
+        <f>2.063*10</f>
+        <v>20.630000000000003</v>
+      </c>
+      <c r="L12" s="8">
+        <f t="shared" si="1"/>
+        <v>2.0630000000000002</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="25">
+        <v>1</v>
+      </c>
+      <c r="B13" s="25">
+        <v>10</v>
+      </c>
+      <c r="C13" s="25" t="s">
+        <v>87</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E13" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="G13" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="H13" s="16">
+        <v>0.13</v>
+      </c>
+      <c r="I13" s="16">
+        <v>0.115</v>
+      </c>
+      <c r="J13" s="18">
+        <f t="shared" si="0"/>
+        <v>0.13</v>
+      </c>
+      <c r="K13" s="29">
+        <f>0.115*10</f>
+        <v>1.1500000000000001</v>
+      </c>
+      <c r="L13" s="8">
+        <f t="shared" si="1"/>
+        <v>0.11500000000000002</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A14" s="25">
+        <v>3</v>
+      </c>
+      <c r="B14" s="25">
+        <v>30</v>
+      </c>
+      <c r="C14" s="25" t="s">
+        <v>88</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E14" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="G14" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="H14" s="16">
+        <v>1.0999999999999999E-2</v>
+      </c>
+      <c r="I14" s="16">
+        <v>4.5999999999999999E-3</v>
+      </c>
+      <c r="J14" s="18">
+        <f t="shared" si="0"/>
+        <v>3.3000000000000002E-2</v>
+      </c>
+      <c r="K14" s="40">
+        <f>0.011*30</f>
+        <v>0.32999999999999996</v>
+      </c>
+      <c r="L14" s="8">
+        <f t="shared" si="1"/>
+        <v>3.2999999999999995E-2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A15" s="25">
+        <v>4</v>
+      </c>
+      <c r="B15" s="25">
+        <v>40</v>
+      </c>
+      <c r="C15" s="25" t="s">
+        <v>88</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="E15" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="G15" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="H15" s="16">
+        <v>1.0999999999999999E-2</v>
+      </c>
+      <c r="I15" s="16">
+        <v>4.5999999999999999E-3</v>
+      </c>
+      <c r="J15" s="18">
+        <f t="shared" si="0"/>
+        <v>4.3999999999999997E-2</v>
+      </c>
+      <c r="K15" s="40">
+        <f>0.011*40</f>
+        <v>0.43999999999999995</v>
+      </c>
+      <c r="L15" s="8">
+        <f t="shared" si="1"/>
+        <v>4.3999999999999997E-2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="25">
+        <v>3</v>
+      </c>
+      <c r="B16" s="25">
+        <v>30</v>
+      </c>
+      <c r="C16" s="25" t="s">
+        <v>88</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E16" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="G16" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="H16" s="16">
+        <v>1.0999999999999999E-2</v>
+      </c>
+      <c r="I16" s="16">
+        <v>4.5999999999999999E-3</v>
+      </c>
+      <c r="J16" s="18">
+        <f t="shared" si="0"/>
+        <v>3.3000000000000002E-2</v>
+      </c>
+      <c r="K16" s="40">
+        <f>0.011*30</f>
+        <v>0.32999999999999996</v>
+      </c>
+      <c r="L16" s="8">
+        <f t="shared" si="1"/>
+        <v>3.2999999999999995E-2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="25">
+        <v>1</v>
+      </c>
+      <c r="B17" s="25">
+        <v>10</v>
+      </c>
+      <c r="C17" s="25" t="s">
+        <v>87</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E17" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="G17" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="H17" s="16">
+        <v>0.1</v>
+      </c>
+      <c r="I17" s="16">
+        <v>1.0999999999999999E-2</v>
+      </c>
+      <c r="J17" s="18">
+        <f t="shared" si="0"/>
+        <v>0.1</v>
+      </c>
+      <c r="K17" s="29">
+        <f>0.011*10</f>
+        <v>0.10999999999999999</v>
+      </c>
+      <c r="L17" s="8">
+        <f t="shared" si="1"/>
+        <v>1.0999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A18" s="25">
+        <v>1</v>
+      </c>
+      <c r="B18" s="25">
+        <v>10</v>
+      </c>
+      <c r="C18" s="25" t="s">
+        <v>87</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="E18" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="G18" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="H18" s="16">
+        <v>0.48</v>
+      </c>
+      <c r="I18" s="16">
+        <v>0.46300000000000002</v>
+      </c>
+      <c r="J18" s="18">
+        <f t="shared" si="0"/>
+        <v>0.48</v>
+      </c>
+      <c r="K18" s="29">
+        <f>0.463*10</f>
+        <v>4.63</v>
+      </c>
+      <c r="L18" s="8">
+        <f t="shared" si="1"/>
+        <v>0.46299999999999997</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="25">
+        <v>1</v>
+      </c>
+      <c r="B19" s="25">
+        <v>10</v>
+      </c>
+      <c r="C19" s="25" t="s">
+        <v>87</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="E19" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="G19" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="H19" s="16">
+        <v>0.52</v>
+      </c>
+      <c r="I19" s="16">
+        <v>0.499</v>
+      </c>
+      <c r="J19" s="18">
+        <f t="shared" si="0"/>
+        <v>0.52</v>
+      </c>
+      <c r="K19" s="29">
+        <f>0.499*10</f>
+        <v>4.99</v>
+      </c>
+      <c r="L19" s="8">
+        <f t="shared" si="1"/>
+        <v>0.499</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A20" s="25">
+        <v>1</v>
+      </c>
+      <c r="B20" s="25">
+        <v>10</v>
+      </c>
+      <c r="C20" s="25" t="s">
+        <v>91</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E20" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="F20" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G20" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="H20" s="16">
+        <v>3.18</v>
+      </c>
+      <c r="I20" s="16">
+        <v>2.8832</v>
+      </c>
+      <c r="J20" s="18">
+        <f t="shared" si="0"/>
+        <v>3.18</v>
+      </c>
+      <c r="K20" s="40">
+        <f>3.18*10</f>
+        <v>31.8</v>
+      </c>
+      <c r="L20" s="8">
+        <f t="shared" si="1"/>
+        <v>3.18</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="25">
+        <v>1</v>
+      </c>
+      <c r="B21" s="25">
+        <v>10</v>
+      </c>
+      <c r="C21" s="25" t="s">
+        <v>87</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="F21" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="G21" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="H21" s="16">
+        <v>10.5</v>
+      </c>
+      <c r="I21" s="16">
+        <v>6.5250000000000004</v>
+      </c>
+      <c r="J21" s="18">
+        <f t="shared" si="0"/>
+        <v>10.5</v>
+      </c>
+      <c r="K21" s="29">
+        <f>6.525*10</f>
+        <v>65.25</v>
+      </c>
+      <c r="L21" s="8">
+        <f t="shared" si="1"/>
+        <v>6.5250000000000004</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A22" s="25">
+        <v>1</v>
+      </c>
+      <c r="B22" s="25">
+        <v>10</v>
+      </c>
+      <c r="C22" s="25" t="s">
+        <v>87</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E22" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="F22" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="G22" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="H22" s="16">
+        <v>0.48</v>
+      </c>
+      <c r="I22" s="16">
+        <v>0.36199999999999999</v>
+      </c>
+      <c r="J22" s="18">
+        <f t="shared" si="0"/>
+        <v>0.48</v>
+      </c>
+      <c r="K22" s="29">
+        <f>0.362*10</f>
+        <v>3.62</v>
+      </c>
+      <c r="L22" s="8">
+        <f t="shared" si="1"/>
+        <v>0.36199999999999999</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A23" s="25">
+        <v>2</v>
+      </c>
+      <c r="B23" s="25">
+        <v>25</v>
+      </c>
+      <c r="C23" s="25" t="s">
+        <v>93</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="E23" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="F23" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="G23" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="H23" s="16">
+        <v>0.28499999999999998</v>
+      </c>
+      <c r="I23" s="16">
+        <v>0.27479999999999999</v>
+      </c>
+      <c r="J23" s="18">
+        <f t="shared" si="0"/>
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="K23" s="40">
+        <f>0.2748*25</f>
+        <v>6.87</v>
+      </c>
+      <c r="L23" s="8">
+        <f t="shared" si="1"/>
+        <v>0.68700000000000006</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="25">
+        <v>1</v>
+      </c>
+      <c r="B24" s="25">
+        <v>10</v>
+      </c>
+      <c r="C24" s="25" t="s">
+        <v>91</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E24" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="F24" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="G24" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="H24" s="16">
+        <v>0.59</v>
+      </c>
+      <c r="I24" s="16">
+        <v>0.49840000000000001</v>
+      </c>
+      <c r="J24" s="18">
+        <f t="shared" si="0"/>
+        <v>0.59</v>
+      </c>
+      <c r="K24" s="40">
+        <f>0.59*10</f>
+        <v>5.8999999999999995</v>
+      </c>
+      <c r="L24" s="8">
+        <f t="shared" si="1"/>
+        <v>0.59</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="25">
+        <v>1</v>
+      </c>
+      <c r="B25" s="25">
+        <v>10</v>
+      </c>
+      <c r="C25" s="25" t="s">
+        <v>87</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E25" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="F25" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="G25" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="H25" s="16">
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="I25" s="16">
+        <v>0.54700000000000004</v>
+      </c>
+      <c r="J25" s="18">
+        <f t="shared" si="0"/>
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="K25" s="29">
+        <f>0.547*10</f>
+        <v>5.4700000000000006</v>
+      </c>
+      <c r="L25" s="8">
+        <f t="shared" si="1"/>
+        <v>0.54700000000000004</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="25">
+        <v>1</v>
+      </c>
+      <c r="B26" s="25">
+        <v>10</v>
+      </c>
+      <c r="C26" s="25" t="s">
+        <v>87</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E26" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="F26" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="G26" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="H26" s="16">
+        <v>0.59</v>
+      </c>
+      <c r="I26" s="16">
+        <v>0.495</v>
+      </c>
+      <c r="J26" s="18">
+        <f t="shared" si="0"/>
+        <v>0.59</v>
+      </c>
+      <c r="K26" s="29">
+        <f>0.495*10</f>
+        <v>4.95</v>
+      </c>
+      <c r="L26" s="8">
+        <f t="shared" si="1"/>
+        <v>0.495</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A27" s="27">
+        <v>1</v>
+      </c>
+      <c r="B27" s="27">
+        <v>10</v>
+      </c>
+      <c r="C27" s="27" t="s">
+        <v>87</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E27" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="F27" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="G27" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="H27" s="16">
+        <v>0.46</v>
+      </c>
+      <c r="I27" s="16">
+        <v>0.437</v>
+      </c>
+      <c r="J27" s="18">
+        <f t="shared" si="0"/>
+        <v>0.46</v>
+      </c>
+      <c r="K27" s="29">
+        <f>0.437*10</f>
+        <v>4.37</v>
+      </c>
+      <c r="L27" s="8">
+        <f t="shared" si="1"/>
+        <v>0.437</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A28" s="27">
+        <v>1</v>
+      </c>
+      <c r="B28" s="27">
+        <v>10</v>
+      </c>
+      <c r="C28" s="27" t="s">
+        <v>89</v>
+      </c>
+      <c r="E28" s="4"/>
+      <c r="F28" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="G28" s="10" t="s">
+        <v>95</v>
+      </c>
+      <c r="H28" s="16">
+        <v>29.35</v>
+      </c>
+      <c r="I28" s="16">
+        <f>29.35/10</f>
+        <v>2.9350000000000001</v>
+      </c>
+      <c r="J28" s="18">
+        <f t="shared" si="0"/>
+        <v>29.35</v>
+      </c>
+      <c r="K28" s="29">
+        <f>29.35</f>
+        <v>29.35</v>
+      </c>
+      <c r="L28" s="8">
+        <f t="shared" si="1"/>
+        <v>2.9350000000000001</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A29" s="27">
+        <v>1</v>
+      </c>
+      <c r="B29" s="27">
+        <v>10</v>
+      </c>
+      <c r="C29" s="27" t="s">
+        <v>90</v>
+      </c>
+      <c r="E29" s="4">
+        <v>1570</v>
+      </c>
+      <c r="F29" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="G29" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="H29" s="16">
+        <v>5.95</v>
+      </c>
+      <c r="I29" s="16">
+        <v>5.95</v>
+      </c>
+      <c r="J29" s="18">
+        <f t="shared" si="0"/>
+        <v>5.95</v>
+      </c>
+      <c r="K29" s="29">
+        <f>5.95*10</f>
+        <v>59.5</v>
+      </c>
+      <c r="L29" s="8">
+        <f t="shared" si="1"/>
+        <v>5.95</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A30" s="27">
+        <v>1</v>
+      </c>
+      <c r="B30" s="27">
+        <v>5</v>
+      </c>
+      <c r="C30" s="27"/>
+      <c r="E30" s="4"/>
+      <c r="F30" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="G30" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="H30" s="5"/>
+      <c r="I30" s="5"/>
+      <c r="J30" s="18"/>
+      <c r="K30" s="29">
+        <f>(4.67/2)*10</f>
+        <v>23.35</v>
+      </c>
+      <c r="L30" s="8">
+        <f t="shared" si="1"/>
+        <v>2.335</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A31" s="27">
+        <v>1</v>
+      </c>
+      <c r="B31" s="27">
+        <v>5</v>
+      </c>
+      <c r="C31" s="28"/>
+      <c r="E31" s="4"/>
+      <c r="F31" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="G31" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="H31" s="5"/>
+      <c r="I31" s="5"/>
+      <c r="J31" s="18"/>
+      <c r="K31" s="29">
+        <f>(2.85/2)*10</f>
+        <v>14.25</v>
+      </c>
+      <c r="L31" s="8">
+        <f t="shared" si="1"/>
+        <v>1.425</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A32" s="27">
+        <v>1</v>
+      </c>
+      <c r="B32" s="27">
+        <v>2</v>
+      </c>
+      <c r="C32" s="27"/>
+      <c r="E32" s="4"/>
+      <c r="F32" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="G32" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="H32" s="5"/>
+      <c r="I32" s="5"/>
+      <c r="J32" s="18"/>
+      <c r="K32" s="29">
+        <f>5.6*2</f>
+        <v>11.2</v>
+      </c>
+      <c r="L32" s="8">
+        <f t="shared" si="1"/>
+        <v>1.1199999999999999</v>
+      </c>
+    </row>
+    <row r="33" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A33" s="3"/>
+      <c r="B33" s="3"/>
+      <c r="C33" s="3"/>
+      <c r="E33" s="4"/>
+      <c r="F33" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="G33" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="H33" s="5"/>
+      <c r="I33" s="5"/>
+      <c r="J33" s="18"/>
+      <c r="K33" s="29">
+        <v>10</v>
+      </c>
+      <c r="L33" s="8">
+        <f>K33/10</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A34" s="2"/>
+      <c r="B34" s="2"/>
+      <c r="C34" s="2"/>
+    </row>
+    <row r="35" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A35" s="2"/>
+      <c r="B35" s="2"/>
+      <c r="C35" s="2"/>
+      <c r="J35" s="19">
+        <f>SUM(J2:J33)</f>
+        <v>69.504000000000005</v>
+      </c>
+      <c r="K35" s="30" t="s">
+        <v>119</v>
+      </c>
+      <c r="L35" s="31">
+        <f>SUM(L2:L34)</f>
+        <v>43.655999999999992</v>
+      </c>
+    </row>
+    <row r="36" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A36" s="2"/>
+      <c r="B36" s="2"/>
+      <c r="C36" s="2"/>
+      <c r="K36" s="32" t="s">
+        <v>108</v>
+      </c>
+      <c r="L36" s="33">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="37" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A37" s="2"/>
+      <c r="B37" s="2"/>
+      <c r="C37" s="2"/>
+      <c r="K37" s="32" t="s">
+        <v>120</v>
+      </c>
+      <c r="L37" s="33">
+        <f>0.135*L36</f>
+        <v>13.365</v>
+      </c>
+    </row>
+    <row r="38" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A38" s="2"/>
+      <c r="B38" s="2"/>
+      <c r="C38" s="2"/>
+      <c r="K38" s="34" t="s">
+        <v>109</v>
+      </c>
+      <c r="L38" s="37">
+        <f>L36-L35-L37</f>
+        <v>41.979000000000006</v>
+      </c>
+    </row>
+    <row r="39" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A39" s="2"/>
+      <c r="B39" s="2"/>
+      <c r="C39" s="2"/>
+      <c r="K39" s="38" t="s">
+        <v>112</v>
+      </c>
+      <c r="L39" s="39">
+        <f>SUM(K2:K33)</f>
+        <v>436.56000000000006</v>
+      </c>
+      <c r="M39" s="8"/>
+    </row>
+    <row r="40" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A40" s="2"/>
+      <c r="B40" s="2"/>
+      <c r="C40" s="2"/>
+      <c r="K40" s="34" t="s">
+        <v>117</v>
+      </c>
+      <c r="L40" s="33">
+        <f>(L36-L37)*10</f>
+        <v>856.35</v>
+      </c>
+      <c r="M40" s="8"/>
+    </row>
+    <row r="41" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A41" s="2"/>
+      <c r="B41" s="2"/>
+      <c r="C41" s="2"/>
+      <c r="K41" s="35" t="s">
+        <v>118</v>
+      </c>
+      <c r="L41" s="36">
+        <f>L40-L39</f>
+        <v>419.78999999999996</v>
+      </c>
+    </row>
+    <row r="42" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A42" s="2"/>
+      <c r="B42" s="2"/>
+      <c r="C42" s="2"/>
+    </row>
+    <row r="43" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A43" s="2"/>
+      <c r="B43" s="2"/>
+      <c r="C43" s="2"/>
+      <c r="L43" s="42"/>
+    </row>
+    <row r="44" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A44" s="2"/>
+      <c r="B44" s="2"/>
+      <c r="C44" s="2"/>
+      <c r="L44" s="43"/>
+    </row>
+    <row r="45" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A45" s="2"/>
+      <c r="B45" s="2"/>
+      <c r="C45" s="2"/>
+      <c r="L45" s="8"/>
+    </row>
+    <row r="46" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A46" s="2"/>
+      <c r="B46" s="2"/>
+      <c r="C46" s="2"/>
+      <c r="L46" s="8"/>
+    </row>
+    <row r="47" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A47" s="2"/>
+      <c r="B47" s="2"/>
+      <c r="C47" s="2"/>
+    </row>
+    <row r="48" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A48" s="2"/>
+      <c r="B48" s="2"/>
+      <c r="C48" s="2"/>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A49" s="3"/>
+      <c r="B49" s="3"/>
+      <c r="C49" s="3"/>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A50" s="2"/>
+      <c r="B50" s="2"/>
+      <c r="C50" s="2"/>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A51" s="3"/>
+      <c r="B51" s="3"/>
+      <c r="C51" s="3"/>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="E27" r:id="rId1" display="https://www.digikey.com/scripts/DkSearch/dksus.dll?Detail&amp;itemSeq=255006924&amp;uq=636573277011681174"/>
+    <hyperlink ref="E10" r:id="rId2" display="https://www.digikey.com/scripts/DkSearch/dksus.dll?Detail&amp;itemSeq=255582543&amp;uq=636573277011711177"/>
+    <hyperlink ref="E25" r:id="rId3" display="https://www.digikey.com/scripts/DkSearch/dksus.dll?Detail&amp;itemSeq=255006885&amp;uq=636573277011671173"/>
+    <hyperlink ref="E13" r:id="rId4" display="https://www.digikey.com/product-detail/en/on-semiconductor/MMBT2222LT1G/MMBT2222LT1GOSCT-ND/1139808"/>
+    <hyperlink ref="E24" r:id="rId5" display="https://www.digikey.com/scripts/DkSearch/dksus.dll?Detail&amp;itemSeq=255007731&amp;uq=636573292806049726"/>
+    <hyperlink ref="E22" r:id="rId6" display="https://www.digikey.com/scripts/DkSearch/dksus.dll?Detail&amp;itemSeq=255007807&amp;uq=636573292806059726"/>
+    <hyperlink ref="E7" r:id="rId7" display="https://www.digikey.com/scripts/DkSearch/dksus.dll?Detail&amp;itemSeq=255007915&amp;uq=636573292806059726"/>
+    <hyperlink ref="E20" r:id="rId8" display="https://www.digikey.com/scripts/DkSearch/dksus.dll?Detail&amp;itemSeq=255008032&amp;uq=636573292806069726"/>
+    <hyperlink ref="E18" r:id="rId9" display="https://www.digikey.com/scripts/DkSearch/dksus.dll?Detail&amp;itemSeq=255287263&amp;uq=636573292806069726"/>
+    <hyperlink ref="E12" r:id="rId10" display="https://www.digikey.com/scripts/DkSearch/dksus.dll?Detail&amp;itemSeq=255683609&amp;uq=636573305216640966"/>
+    <hyperlink ref="E19" r:id="rId11" display="https://www.digikey.com/scripts/DkSearch/dksus.dll?Detail&amp;itemSeq=255008508&amp;uq=636573292806069726"/>
+    <hyperlink ref="E6" r:id="rId12" display="https://www.digikey.com/scripts/DkSearch/dksus.dll?Detail&amp;itemSeq=255685923&amp;uq=636573315130419726"/>
+    <hyperlink ref="E9" r:id="rId13" display="https://www.digikey.com/scripts/DkSearch/dksus.dll?Detail&amp;itemSeq=255686028&amp;uq=636573315948419447"/>
+    <hyperlink ref="E8" r:id="rId14" display="https://www.digikey.com/scripts/DkSearch/dksus.dll?Detail&amp;itemSeq=255686232&amp;uq=636573317079069726"/>
+    <hyperlink ref="E3" r:id="rId15" display="https://www.digikey.com/scripts/DkSearch/dksus.dll?Detail&amp;itemSeq=255687110&amp;uq=636573319776344879"/>
+    <hyperlink ref="E5" r:id="rId16" display="https://www.digikey.com/scripts/DkSearch/dksus.dll?Detail&amp;itemSeq=255687461&amp;uq=636573320529169726"/>
+    <hyperlink ref="E2" r:id="rId17" display="https://www.digikey.com/scripts/DkSearch/dksus.dll?Detail&amp;itemSeq=255687743&amp;uq=636573321888037133"/>
+    <hyperlink ref="E4" r:id="rId18" display="https://www.digikey.com/scripts/DkSearch/dksus.dll?Detail&amp;itemSeq=255687905&amp;uq=636573322862249726"/>
+    <hyperlink ref="E14" r:id="rId19" display="https://www.digikey.com/scripts/DkSearch/dksus.dll?Detail&amp;itemSeq=255688809&amp;uq=636573327832494815"/>
+    <hyperlink ref="E17" r:id="rId20" display="https://www.digikey.com/scripts/DkSearch/dksus.dll?Detail&amp;itemSeq=255688956&amp;uq=636573328681559713"/>
+    <hyperlink ref="E15" r:id="rId21" display="https://www.digikey.com/scripts/DkSearch/dksus.dll?Detail&amp;itemSeq=255689053&amp;uq=636573329310919726"/>
+    <hyperlink ref="E16" r:id="rId22" display="https://www.digikey.com/scripts/DkSearch/dksus.dll?Detail&amp;itemSeq=255689221&amp;uq=636573330063847928"/>
+    <hyperlink ref="E29" r:id="rId23" display="https://www.digikey.com/scripts/DkSearch/dksus.dll?Detail&amp;itemSeq=255712800&amp;uq=636573577435916489"/>
+    <hyperlink ref="E23" r:id="rId24" display="https://www.digikey.com/scripts/DkSearch/dksus.dll?Detail&amp;itemSeq=255882403&amp;uq=636583008495157306"/>
+    <hyperlink ref="E26" r:id="rId25" display="https://www.digikey.com/scripts/DkSearch/dksus.dll?Detail&amp;itemSeq=256670207&amp;uq=636583008495177308"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId26"/>
+</worksheet>
 </file>
--- a/BillOfMaterials/P6_BOM.xlsx
+++ b/BillOfMaterials/P6_BOM.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="459" uniqueCount="121">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="464" uniqueCount="125">
   <si>
     <t>C10</t>
   </si>
@@ -389,6 +389,18 @@
   </si>
   <si>
     <t>LISTING FEES</t>
+  </si>
+  <si>
+    <t>PCM12SMTR</t>
+  </si>
+  <si>
+    <t>10118193-0001LF</t>
+  </si>
+  <si>
+    <t>USB CABLE</t>
+  </si>
+  <si>
+    <t>DIGIKEY SALES TAX</t>
   </si>
 </sst>
 </file>
@@ -1993,8 +2005,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K47"/>
   <sheetViews>
-    <sheetView topLeftCell="A14" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+    <sheetView topLeftCell="A5" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2653,7 +2665,7 @@
         <v>100</v>
       </c>
       <c r="E18" s="4" t="s">
-        <v>11</v>
+        <v>121</v>
       </c>
       <c r="F18" s="1" t="s">
         <v>62</v>
@@ -2662,18 +2674,18 @@
         <v>52</v>
       </c>
       <c r="H18" s="5">
-        <v>0.48</v>
+        <v>0.91</v>
       </c>
       <c r="I18" s="5">
-        <v>0.46300000000000002</v>
+        <v>0.87</v>
       </c>
       <c r="J18" s="8">
         <f t="shared" si="0"/>
-        <v>0.48</v>
+        <v>0.91</v>
       </c>
       <c r="K18" s="8">
         <f t="shared" si="1"/>
-        <v>0.46300000000000002</v>
+        <v>0.87</v>
       </c>
     </row>
     <row r="19" spans="1:11" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -3119,11 +3131,11 @@
       <c r="C31" s="2"/>
       <c r="J31" s="7">
         <f>SUM(J2:J30)</f>
-        <v>70.114000000000019</v>
+        <v>70.544000000000011</v>
       </c>
       <c r="K31" s="7">
         <f>SUM(K2:K30)</f>
-        <v>37.352800000000002</v>
+        <v>37.759799999999998</v>
       </c>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.25">
@@ -3245,10 +3257,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M51"/>
+  <dimension ref="A1:M53"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+    <sheetView tabSelected="1" topLeftCell="B10" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="H41" sqref="H41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3384,7 +3396,7 @@
         <v>0.29000000000000004</v>
       </c>
       <c r="L3" s="8">
-        <f t="shared" ref="L3:L32" si="1">K3/10</f>
+        <f t="shared" ref="L3:L33" si="1">K3/10</f>
         <v>2.9000000000000005E-2</v>
       </c>
     </row>
@@ -3976,7 +3988,7 @@
         <v>100</v>
       </c>
       <c r="E18" s="4" t="s">
-        <v>11</v>
+        <v>121</v>
       </c>
       <c r="F18" s="1" t="s">
         <v>62</v>
@@ -3985,22 +3997,22 @@
         <v>52</v>
       </c>
       <c r="H18" s="16">
-        <v>0.48</v>
+        <v>0.91</v>
       </c>
       <c r="I18" s="16">
-        <v>0.46300000000000002</v>
+        <v>0.87</v>
       </c>
       <c r="J18" s="18">
         <f t="shared" si="0"/>
-        <v>0.48</v>
+        <v>0.91</v>
       </c>
       <c r="K18" s="29">
-        <f>0.463*10</f>
-        <v>4.63</v>
+        <f>0.87*10</f>
+        <v>8.6999999999999993</v>
       </c>
       <c r="L18" s="8">
         <f t="shared" si="1"/>
-        <v>0.46299999999999997</v>
+        <v>0.86999999999999988</v>
       </c>
     </row>
     <row r="19" spans="1:12" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -4345,7 +4357,7 @@
         <v>22</v>
       </c>
       <c r="E27" s="4" t="s">
-        <v>45</v>
+        <v>122</v>
       </c>
       <c r="F27" s="1" t="s">
         <v>23</v>
@@ -4354,22 +4366,22 @@
         <v>52</v>
       </c>
       <c r="H27" s="16">
-        <v>0.46</v>
+        <v>0.42</v>
       </c>
       <c r="I27" s="16">
-        <v>0.437</v>
+        <v>0.39300000000000002</v>
       </c>
       <c r="J27" s="18">
         <f t="shared" si="0"/>
-        <v>0.46</v>
+        <v>0.42</v>
       </c>
       <c r="K27" s="29">
-        <f>0.437*10</f>
-        <v>4.37</v>
+        <f>0.393*10</f>
+        <v>3.93</v>
       </c>
       <c r="L27" s="8">
         <f t="shared" si="1"/>
-        <v>0.437</v>
+        <v>0.39300000000000002</v>
       </c>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.25">
@@ -4529,164 +4541,203 @@
       </c>
     </row>
     <row r="33" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A33" s="3"/>
-      <c r="B33" s="3"/>
-      <c r="C33" s="3"/>
+      <c r="A33" s="27"/>
+      <c r="B33" s="27">
+        <v>10</v>
+      </c>
+      <c r="C33" s="27" t="s">
+        <v>90</v>
+      </c>
       <c r="E33" s="4"/>
       <c r="F33" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="G33" s="11" t="s">
-        <v>52</v>
+        <v>123</v>
+      </c>
+      <c r="G33" s="9" t="s">
+        <v>53</v>
       </c>
       <c r="H33" s="5"/>
       <c r="I33" s="5"/>
       <c r="J33" s="18"/>
       <c r="K33" s="29">
-        <v>10</v>
+        <f>0.91*10</f>
+        <v>9.1</v>
       </c>
       <c r="L33" s="8">
-        <f>K33/10</f>
-        <v>1</v>
+        <f t="shared" si="1"/>
+        <v>0.90999999999999992</v>
       </c>
     </row>
     <row r="34" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A34" s="2"/>
-      <c r="B34" s="2"/>
-      <c r="C34" s="2"/>
+      <c r="A34" s="3"/>
+      <c r="B34" s="3"/>
+      <c r="C34" s="3"/>
+      <c r="E34" s="4"/>
+      <c r="F34" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="G34" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="H34" s="5"/>
+      <c r="I34" s="5"/>
+      <c r="J34" s="18"/>
+      <c r="K34" s="29">
+        <v>8.99</v>
+      </c>
+      <c r="L34" s="8">
+        <f>K34/10</f>
+        <v>0.89900000000000002</v>
+      </c>
     </row>
     <row r="35" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A35" s="2"/>
-      <c r="B35" s="2"/>
-      <c r="C35" s="2"/>
-      <c r="J35" s="19">
-        <f>SUM(J2:J33)</f>
-        <v>69.504000000000005</v>
-      </c>
-      <c r="K35" s="30" t="s">
-        <v>119</v>
-      </c>
-      <c r="L35" s="31">
-        <f>SUM(L2:L34)</f>
-        <v>43.655999999999992</v>
+      <c r="A35" s="3"/>
+      <c r="B35" s="3"/>
+      <c r="C35" s="3"/>
+      <c r="E35" s="4"/>
+      <c r="F35" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="G35" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="H35" s="5"/>
+      <c r="I35" s="5"/>
+      <c r="J35" s="18"/>
+      <c r="K35" s="29">
+        <v>2.59</v>
+      </c>
+      <c r="L35" s="8">
+        <f>K35/10</f>
+        <v>0.25900000000000001</v>
       </c>
     </row>
     <row r="36" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A36" s="2"/>
       <c r="B36" s="2"/>
       <c r="C36" s="2"/>
-      <c r="K36" s="32" t="s">
-        <v>108</v>
-      </c>
-      <c r="L36" s="33">
-        <v>99</v>
-      </c>
     </row>
     <row r="37" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A37" s="2"/>
       <c r="B37" s="2"/>
       <c r="C37" s="2"/>
-      <c r="K37" s="32" t="s">
-        <v>120</v>
-      </c>
-      <c r="L37" s="33">
-        <f>0.135*L36</f>
-        <v>13.365</v>
+      <c r="J37" s="19">
+        <f>SUM(J2:J34)</f>
+        <v>69.894000000000005</v>
+      </c>
+      <c r="K37" s="30" t="s">
+        <v>119</v>
+      </c>
+      <c r="L37" s="31">
+        <f>SUM(L2:L36)</f>
+        <v>45.086999999999996</v>
       </c>
     </row>
     <row r="38" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A38" s="2"/>
       <c r="B38" s="2"/>
       <c r="C38" s="2"/>
-      <c r="K38" s="34" t="s">
-        <v>109</v>
-      </c>
-      <c r="L38" s="37">
-        <f>L36-L35-L37</f>
-        <v>41.979000000000006</v>
+      <c r="K38" s="32" t="s">
+        <v>108</v>
+      </c>
+      <c r="L38" s="33">
+        <v>99</v>
       </c>
     </row>
     <row r="39" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A39" s="2"/>
       <c r="B39" s="2"/>
       <c r="C39" s="2"/>
-      <c r="K39" s="38" t="s">
-        <v>112</v>
-      </c>
-      <c r="L39" s="39">
-        <f>SUM(K2:K33)</f>
-        <v>436.56000000000006</v>
-      </c>
-      <c r="M39" s="8"/>
+      <c r="K39" s="32" t="s">
+        <v>120</v>
+      </c>
+      <c r="L39" s="33">
+        <f>0.135*L38</f>
+        <v>13.365</v>
+      </c>
     </row>
     <row r="40" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A40" s="2"/>
       <c r="B40" s="2"/>
       <c r="C40" s="2"/>
       <c r="K40" s="34" t="s">
-        <v>117</v>
-      </c>
-      <c r="L40" s="33">
-        <f>(L36-L37)*10</f>
-        <v>856.35</v>
-      </c>
-      <c r="M40" s="8"/>
+        <v>109</v>
+      </c>
+      <c r="L40" s="37">
+        <f>L38-L37-L39</f>
+        <v>40.548000000000002</v>
+      </c>
     </row>
     <row r="41" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A41" s="2"/>
       <c r="B41" s="2"/>
       <c r="C41" s="2"/>
-      <c r="K41" s="35" t="s">
-        <v>118</v>
-      </c>
-      <c r="L41" s="36">
-        <f>L40-L39</f>
-        <v>419.78999999999996</v>
-      </c>
+      <c r="K41" s="38" t="s">
+        <v>112</v>
+      </c>
+      <c r="L41" s="39">
+        <f>SUM(K2:K34)</f>
+        <v>448.28000000000014</v>
+      </c>
+      <c r="M41" s="8"/>
     </row>
     <row r="42" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A42" s="2"/>
       <c r="B42" s="2"/>
       <c r="C42" s="2"/>
+      <c r="K42" s="34" t="s">
+        <v>117</v>
+      </c>
+      <c r="L42" s="33">
+        <f>(L38-L39)*10</f>
+        <v>856.35</v>
+      </c>
+      <c r="M42" s="8"/>
     </row>
     <row r="43" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A43" s="2"/>
       <c r="B43" s="2"/>
       <c r="C43" s="2"/>
-      <c r="L43" s="42"/>
+      <c r="K43" s="35" t="s">
+        <v>118</v>
+      </c>
+      <c r="L43" s="36">
+        <f>L42-L41</f>
+        <v>408.06999999999988</v>
+      </c>
     </row>
     <row r="44" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A44" s="2"/>
       <c r="B44" s="2"/>
       <c r="C44" s="2"/>
-      <c r="L44" s="43"/>
     </row>
     <row r="45" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A45" s="2"/>
       <c r="B45" s="2"/>
       <c r="C45" s="2"/>
-      <c r="L45" s="8"/>
+      <c r="L45" s="42"/>
     </row>
     <row r="46" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A46" s="2"/>
       <c r="B46" s="2"/>
       <c r="C46" s="2"/>
-      <c r="L46" s="8"/>
+      <c r="L46" s="43"/>
     </row>
     <row r="47" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A47" s="2"/>
       <c r="B47" s="2"/>
       <c r="C47" s="2"/>
+      <c r="L47" s="8"/>
     </row>
     <row r="48" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A48" s="2"/>
       <c r="B48" s="2"/>
       <c r="C48" s="2"/>
+      <c r="L48" s="8"/>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A49" s="3"/>
-      <c r="B49" s="3"/>
-      <c r="C49" s="3"/>
+      <c r="A49" s="2"/>
+      <c r="B49" s="2"/>
+      <c r="C49" s="2"/>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A50" s="2"/>
@@ -4698,33 +4749,43 @@
       <c r="B51" s="3"/>
       <c r="C51" s="3"/>
     </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A52" s="2"/>
+      <c r="B52" s="2"/>
+      <c r="C52" s="2"/>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A53" s="3"/>
+      <c r="B53" s="3"/>
+      <c r="C53" s="3"/>
+    </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="E27" r:id="rId1" display="https://www.digikey.com/scripts/DkSearch/dksus.dll?Detail&amp;itemSeq=255006924&amp;uq=636573277011681174"/>
-    <hyperlink ref="E10" r:id="rId2" display="https://www.digikey.com/scripts/DkSearch/dksus.dll?Detail&amp;itemSeq=255582543&amp;uq=636573277011711177"/>
-    <hyperlink ref="E25" r:id="rId3" display="https://www.digikey.com/scripts/DkSearch/dksus.dll?Detail&amp;itemSeq=255006885&amp;uq=636573277011671173"/>
-    <hyperlink ref="E13" r:id="rId4" display="https://www.digikey.com/product-detail/en/on-semiconductor/MMBT2222LT1G/MMBT2222LT1GOSCT-ND/1139808"/>
-    <hyperlink ref="E24" r:id="rId5" display="https://www.digikey.com/scripts/DkSearch/dksus.dll?Detail&amp;itemSeq=255007731&amp;uq=636573292806049726"/>
-    <hyperlink ref="E22" r:id="rId6" display="https://www.digikey.com/scripts/DkSearch/dksus.dll?Detail&amp;itemSeq=255007807&amp;uq=636573292806059726"/>
-    <hyperlink ref="E7" r:id="rId7" display="https://www.digikey.com/scripts/DkSearch/dksus.dll?Detail&amp;itemSeq=255007915&amp;uq=636573292806059726"/>
-    <hyperlink ref="E20" r:id="rId8" display="https://www.digikey.com/scripts/DkSearch/dksus.dll?Detail&amp;itemSeq=255008032&amp;uq=636573292806069726"/>
-    <hyperlink ref="E18" r:id="rId9" display="https://www.digikey.com/scripts/DkSearch/dksus.dll?Detail&amp;itemSeq=255287263&amp;uq=636573292806069726"/>
-    <hyperlink ref="E12" r:id="rId10" display="https://www.digikey.com/scripts/DkSearch/dksus.dll?Detail&amp;itemSeq=255683609&amp;uq=636573305216640966"/>
-    <hyperlink ref="E19" r:id="rId11" display="https://www.digikey.com/scripts/DkSearch/dksus.dll?Detail&amp;itemSeq=255008508&amp;uq=636573292806069726"/>
-    <hyperlink ref="E6" r:id="rId12" display="https://www.digikey.com/scripts/DkSearch/dksus.dll?Detail&amp;itemSeq=255685923&amp;uq=636573315130419726"/>
-    <hyperlink ref="E9" r:id="rId13" display="https://www.digikey.com/scripts/DkSearch/dksus.dll?Detail&amp;itemSeq=255686028&amp;uq=636573315948419447"/>
-    <hyperlink ref="E8" r:id="rId14" display="https://www.digikey.com/scripts/DkSearch/dksus.dll?Detail&amp;itemSeq=255686232&amp;uq=636573317079069726"/>
-    <hyperlink ref="E3" r:id="rId15" display="https://www.digikey.com/scripts/DkSearch/dksus.dll?Detail&amp;itemSeq=255687110&amp;uq=636573319776344879"/>
-    <hyperlink ref="E5" r:id="rId16" display="https://www.digikey.com/scripts/DkSearch/dksus.dll?Detail&amp;itemSeq=255687461&amp;uq=636573320529169726"/>
-    <hyperlink ref="E2" r:id="rId17" display="https://www.digikey.com/scripts/DkSearch/dksus.dll?Detail&amp;itemSeq=255687743&amp;uq=636573321888037133"/>
-    <hyperlink ref="E4" r:id="rId18" display="https://www.digikey.com/scripts/DkSearch/dksus.dll?Detail&amp;itemSeq=255687905&amp;uq=636573322862249726"/>
-    <hyperlink ref="E14" r:id="rId19" display="https://www.digikey.com/scripts/DkSearch/dksus.dll?Detail&amp;itemSeq=255688809&amp;uq=636573327832494815"/>
-    <hyperlink ref="E17" r:id="rId20" display="https://www.digikey.com/scripts/DkSearch/dksus.dll?Detail&amp;itemSeq=255688956&amp;uq=636573328681559713"/>
-    <hyperlink ref="E15" r:id="rId21" display="https://www.digikey.com/scripts/DkSearch/dksus.dll?Detail&amp;itemSeq=255689053&amp;uq=636573329310919726"/>
-    <hyperlink ref="E16" r:id="rId22" display="https://www.digikey.com/scripts/DkSearch/dksus.dll?Detail&amp;itemSeq=255689221&amp;uq=636573330063847928"/>
-    <hyperlink ref="E29" r:id="rId23" display="https://www.digikey.com/scripts/DkSearch/dksus.dll?Detail&amp;itemSeq=255712800&amp;uq=636573577435916489"/>
-    <hyperlink ref="E23" r:id="rId24" display="https://www.digikey.com/scripts/DkSearch/dksus.dll?Detail&amp;itemSeq=255882403&amp;uq=636583008495157306"/>
-    <hyperlink ref="E26" r:id="rId25" display="https://www.digikey.com/scripts/DkSearch/dksus.dll?Detail&amp;itemSeq=256670207&amp;uq=636583008495177308"/>
+    <hyperlink ref="E10" r:id="rId1" display="https://www.digikey.com/scripts/DkSearch/dksus.dll?Detail&amp;itemSeq=255582543&amp;uq=636573277011711177"/>
+    <hyperlink ref="E25" r:id="rId2" display="https://www.digikey.com/scripts/DkSearch/dksus.dll?Detail&amp;itemSeq=255006885&amp;uq=636573277011671173"/>
+    <hyperlink ref="E13" r:id="rId3" display="https://www.digikey.com/product-detail/en/on-semiconductor/MMBT2222LT1G/MMBT2222LT1GOSCT-ND/1139808"/>
+    <hyperlink ref="E24" r:id="rId4" display="https://www.digikey.com/scripts/DkSearch/dksus.dll?Detail&amp;itemSeq=255007731&amp;uq=636573292806049726"/>
+    <hyperlink ref="E22" r:id="rId5" display="https://www.digikey.com/scripts/DkSearch/dksus.dll?Detail&amp;itemSeq=255007807&amp;uq=636573292806059726"/>
+    <hyperlink ref="E7" r:id="rId6" display="https://www.digikey.com/scripts/DkSearch/dksus.dll?Detail&amp;itemSeq=255007915&amp;uq=636573292806059726"/>
+    <hyperlink ref="E20" r:id="rId7" display="https://www.digikey.com/scripts/DkSearch/dksus.dll?Detail&amp;itemSeq=255008032&amp;uq=636573292806069726"/>
+    <hyperlink ref="E12" r:id="rId8" display="https://www.digikey.com/scripts/DkSearch/dksus.dll?Detail&amp;itemSeq=255683609&amp;uq=636573305216640966"/>
+    <hyperlink ref="E19" r:id="rId9" display="https://www.digikey.com/scripts/DkSearch/dksus.dll?Detail&amp;itemSeq=255008508&amp;uq=636573292806069726"/>
+    <hyperlink ref="E6" r:id="rId10" display="https://www.digikey.com/scripts/DkSearch/dksus.dll?Detail&amp;itemSeq=255685923&amp;uq=636573315130419726"/>
+    <hyperlink ref="E9" r:id="rId11" display="https://www.digikey.com/scripts/DkSearch/dksus.dll?Detail&amp;itemSeq=255686028&amp;uq=636573315948419447"/>
+    <hyperlink ref="E8" r:id="rId12" display="https://www.digikey.com/scripts/DkSearch/dksus.dll?Detail&amp;itemSeq=255686232&amp;uq=636573317079069726"/>
+    <hyperlink ref="E3" r:id="rId13" display="https://www.digikey.com/scripts/DkSearch/dksus.dll?Detail&amp;itemSeq=255687110&amp;uq=636573319776344879"/>
+    <hyperlink ref="E5" r:id="rId14" display="https://www.digikey.com/scripts/DkSearch/dksus.dll?Detail&amp;itemSeq=255687461&amp;uq=636573320529169726"/>
+    <hyperlink ref="E2" r:id="rId15" display="https://www.digikey.com/scripts/DkSearch/dksus.dll?Detail&amp;itemSeq=255687743&amp;uq=636573321888037133"/>
+    <hyperlink ref="E4" r:id="rId16" display="https://www.digikey.com/scripts/DkSearch/dksus.dll?Detail&amp;itemSeq=255687905&amp;uq=636573322862249726"/>
+    <hyperlink ref="E14" r:id="rId17" display="https://www.digikey.com/scripts/DkSearch/dksus.dll?Detail&amp;itemSeq=255688809&amp;uq=636573327832494815"/>
+    <hyperlink ref="E17" r:id="rId18" display="https://www.digikey.com/scripts/DkSearch/dksus.dll?Detail&amp;itemSeq=255688956&amp;uq=636573328681559713"/>
+    <hyperlink ref="E15" r:id="rId19" display="https://www.digikey.com/scripts/DkSearch/dksus.dll?Detail&amp;itemSeq=255689053&amp;uq=636573329310919726"/>
+    <hyperlink ref="E16" r:id="rId20" display="https://www.digikey.com/scripts/DkSearch/dksus.dll?Detail&amp;itemSeq=255689221&amp;uq=636573330063847928"/>
+    <hyperlink ref="E29" r:id="rId21" display="https://www.digikey.com/scripts/DkSearch/dksus.dll?Detail&amp;itemSeq=255712800&amp;uq=636573577435916489"/>
+    <hyperlink ref="E23" r:id="rId22" display="https://www.digikey.com/scripts/DkSearch/dksus.dll?Detail&amp;itemSeq=255882403&amp;uq=636583008495157306"/>
+    <hyperlink ref="E26" r:id="rId23" display="https://www.digikey.com/scripts/DkSearch/dksus.dll?Detail&amp;itemSeq=256670207&amp;uq=636583008495177308"/>
+    <hyperlink ref="E18" r:id="rId24" display="https://www.digikey.com/scripts/DkSearch/dksus.dll?Detail&amp;itemSeq=255287263&amp;uq=636573292806069726"/>
+    <hyperlink ref="E27" r:id="rId25" display="https://www.digikey.com/scripts/DkSearch/dksus.dll?Detail&amp;itemSeq=260619861&amp;uq=636617232035274916"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId26"/>

--- a/BillOfMaterials/P6_BOM.xlsx
+++ b/BillOfMaterials/P6_BOM.xlsx
@@ -1,22 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18431"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19126"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Braedin Butler\Desktop\vSpeedVario\BillOfMaterials\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{04935B6F-5C2F-43C1-AE56-1FDAB3335385}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="7275" windowHeight="7500" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="7275" windowHeight="7500" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="V1" sheetId="1" r:id="rId1"/>
     <sheet name="V3" sheetId="3" r:id="rId2"/>
     <sheet name="V4" sheetId="4" r:id="rId3"/>
+    <sheet name="SALES PLAN" sheetId="5" r:id="rId4"/>
+    <sheet name="Just One More Build" sheetId="6" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="171027"/>
+  <calcPr calcId="179017"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -26,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="464" uniqueCount="125">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="772" uniqueCount="144">
   <si>
     <t>C10</t>
   </si>
@@ -401,12 +404,69 @@
   </si>
   <si>
     <t>DIGIKEY SALES TAX</t>
+  </si>
+  <si>
+    <t>INVENTORY</t>
+  </si>
+  <si>
+    <t>150 mAh LIPO</t>
+  </si>
+  <si>
+    <t>IPA WIPES</t>
+  </si>
+  <si>
+    <t>INVEST</t>
+  </si>
+  <si>
+    <t>NEED</t>
+  </si>
+  <si>
+    <t>NEW INVENTORY</t>
+  </si>
+  <si>
+    <t>SELL</t>
+  </si>
+  <si>
+    <t>SPENDINGS/EARNINGS</t>
+  </si>
+  <si>
+    <t>PHASE 1</t>
+  </si>
+  <si>
+    <t>PHASE 2</t>
+  </si>
+  <si>
+    <t>PHASE 3</t>
+  </si>
+  <si>
+    <t>SHIPPING</t>
+  </si>
+  <si>
+    <t>SALES TAX</t>
+  </si>
+  <si>
+    <t>INCOME</t>
+  </si>
+  <si>
+    <t>EXPENSES</t>
+  </si>
+  <si>
+    <t>M2 X 8 BOLTS</t>
+  </si>
+  <si>
+    <t>EBAY LISTING FEE</t>
+  </si>
+  <si>
+    <t>FIRST CLASS SHIPPING</t>
+  </si>
+  <si>
+    <t>SELL PRICE:</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="_(&quot;$&quot;* #,##0.0000_);_(&quot;$&quot;* \(#,##0.0000\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
@@ -468,7 +528,7 @@
       <family val="3"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -493,8 +553,20 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.499984740745262"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="8">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -573,13 +645,23 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="44">
+  <cellXfs count="72">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -708,14 +790,217 @@
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="10" fontId="0" fillId="6" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="6" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="0" fillId="6" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="5" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="3">
+  <cellStyles count="4">
     <cellStyle name="Currency" xfId="1" builtinId="4"/>
     <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Percent" xfId="3" builtinId="5"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="18">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF99FFCC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFCCCC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF99FFCC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF99FFCC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFCCCC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF99FFCC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFCCCC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF99FFCC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFCCCC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF99FFCC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFCCCC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF99FFCC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFCCCC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF99FFCC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFCCCC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF99FFCC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FFFFCCCC"/>
+      <color rgb="FF99FFCC"/>
+      <color rgb="FFFF9999"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -1023,7 +1308,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I46"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
@@ -1968,30 +2253,30 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="E27" r:id="rId1" display="https://www.digikey.com/scripts/DkSearch/dksus.dll?Detail&amp;itemSeq=255006924&amp;uq=636573277011681174"/>
-    <hyperlink ref="E26" r:id="rId2" display="https://www.digikey.com/scripts/DkSearch/dksus.dll?Detail&amp;itemSeq=255582543&amp;uq=636573277011711177"/>
-    <hyperlink ref="E17" r:id="rId3" display="https://www.digikey.com/scripts/DkSearch/dksus.dll?Detail&amp;itemSeq=255006885&amp;uq=636573277011671173"/>
-    <hyperlink ref="E2" r:id="rId4" display="https://www.digikey.com/product-detail/en/on-semiconductor/MMBT2222LT1G/MMBT2222LT1GOSCT-ND/1139808"/>
-    <hyperlink ref="E12" r:id="rId5" display="https://www.digikey.com/scripts/DkSearch/dksus.dll?Detail&amp;itemSeq=255577954&amp;uq=636573292806079726"/>
-    <hyperlink ref="E20" r:id="rId6" display="https://www.digikey.com/scripts/DkSearch/dksus.dll?Detail&amp;itemSeq=255007731&amp;uq=636573292806049726"/>
-    <hyperlink ref="E13" r:id="rId7" display="https://www.digikey.com/scripts/DkSearch/dksus.dll?Detail&amp;itemSeq=255007807&amp;uq=636573292806059726"/>
-    <hyperlink ref="E18" r:id="rId8" display="https://www.digikey.com/scripts/DkSearch/dksus.dll?Detail&amp;itemSeq=255007915&amp;uq=636573292806059726"/>
-    <hyperlink ref="E14" r:id="rId9" display="https://www.digikey.com/scripts/DkSearch/dksus.dll?Detail&amp;itemSeq=255008032&amp;uq=636573292806069726"/>
-    <hyperlink ref="E16" r:id="rId10" display="https://www.digikey.com/scripts/DkSearch/dksus.dll?Detail&amp;itemSeq=255287263&amp;uq=636573292806069726"/>
-    <hyperlink ref="E24" r:id="rId11" display="https://www.digikey.com/scripts/DkSearch/dksus.dll?Detail&amp;itemSeq=255683609&amp;uq=636573305216640966"/>
-    <hyperlink ref="E25" r:id="rId12" display="https://www.digikey.com/scripts/DkSearch/dksus.dll?Detail&amp;itemSeq=255008508&amp;uq=636573292806069726"/>
-    <hyperlink ref="E22" r:id="rId13" display="https://www.digikey.com/scripts/DkSearch/dksus.dll?Detail&amp;itemSeq=255685923&amp;uq=636573315130419726"/>
-    <hyperlink ref="E15" r:id="rId14" display="https://www.digikey.com/scripts/DkSearch/dksus.dll?Detail&amp;itemSeq=255686028&amp;uq=636573315948419447"/>
-    <hyperlink ref="E23" r:id="rId15" display="https://www.digikey.com/scripts/DkSearch/dksus.dll?Detail&amp;itemSeq=255686232&amp;uq=636573317079069726"/>
-    <hyperlink ref="E3" r:id="rId16" display="https://www.digikey.com/scripts/DkSearch/dksus.dll?Detail&amp;itemSeq=255687110&amp;uq=636573319776344879"/>
-    <hyperlink ref="E6" r:id="rId17" display="https://www.digikey.com/scripts/DkSearch/dksus.dll?Detail&amp;itemSeq=255687461&amp;uq=636573320529169726"/>
-    <hyperlink ref="E8" r:id="rId18" display="https://www.digikey.com/scripts/DkSearch/dksus.dll?Detail&amp;itemSeq=255687743&amp;uq=636573321888037133"/>
-    <hyperlink ref="E10" r:id="rId19" display="https://www.digikey.com/scripts/DkSearch/dksus.dll?Detail&amp;itemSeq=255687905&amp;uq=636573322862249726"/>
-    <hyperlink ref="E4" r:id="rId20" display="https://www.digikey.com/scripts/DkSearch/dksus.dll?Detail&amp;itemSeq=255688809&amp;uq=636573327832494815"/>
-    <hyperlink ref="E5" r:id="rId21" display="https://www.digikey.com/scripts/DkSearch/dksus.dll?Detail&amp;itemSeq=255688956&amp;uq=636573328681559713"/>
-    <hyperlink ref="E7" r:id="rId22" display="https://www.digikey.com/scripts/DkSearch/dksus.dll?Detail&amp;itemSeq=255689053&amp;uq=636573329310919726"/>
-    <hyperlink ref="E9" r:id="rId23" display="https://www.digikey.com/scripts/DkSearch/dksus.dll?Detail&amp;itemSeq=255689221&amp;uq=636573330063847928"/>
-    <hyperlink ref="E29" r:id="rId24" display="https://www.digikey.com/scripts/DkSearch/dksus.dll?Detail&amp;itemSeq=255712800&amp;uq=636573577435916489"/>
+    <hyperlink ref="E27" r:id="rId1" display="https://www.digikey.com/scripts/DkSearch/dksus.dll?Detail&amp;itemSeq=255006924&amp;uq=636573277011681174" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="E26" r:id="rId2" display="https://www.digikey.com/scripts/DkSearch/dksus.dll?Detail&amp;itemSeq=255582543&amp;uq=636573277011711177" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="E17" r:id="rId3" display="https://www.digikey.com/scripts/DkSearch/dksus.dll?Detail&amp;itemSeq=255006885&amp;uq=636573277011671173" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="E2" r:id="rId4" display="https://www.digikey.com/product-detail/en/on-semiconductor/MMBT2222LT1G/MMBT2222LT1GOSCT-ND/1139808" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
+    <hyperlink ref="E12" r:id="rId5" display="https://www.digikey.com/scripts/DkSearch/dksus.dll?Detail&amp;itemSeq=255577954&amp;uq=636573292806079726" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
+    <hyperlink ref="E20" r:id="rId6" display="https://www.digikey.com/scripts/DkSearch/dksus.dll?Detail&amp;itemSeq=255007731&amp;uq=636573292806049726" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
+    <hyperlink ref="E13" r:id="rId7" display="https://www.digikey.com/scripts/DkSearch/dksus.dll?Detail&amp;itemSeq=255007807&amp;uq=636573292806059726" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
+    <hyperlink ref="E18" r:id="rId8" display="https://www.digikey.com/scripts/DkSearch/dksus.dll?Detail&amp;itemSeq=255007915&amp;uq=636573292806059726" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
+    <hyperlink ref="E14" r:id="rId9" display="https://www.digikey.com/scripts/DkSearch/dksus.dll?Detail&amp;itemSeq=255008032&amp;uq=636573292806069726" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
+    <hyperlink ref="E16" r:id="rId10" display="https://www.digikey.com/scripts/DkSearch/dksus.dll?Detail&amp;itemSeq=255287263&amp;uq=636573292806069726" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
+    <hyperlink ref="E24" r:id="rId11" display="https://www.digikey.com/scripts/DkSearch/dksus.dll?Detail&amp;itemSeq=255683609&amp;uq=636573305216640966" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
+    <hyperlink ref="E25" r:id="rId12" display="https://www.digikey.com/scripts/DkSearch/dksus.dll?Detail&amp;itemSeq=255008508&amp;uq=636573292806069726" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
+    <hyperlink ref="E22" r:id="rId13" display="https://www.digikey.com/scripts/DkSearch/dksus.dll?Detail&amp;itemSeq=255685923&amp;uq=636573315130419726" xr:uid="{00000000-0004-0000-0000-00000C000000}"/>
+    <hyperlink ref="E15" r:id="rId14" display="https://www.digikey.com/scripts/DkSearch/dksus.dll?Detail&amp;itemSeq=255686028&amp;uq=636573315948419447" xr:uid="{00000000-0004-0000-0000-00000D000000}"/>
+    <hyperlink ref="E23" r:id="rId15" display="https://www.digikey.com/scripts/DkSearch/dksus.dll?Detail&amp;itemSeq=255686232&amp;uq=636573317079069726" xr:uid="{00000000-0004-0000-0000-00000E000000}"/>
+    <hyperlink ref="E3" r:id="rId16" display="https://www.digikey.com/scripts/DkSearch/dksus.dll?Detail&amp;itemSeq=255687110&amp;uq=636573319776344879" xr:uid="{00000000-0004-0000-0000-00000F000000}"/>
+    <hyperlink ref="E6" r:id="rId17" display="https://www.digikey.com/scripts/DkSearch/dksus.dll?Detail&amp;itemSeq=255687461&amp;uq=636573320529169726" xr:uid="{00000000-0004-0000-0000-000010000000}"/>
+    <hyperlink ref="E8" r:id="rId18" display="https://www.digikey.com/scripts/DkSearch/dksus.dll?Detail&amp;itemSeq=255687743&amp;uq=636573321888037133" xr:uid="{00000000-0004-0000-0000-000011000000}"/>
+    <hyperlink ref="E10" r:id="rId19" display="https://www.digikey.com/scripts/DkSearch/dksus.dll?Detail&amp;itemSeq=255687905&amp;uq=636573322862249726" xr:uid="{00000000-0004-0000-0000-000012000000}"/>
+    <hyperlink ref="E4" r:id="rId20" display="https://www.digikey.com/scripts/DkSearch/dksus.dll?Detail&amp;itemSeq=255688809&amp;uq=636573327832494815" xr:uid="{00000000-0004-0000-0000-000013000000}"/>
+    <hyperlink ref="E5" r:id="rId21" display="https://www.digikey.com/scripts/DkSearch/dksus.dll?Detail&amp;itemSeq=255688956&amp;uq=636573328681559713" xr:uid="{00000000-0004-0000-0000-000014000000}"/>
+    <hyperlink ref="E7" r:id="rId22" display="https://www.digikey.com/scripts/DkSearch/dksus.dll?Detail&amp;itemSeq=255689053&amp;uq=636573329310919726" xr:uid="{00000000-0004-0000-0000-000015000000}"/>
+    <hyperlink ref="E9" r:id="rId23" display="https://www.digikey.com/scripts/DkSearch/dksus.dll?Detail&amp;itemSeq=255689221&amp;uq=636573330063847928" xr:uid="{00000000-0004-0000-0000-000016000000}"/>
+    <hyperlink ref="E29" r:id="rId24" display="https://www.digikey.com/scripts/DkSearch/dksus.dll?Detail&amp;itemSeq=255712800&amp;uq=636573577435916489" xr:uid="{00000000-0004-0000-0000-000017000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId25"/>
@@ -2002,7 +2287,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:K47"/>
   <sheetViews>
     <sheetView topLeftCell="A5" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
@@ -3223,32 +3508,32 @@
     <sortCondition ref="D2:D30"/>
   </sortState>
   <hyperlinks>
-    <hyperlink ref="E27" r:id="rId1" display="https://www.digikey.com/scripts/DkSearch/dksus.dll?Detail&amp;itemSeq=255006924&amp;uq=636573277011681174"/>
-    <hyperlink ref="E10" r:id="rId2" display="https://www.digikey.com/scripts/DkSearch/dksus.dll?Detail&amp;itemSeq=255582543&amp;uq=636573277011711177"/>
-    <hyperlink ref="E25" r:id="rId3" display="https://www.digikey.com/scripts/DkSearch/dksus.dll?Detail&amp;itemSeq=255006885&amp;uq=636573277011671173"/>
-    <hyperlink ref="E13" r:id="rId4" display="https://www.digikey.com/product-detail/en/on-semiconductor/MMBT2222LT1G/MMBT2222LT1GOSCT-ND/1139808"/>
-    <hyperlink ref="E28" r:id="rId5" display="https://www.digikey.com/scripts/DkSearch/dksus.dll?Detail&amp;itemSeq=255577954&amp;uq=636573292806079726"/>
-    <hyperlink ref="E24" r:id="rId6" display="https://www.digikey.com/scripts/DkSearch/dksus.dll?Detail&amp;itemSeq=255007731&amp;uq=636573292806049726"/>
-    <hyperlink ref="E22" r:id="rId7" display="https://www.digikey.com/scripts/DkSearch/dksus.dll?Detail&amp;itemSeq=255007807&amp;uq=636573292806059726"/>
-    <hyperlink ref="E7" r:id="rId8" display="https://www.digikey.com/scripts/DkSearch/dksus.dll?Detail&amp;itemSeq=255007915&amp;uq=636573292806059726"/>
-    <hyperlink ref="E20" r:id="rId9" display="https://www.digikey.com/scripts/DkSearch/dksus.dll?Detail&amp;itemSeq=255008032&amp;uq=636573292806069726"/>
-    <hyperlink ref="E18" r:id="rId10" display="https://www.digikey.com/scripts/DkSearch/dksus.dll?Detail&amp;itemSeq=255287263&amp;uq=636573292806069726"/>
-    <hyperlink ref="E12" r:id="rId11" display="https://www.digikey.com/scripts/DkSearch/dksus.dll?Detail&amp;itemSeq=255683609&amp;uq=636573305216640966"/>
-    <hyperlink ref="E19" r:id="rId12" display="https://www.digikey.com/scripts/DkSearch/dksus.dll?Detail&amp;itemSeq=255008508&amp;uq=636573292806069726"/>
-    <hyperlink ref="E6" r:id="rId13" display="https://www.digikey.com/scripts/DkSearch/dksus.dll?Detail&amp;itemSeq=255685923&amp;uq=636573315130419726"/>
-    <hyperlink ref="E9" r:id="rId14" display="https://www.digikey.com/scripts/DkSearch/dksus.dll?Detail&amp;itemSeq=255686028&amp;uq=636573315948419447"/>
-    <hyperlink ref="E8" r:id="rId15" display="https://www.digikey.com/scripts/DkSearch/dksus.dll?Detail&amp;itemSeq=255686232&amp;uq=636573317079069726"/>
-    <hyperlink ref="E3" r:id="rId16" display="https://www.digikey.com/scripts/DkSearch/dksus.dll?Detail&amp;itemSeq=255687110&amp;uq=636573319776344879"/>
-    <hyperlink ref="E5" r:id="rId17" display="https://www.digikey.com/scripts/DkSearch/dksus.dll?Detail&amp;itemSeq=255687461&amp;uq=636573320529169726"/>
-    <hyperlink ref="E2" r:id="rId18" display="https://www.digikey.com/scripts/DkSearch/dksus.dll?Detail&amp;itemSeq=255687743&amp;uq=636573321888037133"/>
-    <hyperlink ref="E4" r:id="rId19" display="https://www.digikey.com/scripts/DkSearch/dksus.dll?Detail&amp;itemSeq=255687905&amp;uq=636573322862249726"/>
-    <hyperlink ref="E14" r:id="rId20" display="https://www.digikey.com/scripts/DkSearch/dksus.dll?Detail&amp;itemSeq=255688809&amp;uq=636573327832494815"/>
-    <hyperlink ref="E17" r:id="rId21" display="https://www.digikey.com/scripts/DkSearch/dksus.dll?Detail&amp;itemSeq=255688956&amp;uq=636573328681559713"/>
-    <hyperlink ref="E15" r:id="rId22" display="https://www.digikey.com/scripts/DkSearch/dksus.dll?Detail&amp;itemSeq=255689053&amp;uq=636573329310919726"/>
-    <hyperlink ref="E16" r:id="rId23" display="https://www.digikey.com/scripts/DkSearch/dksus.dll?Detail&amp;itemSeq=255689221&amp;uq=636573330063847928"/>
-    <hyperlink ref="E30" r:id="rId24" display="https://www.digikey.com/scripts/DkSearch/dksus.dll?Detail&amp;itemSeq=255712800&amp;uq=636573577435916489"/>
-    <hyperlink ref="E23" r:id="rId25" display="https://www.digikey.com/scripts/DkSearch/dksus.dll?Detail&amp;itemSeq=255882403&amp;uq=636583008495157306"/>
-    <hyperlink ref="E26" r:id="rId26" display="https://www.digikey.com/scripts/DkSearch/dksus.dll?Detail&amp;itemSeq=256670207&amp;uq=636583008495177308"/>
+    <hyperlink ref="E27" r:id="rId1" display="https://www.digikey.com/scripts/DkSearch/dksus.dll?Detail&amp;itemSeq=255006924&amp;uq=636573277011681174" xr:uid="{00000000-0004-0000-0100-000000000000}"/>
+    <hyperlink ref="E10" r:id="rId2" display="https://www.digikey.com/scripts/DkSearch/dksus.dll?Detail&amp;itemSeq=255582543&amp;uq=636573277011711177" xr:uid="{00000000-0004-0000-0100-000001000000}"/>
+    <hyperlink ref="E25" r:id="rId3" display="https://www.digikey.com/scripts/DkSearch/dksus.dll?Detail&amp;itemSeq=255006885&amp;uq=636573277011671173" xr:uid="{00000000-0004-0000-0100-000002000000}"/>
+    <hyperlink ref="E13" r:id="rId4" display="https://www.digikey.com/product-detail/en/on-semiconductor/MMBT2222LT1G/MMBT2222LT1GOSCT-ND/1139808" xr:uid="{00000000-0004-0000-0100-000003000000}"/>
+    <hyperlink ref="E28" r:id="rId5" display="https://www.digikey.com/scripts/DkSearch/dksus.dll?Detail&amp;itemSeq=255577954&amp;uq=636573292806079726" xr:uid="{00000000-0004-0000-0100-000004000000}"/>
+    <hyperlink ref="E24" r:id="rId6" display="https://www.digikey.com/scripts/DkSearch/dksus.dll?Detail&amp;itemSeq=255007731&amp;uq=636573292806049726" xr:uid="{00000000-0004-0000-0100-000005000000}"/>
+    <hyperlink ref="E22" r:id="rId7" display="https://www.digikey.com/scripts/DkSearch/dksus.dll?Detail&amp;itemSeq=255007807&amp;uq=636573292806059726" xr:uid="{00000000-0004-0000-0100-000006000000}"/>
+    <hyperlink ref="E7" r:id="rId8" display="https://www.digikey.com/scripts/DkSearch/dksus.dll?Detail&amp;itemSeq=255007915&amp;uq=636573292806059726" xr:uid="{00000000-0004-0000-0100-000007000000}"/>
+    <hyperlink ref="E20" r:id="rId9" display="https://www.digikey.com/scripts/DkSearch/dksus.dll?Detail&amp;itemSeq=255008032&amp;uq=636573292806069726" xr:uid="{00000000-0004-0000-0100-000008000000}"/>
+    <hyperlink ref="E18" r:id="rId10" display="https://www.digikey.com/scripts/DkSearch/dksus.dll?Detail&amp;itemSeq=255287263&amp;uq=636573292806069726" xr:uid="{00000000-0004-0000-0100-000009000000}"/>
+    <hyperlink ref="E12" r:id="rId11" display="https://www.digikey.com/scripts/DkSearch/dksus.dll?Detail&amp;itemSeq=255683609&amp;uq=636573305216640966" xr:uid="{00000000-0004-0000-0100-00000A000000}"/>
+    <hyperlink ref="E19" r:id="rId12" display="https://www.digikey.com/scripts/DkSearch/dksus.dll?Detail&amp;itemSeq=255008508&amp;uq=636573292806069726" xr:uid="{00000000-0004-0000-0100-00000B000000}"/>
+    <hyperlink ref="E6" r:id="rId13" display="https://www.digikey.com/scripts/DkSearch/dksus.dll?Detail&amp;itemSeq=255685923&amp;uq=636573315130419726" xr:uid="{00000000-0004-0000-0100-00000C000000}"/>
+    <hyperlink ref="E9" r:id="rId14" display="https://www.digikey.com/scripts/DkSearch/dksus.dll?Detail&amp;itemSeq=255686028&amp;uq=636573315948419447" xr:uid="{00000000-0004-0000-0100-00000D000000}"/>
+    <hyperlink ref="E8" r:id="rId15" display="https://www.digikey.com/scripts/DkSearch/dksus.dll?Detail&amp;itemSeq=255686232&amp;uq=636573317079069726" xr:uid="{00000000-0004-0000-0100-00000E000000}"/>
+    <hyperlink ref="E3" r:id="rId16" display="https://www.digikey.com/scripts/DkSearch/dksus.dll?Detail&amp;itemSeq=255687110&amp;uq=636573319776344879" xr:uid="{00000000-0004-0000-0100-00000F000000}"/>
+    <hyperlink ref="E5" r:id="rId17" display="https://www.digikey.com/scripts/DkSearch/dksus.dll?Detail&amp;itemSeq=255687461&amp;uq=636573320529169726" xr:uid="{00000000-0004-0000-0100-000010000000}"/>
+    <hyperlink ref="E2" r:id="rId18" display="https://www.digikey.com/scripts/DkSearch/dksus.dll?Detail&amp;itemSeq=255687743&amp;uq=636573321888037133" xr:uid="{00000000-0004-0000-0100-000011000000}"/>
+    <hyperlink ref="E4" r:id="rId19" display="https://www.digikey.com/scripts/DkSearch/dksus.dll?Detail&amp;itemSeq=255687905&amp;uq=636573322862249726" xr:uid="{00000000-0004-0000-0100-000012000000}"/>
+    <hyperlink ref="E14" r:id="rId20" display="https://www.digikey.com/scripts/DkSearch/dksus.dll?Detail&amp;itemSeq=255688809&amp;uq=636573327832494815" xr:uid="{00000000-0004-0000-0100-000013000000}"/>
+    <hyperlink ref="E17" r:id="rId21" display="https://www.digikey.com/scripts/DkSearch/dksus.dll?Detail&amp;itemSeq=255688956&amp;uq=636573328681559713" xr:uid="{00000000-0004-0000-0100-000014000000}"/>
+    <hyperlink ref="E15" r:id="rId22" display="https://www.digikey.com/scripts/DkSearch/dksus.dll?Detail&amp;itemSeq=255689053&amp;uq=636573329310919726" xr:uid="{00000000-0004-0000-0100-000015000000}"/>
+    <hyperlink ref="E16" r:id="rId23" display="https://www.digikey.com/scripts/DkSearch/dksus.dll?Detail&amp;itemSeq=255689221&amp;uq=636573330063847928" xr:uid="{00000000-0004-0000-0100-000016000000}"/>
+    <hyperlink ref="E30" r:id="rId24" display="https://www.digikey.com/scripts/DkSearch/dksus.dll?Detail&amp;itemSeq=255712800&amp;uq=636573577435916489" xr:uid="{00000000-0004-0000-0100-000017000000}"/>
+    <hyperlink ref="E23" r:id="rId25" display="https://www.digikey.com/scripts/DkSearch/dksus.dll?Detail&amp;itemSeq=255882403&amp;uq=636583008495157306" xr:uid="{00000000-0004-0000-0100-000018000000}"/>
+    <hyperlink ref="E26" r:id="rId26" display="https://www.digikey.com/scripts/DkSearch/dksus.dll?Detail&amp;itemSeq=256670207&amp;uq=636583008495177308" xr:uid="{00000000-0004-0000-0100-000019000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId27"/>
@@ -3256,11 +3541,11 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:M53"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B10" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="H41" sqref="H41"/>
+    <sheetView topLeftCell="A13" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="L39" sqref="L39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4761,33 +5046,4435 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="E10" r:id="rId1" display="https://www.digikey.com/scripts/DkSearch/dksus.dll?Detail&amp;itemSeq=255582543&amp;uq=636573277011711177"/>
-    <hyperlink ref="E25" r:id="rId2" display="https://www.digikey.com/scripts/DkSearch/dksus.dll?Detail&amp;itemSeq=255006885&amp;uq=636573277011671173"/>
-    <hyperlink ref="E13" r:id="rId3" display="https://www.digikey.com/product-detail/en/on-semiconductor/MMBT2222LT1G/MMBT2222LT1GOSCT-ND/1139808"/>
-    <hyperlink ref="E24" r:id="rId4" display="https://www.digikey.com/scripts/DkSearch/dksus.dll?Detail&amp;itemSeq=255007731&amp;uq=636573292806049726"/>
-    <hyperlink ref="E22" r:id="rId5" display="https://www.digikey.com/scripts/DkSearch/dksus.dll?Detail&amp;itemSeq=255007807&amp;uq=636573292806059726"/>
-    <hyperlink ref="E7" r:id="rId6" display="https://www.digikey.com/scripts/DkSearch/dksus.dll?Detail&amp;itemSeq=255007915&amp;uq=636573292806059726"/>
-    <hyperlink ref="E20" r:id="rId7" display="https://www.digikey.com/scripts/DkSearch/dksus.dll?Detail&amp;itemSeq=255008032&amp;uq=636573292806069726"/>
-    <hyperlink ref="E12" r:id="rId8" display="https://www.digikey.com/scripts/DkSearch/dksus.dll?Detail&amp;itemSeq=255683609&amp;uq=636573305216640966"/>
-    <hyperlink ref="E19" r:id="rId9" display="https://www.digikey.com/scripts/DkSearch/dksus.dll?Detail&amp;itemSeq=255008508&amp;uq=636573292806069726"/>
-    <hyperlink ref="E6" r:id="rId10" display="https://www.digikey.com/scripts/DkSearch/dksus.dll?Detail&amp;itemSeq=255685923&amp;uq=636573315130419726"/>
-    <hyperlink ref="E9" r:id="rId11" display="https://www.digikey.com/scripts/DkSearch/dksus.dll?Detail&amp;itemSeq=255686028&amp;uq=636573315948419447"/>
-    <hyperlink ref="E8" r:id="rId12" display="https://www.digikey.com/scripts/DkSearch/dksus.dll?Detail&amp;itemSeq=255686232&amp;uq=636573317079069726"/>
-    <hyperlink ref="E3" r:id="rId13" display="https://www.digikey.com/scripts/DkSearch/dksus.dll?Detail&amp;itemSeq=255687110&amp;uq=636573319776344879"/>
-    <hyperlink ref="E5" r:id="rId14" display="https://www.digikey.com/scripts/DkSearch/dksus.dll?Detail&amp;itemSeq=255687461&amp;uq=636573320529169726"/>
-    <hyperlink ref="E2" r:id="rId15" display="https://www.digikey.com/scripts/DkSearch/dksus.dll?Detail&amp;itemSeq=255687743&amp;uq=636573321888037133"/>
-    <hyperlink ref="E4" r:id="rId16" display="https://www.digikey.com/scripts/DkSearch/dksus.dll?Detail&amp;itemSeq=255687905&amp;uq=636573322862249726"/>
-    <hyperlink ref="E14" r:id="rId17" display="https://www.digikey.com/scripts/DkSearch/dksus.dll?Detail&amp;itemSeq=255688809&amp;uq=636573327832494815"/>
-    <hyperlink ref="E17" r:id="rId18" display="https://www.digikey.com/scripts/DkSearch/dksus.dll?Detail&amp;itemSeq=255688956&amp;uq=636573328681559713"/>
-    <hyperlink ref="E15" r:id="rId19" display="https://www.digikey.com/scripts/DkSearch/dksus.dll?Detail&amp;itemSeq=255689053&amp;uq=636573329310919726"/>
-    <hyperlink ref="E16" r:id="rId20" display="https://www.digikey.com/scripts/DkSearch/dksus.dll?Detail&amp;itemSeq=255689221&amp;uq=636573330063847928"/>
-    <hyperlink ref="E29" r:id="rId21" display="https://www.digikey.com/scripts/DkSearch/dksus.dll?Detail&amp;itemSeq=255712800&amp;uq=636573577435916489"/>
-    <hyperlink ref="E23" r:id="rId22" display="https://www.digikey.com/scripts/DkSearch/dksus.dll?Detail&amp;itemSeq=255882403&amp;uq=636583008495157306"/>
-    <hyperlink ref="E26" r:id="rId23" display="https://www.digikey.com/scripts/DkSearch/dksus.dll?Detail&amp;itemSeq=256670207&amp;uq=636583008495177308"/>
-    <hyperlink ref="E18" r:id="rId24" display="https://www.digikey.com/scripts/DkSearch/dksus.dll?Detail&amp;itemSeq=255287263&amp;uq=636573292806069726"/>
-    <hyperlink ref="E27" r:id="rId25" display="https://www.digikey.com/scripts/DkSearch/dksus.dll?Detail&amp;itemSeq=260619861&amp;uq=636617232035274916"/>
+    <hyperlink ref="E10" r:id="rId1" display="https://www.digikey.com/scripts/DkSearch/dksus.dll?Detail&amp;itemSeq=255582543&amp;uq=636573277011711177" xr:uid="{00000000-0004-0000-0200-000000000000}"/>
+    <hyperlink ref="E25" r:id="rId2" display="https://www.digikey.com/scripts/DkSearch/dksus.dll?Detail&amp;itemSeq=255006885&amp;uq=636573277011671173" xr:uid="{00000000-0004-0000-0200-000001000000}"/>
+    <hyperlink ref="E13" r:id="rId3" display="https://www.digikey.com/product-detail/en/on-semiconductor/MMBT2222LT1G/MMBT2222LT1GOSCT-ND/1139808" xr:uid="{00000000-0004-0000-0200-000002000000}"/>
+    <hyperlink ref="E24" r:id="rId4" display="https://www.digikey.com/scripts/DkSearch/dksus.dll?Detail&amp;itemSeq=255007731&amp;uq=636573292806049726" xr:uid="{00000000-0004-0000-0200-000003000000}"/>
+    <hyperlink ref="E22" r:id="rId5" display="https://www.digikey.com/scripts/DkSearch/dksus.dll?Detail&amp;itemSeq=255007807&amp;uq=636573292806059726" xr:uid="{00000000-0004-0000-0200-000004000000}"/>
+    <hyperlink ref="E7" r:id="rId6" display="https://www.digikey.com/scripts/DkSearch/dksus.dll?Detail&amp;itemSeq=255007915&amp;uq=636573292806059726" xr:uid="{00000000-0004-0000-0200-000005000000}"/>
+    <hyperlink ref="E20" r:id="rId7" display="https://www.digikey.com/scripts/DkSearch/dksus.dll?Detail&amp;itemSeq=255008032&amp;uq=636573292806069726" xr:uid="{00000000-0004-0000-0200-000006000000}"/>
+    <hyperlink ref="E12" r:id="rId8" display="https://www.digikey.com/scripts/DkSearch/dksus.dll?Detail&amp;itemSeq=255683609&amp;uq=636573305216640966" xr:uid="{00000000-0004-0000-0200-000007000000}"/>
+    <hyperlink ref="E19" r:id="rId9" display="https://www.digikey.com/scripts/DkSearch/dksus.dll?Detail&amp;itemSeq=255008508&amp;uq=636573292806069726" xr:uid="{00000000-0004-0000-0200-000008000000}"/>
+    <hyperlink ref="E6" r:id="rId10" display="https://www.digikey.com/scripts/DkSearch/dksus.dll?Detail&amp;itemSeq=255685923&amp;uq=636573315130419726" xr:uid="{00000000-0004-0000-0200-000009000000}"/>
+    <hyperlink ref="E9" r:id="rId11" display="https://www.digikey.com/scripts/DkSearch/dksus.dll?Detail&amp;itemSeq=255686028&amp;uq=636573315948419447" xr:uid="{00000000-0004-0000-0200-00000A000000}"/>
+    <hyperlink ref="E8" r:id="rId12" display="https://www.digikey.com/scripts/DkSearch/dksus.dll?Detail&amp;itemSeq=255686232&amp;uq=636573317079069726" xr:uid="{00000000-0004-0000-0200-00000B000000}"/>
+    <hyperlink ref="E3" r:id="rId13" display="https://www.digikey.com/scripts/DkSearch/dksus.dll?Detail&amp;itemSeq=255687110&amp;uq=636573319776344879" xr:uid="{00000000-0004-0000-0200-00000C000000}"/>
+    <hyperlink ref="E5" r:id="rId14" display="https://www.digikey.com/scripts/DkSearch/dksus.dll?Detail&amp;itemSeq=255687461&amp;uq=636573320529169726" xr:uid="{00000000-0004-0000-0200-00000D000000}"/>
+    <hyperlink ref="E2" r:id="rId15" display="https://www.digikey.com/scripts/DkSearch/dksus.dll?Detail&amp;itemSeq=255687743&amp;uq=636573321888037133" xr:uid="{00000000-0004-0000-0200-00000E000000}"/>
+    <hyperlink ref="E4" r:id="rId16" display="https://www.digikey.com/scripts/DkSearch/dksus.dll?Detail&amp;itemSeq=255687905&amp;uq=636573322862249726" xr:uid="{00000000-0004-0000-0200-00000F000000}"/>
+    <hyperlink ref="E14" r:id="rId17" display="https://www.digikey.com/scripts/DkSearch/dksus.dll?Detail&amp;itemSeq=255688809&amp;uq=636573327832494815" xr:uid="{00000000-0004-0000-0200-000010000000}"/>
+    <hyperlink ref="E17" r:id="rId18" display="https://www.digikey.com/scripts/DkSearch/dksus.dll?Detail&amp;itemSeq=255688956&amp;uq=636573328681559713" xr:uid="{00000000-0004-0000-0200-000011000000}"/>
+    <hyperlink ref="E15" r:id="rId19" display="https://www.digikey.com/scripts/DkSearch/dksus.dll?Detail&amp;itemSeq=255689053&amp;uq=636573329310919726" xr:uid="{00000000-0004-0000-0200-000012000000}"/>
+    <hyperlink ref="E16" r:id="rId20" display="https://www.digikey.com/scripts/DkSearch/dksus.dll?Detail&amp;itemSeq=255689221&amp;uq=636573330063847928" xr:uid="{00000000-0004-0000-0200-000013000000}"/>
+    <hyperlink ref="E29" r:id="rId21" display="https://www.digikey.com/scripts/DkSearch/dksus.dll?Detail&amp;itemSeq=255712800&amp;uq=636573577435916489" xr:uid="{00000000-0004-0000-0200-000014000000}"/>
+    <hyperlink ref="E23" r:id="rId22" display="https://www.digikey.com/scripts/DkSearch/dksus.dll?Detail&amp;itemSeq=255882403&amp;uq=636583008495157306" xr:uid="{00000000-0004-0000-0200-000015000000}"/>
+    <hyperlink ref="E26" r:id="rId23" display="https://www.digikey.com/scripts/DkSearch/dksus.dll?Detail&amp;itemSeq=256670207&amp;uq=636583008495177308" xr:uid="{00000000-0004-0000-0200-000016000000}"/>
+    <hyperlink ref="E18" r:id="rId24" display="https://www.digikey.com/scripts/DkSearch/dksus.dll?Detail&amp;itemSeq=255287263&amp;uq=636573292806069726" xr:uid="{00000000-0004-0000-0200-000017000000}"/>
+    <hyperlink ref="E27" r:id="rId25" display="https://www.digikey.com/scripts/DkSearch/dksus.dll?Detail&amp;itemSeq=260619861&amp;uq=636617232035274916" xr:uid="{00000000-0004-0000-0200-000018000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId26"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+  <dimension ref="A1:Y201"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="D23" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="B1" sqref="B1"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="I44" sqref="I44"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="20.125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="22.25" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="2.75" style="54" customWidth="1"/>
+    <col min="7" max="7" width="9.875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="4.875" style="44" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14" style="44" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="10.875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="2.875" style="54" customWidth="1"/>
+    <col min="13" max="13" width="9.875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="4.875" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="10.875" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="9.875" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="2.375" style="54" customWidth="1"/>
+    <col min="20" max="20" width="5.25" customWidth="1"/>
+    <col min="21" max="21" width="10.875" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="9.875" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="2.625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A1" s="14" t="s">
+        <v>50</v>
+      </c>
+      <c r="B1" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="C1" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="D1" s="14" t="s">
+        <v>51</v>
+      </c>
+      <c r="E1" s="44" t="s">
+        <v>32</v>
+      </c>
+      <c r="F1" s="58"/>
+      <c r="G1" s="58" t="s">
+        <v>125</v>
+      </c>
+      <c r="H1" s="59" t="s">
+        <v>129</v>
+      </c>
+      <c r="I1" s="59" t="s">
+        <v>128</v>
+      </c>
+      <c r="J1" s="58" t="s">
+        <v>130</v>
+      </c>
+      <c r="K1" s="58" t="s">
+        <v>131</v>
+      </c>
+      <c r="L1" s="58"/>
+      <c r="M1" s="44" t="s">
+        <v>125</v>
+      </c>
+      <c r="N1" s="44" t="s">
+        <v>129</v>
+      </c>
+      <c r="O1" s="44" t="s">
+        <v>128</v>
+      </c>
+      <c r="P1" s="52" t="s">
+        <v>130</v>
+      </c>
+      <c r="Q1" s="44" t="s">
+        <v>131</v>
+      </c>
+      <c r="R1" s="53"/>
+      <c r="S1" s="44" t="s">
+        <v>125</v>
+      </c>
+      <c r="T1" s="44" t="s">
+        <v>129</v>
+      </c>
+      <c r="U1" s="44" t="s">
+        <v>128</v>
+      </c>
+      <c r="V1" s="52" t="s">
+        <v>130</v>
+      </c>
+      <c r="W1" s="44" t="s">
+        <v>131</v>
+      </c>
+      <c r="X1" s="53"/>
+      <c r="Y1" s="44" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="D2" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="E2" s="44">
+        <v>3</v>
+      </c>
+      <c r="F2" s="58"/>
+      <c r="G2" s="44">
+        <v>4</v>
+      </c>
+      <c r="I2" s="48"/>
+      <c r="J2" s="44">
+        <f>G2+H2</f>
+        <v>4</v>
+      </c>
+      <c r="K2" s="69">
+        <v>1</v>
+      </c>
+      <c r="L2" s="63"/>
+      <c r="M2" s="44">
+        <f>J2-(K$2*E2)</f>
+        <v>1</v>
+      </c>
+      <c r="N2" s="44">
+        <v>100</v>
+      </c>
+      <c r="O2" s="48">
+        <v>1.43</v>
+      </c>
+      <c r="P2" s="44">
+        <f>M2+N2</f>
+        <v>101</v>
+      </c>
+      <c r="Q2" s="69">
+        <v>1</v>
+      </c>
+      <c r="R2" s="53"/>
+      <c r="S2" s="44">
+        <f>P2-(Q$2*$E2)</f>
+        <v>98</v>
+      </c>
+      <c r="T2" s="44"/>
+      <c r="U2" s="48"/>
+      <c r="V2" s="44">
+        <f>S2+T2</f>
+        <v>98</v>
+      </c>
+      <c r="W2" s="69">
+        <v>3</v>
+      </c>
+      <c r="X2" s="53"/>
+      <c r="Y2" s="44">
+        <f>V2-(W$2*$E2)</f>
+        <v>89</v>
+      </c>
+    </row>
+    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="D3" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="E3" s="44">
+        <v>1</v>
+      </c>
+      <c r="F3" s="58"/>
+      <c r="G3" s="44">
+        <v>8</v>
+      </c>
+      <c r="I3" s="48"/>
+      <c r="J3" s="44">
+        <f t="shared" ref="J3:J33" si="0">G3+H3</f>
+        <v>8</v>
+      </c>
+      <c r="K3" s="69"/>
+      <c r="L3" s="63"/>
+      <c r="M3" s="44">
+        <f t="shared" ref="M3:M33" si="1">J3-(K$2*E3)</f>
+        <v>7</v>
+      </c>
+      <c r="N3" s="44"/>
+      <c r="O3" s="48"/>
+      <c r="P3" s="44">
+        <f t="shared" ref="P3:P35" si="2">M3+N3</f>
+        <v>7</v>
+      </c>
+      <c r="Q3" s="69"/>
+      <c r="R3" s="53"/>
+      <c r="S3" s="44">
+        <f t="shared" ref="S3:S35" si="3">P3-(Q$2*$E3)</f>
+        <v>6</v>
+      </c>
+      <c r="T3" s="44"/>
+      <c r="U3" s="48"/>
+      <c r="V3" s="44">
+        <f t="shared" ref="V3:V35" si="4">S3+T3</f>
+        <v>6</v>
+      </c>
+      <c r="W3" s="69"/>
+      <c r="X3" s="53"/>
+      <c r="Y3" s="44">
+        <f t="shared" ref="Y3:Y35" si="5">V3-(W$2*$E3)</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="D4" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="E4" s="44">
+        <v>2</v>
+      </c>
+      <c r="F4" s="58"/>
+      <c r="G4" s="44">
+        <v>6</v>
+      </c>
+      <c r="I4" s="48"/>
+      <c r="J4" s="44">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="K4" s="69"/>
+      <c r="L4" s="63"/>
+      <c r="M4" s="44">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="N4" s="44"/>
+      <c r="O4" s="48"/>
+      <c r="P4" s="44">
+        <f t="shared" si="2"/>
+        <v>4</v>
+      </c>
+      <c r="Q4" s="69"/>
+      <c r="R4" s="53"/>
+      <c r="S4" s="44">
+        <f t="shared" si="3"/>
+        <v>2</v>
+      </c>
+      <c r="T4" s="44">
+        <v>100</v>
+      </c>
+      <c r="U4" s="48">
+        <v>1.43</v>
+      </c>
+      <c r="V4" s="44">
+        <f t="shared" si="4"/>
+        <v>102</v>
+      </c>
+      <c r="W4" s="69"/>
+      <c r="X4" s="53"/>
+      <c r="Y4" s="44">
+        <f t="shared" si="5"/>
+        <v>96</v>
+      </c>
+    </row>
+    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A5" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="B5" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="C5" s="20" t="s">
+        <v>75</v>
+      </c>
+      <c r="D5" s="21" t="s">
+        <v>52</v>
+      </c>
+      <c r="E5" s="44">
+        <v>5</v>
+      </c>
+      <c r="F5" s="58"/>
+      <c r="G5" s="44">
+        <v>0</v>
+      </c>
+      <c r="H5" s="44">
+        <v>100</v>
+      </c>
+      <c r="I5" s="48">
+        <v>4.4400000000000004</v>
+      </c>
+      <c r="J5" s="44">
+        <f t="shared" si="0"/>
+        <v>100</v>
+      </c>
+      <c r="K5" s="69"/>
+      <c r="L5" s="63"/>
+      <c r="M5" s="44">
+        <f t="shared" si="1"/>
+        <v>95</v>
+      </c>
+      <c r="N5" s="44"/>
+      <c r="O5" s="48"/>
+      <c r="P5" s="44">
+        <f t="shared" si="2"/>
+        <v>95</v>
+      </c>
+      <c r="Q5" s="69"/>
+      <c r="R5" s="53"/>
+      <c r="S5" s="44">
+        <f t="shared" si="3"/>
+        <v>90</v>
+      </c>
+      <c r="T5" s="44"/>
+      <c r="U5" s="48"/>
+      <c r="V5" s="44">
+        <f t="shared" si="4"/>
+        <v>90</v>
+      </c>
+      <c r="W5" s="69"/>
+      <c r="X5" s="53"/>
+      <c r="Y5" s="44">
+        <f t="shared" si="5"/>
+        <v>75</v>
+      </c>
+    </row>
+    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="D6" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="E6" s="44">
+        <v>1</v>
+      </c>
+      <c r="F6" s="58"/>
+      <c r="G6" s="44">
+        <v>9</v>
+      </c>
+      <c r="I6" s="48"/>
+      <c r="J6" s="44">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="K6" s="69"/>
+      <c r="L6" s="63"/>
+      <c r="M6" s="44">
+        <f t="shared" si="1"/>
+        <v>8</v>
+      </c>
+      <c r="N6" s="44"/>
+      <c r="O6" s="48"/>
+      <c r="P6" s="44">
+        <f t="shared" si="2"/>
+        <v>8</v>
+      </c>
+      <c r="Q6" s="69"/>
+      <c r="R6" s="53"/>
+      <c r="S6" s="44">
+        <f t="shared" si="3"/>
+        <v>7</v>
+      </c>
+      <c r="T6" s="44"/>
+      <c r="U6" s="48"/>
+      <c r="V6" s="44">
+        <f t="shared" si="4"/>
+        <v>7</v>
+      </c>
+      <c r="W6" s="69"/>
+      <c r="X6" s="53"/>
+      <c r="Y6" s="44">
+        <f t="shared" si="5"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="D7" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="E7" s="44">
+        <v>1</v>
+      </c>
+      <c r="F7" s="58"/>
+      <c r="G7" s="44">
+        <v>0</v>
+      </c>
+      <c r="H7" s="44">
+        <v>10</v>
+      </c>
+      <c r="I7" s="48">
+        <v>3.21</v>
+      </c>
+      <c r="J7" s="44">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="K7" s="69"/>
+      <c r="L7" s="63"/>
+      <c r="M7" s="44">
+        <f t="shared" si="1"/>
+        <v>9</v>
+      </c>
+      <c r="N7" s="44"/>
+      <c r="O7" s="48"/>
+      <c r="P7" s="44">
+        <f t="shared" si="2"/>
+        <v>9</v>
+      </c>
+      <c r="Q7" s="69"/>
+      <c r="R7" s="53"/>
+      <c r="S7" s="44">
+        <f t="shared" si="3"/>
+        <v>8</v>
+      </c>
+      <c r="T7" s="44"/>
+      <c r="U7" s="48"/>
+      <c r="V7" s="44">
+        <f t="shared" si="4"/>
+        <v>8</v>
+      </c>
+      <c r="W7" s="69"/>
+      <c r="X7" s="53"/>
+      <c r="Y7" s="44">
+        <f t="shared" si="5"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="D8" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="E8" s="44">
+        <v>2</v>
+      </c>
+      <c r="F8" s="58"/>
+      <c r="G8" s="44">
+        <v>18</v>
+      </c>
+      <c r="I8" s="48"/>
+      <c r="J8" s="44">
+        <f t="shared" si="0"/>
+        <v>18</v>
+      </c>
+      <c r="K8" s="69"/>
+      <c r="L8" s="63"/>
+      <c r="M8" s="44">
+        <f t="shared" si="1"/>
+        <v>16</v>
+      </c>
+      <c r="N8" s="44"/>
+      <c r="O8" s="48"/>
+      <c r="P8" s="44">
+        <f t="shared" si="2"/>
+        <v>16</v>
+      </c>
+      <c r="Q8" s="69"/>
+      <c r="R8" s="53"/>
+      <c r="S8" s="44">
+        <f t="shared" si="3"/>
+        <v>14</v>
+      </c>
+      <c r="T8" s="44"/>
+      <c r="U8" s="48"/>
+      <c r="V8" s="44">
+        <f t="shared" si="4"/>
+        <v>14</v>
+      </c>
+      <c r="W8" s="69"/>
+      <c r="X8" s="53"/>
+      <c r="Y8" s="44">
+        <f t="shared" si="5"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="D9" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="E9" s="44">
+        <v>1</v>
+      </c>
+      <c r="F9" s="58"/>
+      <c r="G9" s="44">
+        <v>9</v>
+      </c>
+      <c r="I9" s="48"/>
+      <c r="J9" s="44">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="K9" s="69"/>
+      <c r="L9" s="63"/>
+      <c r="M9" s="44">
+        <f t="shared" si="1"/>
+        <v>8</v>
+      </c>
+      <c r="N9" s="44"/>
+      <c r="O9" s="48"/>
+      <c r="P9" s="44">
+        <f t="shared" si="2"/>
+        <v>8</v>
+      </c>
+      <c r="Q9" s="69"/>
+      <c r="R9" s="53"/>
+      <c r="S9" s="44">
+        <f t="shared" si="3"/>
+        <v>7</v>
+      </c>
+      <c r="T9" s="44"/>
+      <c r="U9" s="48"/>
+      <c r="V9" s="44">
+        <f t="shared" si="4"/>
+        <v>7</v>
+      </c>
+      <c r="W9" s="69"/>
+      <c r="X9" s="53"/>
+      <c r="Y9" s="44">
+        <f t="shared" si="5"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="D10" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="E10" s="44">
+        <v>1</v>
+      </c>
+      <c r="F10" s="58"/>
+      <c r="G10" s="44">
+        <v>0</v>
+      </c>
+      <c r="H10" s="44">
+        <v>1</v>
+      </c>
+      <c r="I10" s="48">
+        <v>3.6</v>
+      </c>
+      <c r="J10" s="44">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="K10" s="69"/>
+      <c r="L10" s="63"/>
+      <c r="M10" s="44">
+        <f>J10-(K$2*E10)</f>
+        <v>0</v>
+      </c>
+      <c r="N10" s="44">
+        <v>10</v>
+      </c>
+      <c r="O10" s="48">
+        <v>32.369999999999997</v>
+      </c>
+      <c r="P10" s="44">
+        <f t="shared" si="2"/>
+        <v>10</v>
+      </c>
+      <c r="Q10" s="69"/>
+      <c r="R10" s="53"/>
+      <c r="S10" s="44">
+        <f t="shared" si="3"/>
+        <v>9</v>
+      </c>
+      <c r="T10" s="44"/>
+      <c r="U10" s="48"/>
+      <c r="V10" s="44">
+        <f t="shared" si="4"/>
+        <v>9</v>
+      </c>
+      <c r="W10" s="69"/>
+      <c r="X10" s="53"/>
+      <c r="Y10" s="44">
+        <f t="shared" si="5"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D11" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="E11" s="44">
+        <v>1</v>
+      </c>
+      <c r="F11" s="58"/>
+      <c r="G11" s="44">
+        <v>9</v>
+      </c>
+      <c r="I11" s="48"/>
+      <c r="J11" s="44">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="K11" s="69"/>
+      <c r="L11" s="63"/>
+      <c r="M11" s="44">
+        <f t="shared" si="1"/>
+        <v>8</v>
+      </c>
+      <c r="N11" s="44"/>
+      <c r="O11" s="48"/>
+      <c r="P11" s="44">
+        <f t="shared" si="2"/>
+        <v>8</v>
+      </c>
+      <c r="Q11" s="69"/>
+      <c r="R11" s="53"/>
+      <c r="S11" s="44">
+        <f t="shared" si="3"/>
+        <v>7</v>
+      </c>
+      <c r="T11" s="44"/>
+      <c r="U11" s="48"/>
+      <c r="V11" s="44">
+        <f t="shared" si="4"/>
+        <v>7</v>
+      </c>
+      <c r="W11" s="69"/>
+      <c r="X11" s="53"/>
+      <c r="Y11" s="44">
+        <f t="shared" si="5"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="D12" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="E12" s="44">
+        <v>1</v>
+      </c>
+      <c r="F12" s="58"/>
+      <c r="G12" s="44">
+        <v>0</v>
+      </c>
+      <c r="H12" s="44">
+        <v>10</v>
+      </c>
+      <c r="I12" s="48">
+        <v>1.18</v>
+      </c>
+      <c r="J12" s="44">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="K12" s="69"/>
+      <c r="L12" s="63"/>
+      <c r="M12" s="44">
+        <f t="shared" si="1"/>
+        <v>9</v>
+      </c>
+      <c r="N12" s="44"/>
+      <c r="O12" s="48"/>
+      <c r="P12" s="44">
+        <f t="shared" si="2"/>
+        <v>9</v>
+      </c>
+      <c r="Q12" s="69"/>
+      <c r="R12" s="53"/>
+      <c r="S12" s="44">
+        <f t="shared" si="3"/>
+        <v>8</v>
+      </c>
+      <c r="T12" s="44"/>
+      <c r="U12" s="48"/>
+      <c r="V12" s="44">
+        <f t="shared" si="4"/>
+        <v>8</v>
+      </c>
+      <c r="W12" s="69"/>
+      <c r="X12" s="53"/>
+      <c r="Y12" s="44">
+        <f t="shared" si="5"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="D13" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="E13" s="44">
+        <v>3</v>
+      </c>
+      <c r="F13" s="58"/>
+      <c r="G13" s="44">
+        <v>4</v>
+      </c>
+      <c r="I13" s="48"/>
+      <c r="J13" s="44">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="K13" s="69"/>
+      <c r="L13" s="63"/>
+      <c r="M13" s="44">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="N13" s="44">
+        <v>100</v>
+      </c>
+      <c r="O13" s="48">
+        <v>0.51</v>
+      </c>
+      <c r="P13" s="44">
+        <f t="shared" si="2"/>
+        <v>101</v>
+      </c>
+      <c r="Q13" s="69"/>
+      <c r="R13" s="53"/>
+      <c r="S13" s="44">
+        <f t="shared" si="3"/>
+        <v>98</v>
+      </c>
+      <c r="T13" s="44"/>
+      <c r="U13" s="48"/>
+      <c r="V13" s="44">
+        <f t="shared" si="4"/>
+        <v>98</v>
+      </c>
+      <c r="W13" s="69"/>
+      <c r="X13" s="53"/>
+      <c r="Y13" s="44">
+        <f t="shared" si="5"/>
+        <v>89</v>
+      </c>
+    </row>
+    <row r="14" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A14" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="D14" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="E14" s="44">
+        <v>4</v>
+      </c>
+      <c r="F14" s="58"/>
+      <c r="G14" s="44">
+        <v>2</v>
+      </c>
+      <c r="H14" s="44">
+        <v>100</v>
+      </c>
+      <c r="I14" s="48">
+        <v>0.51</v>
+      </c>
+      <c r="J14" s="44">
+        <f t="shared" si="0"/>
+        <v>102</v>
+      </c>
+      <c r="K14" s="69"/>
+      <c r="L14" s="63"/>
+      <c r="M14" s="44">
+        <f t="shared" si="1"/>
+        <v>98</v>
+      </c>
+      <c r="N14" s="44"/>
+      <c r="O14" s="48"/>
+      <c r="P14" s="44">
+        <f t="shared" si="2"/>
+        <v>98</v>
+      </c>
+      <c r="Q14" s="69"/>
+      <c r="R14" s="53"/>
+      <c r="S14" s="44">
+        <f t="shared" si="3"/>
+        <v>94</v>
+      </c>
+      <c r="T14" s="44"/>
+      <c r="U14" s="48"/>
+      <c r="V14" s="44">
+        <f t="shared" si="4"/>
+        <v>94</v>
+      </c>
+      <c r="W14" s="69"/>
+      <c r="X14" s="53"/>
+      <c r="Y14" s="44">
+        <f t="shared" si="5"/>
+        <v>82</v>
+      </c>
+    </row>
+    <row r="15" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A15" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="D15" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="E15" s="44">
+        <v>3</v>
+      </c>
+      <c r="F15" s="58"/>
+      <c r="G15" s="44">
+        <v>4</v>
+      </c>
+      <c r="I15" s="48"/>
+      <c r="J15" s="44">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="K15" s="69"/>
+      <c r="L15" s="63"/>
+      <c r="M15" s="44">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="N15" s="44">
+        <v>100</v>
+      </c>
+      <c r="O15" s="48">
+        <v>0.51</v>
+      </c>
+      <c r="P15" s="44">
+        <f t="shared" si="2"/>
+        <v>101</v>
+      </c>
+      <c r="Q15" s="69"/>
+      <c r="R15" s="53"/>
+      <c r="S15" s="44">
+        <f t="shared" si="3"/>
+        <v>98</v>
+      </c>
+      <c r="T15" s="44"/>
+      <c r="U15" s="48"/>
+      <c r="V15" s="44">
+        <f t="shared" si="4"/>
+        <v>98</v>
+      </c>
+      <c r="W15" s="69"/>
+      <c r="X15" s="53"/>
+      <c r="Y15" s="44">
+        <f t="shared" si="5"/>
+        <v>89</v>
+      </c>
+    </row>
+    <row r="16" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A16" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="D16" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="E16" s="44">
+        <v>1</v>
+      </c>
+      <c r="F16" s="58"/>
+      <c r="G16" s="44">
+        <v>8</v>
+      </c>
+      <c r="I16" s="48"/>
+      <c r="J16" s="44">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="K16" s="69"/>
+      <c r="L16" s="63"/>
+      <c r="M16" s="44">
+        <f t="shared" si="1"/>
+        <v>7</v>
+      </c>
+      <c r="N16" s="44"/>
+      <c r="O16" s="48"/>
+      <c r="P16" s="44">
+        <f t="shared" si="2"/>
+        <v>7</v>
+      </c>
+      <c r="Q16" s="69"/>
+      <c r="R16" s="53"/>
+      <c r="S16" s="44">
+        <f t="shared" si="3"/>
+        <v>6</v>
+      </c>
+      <c r="T16" s="44"/>
+      <c r="U16" s="48"/>
+      <c r="V16" s="44">
+        <f t="shared" si="4"/>
+        <v>6</v>
+      </c>
+      <c r="W16" s="69"/>
+      <c r="X16" s="53"/>
+      <c r="Y16" s="44">
+        <f t="shared" si="5"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A17" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="D17" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="E17" s="44">
+        <v>1</v>
+      </c>
+      <c r="F17" s="58"/>
+      <c r="G17" s="44">
+        <v>0</v>
+      </c>
+      <c r="H17" s="44">
+        <v>1</v>
+      </c>
+      <c r="I17" s="48">
+        <v>0.91</v>
+      </c>
+      <c r="J17" s="44">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="K17" s="69"/>
+      <c r="L17" s="63"/>
+      <c r="M17" s="44">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="N17" s="44">
+        <v>10</v>
+      </c>
+      <c r="O17" s="48">
+        <v>8.6999999999999993</v>
+      </c>
+      <c r="P17" s="44">
+        <f t="shared" si="2"/>
+        <v>10</v>
+      </c>
+      <c r="Q17" s="69"/>
+      <c r="R17" s="53"/>
+      <c r="S17" s="44">
+        <f t="shared" si="3"/>
+        <v>9</v>
+      </c>
+      <c r="T17" s="44"/>
+      <c r="U17" s="48"/>
+      <c r="V17" s="44">
+        <f t="shared" si="4"/>
+        <v>9</v>
+      </c>
+      <c r="W17" s="69"/>
+      <c r="X17" s="53"/>
+      <c r="Y17" s="44">
+        <f t="shared" si="5"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="18" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A18" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="C18" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="D18" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="E18" s="44">
+        <v>1</v>
+      </c>
+      <c r="F18" s="58"/>
+      <c r="G18" s="44">
+        <v>0</v>
+      </c>
+      <c r="H18" s="44">
+        <v>1</v>
+      </c>
+      <c r="I18" s="48">
+        <v>0.52</v>
+      </c>
+      <c r="J18" s="44">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="K18" s="69"/>
+      <c r="L18" s="63"/>
+      <c r="M18" s="44">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="N18" s="44">
+        <v>10</v>
+      </c>
+      <c r="O18" s="48">
+        <v>4.99</v>
+      </c>
+      <c r="P18" s="44">
+        <f t="shared" si="2"/>
+        <v>10</v>
+      </c>
+      <c r="Q18" s="69"/>
+      <c r="R18" s="53"/>
+      <c r="S18" s="44">
+        <f t="shared" si="3"/>
+        <v>9</v>
+      </c>
+      <c r="T18" s="44"/>
+      <c r="U18" s="48"/>
+      <c r="V18" s="44">
+        <f t="shared" si="4"/>
+        <v>9</v>
+      </c>
+      <c r="W18" s="69"/>
+      <c r="X18" s="53"/>
+      <c r="Y18" s="44">
+        <f t="shared" si="5"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="19" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A19" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C19" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="D19" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="E19" s="44">
+        <v>1</v>
+      </c>
+      <c r="F19" s="58"/>
+      <c r="G19" s="44">
+        <v>0</v>
+      </c>
+      <c r="H19" s="44">
+        <v>1</v>
+      </c>
+      <c r="I19" s="48">
+        <v>3.09</v>
+      </c>
+      <c r="J19" s="44">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="K19" s="69"/>
+      <c r="L19" s="63"/>
+      <c r="M19" s="44">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="N19" s="44">
+        <v>1</v>
+      </c>
+      <c r="O19" s="48">
+        <v>3.09</v>
+      </c>
+      <c r="P19" s="44">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="Q19" s="69"/>
+      <c r="R19" s="53"/>
+      <c r="S19" s="44">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="T19" s="44">
+        <v>3</v>
+      </c>
+      <c r="U19" s="48">
+        <f>(70.04-70.04)+(3*3.09)</f>
+        <v>9.27</v>
+      </c>
+      <c r="V19" s="44">
+        <f t="shared" si="4"/>
+        <v>3</v>
+      </c>
+      <c r="W19" s="69"/>
+      <c r="X19" s="53"/>
+      <c r="Y19" s="44">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A20" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C20" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="D20" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="E20" s="44">
+        <v>1</v>
+      </c>
+      <c r="F20" s="58"/>
+      <c r="G20" s="44">
+        <v>0</v>
+      </c>
+      <c r="H20" s="44">
+        <v>10</v>
+      </c>
+      <c r="I20" s="48">
+        <v>3.62</v>
+      </c>
+      <c r="J20" s="44">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="K20" s="69"/>
+      <c r="L20" s="63"/>
+      <c r="M20" s="44">
+        <f t="shared" si="1"/>
+        <v>9</v>
+      </c>
+      <c r="N20" s="44"/>
+      <c r="O20" s="48"/>
+      <c r="P20" s="44">
+        <f t="shared" si="2"/>
+        <v>9</v>
+      </c>
+      <c r="Q20" s="69"/>
+      <c r="R20" s="53"/>
+      <c r="S20" s="44">
+        <f t="shared" si="3"/>
+        <v>8</v>
+      </c>
+      <c r="T20" s="44"/>
+      <c r="U20" s="48"/>
+      <c r="V20" s="44">
+        <f t="shared" si="4"/>
+        <v>8</v>
+      </c>
+      <c r="W20" s="69"/>
+      <c r="X20" s="53"/>
+      <c r="Y20" s="44">
+        <f t="shared" si="5"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="21" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A21" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="C21" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="D21" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="E21" s="44">
+        <v>2</v>
+      </c>
+      <c r="F21" s="58"/>
+      <c r="G21" s="44">
+        <v>0</v>
+      </c>
+      <c r="H21" s="44">
+        <v>10</v>
+      </c>
+      <c r="I21" s="48">
+        <v>2.85</v>
+      </c>
+      <c r="J21" s="44">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="K21" s="69"/>
+      <c r="L21" s="63"/>
+      <c r="M21" s="44">
+        <f t="shared" si="1"/>
+        <v>8</v>
+      </c>
+      <c r="N21" s="44"/>
+      <c r="O21" s="48"/>
+      <c r="P21" s="44">
+        <f t="shared" si="2"/>
+        <v>8</v>
+      </c>
+      <c r="Q21" s="69"/>
+      <c r="R21" s="53"/>
+      <c r="S21" s="44">
+        <f t="shared" si="3"/>
+        <v>6</v>
+      </c>
+      <c r="T21" s="44"/>
+      <c r="U21" s="48"/>
+      <c r="V21" s="44">
+        <f t="shared" si="4"/>
+        <v>6</v>
+      </c>
+      <c r="W21" s="69"/>
+      <c r="X21" s="53"/>
+      <c r="Y21" s="44">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A22" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C22" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D22" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="E22" s="44">
+        <v>1</v>
+      </c>
+      <c r="F22" s="58"/>
+      <c r="G22" s="44">
+        <v>0</v>
+      </c>
+      <c r="H22" s="44">
+        <v>10</v>
+      </c>
+      <c r="I22" s="48">
+        <v>5.8</v>
+      </c>
+      <c r="J22" s="44">
+        <f>G22+H22-1</f>
+        <v>9</v>
+      </c>
+      <c r="K22" s="69"/>
+      <c r="L22" s="63"/>
+      <c r="M22" s="44">
+        <f>J22-(K$2*E22)</f>
+        <v>8</v>
+      </c>
+      <c r="N22" s="44"/>
+      <c r="O22" s="48"/>
+      <c r="P22" s="44">
+        <f t="shared" si="2"/>
+        <v>8</v>
+      </c>
+      <c r="Q22" s="69"/>
+      <c r="R22" s="53"/>
+      <c r="S22" s="44">
+        <f t="shared" si="3"/>
+        <v>7</v>
+      </c>
+      <c r="T22" s="44"/>
+      <c r="U22" s="48"/>
+      <c r="V22" s="44">
+        <f t="shared" si="4"/>
+        <v>7</v>
+      </c>
+      <c r="W22" s="69"/>
+      <c r="X22" s="53"/>
+      <c r="Y22" s="44">
+        <f t="shared" si="5"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="23" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A23" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C23" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="D23" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="E23" s="44">
+        <v>1</v>
+      </c>
+      <c r="F23" s="58"/>
+      <c r="G23" s="44">
+        <v>0</v>
+      </c>
+      <c r="H23" s="44">
+        <v>1</v>
+      </c>
+      <c r="I23" s="48">
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="J23" s="44">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="K23" s="69"/>
+      <c r="L23" s="63"/>
+      <c r="M23" s="44">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="N23" s="44">
+        <v>10</v>
+      </c>
+      <c r="O23" s="48">
+        <v>5.47</v>
+      </c>
+      <c r="P23" s="44">
+        <f t="shared" si="2"/>
+        <v>10</v>
+      </c>
+      <c r="Q23" s="69"/>
+      <c r="R23" s="53"/>
+      <c r="S23" s="44">
+        <f t="shared" si="3"/>
+        <v>9</v>
+      </c>
+      <c r="T23" s="44"/>
+      <c r="U23" s="48"/>
+      <c r="V23" s="44">
+        <f t="shared" si="4"/>
+        <v>9</v>
+      </c>
+      <c r="W23" s="69"/>
+      <c r="X23" s="53"/>
+      <c r="Y23" s="44">
+        <f t="shared" si="5"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="24" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A24" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C24" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="D24" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="E24" s="44">
+        <v>1</v>
+      </c>
+      <c r="F24" s="58"/>
+      <c r="G24" s="44">
+        <v>0</v>
+      </c>
+      <c r="H24" s="44">
+        <v>10</v>
+      </c>
+      <c r="I24" s="48">
+        <v>4.95</v>
+      </c>
+      <c r="J24" s="44">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="K24" s="69"/>
+      <c r="L24" s="63"/>
+      <c r="M24" s="44">
+        <f>J24-(K$2*E24)</f>
+        <v>9</v>
+      </c>
+      <c r="N24" s="44"/>
+      <c r="O24" s="48"/>
+      <c r="P24" s="44">
+        <f t="shared" si="2"/>
+        <v>9</v>
+      </c>
+      <c r="Q24" s="69"/>
+      <c r="R24" s="53"/>
+      <c r="S24" s="44">
+        <f t="shared" si="3"/>
+        <v>8</v>
+      </c>
+      <c r="T24" s="44"/>
+      <c r="U24" s="48"/>
+      <c r="V24" s="44">
+        <f t="shared" si="4"/>
+        <v>8</v>
+      </c>
+      <c r="W24" s="69"/>
+      <c r="X24" s="53"/>
+      <c r="Y24" s="44">
+        <f t="shared" si="5"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="25" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A25" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C25" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="D25" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="E25" s="44">
+        <v>1</v>
+      </c>
+      <c r="F25" s="58"/>
+      <c r="G25" s="44">
+        <v>0</v>
+      </c>
+      <c r="H25" s="44">
+        <v>1</v>
+      </c>
+      <c r="I25" s="48">
+        <v>0.42</v>
+      </c>
+      <c r="J25" s="44">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="K25" s="69"/>
+      <c r="L25" s="63"/>
+      <c r="M25" s="44">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="N25" s="44">
+        <v>10</v>
+      </c>
+      <c r="O25" s="48">
+        <v>3.93</v>
+      </c>
+      <c r="P25" s="44">
+        <f t="shared" si="2"/>
+        <v>10</v>
+      </c>
+      <c r="Q25" s="69"/>
+      <c r="R25" s="53"/>
+      <c r="S25" s="44">
+        <f t="shared" si="3"/>
+        <v>9</v>
+      </c>
+      <c r="T25" s="44"/>
+      <c r="U25" s="48"/>
+      <c r="V25" s="44">
+        <f t="shared" si="4"/>
+        <v>9</v>
+      </c>
+      <c r="W25" s="69"/>
+      <c r="X25" s="53"/>
+      <c r="Y25" s="44">
+        <f t="shared" si="5"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="26" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A26" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="B26" s="1"/>
+      <c r="C26" s="45">
+        <v>1317</v>
+      </c>
+      <c r="D26" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="E26" s="44">
+        <v>1</v>
+      </c>
+      <c r="F26" s="58"/>
+      <c r="G26" s="44">
+        <v>0</v>
+      </c>
+      <c r="H26" s="44">
+        <v>1</v>
+      </c>
+      <c r="I26" s="48">
+        <v>5.95</v>
+      </c>
+      <c r="J26" s="44">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="K26" s="69"/>
+      <c r="L26" s="63"/>
+      <c r="M26" s="44">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="N26" s="44">
+        <v>1</v>
+      </c>
+      <c r="O26" s="48">
+        <v>5.95</v>
+      </c>
+      <c r="P26" s="44">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="Q26" s="69"/>
+      <c r="R26" s="53"/>
+      <c r="S26" s="44">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="T26" s="44">
+        <v>3</v>
+      </c>
+      <c r="U26" s="48">
+        <f>5.95*T26</f>
+        <v>17.850000000000001</v>
+      </c>
+      <c r="V26" s="44">
+        <f t="shared" si="4"/>
+        <v>3</v>
+      </c>
+      <c r="W26" s="69"/>
+      <c r="X26" s="53"/>
+      <c r="Y26" s="44">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A27" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="B27" s="1"/>
+      <c r="C27" s="4"/>
+      <c r="D27" s="10" t="s">
+        <v>95</v>
+      </c>
+      <c r="E27" s="44">
+        <v>1</v>
+      </c>
+      <c r="F27" s="58"/>
+      <c r="G27" s="44">
+        <v>8</v>
+      </c>
+      <c r="I27" s="48"/>
+      <c r="J27" s="44">
+        <f>G27+H27-1</f>
+        <v>7</v>
+      </c>
+      <c r="K27" s="69"/>
+      <c r="L27" s="63"/>
+      <c r="M27" s="44">
+        <f>J27-(K$2*E27)</f>
+        <v>6</v>
+      </c>
+      <c r="N27" s="44"/>
+      <c r="O27" s="48"/>
+      <c r="P27" s="44">
+        <f t="shared" si="2"/>
+        <v>6</v>
+      </c>
+      <c r="Q27" s="69"/>
+      <c r="R27" s="53"/>
+      <c r="S27" s="44">
+        <f t="shared" si="3"/>
+        <v>5</v>
+      </c>
+      <c r="T27" s="44"/>
+      <c r="U27" s="48"/>
+      <c r="V27" s="44">
+        <f t="shared" si="4"/>
+        <v>5</v>
+      </c>
+      <c r="W27" s="69"/>
+      <c r="X27" s="53"/>
+      <c r="Y27" s="44">
+        <f t="shared" si="5"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A28" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="D28" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="E28" s="44">
+        <v>1</v>
+      </c>
+      <c r="F28" s="58"/>
+      <c r="G28" s="44">
+        <v>0</v>
+      </c>
+      <c r="H28" s="44">
+        <v>2</v>
+      </c>
+      <c r="I28" s="48">
+        <f>1.85+11.18</f>
+        <v>13.03</v>
+      </c>
+      <c r="J28" s="44">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="K28" s="69"/>
+      <c r="L28" s="63"/>
+      <c r="M28" s="44">
+        <f>J28-(K$2*E28)</f>
+        <v>1</v>
+      </c>
+      <c r="N28" s="44"/>
+      <c r="O28" s="48"/>
+      <c r="P28" s="44">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="Q28" s="69"/>
+      <c r="R28" s="53"/>
+      <c r="S28" s="44">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="T28" s="44">
+        <v>5</v>
+      </c>
+      <c r="U28" s="48">
+        <f>27.95+1.85</f>
+        <v>29.8</v>
+      </c>
+      <c r="V28" s="44">
+        <f t="shared" si="4"/>
+        <v>5</v>
+      </c>
+      <c r="W28" s="69"/>
+      <c r="X28" s="53"/>
+      <c r="Y28" s="44">
+        <f t="shared" si="5"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A29" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="D29" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="E29" s="44">
+        <v>1</v>
+      </c>
+      <c r="F29" s="58"/>
+      <c r="G29" s="44">
+        <v>0</v>
+      </c>
+      <c r="H29" s="44">
+        <v>4</v>
+      </c>
+      <c r="I29" s="48">
+        <f>17.82+17.5</f>
+        <v>35.32</v>
+      </c>
+      <c r="J29" s="44">
+        <f>G29+H29-2</f>
+        <v>2</v>
+      </c>
+      <c r="K29" s="69"/>
+      <c r="L29" s="63"/>
+      <c r="M29" s="44">
+        <f>J29-(K$2*E29)</f>
+        <v>1</v>
+      </c>
+      <c r="N29" s="44"/>
+      <c r="O29" s="48"/>
+      <c r="P29" s="44">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="Q29" s="69"/>
+      <c r="R29" s="53"/>
+      <c r="S29" s="44">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="T29" s="44">
+        <v>5</v>
+      </c>
+      <c r="U29" s="48">
+        <v>41</v>
+      </c>
+      <c r="V29" s="44">
+        <f t="shared" si="4"/>
+        <v>5</v>
+      </c>
+      <c r="W29" s="69"/>
+      <c r="X29" s="53"/>
+      <c r="Y29" s="44">
+        <f t="shared" si="5"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A30" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="B30" s="1"/>
+      <c r="C30" s="4"/>
+      <c r="D30" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="E30" s="44">
+        <v>1</v>
+      </c>
+      <c r="F30" s="58"/>
+      <c r="G30" s="44">
+        <v>0</v>
+      </c>
+      <c r="H30" s="44">
+        <v>100</v>
+      </c>
+      <c r="I30" s="48">
+        <v>3.66</v>
+      </c>
+      <c r="J30" s="44">
+        <f t="shared" si="0"/>
+        <v>100</v>
+      </c>
+      <c r="K30" s="69"/>
+      <c r="L30" s="63"/>
+      <c r="M30" s="44">
+        <f t="shared" si="1"/>
+        <v>99</v>
+      </c>
+      <c r="N30" s="44"/>
+      <c r="O30" s="48"/>
+      <c r="P30" s="44">
+        <f t="shared" si="2"/>
+        <v>99</v>
+      </c>
+      <c r="Q30" s="69"/>
+      <c r="R30" s="53"/>
+      <c r="S30" s="44">
+        <f t="shared" si="3"/>
+        <v>98</v>
+      </c>
+      <c r="T30" s="44"/>
+      <c r="U30" s="48"/>
+      <c r="V30" s="44">
+        <f t="shared" si="4"/>
+        <v>98</v>
+      </c>
+      <c r="W30" s="69"/>
+      <c r="X30" s="53"/>
+      <c r="Y30" s="44">
+        <f t="shared" si="5"/>
+        <v>95</v>
+      </c>
+    </row>
+    <row r="31" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A31" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="B31" s="1"/>
+      <c r="C31" s="4"/>
+      <c r="D31" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="E31" s="44">
+        <v>1</v>
+      </c>
+      <c r="F31" s="58"/>
+      <c r="G31" s="44">
+        <v>1</v>
+      </c>
+      <c r="H31" s="44">
+        <v>2</v>
+      </c>
+      <c r="I31" s="48">
+        <v>4.67</v>
+      </c>
+      <c r="J31" s="44">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="K31" s="69"/>
+      <c r="L31" s="63"/>
+      <c r="M31" s="44">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="N31" s="44"/>
+      <c r="O31" s="48"/>
+      <c r="P31" s="44">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="Q31" s="69"/>
+      <c r="R31" s="53"/>
+      <c r="S31" s="44">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="T31" s="44">
+        <v>2</v>
+      </c>
+      <c r="U31" s="48">
+        <v>4.67</v>
+      </c>
+      <c r="V31" s="44">
+        <f t="shared" si="4"/>
+        <v>3</v>
+      </c>
+      <c r="W31" s="69"/>
+      <c r="X31" s="53"/>
+      <c r="Y31" s="44">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A32" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="B32" s="1"/>
+      <c r="C32" s="4"/>
+      <c r="D32" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="E32" s="44">
+        <v>1</v>
+      </c>
+      <c r="F32" s="58"/>
+      <c r="G32" s="44">
+        <v>2</v>
+      </c>
+      <c r="I32" s="48"/>
+      <c r="J32" s="44">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="K32" s="69"/>
+      <c r="L32" s="63"/>
+      <c r="M32" s="44">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="N32" s="44"/>
+      <c r="O32" s="48"/>
+      <c r="P32" s="44">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="Q32" s="69"/>
+      <c r="R32" s="53"/>
+      <c r="S32" s="44">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="T32" s="44">
+        <v>64</v>
+      </c>
+      <c r="U32" s="48">
+        <v>10.82</v>
+      </c>
+      <c r="V32" s="44">
+        <f t="shared" si="4"/>
+        <v>64</v>
+      </c>
+      <c r="W32" s="69"/>
+      <c r="X32" s="53"/>
+      <c r="Y32" s="44">
+        <f t="shared" si="5"/>
+        <v>61</v>
+      </c>
+    </row>
+    <row r="33" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A33" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="B33" s="1"/>
+      <c r="C33" s="4"/>
+      <c r="D33" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="E33" s="44">
+        <v>1</v>
+      </c>
+      <c r="F33" s="58"/>
+      <c r="G33" s="44">
+        <v>3</v>
+      </c>
+      <c r="I33" s="48"/>
+      <c r="J33" s="44">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="K33" s="69"/>
+      <c r="L33" s="63"/>
+      <c r="M33" s="44">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="N33" s="44"/>
+      <c r="O33" s="48"/>
+      <c r="P33" s="44">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="Q33" s="69"/>
+      <c r="R33" s="53"/>
+      <c r="S33" s="44">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="T33" s="44">
+        <v>5</v>
+      </c>
+      <c r="U33" s="48">
+        <v>5.6</v>
+      </c>
+      <c r="V33" s="44">
+        <f t="shared" si="4"/>
+        <v>6</v>
+      </c>
+      <c r="W33" s="69"/>
+      <c r="X33" s="53"/>
+      <c r="Y33" s="44">
+        <f t="shared" si="5"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A34" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="B34" s="1"/>
+      <c r="C34" s="4"/>
+      <c r="D34" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="E34" s="44">
+        <v>1</v>
+      </c>
+      <c r="F34" s="58"/>
+      <c r="G34" s="44">
+        <v>0</v>
+      </c>
+      <c r="H34" s="44">
+        <v>1</v>
+      </c>
+      <c r="I34" s="48">
+        <v>0.88</v>
+      </c>
+      <c r="J34" s="44">
+        <f>G34+H34</f>
+        <v>1</v>
+      </c>
+      <c r="K34" s="69"/>
+      <c r="L34" s="63"/>
+      <c r="M34" s="44">
+        <f>J34-(K$2*E34)</f>
+        <v>0</v>
+      </c>
+      <c r="N34" s="44">
+        <v>10</v>
+      </c>
+      <c r="O34" s="48">
+        <v>8.8000000000000007</v>
+      </c>
+      <c r="P34" s="44">
+        <f t="shared" si="2"/>
+        <v>10</v>
+      </c>
+      <c r="Q34" s="69"/>
+      <c r="R34" s="53"/>
+      <c r="S34" s="44">
+        <f t="shared" si="3"/>
+        <v>9</v>
+      </c>
+      <c r="T34" s="44">
+        <v>10</v>
+      </c>
+      <c r="U34" s="48">
+        <v>8.8000000000000007</v>
+      </c>
+      <c r="V34" s="44">
+        <f t="shared" si="4"/>
+        <v>19</v>
+      </c>
+      <c r="W34" s="69"/>
+      <c r="X34" s="53"/>
+      <c r="Y34" s="44">
+        <f t="shared" si="5"/>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="35" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A35" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="B35" s="1"/>
+      <c r="C35" s="4"/>
+      <c r="D35" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="E35" s="44">
+        <v>4</v>
+      </c>
+      <c r="F35" s="58"/>
+      <c r="G35" s="44">
+        <v>26</v>
+      </c>
+      <c r="I35" s="48"/>
+      <c r="J35" s="44">
+        <f>G35+H35</f>
+        <v>26</v>
+      </c>
+      <c r="K35" s="69"/>
+      <c r="L35" s="63"/>
+      <c r="M35" s="44">
+        <f>J35-(K$2*E35)</f>
+        <v>22</v>
+      </c>
+      <c r="N35" s="44"/>
+      <c r="O35" s="48"/>
+      <c r="P35" s="44">
+        <f t="shared" si="2"/>
+        <v>22</v>
+      </c>
+      <c r="Q35" s="69"/>
+      <c r="R35" s="53"/>
+      <c r="S35" s="44">
+        <f t="shared" si="3"/>
+        <v>18</v>
+      </c>
+      <c r="T35" s="44"/>
+      <c r="U35" s="48"/>
+      <c r="V35" s="44">
+        <f t="shared" si="4"/>
+        <v>18</v>
+      </c>
+      <c r="W35" s="69"/>
+      <c r="X35" s="53"/>
+      <c r="Y35" s="44">
+        <f t="shared" si="5"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="36" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A36" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="B36" s="1"/>
+      <c r="C36" s="4"/>
+      <c r="D36" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="F36" s="60"/>
+      <c r="G36" s="54"/>
+      <c r="H36" s="68" t="s">
+        <v>136</v>
+      </c>
+      <c r="I36" s="47">
+        <v>8.99</v>
+      </c>
+      <c r="J36" s="53"/>
+      <c r="K36" s="69"/>
+      <c r="L36" s="63"/>
+      <c r="M36" s="54"/>
+      <c r="N36" s="68" t="s">
+        <v>136</v>
+      </c>
+      <c r="O36" s="48">
+        <v>8.99</v>
+      </c>
+      <c r="P36" s="54"/>
+      <c r="Q36" s="69"/>
+      <c r="R36" s="53"/>
+      <c r="S36" s="54"/>
+      <c r="T36" s="68" t="s">
+        <v>136</v>
+      </c>
+      <c r="U36" s="48">
+        <v>8.99</v>
+      </c>
+      <c r="V36" s="54"/>
+      <c r="W36" s="69"/>
+      <c r="X36" s="53"/>
+      <c r="Y36" s="54"/>
+    </row>
+    <row r="37" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A37" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="B37" s="1"/>
+      <c r="C37" s="4"/>
+      <c r="D37" s="11"/>
+      <c r="F37" s="60"/>
+      <c r="G37" s="54"/>
+      <c r="H37" s="68"/>
+      <c r="I37" s="47">
+        <f>0.135*I43</f>
+        <v>10.8</v>
+      </c>
+      <c r="J37" s="53"/>
+      <c r="K37" s="69"/>
+      <c r="L37" s="63"/>
+      <c r="M37" s="54"/>
+      <c r="N37" s="68"/>
+      <c r="O37" s="48">
+        <f>I37</f>
+        <v>10.8</v>
+      </c>
+      <c r="P37" s="54"/>
+      <c r="Q37" s="69"/>
+      <c r="R37" s="53"/>
+      <c r="S37" s="54"/>
+      <c r="T37" s="68"/>
+      <c r="U37" s="48"/>
+      <c r="V37" s="54"/>
+      <c r="W37" s="69"/>
+      <c r="X37" s="53"/>
+      <c r="Y37" s="54"/>
+    </row>
+    <row r="38" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="B38" s="1"/>
+      <c r="C38" s="4"/>
+      <c r="D38" s="11"/>
+      <c r="F38" s="60"/>
+      <c r="G38" s="54"/>
+      <c r="H38" s="68"/>
+      <c r="I38" s="47">
+        <v>3.5</v>
+      </c>
+      <c r="J38" s="53"/>
+      <c r="K38" s="69"/>
+      <c r="L38" s="63"/>
+      <c r="M38" s="54"/>
+      <c r="N38" s="68"/>
+      <c r="O38" s="48">
+        <f>I38</f>
+        <v>3.5</v>
+      </c>
+      <c r="P38" s="54"/>
+      <c r="Q38" s="69"/>
+      <c r="R38" s="53"/>
+      <c r="S38" s="54"/>
+      <c r="T38" s="68"/>
+      <c r="U38" s="48"/>
+      <c r="V38" s="54"/>
+      <c r="W38" s="69"/>
+      <c r="X38" s="53"/>
+      <c r="Y38" s="54"/>
+    </row>
+    <row r="39" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A39" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="B39" s="1"/>
+      <c r="C39" s="4"/>
+      <c r="D39" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="E39" s="46">
+        <v>5.3699999999999998E-2</v>
+      </c>
+      <c r="F39" s="61"/>
+      <c r="G39" s="54"/>
+      <c r="H39" s="68" t="s">
+        <v>137</v>
+      </c>
+      <c r="I39" s="48">
+        <f>($E39*SUM(I2:I26))</f>
+        <v>2.2355310000000004</v>
+      </c>
+      <c r="J39" s="53"/>
+      <c r="K39" s="70"/>
+      <c r="L39" s="64"/>
+      <c r="M39" s="54"/>
+      <c r="N39" s="68" t="s">
+        <v>137</v>
+      </c>
+      <c r="O39" s="48">
+        <f>($E39*SUM(O2:O26))</f>
+        <v>3.5952149999999992</v>
+      </c>
+      <c r="P39" s="54"/>
+      <c r="Q39" s="70"/>
+      <c r="R39" s="57"/>
+      <c r="S39" s="54"/>
+      <c r="T39" s="68" t="s">
+        <v>137</v>
+      </c>
+      <c r="U39" s="48">
+        <f>($E39*SUM(U2:U26))</f>
+        <v>1.5331349999999999</v>
+      </c>
+      <c r="V39" s="54"/>
+      <c r="W39" s="70"/>
+      <c r="X39" s="57"/>
+      <c r="Y39" s="54"/>
+    </row>
+    <row r="40" spans="1:25" s="49" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="49" t="s">
+        <v>132</v>
+      </c>
+      <c r="F40" s="62"/>
+      <c r="G40" s="55"/>
+      <c r="H40" s="67" t="s">
+        <v>139</v>
+      </c>
+      <c r="I40" s="50">
+        <f>-1*SUM(I1:I39)</f>
+        <v>-124.715531</v>
+      </c>
+      <c r="J40" s="67" t="s">
+        <v>138</v>
+      </c>
+      <c r="K40" s="50">
+        <f>I43*(K2)-(0.135*I43)</f>
+        <v>69.2</v>
+      </c>
+      <c r="L40" s="65"/>
+      <c r="M40" s="55"/>
+      <c r="N40" s="67" t="s">
+        <v>139</v>
+      </c>
+      <c r="O40" s="51">
+        <f>-1*SUM(O2:O39)</f>
+        <v>-102.63521499999997</v>
+      </c>
+      <c r="P40" s="67" t="s">
+        <v>138</v>
+      </c>
+      <c r="Q40" s="50">
+        <f>99*Q2</f>
+        <v>99</v>
+      </c>
+      <c r="R40" s="55"/>
+      <c r="S40" s="55"/>
+      <c r="T40" s="67" t="s">
+        <v>139</v>
+      </c>
+      <c r="U40" s="51">
+        <f>-1*SUM(U2:U39)</f>
+        <v>-139.76313500000001</v>
+      </c>
+      <c r="V40" s="67" t="s">
+        <v>138</v>
+      </c>
+      <c r="W40" s="50">
+        <f>99*W2</f>
+        <v>297</v>
+      </c>
+      <c r="X40" s="55"/>
+      <c r="Y40" s="55"/>
+    </row>
+    <row r="41" spans="1:25" s="49" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="49" t="s">
+        <v>109</v>
+      </c>
+      <c r="F41" s="62"/>
+      <c r="G41" s="55"/>
+      <c r="H41" s="56"/>
+      <c r="I41" s="55"/>
+      <c r="J41" s="67" t="s">
+        <v>128</v>
+      </c>
+      <c r="K41" s="51">
+        <f>K40+I40</f>
+        <v>-55.515530999999996</v>
+      </c>
+      <c r="L41" s="66"/>
+      <c r="M41" s="55"/>
+      <c r="N41" s="55"/>
+      <c r="O41" s="55"/>
+      <c r="P41" s="67" t="s">
+        <v>109</v>
+      </c>
+      <c r="Q41" s="51">
+        <f>Q40+O40</f>
+        <v>-3.6352149999999739</v>
+      </c>
+      <c r="R41" s="55"/>
+      <c r="S41" s="55"/>
+      <c r="T41" s="55"/>
+      <c r="U41" s="55"/>
+      <c r="V41" s="67" t="s">
+        <v>109</v>
+      </c>
+      <c r="W41" s="51">
+        <f>W40+U40</f>
+        <v>157.23686499999999</v>
+      </c>
+      <c r="X41" s="55"/>
+      <c r="Y41" s="55"/>
+    </row>
+    <row r="42" spans="1:25" s="54" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="F42" s="60"/>
+      <c r="G42" s="60" t="s">
+        <v>133</v>
+      </c>
+      <c r="H42" s="58"/>
+      <c r="I42" s="60"/>
+      <c r="J42" s="58"/>
+      <c r="K42" s="60"/>
+      <c r="L42" s="60"/>
+      <c r="M42" s="54" t="s">
+        <v>134</v>
+      </c>
+      <c r="S42" s="54" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="43" spans="1:25" s="54" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="H43" s="68" t="s">
+        <v>143</v>
+      </c>
+      <c r="I43" s="71">
+        <v>80</v>
+      </c>
+      <c r="J43" s="53"/>
+    </row>
+    <row r="44" spans="1:25" s="54" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="H44" s="53"/>
+      <c r="J44" s="53"/>
+    </row>
+    <row r="45" spans="1:25" s="54" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="H45" s="53"/>
+      <c r="J45" s="53"/>
+    </row>
+    <row r="46" spans="1:25" s="54" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="H46" s="53"/>
+      <c r="J46" s="53"/>
+    </row>
+    <row r="47" spans="1:25" s="54" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="H47" s="53"/>
+      <c r="J47" s="53"/>
+    </row>
+    <row r="48" spans="1:25" s="54" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="H48" s="53"/>
+      <c r="J48" s="53"/>
+    </row>
+    <row r="49" spans="8:10" s="54" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="H49" s="53"/>
+      <c r="J49" s="53"/>
+    </row>
+    <row r="50" spans="8:10" s="54" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="H50" s="53"/>
+      <c r="J50" s="53"/>
+    </row>
+    <row r="51" spans="8:10" s="54" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="H51" s="53"/>
+      <c r="J51" s="53"/>
+    </row>
+    <row r="52" spans="8:10" s="54" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="H52" s="53"/>
+      <c r="J52" s="53"/>
+    </row>
+    <row r="53" spans="8:10" s="54" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="H53" s="53"/>
+      <c r="J53" s="53"/>
+    </row>
+    <row r="54" spans="8:10" s="54" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="H54" s="53"/>
+      <c r="J54" s="53"/>
+    </row>
+    <row r="55" spans="8:10" s="54" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="H55" s="53"/>
+      <c r="J55" s="53"/>
+    </row>
+    <row r="56" spans="8:10" s="54" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="H56" s="53"/>
+      <c r="J56" s="53"/>
+    </row>
+    <row r="57" spans="8:10" s="54" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="H57" s="53"/>
+      <c r="J57" s="53"/>
+    </row>
+    <row r="58" spans="8:10" s="54" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="H58" s="53"/>
+      <c r="J58" s="53"/>
+    </row>
+    <row r="59" spans="8:10" s="54" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="H59" s="53"/>
+      <c r="J59" s="53"/>
+    </row>
+    <row r="60" spans="8:10" s="54" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="H60" s="53"/>
+      <c r="J60" s="53"/>
+    </row>
+    <row r="61" spans="8:10" s="54" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="H61" s="53"/>
+      <c r="J61" s="53"/>
+    </row>
+    <row r="62" spans="8:10" s="54" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="H62" s="53"/>
+      <c r="J62" s="53"/>
+    </row>
+    <row r="63" spans="8:10" s="54" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="H63" s="53"/>
+      <c r="J63" s="53"/>
+    </row>
+    <row r="64" spans="8:10" s="54" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="H64" s="53"/>
+      <c r="J64" s="53"/>
+    </row>
+    <row r="65" spans="8:10" s="54" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="H65" s="53"/>
+      <c r="J65" s="53"/>
+    </row>
+    <row r="66" spans="8:10" s="54" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="H66" s="53"/>
+      <c r="J66" s="53"/>
+    </row>
+    <row r="67" spans="8:10" s="54" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="H67" s="53"/>
+      <c r="J67" s="53"/>
+    </row>
+    <row r="68" spans="8:10" s="54" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="H68" s="53"/>
+      <c r="J68" s="53"/>
+    </row>
+    <row r="69" spans="8:10" s="54" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="H69" s="53"/>
+      <c r="J69" s="53"/>
+    </row>
+    <row r="70" spans="8:10" s="54" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="H70" s="53"/>
+      <c r="J70" s="53"/>
+    </row>
+    <row r="71" spans="8:10" s="54" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="H71" s="53"/>
+      <c r="J71" s="53"/>
+    </row>
+    <row r="72" spans="8:10" s="54" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="H72" s="53"/>
+      <c r="J72" s="53"/>
+    </row>
+    <row r="73" spans="8:10" s="54" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="H73" s="53"/>
+      <c r="J73" s="53"/>
+    </row>
+    <row r="74" spans="8:10" s="54" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="H74" s="53"/>
+      <c r="J74" s="53"/>
+    </row>
+    <row r="75" spans="8:10" s="54" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="H75" s="53"/>
+      <c r="J75" s="53"/>
+    </row>
+    <row r="76" spans="8:10" s="54" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="H76" s="53"/>
+      <c r="J76" s="53"/>
+    </row>
+    <row r="77" spans="8:10" s="54" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="H77" s="53"/>
+      <c r="J77" s="53"/>
+    </row>
+    <row r="78" spans="8:10" s="54" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="H78" s="53"/>
+      <c r="J78" s="53"/>
+    </row>
+    <row r="79" spans="8:10" s="54" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="H79" s="53"/>
+      <c r="J79" s="53"/>
+    </row>
+    <row r="80" spans="8:10" s="54" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="H80" s="53"/>
+      <c r="J80" s="53"/>
+    </row>
+    <row r="81" spans="8:10" s="54" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="H81" s="53"/>
+      <c r="J81" s="53"/>
+    </row>
+    <row r="82" spans="8:10" s="54" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="H82" s="53"/>
+      <c r="J82" s="53"/>
+    </row>
+    <row r="83" spans="8:10" s="54" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="H83" s="53"/>
+      <c r="J83" s="53"/>
+    </row>
+    <row r="84" spans="8:10" s="54" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="H84" s="53"/>
+      <c r="J84" s="53"/>
+    </row>
+    <row r="85" spans="8:10" s="54" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="H85" s="53"/>
+      <c r="J85" s="53"/>
+    </row>
+    <row r="86" spans="8:10" s="54" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="H86" s="53"/>
+      <c r="J86" s="53"/>
+    </row>
+    <row r="87" spans="8:10" s="54" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="H87" s="53"/>
+      <c r="J87" s="53"/>
+    </row>
+    <row r="88" spans="8:10" s="54" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="H88" s="53"/>
+      <c r="J88" s="53"/>
+    </row>
+    <row r="89" spans="8:10" s="54" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="H89" s="53"/>
+      <c r="J89" s="53"/>
+    </row>
+    <row r="90" spans="8:10" s="54" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="H90" s="53"/>
+      <c r="J90" s="53"/>
+    </row>
+    <row r="91" spans="8:10" s="54" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="H91" s="53"/>
+      <c r="J91" s="53"/>
+    </row>
+    <row r="92" spans="8:10" s="54" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="H92" s="53"/>
+      <c r="J92" s="53"/>
+    </row>
+    <row r="93" spans="8:10" s="54" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="H93" s="53"/>
+      <c r="J93" s="53"/>
+    </row>
+    <row r="94" spans="8:10" s="54" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="H94" s="53"/>
+      <c r="J94" s="53"/>
+    </row>
+    <row r="95" spans="8:10" s="54" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="H95" s="53"/>
+      <c r="J95" s="53"/>
+    </row>
+    <row r="96" spans="8:10" s="54" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="H96" s="53"/>
+      <c r="J96" s="53"/>
+    </row>
+    <row r="97" spans="8:10" s="54" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="H97" s="53"/>
+      <c r="J97" s="53"/>
+    </row>
+    <row r="98" spans="8:10" s="54" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="H98" s="53"/>
+      <c r="J98" s="53"/>
+    </row>
+    <row r="99" spans="8:10" s="54" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="H99" s="53"/>
+      <c r="J99" s="53"/>
+    </row>
+    <row r="100" spans="8:10" s="54" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="H100" s="53"/>
+      <c r="J100" s="53"/>
+    </row>
+    <row r="101" spans="8:10" s="54" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="H101" s="53"/>
+      <c r="J101" s="53"/>
+    </row>
+    <row r="102" spans="8:10" s="54" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="H102" s="53"/>
+      <c r="J102" s="53"/>
+    </row>
+    <row r="103" spans="8:10" s="54" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="H103" s="53"/>
+      <c r="J103" s="53"/>
+    </row>
+    <row r="104" spans="8:10" s="54" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="H104" s="53"/>
+      <c r="J104" s="53"/>
+    </row>
+    <row r="105" spans="8:10" s="54" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="H105" s="53"/>
+      <c r="J105" s="53"/>
+    </row>
+    <row r="106" spans="8:10" s="54" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="H106" s="53"/>
+      <c r="J106" s="53"/>
+    </row>
+    <row r="107" spans="8:10" s="54" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="H107" s="53"/>
+      <c r="J107" s="53"/>
+    </row>
+    <row r="108" spans="8:10" s="54" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="H108" s="53"/>
+      <c r="J108" s="53"/>
+    </row>
+    <row r="109" spans="8:10" s="54" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="H109" s="53"/>
+      <c r="J109" s="53"/>
+    </row>
+    <row r="110" spans="8:10" s="54" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="H110" s="53"/>
+      <c r="J110" s="53"/>
+    </row>
+    <row r="111" spans="8:10" s="54" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="H111" s="53"/>
+      <c r="J111" s="53"/>
+    </row>
+    <row r="112" spans="8:10" s="54" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="H112" s="53"/>
+      <c r="J112" s="53"/>
+    </row>
+    <row r="113" spans="8:10" s="54" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="H113" s="53"/>
+      <c r="J113" s="53"/>
+    </row>
+    <row r="114" spans="8:10" s="54" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="H114" s="53"/>
+      <c r="J114" s="53"/>
+    </row>
+    <row r="115" spans="8:10" s="54" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="H115" s="53"/>
+      <c r="J115" s="53"/>
+    </row>
+    <row r="116" spans="8:10" s="54" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="H116" s="53"/>
+      <c r="J116" s="53"/>
+    </row>
+    <row r="117" spans="8:10" s="54" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="H117" s="53"/>
+      <c r="J117" s="53"/>
+    </row>
+    <row r="118" spans="8:10" s="54" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="H118" s="53"/>
+      <c r="J118" s="53"/>
+    </row>
+    <row r="119" spans="8:10" s="54" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="H119" s="53"/>
+      <c r="J119" s="53"/>
+    </row>
+    <row r="120" spans="8:10" s="54" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="H120" s="53"/>
+      <c r="J120" s="53"/>
+    </row>
+    <row r="121" spans="8:10" s="54" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="H121" s="53"/>
+      <c r="J121" s="53"/>
+    </row>
+    <row r="122" spans="8:10" s="54" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="H122" s="53"/>
+      <c r="J122" s="53"/>
+    </row>
+    <row r="123" spans="8:10" s="54" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="H123" s="53"/>
+      <c r="J123" s="53"/>
+    </row>
+    <row r="124" spans="8:10" s="54" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="H124" s="53"/>
+      <c r="J124" s="53"/>
+    </row>
+    <row r="125" spans="8:10" s="54" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="H125" s="53"/>
+      <c r="J125" s="53"/>
+    </row>
+    <row r="126" spans="8:10" s="54" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="H126" s="53"/>
+      <c r="J126" s="53"/>
+    </row>
+    <row r="127" spans="8:10" s="54" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="H127" s="53"/>
+      <c r="J127" s="53"/>
+    </row>
+    <row r="128" spans="8:10" s="54" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="H128" s="53"/>
+      <c r="J128" s="53"/>
+    </row>
+    <row r="129" spans="8:10" s="54" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="H129" s="53"/>
+      <c r="J129" s="53"/>
+    </row>
+    <row r="130" spans="8:10" s="54" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="H130" s="53"/>
+      <c r="J130" s="53"/>
+    </row>
+    <row r="131" spans="8:10" s="54" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="H131" s="53"/>
+      <c r="J131" s="53"/>
+    </row>
+    <row r="132" spans="8:10" s="54" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="H132" s="53"/>
+      <c r="J132" s="53"/>
+    </row>
+    <row r="133" spans="8:10" s="54" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="H133" s="53"/>
+      <c r="J133" s="53"/>
+    </row>
+    <row r="134" spans="8:10" s="54" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="H134" s="53"/>
+      <c r="J134" s="53"/>
+    </row>
+    <row r="135" spans="8:10" s="54" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="H135" s="53"/>
+      <c r="J135" s="53"/>
+    </row>
+    <row r="136" spans="8:10" s="54" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="H136" s="53"/>
+      <c r="J136" s="53"/>
+    </row>
+    <row r="137" spans="8:10" s="54" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="H137" s="53"/>
+      <c r="J137" s="53"/>
+    </row>
+    <row r="138" spans="8:10" s="54" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="H138" s="53"/>
+      <c r="J138" s="53"/>
+    </row>
+    <row r="139" spans="8:10" s="54" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="H139" s="53"/>
+      <c r="J139" s="53"/>
+    </row>
+    <row r="140" spans="8:10" s="54" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="H140" s="53"/>
+      <c r="J140" s="53"/>
+    </row>
+    <row r="141" spans="8:10" s="54" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="H141" s="53"/>
+      <c r="J141" s="53"/>
+    </row>
+    <row r="142" spans="8:10" s="54" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="H142" s="53"/>
+      <c r="J142" s="53"/>
+    </row>
+    <row r="143" spans="8:10" s="54" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="H143" s="53"/>
+      <c r="J143" s="53"/>
+    </row>
+    <row r="144" spans="8:10" s="54" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="H144" s="53"/>
+      <c r="J144" s="53"/>
+    </row>
+    <row r="145" spans="8:10" s="54" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="H145" s="53"/>
+      <c r="J145" s="53"/>
+    </row>
+    <row r="146" spans="8:10" s="54" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="H146" s="53"/>
+      <c r="J146" s="53"/>
+    </row>
+    <row r="147" spans="8:10" s="54" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="H147" s="53"/>
+      <c r="J147" s="53"/>
+    </row>
+    <row r="148" spans="8:10" s="54" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="H148" s="53"/>
+      <c r="J148" s="53"/>
+    </row>
+    <row r="149" spans="8:10" s="54" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="H149" s="53"/>
+      <c r="J149" s="53"/>
+    </row>
+    <row r="150" spans="8:10" s="54" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="H150" s="53"/>
+      <c r="J150" s="53"/>
+    </row>
+    <row r="151" spans="8:10" s="54" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="H151" s="53"/>
+      <c r="J151" s="53"/>
+    </row>
+    <row r="152" spans="8:10" s="54" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="H152" s="53"/>
+      <c r="J152" s="53"/>
+    </row>
+    <row r="153" spans="8:10" s="54" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="H153" s="53"/>
+      <c r="J153" s="53"/>
+    </row>
+    <row r="154" spans="8:10" s="54" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="H154" s="53"/>
+      <c r="J154" s="53"/>
+    </row>
+    <row r="155" spans="8:10" s="54" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="H155" s="53"/>
+      <c r="J155" s="53"/>
+    </row>
+    <row r="156" spans="8:10" s="54" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="H156" s="53"/>
+      <c r="J156" s="53"/>
+    </row>
+    <row r="157" spans="8:10" s="54" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="H157" s="53"/>
+      <c r="J157" s="53"/>
+    </row>
+    <row r="158" spans="8:10" s="54" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="H158" s="53"/>
+      <c r="J158" s="53"/>
+    </row>
+    <row r="159" spans="8:10" s="54" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="H159" s="53"/>
+      <c r="J159" s="53"/>
+    </row>
+    <row r="160" spans="8:10" s="54" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="H160" s="53"/>
+      <c r="J160" s="53"/>
+    </row>
+    <row r="161" spans="8:10" s="54" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="H161" s="53"/>
+      <c r="J161" s="53"/>
+    </row>
+    <row r="162" spans="8:10" s="54" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="H162" s="53"/>
+      <c r="J162" s="53"/>
+    </row>
+    <row r="163" spans="8:10" s="54" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="H163" s="53"/>
+      <c r="J163" s="53"/>
+    </row>
+    <row r="164" spans="8:10" s="54" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="H164" s="53"/>
+      <c r="J164" s="53"/>
+    </row>
+    <row r="165" spans="8:10" s="54" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="H165" s="53"/>
+      <c r="J165" s="53"/>
+    </row>
+    <row r="166" spans="8:10" s="54" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="H166" s="53"/>
+      <c r="J166" s="53"/>
+    </row>
+    <row r="167" spans="8:10" s="54" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="H167" s="53"/>
+      <c r="J167" s="53"/>
+    </row>
+    <row r="168" spans="8:10" s="54" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="H168" s="53"/>
+      <c r="J168" s="53"/>
+    </row>
+    <row r="169" spans="8:10" s="54" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="H169" s="53"/>
+      <c r="J169" s="53"/>
+    </row>
+    <row r="170" spans="8:10" s="54" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="H170" s="53"/>
+      <c r="J170" s="53"/>
+    </row>
+    <row r="171" spans="8:10" s="54" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="H171" s="53"/>
+      <c r="J171" s="53"/>
+    </row>
+    <row r="172" spans="8:10" s="54" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="H172" s="53"/>
+      <c r="J172" s="53"/>
+    </row>
+    <row r="173" spans="8:10" s="54" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="H173" s="53"/>
+      <c r="J173" s="53"/>
+    </row>
+    <row r="174" spans="8:10" s="54" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="H174" s="53"/>
+      <c r="J174" s="53"/>
+    </row>
+    <row r="175" spans="8:10" s="54" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="H175" s="53"/>
+      <c r="J175" s="53"/>
+    </row>
+    <row r="176" spans="8:10" s="54" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="H176" s="53"/>
+      <c r="J176" s="53"/>
+    </row>
+    <row r="177" spans="8:10" s="54" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="H177" s="53"/>
+      <c r="J177" s="53"/>
+    </row>
+    <row r="178" spans="8:10" s="54" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="H178" s="53"/>
+      <c r="J178" s="53"/>
+    </row>
+    <row r="179" spans="8:10" s="54" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="H179" s="53"/>
+      <c r="J179" s="53"/>
+    </row>
+    <row r="180" spans="8:10" s="54" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="H180" s="53"/>
+      <c r="J180" s="53"/>
+    </row>
+    <row r="181" spans="8:10" s="54" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="H181" s="53"/>
+      <c r="J181" s="53"/>
+    </row>
+    <row r="182" spans="8:10" s="54" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="H182" s="53"/>
+      <c r="J182" s="53"/>
+    </row>
+    <row r="183" spans="8:10" s="54" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="H183" s="53"/>
+      <c r="J183" s="53"/>
+    </row>
+    <row r="184" spans="8:10" s="54" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="H184" s="53"/>
+      <c r="J184" s="53"/>
+    </row>
+    <row r="185" spans="8:10" s="54" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="H185" s="53"/>
+      <c r="J185" s="53"/>
+    </row>
+    <row r="186" spans="8:10" s="54" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="H186" s="53"/>
+      <c r="J186" s="53"/>
+    </row>
+    <row r="187" spans="8:10" s="54" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="H187" s="53"/>
+      <c r="J187" s="53"/>
+    </row>
+    <row r="188" spans="8:10" s="54" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="H188" s="53"/>
+      <c r="J188" s="53"/>
+    </row>
+    <row r="189" spans="8:10" s="54" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="H189" s="53"/>
+      <c r="J189" s="53"/>
+    </row>
+    <row r="190" spans="8:10" s="54" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="H190" s="53"/>
+      <c r="J190" s="53"/>
+    </row>
+    <row r="191" spans="8:10" s="54" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="H191" s="53"/>
+      <c r="J191" s="53"/>
+    </row>
+    <row r="192" spans="8:10" s="54" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="H192" s="53"/>
+      <c r="J192" s="53"/>
+    </row>
+    <row r="193" spans="8:10" s="54" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="H193" s="53"/>
+      <c r="J193" s="53"/>
+    </row>
+    <row r="194" spans="8:10" s="54" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="H194" s="53"/>
+      <c r="J194" s="53"/>
+    </row>
+    <row r="195" spans="8:10" s="54" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="H195" s="53"/>
+      <c r="J195" s="53"/>
+    </row>
+    <row r="196" spans="8:10" s="54" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="H196" s="53"/>
+      <c r="J196" s="53"/>
+    </row>
+    <row r="197" spans="8:10" s="54" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="H197" s="53"/>
+      <c r="J197" s="53"/>
+    </row>
+    <row r="198" spans="8:10" s="54" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="H198" s="53"/>
+      <c r="J198" s="53"/>
+    </row>
+    <row r="199" spans="8:10" s="54" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="H199" s="53"/>
+      <c r="J199" s="53"/>
+    </row>
+    <row r="200" spans="8:10" s="54" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="H200" s="53"/>
+      <c r="J200" s="53"/>
+    </row>
+    <row r="201" spans="8:10" s="54" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="H201" s="53"/>
+      <c r="J201" s="53"/>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="K2:K39"/>
+    <mergeCell ref="Q2:Q39"/>
+    <mergeCell ref="W2:W39"/>
+  </mergeCells>
+  <conditionalFormatting sqref="G2:G35">
+    <cfRule type="cellIs" dxfId="17" priority="15" operator="greaterThanOrEqual">
+      <formula>$E2</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="16" priority="16" operator="lessThan">
+      <formula>$E2</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M2:M35">
+    <cfRule type="cellIs" dxfId="15" priority="11" operator="lessThan">
+      <formula>$E2</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="14" priority="12" operator="greaterThanOrEqual">
+      <formula>$E2</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="S2:S35">
+    <cfRule type="cellIs" dxfId="13" priority="9" operator="lessThan">
+      <formula>$E2</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="12" priority="10" operator="greaterThanOrEqual">
+      <formula>$E2</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J2:J35">
+    <cfRule type="cellIs" dxfId="11" priority="7" operator="lessThan">
+      <formula>$E2</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="10" priority="8" operator="greaterThanOrEqual">
+      <formula>$E2</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="P2:P35">
+    <cfRule type="cellIs" dxfId="9" priority="5" operator="lessThan">
+      <formula>$E2</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="8" priority="6" operator="greaterThanOrEqual">
+      <formula>$E2</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="V2:V35">
+    <cfRule type="cellIs" dxfId="7" priority="3" operator="lessThan">
+      <formula>$E2</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="6" priority="4" operator="greaterThanOrEqual">
+      <formula>$E2</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Y2:Y35">
+    <cfRule type="cellIs" dxfId="5" priority="1" operator="lessThan">
+      <formula>$E2</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="4" priority="2" operator="greaterThanOrEqual">
+      <formula>$E2</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <hyperlinks>
+    <hyperlink ref="C10" r:id="rId1" display="https://www.digikey.com/scripts/DkSearch/dksus.dll?Detail&amp;itemSeq=255582543&amp;uq=636573277011711177" xr:uid="{00000000-0004-0000-0300-000000000000}"/>
+    <hyperlink ref="C23" r:id="rId2" display="https://www.digikey.com/scripts/DkSearch/dksus.dll?Detail&amp;itemSeq=255006885&amp;uq=636573277011671173" xr:uid="{00000000-0004-0000-0300-000001000000}"/>
+    <hyperlink ref="C12" r:id="rId3" display="https://www.digikey.com/product-detail/en/on-semiconductor/MMBT2222LT1G/MMBT2222LT1GOSCT-ND/1139808" xr:uid="{00000000-0004-0000-0300-000002000000}"/>
+    <hyperlink ref="C22" r:id="rId4" display="https://www.digikey.com/scripts/DkSearch/dksus.dll?Detail&amp;itemSeq=255007731&amp;uq=636573292806049726" xr:uid="{00000000-0004-0000-0300-000003000000}"/>
+    <hyperlink ref="C20" r:id="rId5" display="https://www.digikey.com/scripts/DkSearch/dksus.dll?Detail&amp;itemSeq=255007807&amp;uq=636573292806059726" xr:uid="{00000000-0004-0000-0300-000004000000}"/>
+    <hyperlink ref="C7" r:id="rId6" display="https://www.digikey.com/scripts/DkSearch/dksus.dll?Detail&amp;itemSeq=255007915&amp;uq=636573292806059726" xr:uid="{00000000-0004-0000-0300-000005000000}"/>
+    <hyperlink ref="C19" r:id="rId7" display="https://www.digikey.com/scripts/DkSearch/dksus.dll?Detail&amp;itemSeq=255008032&amp;uq=636573292806069726" xr:uid="{00000000-0004-0000-0300-000006000000}"/>
+    <hyperlink ref="C11" r:id="rId8" display="https://www.digikey.com/scripts/DkSearch/dksus.dll?Detail&amp;itemSeq=255683609&amp;uq=636573305216640966" xr:uid="{00000000-0004-0000-0300-000007000000}"/>
+    <hyperlink ref="C18" r:id="rId9" display="https://www.digikey.com/scripts/DkSearch/dksus.dll?Detail&amp;itemSeq=255008508&amp;uq=636573292806069726" xr:uid="{00000000-0004-0000-0300-000008000000}"/>
+    <hyperlink ref="C6" r:id="rId10" display="https://www.digikey.com/scripts/DkSearch/dksus.dll?Detail&amp;itemSeq=255685923&amp;uq=636573315130419726" xr:uid="{00000000-0004-0000-0300-000009000000}"/>
+    <hyperlink ref="C9" r:id="rId11" display="https://www.digikey.com/scripts/DkSearch/dksus.dll?Detail&amp;itemSeq=255686028&amp;uq=636573315948419447" xr:uid="{00000000-0004-0000-0300-00000A000000}"/>
+    <hyperlink ref="C8" r:id="rId12" display="https://www.digikey.com/scripts/DkSearch/dksus.dll?Detail&amp;itemSeq=255686232&amp;uq=636573317079069726" xr:uid="{00000000-0004-0000-0300-00000B000000}"/>
+    <hyperlink ref="C3" r:id="rId13" display="https://www.digikey.com/scripts/DkSearch/dksus.dll?Detail&amp;itemSeq=255687110&amp;uq=636573319776344879" xr:uid="{00000000-0004-0000-0300-00000C000000}"/>
+    <hyperlink ref="C5" r:id="rId14" display="https://www.digikey.com/scripts/DkSearch/dksus.dll?Detail&amp;itemSeq=255687461&amp;uq=636573320529169726" xr:uid="{00000000-0004-0000-0300-00000D000000}"/>
+    <hyperlink ref="C2" r:id="rId15" display="https://www.digikey.com/scripts/DkSearch/dksus.dll?Detail&amp;itemSeq=255687743&amp;uq=636573321888037133" xr:uid="{00000000-0004-0000-0300-00000E000000}"/>
+    <hyperlink ref="C4" r:id="rId16" display="https://www.digikey.com/scripts/DkSearch/dksus.dll?Detail&amp;itemSeq=255687905&amp;uq=636573322862249726" xr:uid="{00000000-0004-0000-0300-00000F000000}"/>
+    <hyperlink ref="C13" r:id="rId17" display="https://www.digikey.com/scripts/DkSearch/dksus.dll?Detail&amp;itemSeq=255688809&amp;uq=636573327832494815" xr:uid="{00000000-0004-0000-0300-000010000000}"/>
+    <hyperlink ref="C16" r:id="rId18" display="https://www.digikey.com/scripts/DkSearch/dksus.dll?Detail&amp;itemSeq=255688956&amp;uq=636573328681559713" xr:uid="{00000000-0004-0000-0300-000011000000}"/>
+    <hyperlink ref="C14" r:id="rId19" display="https://www.digikey.com/scripts/DkSearch/dksus.dll?Detail&amp;itemSeq=255689053&amp;uq=636573329310919726" xr:uid="{00000000-0004-0000-0300-000012000000}"/>
+    <hyperlink ref="C15" r:id="rId20" display="https://www.digikey.com/scripts/DkSearch/dksus.dll?Detail&amp;itemSeq=255689221&amp;uq=636573330063847928" xr:uid="{00000000-0004-0000-0300-000013000000}"/>
+    <hyperlink ref="C26" r:id="rId21" display="https://www.digikey.com/scripts/DkSearch/dksus.dll?Detail&amp;itemSeq=255712800&amp;uq=636573577435916489" xr:uid="{00000000-0004-0000-0300-000014000000}"/>
+    <hyperlink ref="C21" r:id="rId22" display="https://www.digikey.com/scripts/DkSearch/dksus.dll?Detail&amp;itemSeq=255882403&amp;uq=636583008495157306" xr:uid="{00000000-0004-0000-0300-000015000000}"/>
+    <hyperlink ref="C24" r:id="rId23" display="https://www.digikey.com/scripts/DkSearch/dksus.dll?Detail&amp;itemSeq=256670207&amp;uq=636583008495177308" xr:uid="{00000000-0004-0000-0300-000016000000}"/>
+    <hyperlink ref="C17" r:id="rId24" display="https://www.digikey.com/scripts/DkSearch/dksus.dll?Detail&amp;itemSeq=255287263&amp;uq=636573292806069726" xr:uid="{00000000-0004-0000-0300-000017000000}"/>
+    <hyperlink ref="C25" r:id="rId25" display="https://www.digikey.com/scripts/DkSearch/dksus.dll?Detail&amp;itemSeq=260619861&amp;uq=636617232035274916" xr:uid="{00000000-0004-0000-0300-000018000000}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId26"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+  <dimension ref="A1:L39"/>
+  <sheetViews>
+    <sheetView topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="C43" sqref="C43"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="20.125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="22.25" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="2.25" customWidth="1"/>
+    <col min="7" max="9" width="9.875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="8.875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="2.375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1" s="14" t="s">
+        <v>50</v>
+      </c>
+      <c r="B1" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="C1" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="D1" s="14" t="s">
+        <v>51</v>
+      </c>
+      <c r="E1" s="44" t="s">
+        <v>32</v>
+      </c>
+      <c r="F1" s="58"/>
+      <c r="G1" s="58" t="s">
+        <v>125</v>
+      </c>
+      <c r="H1" s="59" t="s">
+        <v>129</v>
+      </c>
+      <c r="I1" s="59" t="s">
+        <v>128</v>
+      </c>
+      <c r="J1" s="58" t="s">
+        <v>130</v>
+      </c>
+      <c r="K1" s="58" t="s">
+        <v>131</v>
+      </c>
+      <c r="L1" s="58"/>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="D2" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="E2" s="44">
+        <v>3</v>
+      </c>
+      <c r="F2" s="58"/>
+      <c r="G2" s="44">
+        <v>4</v>
+      </c>
+      <c r="H2" s="44"/>
+      <c r="I2" s="48"/>
+      <c r="J2" s="44">
+        <f>G2+H2</f>
+        <v>4</v>
+      </c>
+      <c r="K2" s="69">
+        <v>1</v>
+      </c>
+      <c r="L2" s="63"/>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="D3" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="E3" s="44">
+        <v>1</v>
+      </c>
+      <c r="F3" s="58"/>
+      <c r="G3" s="44">
+        <v>8</v>
+      </c>
+      <c r="H3" s="44"/>
+      <c r="I3" s="48"/>
+      <c r="J3" s="44">
+        <f t="shared" ref="J3:J34" si="0">G3+H3</f>
+        <v>8</v>
+      </c>
+      <c r="K3" s="69"/>
+      <c r="L3" s="63"/>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="D4" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="E4" s="44">
+        <v>2</v>
+      </c>
+      <c r="F4" s="58"/>
+      <c r="G4" s="44">
+        <v>6</v>
+      </c>
+      <c r="H4" s="44"/>
+      <c r="I4" s="48"/>
+      <c r="J4" s="44">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="K4" s="69"/>
+      <c r="L4" s="63"/>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A5" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="B5" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="C5" s="20" t="s">
+        <v>75</v>
+      </c>
+      <c r="D5" s="21" t="s">
+        <v>52</v>
+      </c>
+      <c r="E5" s="44">
+        <v>5</v>
+      </c>
+      <c r="F5" s="58"/>
+      <c r="G5" s="44">
+        <v>0</v>
+      </c>
+      <c r="H5" s="44">
+        <v>100</v>
+      </c>
+      <c r="I5" s="48">
+        <v>4.4400000000000004</v>
+      </c>
+      <c r="J5" s="44">
+        <f t="shared" si="0"/>
+        <v>100</v>
+      </c>
+      <c r="K5" s="69"/>
+      <c r="L5" s="63"/>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="D6" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="E6" s="44">
+        <v>1</v>
+      </c>
+      <c r="F6" s="58"/>
+      <c r="G6" s="44">
+        <v>9</v>
+      </c>
+      <c r="H6" s="44"/>
+      <c r="I6" s="48"/>
+      <c r="J6" s="44">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="K6" s="69"/>
+      <c r="L6" s="63"/>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="D7" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="E7" s="44">
+        <v>1</v>
+      </c>
+      <c r="F7" s="58"/>
+      <c r="G7" s="44">
+        <v>0</v>
+      </c>
+      <c r="H7" s="44">
+        <v>10</v>
+      </c>
+      <c r="I7" s="48">
+        <v>3.21</v>
+      </c>
+      <c r="J7" s="44">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="K7" s="69"/>
+      <c r="L7" s="63"/>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="D8" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="E8" s="44">
+        <v>2</v>
+      </c>
+      <c r="F8" s="58"/>
+      <c r="G8" s="44">
+        <v>18</v>
+      </c>
+      <c r="H8" s="44"/>
+      <c r="I8" s="48"/>
+      <c r="J8" s="44">
+        <f t="shared" si="0"/>
+        <v>18</v>
+      </c>
+      <c r="K8" s="69"/>
+      <c r="L8" s="63"/>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="D9" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="E9" s="44">
+        <v>1</v>
+      </c>
+      <c r="F9" s="58"/>
+      <c r="G9" s="44">
+        <v>9</v>
+      </c>
+      <c r="H9" s="44"/>
+      <c r="I9" s="48"/>
+      <c r="J9" s="44">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="K9" s="69"/>
+      <c r="L9" s="63"/>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="D10" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="E10" s="44">
+        <v>1</v>
+      </c>
+      <c r="F10" s="58"/>
+      <c r="G10" s="44">
+        <v>0</v>
+      </c>
+      <c r="H10" s="44">
+        <v>1</v>
+      </c>
+      <c r="I10" s="48">
+        <v>3.6</v>
+      </c>
+      <c r="J10" s="44">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="K10" s="69"/>
+      <c r="L10" s="63"/>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D11" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="E11" s="44">
+        <v>1</v>
+      </c>
+      <c r="F11" s="58"/>
+      <c r="G11" s="44">
+        <v>9</v>
+      </c>
+      <c r="H11" s="44"/>
+      <c r="I11" s="48"/>
+      <c r="J11" s="44">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="K11" s="69"/>
+      <c r="L11" s="63"/>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="D12" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="E12" s="44">
+        <v>1</v>
+      </c>
+      <c r="F12" s="58"/>
+      <c r="G12" s="44">
+        <v>0</v>
+      </c>
+      <c r="H12" s="44">
+        <v>10</v>
+      </c>
+      <c r="I12" s="48">
+        <v>1.18</v>
+      </c>
+      <c r="J12" s="44">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="K12" s="69"/>
+      <c r="L12" s="63"/>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="D13" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="E13" s="44">
+        <v>3</v>
+      </c>
+      <c r="F13" s="58"/>
+      <c r="G13" s="44">
+        <v>4</v>
+      </c>
+      <c r="H13" s="44"/>
+      <c r="I13" s="48"/>
+      <c r="J13" s="44">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="K13" s="69"/>
+      <c r="L13" s="63"/>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A14" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="D14" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="E14" s="44">
+        <v>4</v>
+      </c>
+      <c r="F14" s="58"/>
+      <c r="G14" s="44">
+        <v>2</v>
+      </c>
+      <c r="H14" s="44">
+        <v>100</v>
+      </c>
+      <c r="I14" s="48">
+        <v>0.51</v>
+      </c>
+      <c r="J14" s="44">
+        <f t="shared" si="0"/>
+        <v>102</v>
+      </c>
+      <c r="K14" s="69"/>
+      <c r="L14" s="63"/>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A15" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="D15" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="E15" s="44">
+        <v>3</v>
+      </c>
+      <c r="F15" s="58"/>
+      <c r="G15" s="44">
+        <v>4</v>
+      </c>
+      <c r="H15" s="44"/>
+      <c r="I15" s="48"/>
+      <c r="J15" s="44">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="K15" s="69"/>
+      <c r="L15" s="63"/>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A16" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="D16" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="E16" s="44">
+        <v>1</v>
+      </c>
+      <c r="F16" s="58"/>
+      <c r="G16" s="44">
+        <v>8</v>
+      </c>
+      <c r="H16" s="44"/>
+      <c r="I16" s="48"/>
+      <c r="J16" s="44">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="K16" s="69"/>
+      <c r="L16" s="63"/>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A17" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="D17" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="E17" s="44">
+        <v>1</v>
+      </c>
+      <c r="F17" s="58"/>
+      <c r="G17" s="44">
+        <v>0</v>
+      </c>
+      <c r="H17" s="44">
+        <v>1</v>
+      </c>
+      <c r="I17" s="48">
+        <v>0.91</v>
+      </c>
+      <c r="J17" s="44">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="K17" s="69"/>
+      <c r="L17" s="63"/>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A18" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="C18" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="D18" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="E18" s="44">
+        <v>1</v>
+      </c>
+      <c r="F18" s="58"/>
+      <c r="G18" s="44">
+        <v>0</v>
+      </c>
+      <c r="H18" s="44">
+        <v>1</v>
+      </c>
+      <c r="I18" s="48">
+        <v>0.52</v>
+      </c>
+      <c r="J18" s="44">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="K18" s="69"/>
+      <c r="L18" s="63"/>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A19" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C19" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="D19" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="E19" s="44">
+        <v>1</v>
+      </c>
+      <c r="F19" s="58"/>
+      <c r="G19" s="44">
+        <v>0</v>
+      </c>
+      <c r="H19" s="44">
+        <v>1</v>
+      </c>
+      <c r="I19" s="48">
+        <v>3.09</v>
+      </c>
+      <c r="J19" s="44">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="K19" s="69"/>
+      <c r="L19" s="63"/>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A20" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C20" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="D20" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="E20" s="44">
+        <v>1</v>
+      </c>
+      <c r="F20" s="58"/>
+      <c r="G20" s="44">
+        <v>0</v>
+      </c>
+      <c r="H20" s="44">
+        <v>10</v>
+      </c>
+      <c r="I20" s="48">
+        <v>3.62</v>
+      </c>
+      <c r="J20" s="44">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="K20" s="69"/>
+      <c r="L20" s="63"/>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A21" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="C21" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="D21" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="E21" s="44">
+        <v>2</v>
+      </c>
+      <c r="F21" s="58"/>
+      <c r="G21" s="44">
+        <v>0</v>
+      </c>
+      <c r="H21" s="44">
+        <v>10</v>
+      </c>
+      <c r="I21" s="48">
+        <v>2.85</v>
+      </c>
+      <c r="J21" s="44">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="K21" s="69"/>
+      <c r="L21" s="63"/>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A22" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C22" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D22" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="E22" s="44">
+        <v>1</v>
+      </c>
+      <c r="F22" s="58"/>
+      <c r="G22" s="44">
+        <v>0</v>
+      </c>
+      <c r="H22" s="44">
+        <v>10</v>
+      </c>
+      <c r="I22" s="48">
+        <v>5.8</v>
+      </c>
+      <c r="J22" s="44">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="K22" s="69"/>
+      <c r="L22" s="63"/>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A23" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C23" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="D23" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="E23" s="44">
+        <v>1</v>
+      </c>
+      <c r="F23" s="58"/>
+      <c r="G23" s="44">
+        <v>0</v>
+      </c>
+      <c r="H23" s="44">
+        <v>1</v>
+      </c>
+      <c r="I23" s="48">
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="J23" s="44">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="K23" s="69"/>
+      <c r="L23" s="63"/>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A24" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C24" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="D24" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="E24" s="44">
+        <v>1</v>
+      </c>
+      <c r="F24" s="58"/>
+      <c r="G24" s="44">
+        <v>0</v>
+      </c>
+      <c r="H24" s="44">
+        <v>10</v>
+      </c>
+      <c r="I24" s="48">
+        <v>4.95</v>
+      </c>
+      <c r="J24" s="44">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="K24" s="69"/>
+      <c r="L24" s="63"/>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A25" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C25" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="D25" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="E25" s="44">
+        <v>1</v>
+      </c>
+      <c r="F25" s="58"/>
+      <c r="G25" s="44">
+        <v>0</v>
+      </c>
+      <c r="H25" s="44">
+        <v>1</v>
+      </c>
+      <c r="I25" s="48">
+        <v>0.42</v>
+      </c>
+      <c r="J25" s="44">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="K25" s="69"/>
+      <c r="L25" s="63"/>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A26" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="B26" s="1"/>
+      <c r="C26" s="45">
+        <v>1317</v>
+      </c>
+      <c r="D26" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="E26" s="44">
+        <v>1</v>
+      </c>
+      <c r="F26" s="58"/>
+      <c r="G26" s="44">
+        <v>0</v>
+      </c>
+      <c r="H26" s="44">
+        <v>1</v>
+      </c>
+      <c r="I26" s="48">
+        <v>5.95</v>
+      </c>
+      <c r="J26" s="44">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="K26" s="69"/>
+      <c r="L26" s="63"/>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A27" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="B27" s="1"/>
+      <c r="C27" s="4"/>
+      <c r="D27" s="10" t="s">
+        <v>95</v>
+      </c>
+      <c r="E27" s="44">
+        <v>1</v>
+      </c>
+      <c r="F27" s="58"/>
+      <c r="G27" s="44">
+        <v>8</v>
+      </c>
+      <c r="H27" s="44"/>
+      <c r="I27" s="48"/>
+      <c r="J27" s="44">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="K27" s="69"/>
+      <c r="L27" s="63"/>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A28" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="D28" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="E28" s="44">
+        <v>1</v>
+      </c>
+      <c r="F28" s="58"/>
+      <c r="G28" s="44">
+        <v>0</v>
+      </c>
+      <c r="H28" s="44">
+        <v>1</v>
+      </c>
+      <c r="I28" s="48">
+        <f>1.85+((11.18/2)*H28)</f>
+        <v>7.4399999999999995</v>
+      </c>
+      <c r="J28" s="44">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="K28" s="69"/>
+      <c r="L28" s="63"/>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A29" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="D29" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="E29" s="44">
+        <v>1</v>
+      </c>
+      <c r="F29" s="58"/>
+      <c r="G29" s="44">
+        <v>0</v>
+      </c>
+      <c r="H29" s="44">
+        <v>1</v>
+      </c>
+      <c r="I29" s="48">
+        <f>17.82/2</f>
+        <v>8.91</v>
+      </c>
+      <c r="J29" s="44">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="K29" s="69"/>
+      <c r="L29" s="63"/>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A30" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="B30" s="1"/>
+      <c r="C30" s="4"/>
+      <c r="D30" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="E30" s="44">
+        <v>1</v>
+      </c>
+      <c r="F30" s="58"/>
+      <c r="G30" s="44">
+        <v>0</v>
+      </c>
+      <c r="H30" s="44">
+        <v>100</v>
+      </c>
+      <c r="I30" s="48">
+        <v>3.66</v>
+      </c>
+      <c r="J30" s="44">
+        <f t="shared" si="0"/>
+        <v>100</v>
+      </c>
+      <c r="K30" s="69"/>
+      <c r="L30" s="63"/>
+    </row>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A31" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="B31" s="1"/>
+      <c r="C31" s="4"/>
+      <c r="D31" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="E31" s="44">
+        <v>1</v>
+      </c>
+      <c r="F31" s="58"/>
+      <c r="G31" s="44">
+        <v>1</v>
+      </c>
+      <c r="H31" s="44"/>
+      <c r="I31" s="48"/>
+      <c r="J31" s="44">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="K31" s="69"/>
+      <c r="L31" s="63"/>
+    </row>
+    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A32" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="B32" s="1"/>
+      <c r="C32" s="4"/>
+      <c r="D32" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="E32" s="44">
+        <v>1</v>
+      </c>
+      <c r="F32" s="58"/>
+      <c r="G32" s="44">
+        <v>2</v>
+      </c>
+      <c r="H32" s="44"/>
+      <c r="I32" s="48"/>
+      <c r="J32" s="44">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="K32" s="69"/>
+      <c r="L32" s="63"/>
+    </row>
+    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A33" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="B33" s="1"/>
+      <c r="C33" s="4"/>
+      <c r="D33" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="E33" s="44">
+        <v>1</v>
+      </c>
+      <c r="F33" s="58"/>
+      <c r="G33" s="44">
+        <v>3</v>
+      </c>
+      <c r="H33" s="44"/>
+      <c r="I33" s="48"/>
+      <c r="J33" s="44">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="K33" s="69"/>
+      <c r="L33" s="63"/>
+    </row>
+    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A34" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="B34" s="1"/>
+      <c r="C34" s="4"/>
+      <c r="D34" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="E34" s="44">
+        <v>1</v>
+      </c>
+      <c r="F34" s="58"/>
+      <c r="G34" s="44">
+        <v>0</v>
+      </c>
+      <c r="H34" s="44">
+        <v>1</v>
+      </c>
+      <c r="I34" s="48">
+        <v>0.88</v>
+      </c>
+      <c r="J34" s="44">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="K34" s="69"/>
+      <c r="L34" s="63"/>
+    </row>
+    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A35" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="B35" s="1"/>
+      <c r="C35" s="4"/>
+      <c r="D35" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="F35" s="60"/>
+      <c r="G35" s="54"/>
+      <c r="H35" s="68" t="s">
+        <v>136</v>
+      </c>
+      <c r="I35" s="47">
+        <v>8.99</v>
+      </c>
+      <c r="J35" s="53"/>
+      <c r="K35" s="69"/>
+      <c r="L35" s="63"/>
+    </row>
+    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A36" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="B36" s="1"/>
+      <c r="C36" s="4"/>
+      <c r="D36" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="E36" s="46">
+        <v>5.3699999999999998E-2</v>
+      </c>
+      <c r="F36" s="61"/>
+      <c r="G36" s="54"/>
+      <c r="H36" s="68" t="s">
+        <v>137</v>
+      </c>
+      <c r="I36" s="48">
+        <f>($E36*SUM(I2:I26))</f>
+        <v>2.2355310000000004</v>
+      </c>
+      <c r="J36" s="53"/>
+      <c r="K36" s="70"/>
+      <c r="L36" s="64"/>
+    </row>
+    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A37" s="49" t="s">
+        <v>132</v>
+      </c>
+      <c r="B37" s="49"/>
+      <c r="C37" s="49"/>
+      <c r="D37" s="49"/>
+      <c r="E37" s="49"/>
+      <c r="F37" s="62"/>
+      <c r="G37" s="55"/>
+      <c r="H37" s="67" t="s">
+        <v>139</v>
+      </c>
+      <c r="I37" s="50">
+        <f>-1*SUM(I1:I36)</f>
+        <v>-73.745531</v>
+      </c>
+      <c r="J37" s="67" t="s">
+        <v>138</v>
+      </c>
+      <c r="K37" s="50">
+        <f>99*K2</f>
+        <v>99</v>
+      </c>
+      <c r="L37" s="65"/>
+    </row>
+    <row r="38" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A38" s="49" t="s">
+        <v>109</v>
+      </c>
+      <c r="B38" s="49"/>
+      <c r="C38" s="49"/>
+      <c r="D38" s="49"/>
+      <c r="E38" s="49"/>
+      <c r="F38" s="62"/>
+      <c r="G38" s="55"/>
+      <c r="H38" s="56"/>
+      <c r="I38" s="55"/>
+      <c r="J38" s="67" t="s">
+        <v>109</v>
+      </c>
+      <c r="K38" s="51">
+        <f>K37+I37</f>
+        <v>25.254469</v>
+      </c>
+      <c r="L38" s="66"/>
+    </row>
+    <row r="39" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A39" s="54"/>
+      <c r="B39" s="54"/>
+      <c r="C39" s="54"/>
+      <c r="D39" s="54"/>
+      <c r="E39" s="54"/>
+      <c r="F39" s="60"/>
+      <c r="G39" s="60" t="s">
+        <v>133</v>
+      </c>
+      <c r="H39" s="58"/>
+      <c r="I39" s="60"/>
+      <c r="J39" s="58"/>
+      <c r="K39" s="60"/>
+      <c r="L39" s="60"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="K2:K36"/>
+  </mergeCells>
+  <conditionalFormatting sqref="G2:G34">
+    <cfRule type="cellIs" dxfId="3" priority="3" operator="greaterThanOrEqual">
+      <formula>$E2</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="2" priority="4" operator="lessThan">
+      <formula>$E2</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J2:J34">
+    <cfRule type="cellIs" dxfId="1" priority="1" operator="lessThan">
+      <formula>$E2</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="0" priority="2" operator="greaterThanOrEqual">
+      <formula>$E2</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <hyperlinks>
+    <hyperlink ref="C10" r:id="rId1" display="https://www.digikey.com/scripts/DkSearch/dksus.dll?Detail&amp;itemSeq=255582543&amp;uq=636573277011711177" xr:uid="{00000000-0004-0000-0400-000000000000}"/>
+    <hyperlink ref="C23" r:id="rId2" display="https://www.digikey.com/scripts/DkSearch/dksus.dll?Detail&amp;itemSeq=255006885&amp;uq=636573277011671173" xr:uid="{00000000-0004-0000-0400-000001000000}"/>
+    <hyperlink ref="C12" r:id="rId3" display="https://www.digikey.com/product-detail/en/on-semiconductor/MMBT2222LT1G/MMBT2222LT1GOSCT-ND/1139808" xr:uid="{00000000-0004-0000-0400-000002000000}"/>
+    <hyperlink ref="C22" r:id="rId4" display="https://www.digikey.com/scripts/DkSearch/dksus.dll?Detail&amp;itemSeq=255007731&amp;uq=636573292806049726" xr:uid="{00000000-0004-0000-0400-000003000000}"/>
+    <hyperlink ref="C20" r:id="rId5" display="https://www.digikey.com/scripts/DkSearch/dksus.dll?Detail&amp;itemSeq=255007807&amp;uq=636573292806059726" xr:uid="{00000000-0004-0000-0400-000004000000}"/>
+    <hyperlink ref="C7" r:id="rId6" display="https://www.digikey.com/scripts/DkSearch/dksus.dll?Detail&amp;itemSeq=255007915&amp;uq=636573292806059726" xr:uid="{00000000-0004-0000-0400-000005000000}"/>
+    <hyperlink ref="C19" r:id="rId7" display="https://www.digikey.com/scripts/DkSearch/dksus.dll?Detail&amp;itemSeq=255008032&amp;uq=636573292806069726" xr:uid="{00000000-0004-0000-0400-000006000000}"/>
+    <hyperlink ref="C11" r:id="rId8" display="https://www.digikey.com/scripts/DkSearch/dksus.dll?Detail&amp;itemSeq=255683609&amp;uq=636573305216640966" xr:uid="{00000000-0004-0000-0400-000007000000}"/>
+    <hyperlink ref="C18" r:id="rId9" display="https://www.digikey.com/scripts/DkSearch/dksus.dll?Detail&amp;itemSeq=255008508&amp;uq=636573292806069726" xr:uid="{00000000-0004-0000-0400-000008000000}"/>
+    <hyperlink ref="C6" r:id="rId10" display="https://www.digikey.com/scripts/DkSearch/dksus.dll?Detail&amp;itemSeq=255685923&amp;uq=636573315130419726" xr:uid="{00000000-0004-0000-0400-000009000000}"/>
+    <hyperlink ref="C9" r:id="rId11" display="https://www.digikey.com/scripts/DkSearch/dksus.dll?Detail&amp;itemSeq=255686028&amp;uq=636573315948419447" xr:uid="{00000000-0004-0000-0400-00000A000000}"/>
+    <hyperlink ref="C8" r:id="rId12" display="https://www.digikey.com/scripts/DkSearch/dksus.dll?Detail&amp;itemSeq=255686232&amp;uq=636573317079069726" xr:uid="{00000000-0004-0000-0400-00000B000000}"/>
+    <hyperlink ref="C3" r:id="rId13" display="https://www.digikey.com/scripts/DkSearch/dksus.dll?Detail&amp;itemSeq=255687110&amp;uq=636573319776344879" xr:uid="{00000000-0004-0000-0400-00000C000000}"/>
+    <hyperlink ref="C5" r:id="rId14" display="https://www.digikey.com/scripts/DkSearch/dksus.dll?Detail&amp;itemSeq=255687461&amp;uq=636573320529169726" xr:uid="{00000000-0004-0000-0400-00000D000000}"/>
+    <hyperlink ref="C2" r:id="rId15" display="https://www.digikey.com/scripts/DkSearch/dksus.dll?Detail&amp;itemSeq=255687743&amp;uq=636573321888037133" xr:uid="{00000000-0004-0000-0400-00000E000000}"/>
+    <hyperlink ref="C4" r:id="rId16" display="https://www.digikey.com/scripts/DkSearch/dksus.dll?Detail&amp;itemSeq=255687905&amp;uq=636573322862249726" xr:uid="{00000000-0004-0000-0400-00000F000000}"/>
+    <hyperlink ref="C13" r:id="rId17" display="https://www.digikey.com/scripts/DkSearch/dksus.dll?Detail&amp;itemSeq=255688809&amp;uq=636573327832494815" xr:uid="{00000000-0004-0000-0400-000010000000}"/>
+    <hyperlink ref="C16" r:id="rId18" display="https://www.digikey.com/scripts/DkSearch/dksus.dll?Detail&amp;itemSeq=255688956&amp;uq=636573328681559713" xr:uid="{00000000-0004-0000-0400-000011000000}"/>
+    <hyperlink ref="C14" r:id="rId19" display="https://www.digikey.com/scripts/DkSearch/dksus.dll?Detail&amp;itemSeq=255689053&amp;uq=636573329310919726" xr:uid="{00000000-0004-0000-0400-000012000000}"/>
+    <hyperlink ref="C15" r:id="rId20" display="https://www.digikey.com/scripts/DkSearch/dksus.dll?Detail&amp;itemSeq=255689221&amp;uq=636573330063847928" xr:uid="{00000000-0004-0000-0400-000013000000}"/>
+    <hyperlink ref="C26" r:id="rId21" display="https://www.digikey.com/scripts/DkSearch/dksus.dll?Detail&amp;itemSeq=255712800&amp;uq=636573577435916489" xr:uid="{00000000-0004-0000-0400-000014000000}"/>
+    <hyperlink ref="C21" r:id="rId22" display="https://www.digikey.com/scripts/DkSearch/dksus.dll?Detail&amp;itemSeq=255882403&amp;uq=636583008495157306" xr:uid="{00000000-0004-0000-0400-000015000000}"/>
+    <hyperlink ref="C24" r:id="rId23" display="https://www.digikey.com/scripts/DkSearch/dksus.dll?Detail&amp;itemSeq=256670207&amp;uq=636583008495177308" xr:uid="{00000000-0004-0000-0400-000016000000}"/>
+    <hyperlink ref="C17" r:id="rId24" display="https://www.digikey.com/scripts/DkSearch/dksus.dll?Detail&amp;itemSeq=255287263&amp;uq=636573292806069726" xr:uid="{00000000-0004-0000-0400-000017000000}"/>
+    <hyperlink ref="C25" r:id="rId25" display="https://www.digikey.com/scripts/DkSearch/dksus.dll?Detail&amp;itemSeq=260619861&amp;uq=636617232035274916" xr:uid="{00000000-0004-0000-0400-000018000000}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/BillOfMaterials/P6_BOM.xlsx
+++ b/BillOfMaterials/P6_BOM.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Braedin Butler\Desktop\vSpeedVario\BillOfMaterials\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{04935B6F-5C2F-43C1-AE56-1FDAB3335385}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{333E0C98-CBB2-45E1-826E-7EBF648D1A63}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="7275" windowHeight="7500" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -528,7 +528,7 @@
       <family val="3"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -562,6 +562,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -661,7 +667,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="72">
+  <cellXfs count="79">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -845,13 +851,30 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="44" fontId="0" fillId="5" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="10" fontId="0" fillId="5" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="0" fillId="5" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Currency" xfId="1" builtinId="4"/>
@@ -3544,8 +3567,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:M53"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="L39" sqref="L39"/>
+    <sheetView topLeftCell="A22" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="N39" sqref="N39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5082,10 +5105,10 @@
   <dimension ref="A1:Y201"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="D23" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="K18" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="I44" sqref="I44"/>
+      <selection pane="bottomRight" activeCell="T34" sqref="T34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5130,39 +5153,39 @@
       <c r="E1" s="44" t="s">
         <v>32</v>
       </c>
-      <c r="F1" s="58"/>
-      <c r="G1" s="58" t="s">
+      <c r="F1" s="53"/>
+      <c r="G1" s="53" t="s">
         <v>125</v>
       </c>
-      <c r="H1" s="59" t="s">
+      <c r="H1" s="76" t="s">
         <v>129</v>
       </c>
-      <c r="I1" s="59" t="s">
+      <c r="I1" s="76" t="s">
         <v>128</v>
       </c>
-      <c r="J1" s="58" t="s">
+      <c r="J1" s="53" t="s">
         <v>130</v>
       </c>
-      <c r="K1" s="58" t="s">
+      <c r="K1" s="53" t="s">
         <v>131</v>
       </c>
-      <c r="L1" s="58"/>
-      <c r="M1" s="44" t="s">
+      <c r="L1" s="72"/>
+      <c r="M1" s="72" t="s">
         <v>125</v>
       </c>
-      <c r="N1" s="44" t="s">
+      <c r="N1" s="72" t="s">
         <v>129</v>
       </c>
-      <c r="O1" s="44" t="s">
+      <c r="O1" s="72" t="s">
         <v>128</v>
       </c>
-      <c r="P1" s="52" t="s">
+      <c r="P1" s="75" t="s">
         <v>130</v>
       </c>
-      <c r="Q1" s="44" t="s">
+      <c r="Q1" s="72" t="s">
         <v>131</v>
       </c>
-      <c r="R1" s="53"/>
+      <c r="R1" s="72"/>
       <c r="S1" s="44" t="s">
         <v>125</v>
       </c>
@@ -5199,7 +5222,7 @@
       <c r="E2" s="44">
         <v>3</v>
       </c>
-      <c r="F2" s="58"/>
+      <c r="F2" s="53"/>
       <c r="G2" s="44">
         <v>4</v>
       </c>
@@ -5208,7 +5231,7 @@
         <f>G2+H2</f>
         <v>4</v>
       </c>
-      <c r="K2" s="69">
+      <c r="K2" s="77">
         <v>1</v>
       </c>
       <c r="L2" s="63"/>
@@ -5226,10 +5249,10 @@
         <f>M2+N2</f>
         <v>101</v>
       </c>
-      <c r="Q2" s="69">
-        <v>1</v>
-      </c>
-      <c r="R2" s="53"/>
+      <c r="Q2" s="77">
+        <v>1</v>
+      </c>
+      <c r="R2" s="72"/>
       <c r="S2" s="44">
         <f>P2-(Q$2*$E2)</f>
         <v>98</v>
@@ -5240,7 +5263,7 @@
         <f>S2+T2</f>
         <v>98</v>
       </c>
-      <c r="W2" s="69">
+      <c r="W2" s="77">
         <v>3</v>
       </c>
       <c r="X2" s="53"/>
@@ -5265,7 +5288,7 @@
       <c r="E3" s="44">
         <v>1</v>
       </c>
-      <c r="F3" s="58"/>
+      <c r="F3" s="53"/>
       <c r="G3" s="44">
         <v>8</v>
       </c>
@@ -5274,7 +5297,7 @@
         <f t="shared" ref="J3:J33" si="0">G3+H3</f>
         <v>8</v>
       </c>
-      <c r="K3" s="69"/>
+      <c r="K3" s="77"/>
       <c r="L3" s="63"/>
       <c r="M3" s="44">
         <f t="shared" ref="M3:M33" si="1">J3-(K$2*E3)</f>
@@ -5286,8 +5309,8 @@
         <f t="shared" ref="P3:P35" si="2">M3+N3</f>
         <v>7</v>
       </c>
-      <c r="Q3" s="69"/>
-      <c r="R3" s="53"/>
+      <c r="Q3" s="77"/>
+      <c r="R3" s="72"/>
       <c r="S3" s="44">
         <f t="shared" ref="S3:S35" si="3">P3-(Q$2*$E3)</f>
         <v>6</v>
@@ -5298,7 +5321,7 @@
         <f t="shared" ref="V3:V35" si="4">S3+T3</f>
         <v>6</v>
       </c>
-      <c r="W3" s="69"/>
+      <c r="W3" s="77"/>
       <c r="X3" s="53"/>
       <c r="Y3" s="44">
         <f t="shared" ref="Y3:Y35" si="5">V3-(W$2*$E3)</f>
@@ -5321,7 +5344,7 @@
       <c r="E4" s="44">
         <v>2</v>
       </c>
-      <c r="F4" s="58"/>
+      <c r="F4" s="53"/>
       <c r="G4" s="44">
         <v>6</v>
       </c>
@@ -5330,7 +5353,7 @@
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="K4" s="69"/>
+      <c r="K4" s="77"/>
       <c r="L4" s="63"/>
       <c r="M4" s="44">
         <f t="shared" si="1"/>
@@ -5342,8 +5365,8 @@
         <f t="shared" si="2"/>
         <v>4</v>
       </c>
-      <c r="Q4" s="69"/>
-      <c r="R4" s="53"/>
+      <c r="Q4" s="77"/>
+      <c r="R4" s="72"/>
       <c r="S4" s="44">
         <f t="shared" si="3"/>
         <v>2</v>
@@ -5358,7 +5381,7 @@
         <f t="shared" si="4"/>
         <v>102</v>
       </c>
-      <c r="W4" s="69"/>
+      <c r="W4" s="77"/>
       <c r="X4" s="53"/>
       <c r="Y4" s="44">
         <f t="shared" si="5"/>
@@ -5381,7 +5404,7 @@
       <c r="E5" s="44">
         <v>5</v>
       </c>
-      <c r="F5" s="58"/>
+      <c r="F5" s="53"/>
       <c r="G5" s="44">
         <v>0</v>
       </c>
@@ -5395,7 +5418,7 @@
         <f t="shared" si="0"/>
         <v>100</v>
       </c>
-      <c r="K5" s="69"/>
+      <c r="K5" s="77"/>
       <c r="L5" s="63"/>
       <c r="M5" s="44">
         <f t="shared" si="1"/>
@@ -5407,8 +5430,8 @@
         <f t="shared" si="2"/>
         <v>95</v>
       </c>
-      <c r="Q5" s="69"/>
-      <c r="R5" s="53"/>
+      <c r="Q5" s="77"/>
+      <c r="R5" s="72"/>
       <c r="S5" s="44">
         <f t="shared" si="3"/>
         <v>90</v>
@@ -5419,7 +5442,7 @@
         <f t="shared" si="4"/>
         <v>90</v>
       </c>
-      <c r="W5" s="69"/>
+      <c r="W5" s="77"/>
       <c r="X5" s="53"/>
       <c r="Y5" s="44">
         <f t="shared" si="5"/>
@@ -5442,7 +5465,7 @@
       <c r="E6" s="44">
         <v>1</v>
       </c>
-      <c r="F6" s="58"/>
+      <c r="F6" s="53"/>
       <c r="G6" s="44">
         <v>9</v>
       </c>
@@ -5451,7 +5474,7 @@
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="K6" s="69"/>
+      <c r="K6" s="77"/>
       <c r="L6" s="63"/>
       <c r="M6" s="44">
         <f t="shared" si="1"/>
@@ -5463,8 +5486,8 @@
         <f t="shared" si="2"/>
         <v>8</v>
       </c>
-      <c r="Q6" s="69"/>
-      <c r="R6" s="53"/>
+      <c r="Q6" s="77"/>
+      <c r="R6" s="72"/>
       <c r="S6" s="44">
         <f t="shared" si="3"/>
         <v>7</v>
@@ -5475,7 +5498,7 @@
         <f t="shared" si="4"/>
         <v>7</v>
       </c>
-      <c r="W6" s="69"/>
+      <c r="W6" s="77"/>
       <c r="X6" s="53"/>
       <c r="Y6" s="44">
         <f t="shared" si="5"/>
@@ -5498,7 +5521,7 @@
       <c r="E7" s="44">
         <v>1</v>
       </c>
-      <c r="F7" s="58"/>
+      <c r="F7" s="53"/>
       <c r="G7" s="44">
         <v>0</v>
       </c>
@@ -5512,7 +5535,7 @@
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="K7" s="69"/>
+      <c r="K7" s="77"/>
       <c r="L7" s="63"/>
       <c r="M7" s="44">
         <f t="shared" si="1"/>
@@ -5524,8 +5547,8 @@
         <f t="shared" si="2"/>
         <v>9</v>
       </c>
-      <c r="Q7" s="69"/>
-      <c r="R7" s="53"/>
+      <c r="Q7" s="77"/>
+      <c r="R7" s="72"/>
       <c r="S7" s="44">
         <f t="shared" si="3"/>
         <v>8</v>
@@ -5536,7 +5559,7 @@
         <f t="shared" si="4"/>
         <v>8</v>
       </c>
-      <c r="W7" s="69"/>
+      <c r="W7" s="77"/>
       <c r="X7" s="53"/>
       <c r="Y7" s="44">
         <f t="shared" si="5"/>
@@ -5559,7 +5582,7 @@
       <c r="E8" s="44">
         <v>2</v>
       </c>
-      <c r="F8" s="58"/>
+      <c r="F8" s="53"/>
       <c r="G8" s="44">
         <v>18</v>
       </c>
@@ -5568,7 +5591,7 @@
         <f t="shared" si="0"/>
         <v>18</v>
       </c>
-      <c r="K8" s="69"/>
+      <c r="K8" s="77"/>
       <c r="L8" s="63"/>
       <c r="M8" s="44">
         <f t="shared" si="1"/>
@@ -5580,8 +5603,8 @@
         <f t="shared" si="2"/>
         <v>16</v>
       </c>
-      <c r="Q8" s="69"/>
-      <c r="R8" s="53"/>
+      <c r="Q8" s="77"/>
+      <c r="R8" s="72"/>
       <c r="S8" s="44">
         <f t="shared" si="3"/>
         <v>14</v>
@@ -5592,7 +5615,7 @@
         <f t="shared" si="4"/>
         <v>14</v>
       </c>
-      <c r="W8" s="69"/>
+      <c r="W8" s="77"/>
       <c r="X8" s="53"/>
       <c r="Y8" s="44">
         <f t="shared" si="5"/>
@@ -5615,7 +5638,7 @@
       <c r="E9" s="44">
         <v>1</v>
       </c>
-      <c r="F9" s="58"/>
+      <c r="F9" s="53"/>
       <c r="G9" s="44">
         <v>9</v>
       </c>
@@ -5624,7 +5647,7 @@
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="K9" s="69"/>
+      <c r="K9" s="77"/>
       <c r="L9" s="63"/>
       <c r="M9" s="44">
         <f t="shared" si="1"/>
@@ -5636,8 +5659,8 @@
         <f t="shared" si="2"/>
         <v>8</v>
       </c>
-      <c r="Q9" s="69"/>
-      <c r="R9" s="53"/>
+      <c r="Q9" s="77"/>
+      <c r="R9" s="72"/>
       <c r="S9" s="44">
         <f t="shared" si="3"/>
         <v>7</v>
@@ -5648,7 +5671,7 @@
         <f t="shared" si="4"/>
         <v>7</v>
       </c>
-      <c r="W9" s="69"/>
+      <c r="W9" s="77"/>
       <c r="X9" s="53"/>
       <c r="Y9" s="44">
         <f t="shared" si="5"/>
@@ -5671,7 +5694,7 @@
       <c r="E10" s="44">
         <v>1</v>
       </c>
-      <c r="F10" s="58"/>
+      <c r="F10" s="53"/>
       <c r="G10" s="44">
         <v>0</v>
       </c>
@@ -5685,7 +5708,7 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="K10" s="69"/>
+      <c r="K10" s="77"/>
       <c r="L10" s="63"/>
       <c r="M10" s="44">
         <f>J10-(K$2*E10)</f>
@@ -5701,8 +5724,8 @@
         <f t="shared" si="2"/>
         <v>10</v>
       </c>
-      <c r="Q10" s="69"/>
-      <c r="R10" s="53"/>
+      <c r="Q10" s="77"/>
+      <c r="R10" s="72"/>
       <c r="S10" s="44">
         <f t="shared" si="3"/>
         <v>9</v>
@@ -5713,7 +5736,7 @@
         <f t="shared" si="4"/>
         <v>9</v>
       </c>
-      <c r="W10" s="69"/>
+      <c r="W10" s="77"/>
       <c r="X10" s="53"/>
       <c r="Y10" s="44">
         <f t="shared" si="5"/>
@@ -5736,7 +5759,7 @@
       <c r="E11" s="44">
         <v>1</v>
       </c>
-      <c r="F11" s="58"/>
+      <c r="F11" s="53"/>
       <c r="G11" s="44">
         <v>9</v>
       </c>
@@ -5745,7 +5768,7 @@
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="K11" s="69"/>
+      <c r="K11" s="77"/>
       <c r="L11" s="63"/>
       <c r="M11" s="44">
         <f t="shared" si="1"/>
@@ -5757,8 +5780,8 @@
         <f t="shared" si="2"/>
         <v>8</v>
       </c>
-      <c r="Q11" s="69"/>
-      <c r="R11" s="53"/>
+      <c r="Q11" s="77"/>
+      <c r="R11" s="72"/>
       <c r="S11" s="44">
         <f t="shared" si="3"/>
         <v>7</v>
@@ -5769,7 +5792,7 @@
         <f t="shared" si="4"/>
         <v>7</v>
       </c>
-      <c r="W11" s="69"/>
+      <c r="W11" s="77"/>
       <c r="X11" s="53"/>
       <c r="Y11" s="44">
         <f t="shared" si="5"/>
@@ -5792,7 +5815,7 @@
       <c r="E12" s="44">
         <v>1</v>
       </c>
-      <c r="F12" s="58"/>
+      <c r="F12" s="53"/>
       <c r="G12" s="44">
         <v>0</v>
       </c>
@@ -5806,7 +5829,7 @@
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="K12" s="69"/>
+      <c r="K12" s="77"/>
       <c r="L12" s="63"/>
       <c r="M12" s="44">
         <f t="shared" si="1"/>
@@ -5818,8 +5841,8 @@
         <f t="shared" si="2"/>
         <v>9</v>
       </c>
-      <c r="Q12" s="69"/>
-      <c r="R12" s="53"/>
+      <c r="Q12" s="77"/>
+      <c r="R12" s="72"/>
       <c r="S12" s="44">
         <f t="shared" si="3"/>
         <v>8</v>
@@ -5830,7 +5853,7 @@
         <f t="shared" si="4"/>
         <v>8</v>
       </c>
-      <c r="W12" s="69"/>
+      <c r="W12" s="77"/>
       <c r="X12" s="53"/>
       <c r="Y12" s="44">
         <f t="shared" si="5"/>
@@ -5853,7 +5876,7 @@
       <c r="E13" s="44">
         <v>3</v>
       </c>
-      <c r="F13" s="58"/>
+      <c r="F13" s="53"/>
       <c r="G13" s="44">
         <v>4</v>
       </c>
@@ -5862,7 +5885,7 @@
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="K13" s="69"/>
+      <c r="K13" s="77"/>
       <c r="L13" s="63"/>
       <c r="M13" s="44">
         <f t="shared" si="1"/>
@@ -5878,8 +5901,8 @@
         <f t="shared" si="2"/>
         <v>101</v>
       </c>
-      <c r="Q13" s="69"/>
-      <c r="R13" s="53"/>
+      <c r="Q13" s="77"/>
+      <c r="R13" s="72"/>
       <c r="S13" s="44">
         <f t="shared" si="3"/>
         <v>98</v>
@@ -5890,7 +5913,7 @@
         <f t="shared" si="4"/>
         <v>98</v>
       </c>
-      <c r="W13" s="69"/>
+      <c r="W13" s="77"/>
       <c r="X13" s="53"/>
       <c r="Y13" s="44">
         <f t="shared" si="5"/>
@@ -5913,7 +5936,7 @@
       <c r="E14" s="44">
         <v>4</v>
       </c>
-      <c r="F14" s="58"/>
+      <c r="F14" s="53"/>
       <c r="G14" s="44">
         <v>2</v>
       </c>
@@ -5927,7 +5950,7 @@
         <f t="shared" si="0"/>
         <v>102</v>
       </c>
-      <c r="K14" s="69"/>
+      <c r="K14" s="77"/>
       <c r="L14" s="63"/>
       <c r="M14" s="44">
         <f t="shared" si="1"/>
@@ -5939,8 +5962,8 @@
         <f t="shared" si="2"/>
         <v>98</v>
       </c>
-      <c r="Q14" s="69"/>
-      <c r="R14" s="53"/>
+      <c r="Q14" s="77"/>
+      <c r="R14" s="72"/>
       <c r="S14" s="44">
         <f t="shared" si="3"/>
         <v>94</v>
@@ -5951,7 +5974,7 @@
         <f t="shared" si="4"/>
         <v>94</v>
       </c>
-      <c r="W14" s="69"/>
+      <c r="W14" s="77"/>
       <c r="X14" s="53"/>
       <c r="Y14" s="44">
         <f t="shared" si="5"/>
@@ -5974,7 +5997,7 @@
       <c r="E15" s="44">
         <v>3</v>
       </c>
-      <c r="F15" s="58"/>
+      <c r="F15" s="53"/>
       <c r="G15" s="44">
         <v>4</v>
       </c>
@@ -5983,7 +6006,7 @@
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="K15" s="69"/>
+      <c r="K15" s="77"/>
       <c r="L15" s="63"/>
       <c r="M15" s="44">
         <f t="shared" si="1"/>
@@ -5999,8 +6022,8 @@
         <f t="shared" si="2"/>
         <v>101</v>
       </c>
-      <c r="Q15" s="69"/>
-      <c r="R15" s="53"/>
+      <c r="Q15" s="77"/>
+      <c r="R15" s="72"/>
       <c r="S15" s="44">
         <f t="shared" si="3"/>
         <v>98</v>
@@ -6011,7 +6034,7 @@
         <f t="shared" si="4"/>
         <v>98</v>
       </c>
-      <c r="W15" s="69"/>
+      <c r="W15" s="77"/>
       <c r="X15" s="53"/>
       <c r="Y15" s="44">
         <f t="shared" si="5"/>
@@ -6034,7 +6057,7 @@
       <c r="E16" s="44">
         <v>1</v>
       </c>
-      <c r="F16" s="58"/>
+      <c r="F16" s="53"/>
       <c r="G16" s="44">
         <v>8</v>
       </c>
@@ -6043,7 +6066,7 @@
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="K16" s="69"/>
+      <c r="K16" s="77"/>
       <c r="L16" s="63"/>
       <c r="M16" s="44">
         <f t="shared" si="1"/>
@@ -6055,8 +6078,8 @@
         <f t="shared" si="2"/>
         <v>7</v>
       </c>
-      <c r="Q16" s="69"/>
-      <c r="R16" s="53"/>
+      <c r="Q16" s="77"/>
+      <c r="R16" s="72"/>
       <c r="S16" s="44">
         <f t="shared" si="3"/>
         <v>6</v>
@@ -6067,7 +6090,7 @@
         <f t="shared" si="4"/>
         <v>6</v>
       </c>
-      <c r="W16" s="69"/>
+      <c r="W16" s="77"/>
       <c r="X16" s="53"/>
       <c r="Y16" s="44">
         <f t="shared" si="5"/>
@@ -6090,7 +6113,7 @@
       <c r="E17" s="44">
         <v>1</v>
       </c>
-      <c r="F17" s="58"/>
+      <c r="F17" s="53"/>
       <c r="G17" s="44">
         <v>0</v>
       </c>
@@ -6104,7 +6127,7 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="K17" s="69"/>
+      <c r="K17" s="77"/>
       <c r="L17" s="63"/>
       <c r="M17" s="44">
         <f t="shared" si="1"/>
@@ -6120,8 +6143,8 @@
         <f t="shared" si="2"/>
         <v>10</v>
       </c>
-      <c r="Q17" s="69"/>
-      <c r="R17" s="53"/>
+      <c r="Q17" s="77"/>
+      <c r="R17" s="72"/>
       <c r="S17" s="44">
         <f t="shared" si="3"/>
         <v>9</v>
@@ -6132,7 +6155,7 @@
         <f t="shared" si="4"/>
         <v>9</v>
       </c>
-      <c r="W17" s="69"/>
+      <c r="W17" s="77"/>
       <c r="X17" s="53"/>
       <c r="Y17" s="44">
         <f t="shared" si="5"/>
@@ -6155,7 +6178,7 @@
       <c r="E18" s="44">
         <v>1</v>
       </c>
-      <c r="F18" s="58"/>
+      <c r="F18" s="53"/>
       <c r="G18" s="44">
         <v>0</v>
       </c>
@@ -6169,7 +6192,7 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="K18" s="69"/>
+      <c r="K18" s="77"/>
       <c r="L18" s="63"/>
       <c r="M18" s="44">
         <f t="shared" si="1"/>
@@ -6185,8 +6208,8 @@
         <f t="shared" si="2"/>
         <v>10</v>
       </c>
-      <c r="Q18" s="69"/>
-      <c r="R18" s="53"/>
+      <c r="Q18" s="77"/>
+      <c r="R18" s="72"/>
       <c r="S18" s="44">
         <f t="shared" si="3"/>
         <v>9</v>
@@ -6197,7 +6220,7 @@
         <f t="shared" si="4"/>
         <v>9</v>
       </c>
-      <c r="W18" s="69"/>
+      <c r="W18" s="77"/>
       <c r="X18" s="53"/>
       <c r="Y18" s="44">
         <f t="shared" si="5"/>
@@ -6220,7 +6243,7 @@
       <c r="E19" s="44">
         <v>1</v>
       </c>
-      <c r="F19" s="58"/>
+      <c r="F19" s="53"/>
       <c r="G19" s="44">
         <v>0</v>
       </c>
@@ -6234,7 +6257,7 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="K19" s="69"/>
+      <c r="K19" s="77"/>
       <c r="L19" s="63"/>
       <c r="M19" s="44">
         <f t="shared" si="1"/>
@@ -6250,8 +6273,8 @@
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="Q19" s="69"/>
-      <c r="R19" s="53"/>
+      <c r="Q19" s="77"/>
+      <c r="R19" s="72"/>
       <c r="S19" s="44">
         <f t="shared" si="3"/>
         <v>0</v>
@@ -6267,7 +6290,7 @@
         <f t="shared" si="4"/>
         <v>3</v>
       </c>
-      <c r="W19" s="69"/>
+      <c r="W19" s="77"/>
       <c r="X19" s="53"/>
       <c r="Y19" s="44">
         <f t="shared" si="5"/>
@@ -6290,7 +6313,7 @@
       <c r="E20" s="44">
         <v>1</v>
       </c>
-      <c r="F20" s="58"/>
+      <c r="F20" s="53"/>
       <c r="G20" s="44">
         <v>0</v>
       </c>
@@ -6304,7 +6327,7 @@
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="K20" s="69"/>
+      <c r="K20" s="77"/>
       <c r="L20" s="63"/>
       <c r="M20" s="44">
         <f t="shared" si="1"/>
@@ -6316,8 +6339,8 @@
         <f t="shared" si="2"/>
         <v>9</v>
       </c>
-      <c r="Q20" s="69"/>
-      <c r="R20" s="53"/>
+      <c r="Q20" s="77"/>
+      <c r="R20" s="72"/>
       <c r="S20" s="44">
         <f t="shared" si="3"/>
         <v>8</v>
@@ -6328,7 +6351,7 @@
         <f t="shared" si="4"/>
         <v>8</v>
       </c>
-      <c r="W20" s="69"/>
+      <c r="W20" s="77"/>
       <c r="X20" s="53"/>
       <c r="Y20" s="44">
         <f t="shared" si="5"/>
@@ -6351,7 +6374,7 @@
       <c r="E21" s="44">
         <v>2</v>
       </c>
-      <c r="F21" s="58"/>
+      <c r="F21" s="53"/>
       <c r="G21" s="44">
         <v>0</v>
       </c>
@@ -6365,7 +6388,7 @@
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="K21" s="69"/>
+      <c r="K21" s="77"/>
       <c r="L21" s="63"/>
       <c r="M21" s="44">
         <f t="shared" si="1"/>
@@ -6377,8 +6400,8 @@
         <f t="shared" si="2"/>
         <v>8</v>
       </c>
-      <c r="Q21" s="69"/>
-      <c r="R21" s="53"/>
+      <c r="Q21" s="77"/>
+      <c r="R21" s="72"/>
       <c r="S21" s="44">
         <f t="shared" si="3"/>
         <v>6</v>
@@ -6389,7 +6412,7 @@
         <f t="shared" si="4"/>
         <v>6</v>
       </c>
-      <c r="W21" s="69"/>
+      <c r="W21" s="77"/>
       <c r="X21" s="53"/>
       <c r="Y21" s="44">
         <f t="shared" si="5"/>
@@ -6412,7 +6435,7 @@
       <c r="E22" s="44">
         <v>1</v>
       </c>
-      <c r="F22" s="58"/>
+      <c r="F22" s="53"/>
       <c r="G22" s="44">
         <v>0</v>
       </c>
@@ -6426,7 +6449,7 @@
         <f>G22+H22-1</f>
         <v>9</v>
       </c>
-      <c r="K22" s="69"/>
+      <c r="K22" s="77"/>
       <c r="L22" s="63"/>
       <c r="M22" s="44">
         <f>J22-(K$2*E22)</f>
@@ -6438,8 +6461,8 @@
         <f t="shared" si="2"/>
         <v>8</v>
       </c>
-      <c r="Q22" s="69"/>
-      <c r="R22" s="53"/>
+      <c r="Q22" s="77"/>
+      <c r="R22" s="72"/>
       <c r="S22" s="44">
         <f t="shared" si="3"/>
         <v>7</v>
@@ -6450,7 +6473,7 @@
         <f t="shared" si="4"/>
         <v>7</v>
       </c>
-      <c r="W22" s="69"/>
+      <c r="W22" s="77"/>
       <c r="X22" s="53"/>
       <c r="Y22" s="44">
         <f t="shared" si="5"/>
@@ -6473,7 +6496,7 @@
       <c r="E23" s="44">
         <v>1</v>
       </c>
-      <c r="F23" s="58"/>
+      <c r="F23" s="53"/>
       <c r="G23" s="44">
         <v>0</v>
       </c>
@@ -6487,7 +6510,7 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="K23" s="69"/>
+      <c r="K23" s="77"/>
       <c r="L23" s="63"/>
       <c r="M23" s="44">
         <f t="shared" si="1"/>
@@ -6503,8 +6526,8 @@
         <f t="shared" si="2"/>
         <v>10</v>
       </c>
-      <c r="Q23" s="69"/>
-      <c r="R23" s="53"/>
+      <c r="Q23" s="77"/>
+      <c r="R23" s="72"/>
       <c r="S23" s="44">
         <f t="shared" si="3"/>
         <v>9</v>
@@ -6515,7 +6538,7 @@
         <f t="shared" si="4"/>
         <v>9</v>
       </c>
-      <c r="W23" s="69"/>
+      <c r="W23" s="77"/>
       <c r="X23" s="53"/>
       <c r="Y23" s="44">
         <f t="shared" si="5"/>
@@ -6538,7 +6561,7 @@
       <c r="E24" s="44">
         <v>1</v>
       </c>
-      <c r="F24" s="58"/>
+      <c r="F24" s="53"/>
       <c r="G24" s="44">
         <v>0</v>
       </c>
@@ -6552,7 +6575,7 @@
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="K24" s="69"/>
+      <c r="K24" s="77"/>
       <c r="L24" s="63"/>
       <c r="M24" s="44">
         <f>J24-(K$2*E24)</f>
@@ -6564,8 +6587,8 @@
         <f t="shared" si="2"/>
         <v>9</v>
       </c>
-      <c r="Q24" s="69"/>
-      <c r="R24" s="53"/>
+      <c r="Q24" s="77"/>
+      <c r="R24" s="72"/>
       <c r="S24" s="44">
         <f t="shared" si="3"/>
         <v>8</v>
@@ -6576,7 +6599,7 @@
         <f t="shared" si="4"/>
         <v>8</v>
       </c>
-      <c r="W24" s="69"/>
+      <c r="W24" s="77"/>
       <c r="X24" s="53"/>
       <c r="Y24" s="44">
         <f t="shared" si="5"/>
@@ -6599,7 +6622,7 @@
       <c r="E25" s="44">
         <v>1</v>
       </c>
-      <c r="F25" s="58"/>
+      <c r="F25" s="53"/>
       <c r="G25" s="44">
         <v>0</v>
       </c>
@@ -6613,7 +6636,7 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="K25" s="69"/>
+      <c r="K25" s="77"/>
       <c r="L25" s="63"/>
       <c r="M25" s="44">
         <f t="shared" si="1"/>
@@ -6629,8 +6652,8 @@
         <f t="shared" si="2"/>
         <v>10</v>
       </c>
-      <c r="Q25" s="69"/>
-      <c r="R25" s="53"/>
+      <c r="Q25" s="77"/>
+      <c r="R25" s="72"/>
       <c r="S25" s="44">
         <f t="shared" si="3"/>
         <v>9</v>
@@ -6641,7 +6664,7 @@
         <f t="shared" si="4"/>
         <v>9</v>
       </c>
-      <c r="W25" s="69"/>
+      <c r="W25" s="77"/>
       <c r="X25" s="53"/>
       <c r="Y25" s="44">
         <f t="shared" si="5"/>
@@ -6662,7 +6685,7 @@
       <c r="E26" s="44">
         <v>1</v>
       </c>
-      <c r="F26" s="58"/>
+      <c r="F26" s="53"/>
       <c r="G26" s="44">
         <v>0</v>
       </c>
@@ -6676,7 +6699,7 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="K26" s="69"/>
+      <c r="K26" s="77"/>
       <c r="L26" s="63"/>
       <c r="M26" s="44">
         <f t="shared" si="1"/>
@@ -6692,8 +6715,8 @@
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="Q26" s="69"/>
-      <c r="R26" s="53"/>
+      <c r="Q26" s="77"/>
+      <c r="R26" s="72"/>
       <c r="S26" s="44">
         <f t="shared" si="3"/>
         <v>0</v>
@@ -6709,7 +6732,7 @@
         <f t="shared" si="4"/>
         <v>3</v>
       </c>
-      <c r="W26" s="69"/>
+      <c r="W26" s="77"/>
       <c r="X26" s="53"/>
       <c r="Y26" s="44">
         <f t="shared" si="5"/>
@@ -6728,7 +6751,7 @@
       <c r="E27" s="44">
         <v>1</v>
       </c>
-      <c r="F27" s="58"/>
+      <c r="F27" s="53"/>
       <c r="G27" s="44">
         <v>8</v>
       </c>
@@ -6737,7 +6760,7 @@
         <f>G27+H27-1</f>
         <v>7</v>
       </c>
-      <c r="K27" s="69"/>
+      <c r="K27" s="77"/>
       <c r="L27" s="63"/>
       <c r="M27" s="44">
         <f>J27-(K$2*E27)</f>
@@ -6749,8 +6772,8 @@
         <f t="shared" si="2"/>
         <v>6</v>
       </c>
-      <c r="Q27" s="69"/>
-      <c r="R27" s="53"/>
+      <c r="Q27" s="77"/>
+      <c r="R27" s="72"/>
       <c r="S27" s="44">
         <f t="shared" si="3"/>
         <v>5</v>
@@ -6761,7 +6784,7 @@
         <f t="shared" si="4"/>
         <v>5</v>
       </c>
-      <c r="W27" s="69"/>
+      <c r="W27" s="77"/>
       <c r="X27" s="53"/>
       <c r="Y27" s="44">
         <f t="shared" si="5"/>
@@ -6784,7 +6807,7 @@
       <c r="E28" s="44">
         <v>1</v>
       </c>
-      <c r="F28" s="58"/>
+      <c r="F28" s="53"/>
       <c r="G28" s="44">
         <v>0</v>
       </c>
@@ -6799,23 +6822,22 @@
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="K28" s="69"/>
+      <c r="K28" s="77"/>
       <c r="L28" s="63"/>
       <c r="M28" s="44">
-        <f>J28-(K$2*E28)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N28" s="44"/>
       <c r="O28" s="48"/>
       <c r="P28" s="44">
         <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="Q28" s="69"/>
-      <c r="R28" s="53"/>
+        <v>2</v>
+      </c>
+      <c r="Q28" s="77"/>
+      <c r="R28" s="72"/>
       <c r="S28" s="44">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T28" s="44">
         <v>5</v>
@@ -6826,13 +6848,13 @@
       </c>
       <c r="V28" s="44">
         <f t="shared" si="4"/>
-        <v>5</v>
-      </c>
-      <c r="W28" s="69"/>
+        <v>6</v>
+      </c>
+      <c r="W28" s="77"/>
       <c r="X28" s="53"/>
       <c r="Y28" s="44">
         <f t="shared" si="5"/>
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="29" spans="1:25" x14ac:dyDescent="0.25">
@@ -6851,7 +6873,7 @@
       <c r="E29" s="44">
         <v>1</v>
       </c>
-      <c r="F29" s="58"/>
+      <c r="F29" s="53"/>
       <c r="G29" s="44">
         <v>0</v>
       </c>
@@ -6866,7 +6888,7 @@
         <f>G29+H29-2</f>
         <v>2</v>
       </c>
-      <c r="K29" s="69"/>
+      <c r="K29" s="77"/>
       <c r="L29" s="63"/>
       <c r="M29" s="44">
         <f>J29-(K$2*E29)</f>
@@ -6878,8 +6900,8 @@
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="Q29" s="69"/>
-      <c r="R29" s="53"/>
+      <c r="Q29" s="77"/>
+      <c r="R29" s="72"/>
       <c r="S29" s="44">
         <f t="shared" si="3"/>
         <v>0</v>
@@ -6894,7 +6916,7 @@
         <f t="shared" si="4"/>
         <v>5</v>
       </c>
-      <c r="W29" s="69"/>
+      <c r="W29" s="77"/>
       <c r="X29" s="53"/>
       <c r="Y29" s="44">
         <f t="shared" si="5"/>
@@ -6913,7 +6935,7 @@
       <c r="E30" s="44">
         <v>1</v>
       </c>
-      <c r="F30" s="58"/>
+      <c r="F30" s="53"/>
       <c r="G30" s="44">
         <v>0</v>
       </c>
@@ -6927,7 +6949,7 @@
         <f t="shared" si="0"/>
         <v>100</v>
       </c>
-      <c r="K30" s="69"/>
+      <c r="K30" s="77"/>
       <c r="L30" s="63"/>
       <c r="M30" s="44">
         <f t="shared" si="1"/>
@@ -6939,8 +6961,8 @@
         <f t="shared" si="2"/>
         <v>99</v>
       </c>
-      <c r="Q30" s="69"/>
-      <c r="R30" s="53"/>
+      <c r="Q30" s="77"/>
+      <c r="R30" s="72"/>
       <c r="S30" s="44">
         <f t="shared" si="3"/>
         <v>98</v>
@@ -6951,7 +6973,7 @@
         <f t="shared" si="4"/>
         <v>98</v>
       </c>
-      <c r="W30" s="69"/>
+      <c r="W30" s="77"/>
       <c r="X30" s="53"/>
       <c r="Y30" s="44">
         <f t="shared" si="5"/>
@@ -6970,7 +6992,7 @@
       <c r="E31" s="44">
         <v>1</v>
       </c>
-      <c r="F31" s="58"/>
+      <c r="F31" s="53"/>
       <c r="G31" s="44">
         <v>1</v>
       </c>
@@ -6984,7 +7006,7 @@
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="K31" s="69"/>
+      <c r="K31" s="77"/>
       <c r="L31" s="63"/>
       <c r="M31" s="44">
         <f t="shared" si="1"/>
@@ -6996,8 +7018,8 @@
         <f t="shared" si="2"/>
         <v>2</v>
       </c>
-      <c r="Q31" s="69"/>
-      <c r="R31" s="53"/>
+      <c r="Q31" s="77"/>
+      <c r="R31" s="72"/>
       <c r="S31" s="44">
         <f t="shared" si="3"/>
         <v>1</v>
@@ -7012,7 +7034,7 @@
         <f t="shared" si="4"/>
         <v>3</v>
       </c>
-      <c r="W31" s="69"/>
+      <c r="W31" s="77"/>
       <c r="X31" s="53"/>
       <c r="Y31" s="44">
         <f t="shared" si="5"/>
@@ -7031,7 +7053,7 @@
       <c r="E32" s="44">
         <v>1</v>
       </c>
-      <c r="F32" s="58"/>
+      <c r="F32" s="53"/>
       <c r="G32" s="44">
         <v>2</v>
       </c>
@@ -7040,39 +7062,34 @@
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="K32" s="69"/>
+      <c r="K32" s="77"/>
       <c r="L32" s="63"/>
       <c r="M32" s="44">
-        <f t="shared" si="1"/>
-        <v>1</v>
+        <v>128</v>
       </c>
       <c r="N32" s="44"/>
       <c r="O32" s="48"/>
       <c r="P32" s="44">
         <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="Q32" s="69"/>
-      <c r="R32" s="53"/>
+        <v>128</v>
+      </c>
+      <c r="Q32" s="77"/>
+      <c r="R32" s="72"/>
       <c r="S32" s="44">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="T32" s="44">
-        <v>64</v>
-      </c>
-      <c r="U32" s="48">
-        <v>10.82</v>
-      </c>
+        <v>127</v>
+      </c>
+      <c r="T32" s="44"/>
+      <c r="U32" s="48"/>
       <c r="V32" s="44">
         <f t="shared" si="4"/>
-        <v>64</v>
-      </c>
-      <c r="W32" s="69"/>
+        <v>127</v>
+      </c>
+      <c r="W32" s="77"/>
       <c r="X32" s="53"/>
       <c r="Y32" s="44">
         <f t="shared" si="5"/>
-        <v>61</v>
+        <v>124</v>
       </c>
     </row>
     <row r="33" spans="1:25" x14ac:dyDescent="0.25">
@@ -7087,7 +7104,7 @@
       <c r="E33" s="44">
         <v>1</v>
       </c>
-      <c r="F33" s="58"/>
+      <c r="F33" s="53"/>
       <c r="G33" s="44">
         <v>3</v>
       </c>
@@ -7096,39 +7113,38 @@
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="K33" s="69"/>
+      <c r="K33" s="77"/>
       <c r="L33" s="63"/>
       <c r="M33" s="44">
-        <f t="shared" si="1"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N33" s="44"/>
       <c r="O33" s="48"/>
       <c r="P33" s="44">
         <f t="shared" si="2"/>
-        <v>2</v>
-      </c>
-      <c r="Q33" s="69"/>
-      <c r="R33" s="53"/>
+        <v>1</v>
+      </c>
+      <c r="Q33" s="77"/>
+      <c r="R33" s="72"/>
       <c r="S33" s="44">
         <f t="shared" si="3"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T33" s="44">
-        <v>5</v>
+        <v>25</v>
       </c>
       <c r="U33" s="48">
-        <v>5.6</v>
+        <v>12.71</v>
       </c>
       <c r="V33" s="44">
         <f t="shared" si="4"/>
-        <v>6</v>
-      </c>
-      <c r="W33" s="69"/>
+        <v>25</v>
+      </c>
+      <c r="W33" s="77"/>
       <c r="X33" s="53"/>
       <c r="Y33" s="44">
         <f t="shared" si="5"/>
-        <v>3</v>
+        <v>22</v>
       </c>
     </row>
     <row r="34" spans="1:25" x14ac:dyDescent="0.25">
@@ -7143,7 +7159,7 @@
       <c r="E34" s="44">
         <v>1</v>
       </c>
-      <c r="F34" s="58"/>
+      <c r="F34" s="53"/>
       <c r="G34" s="44">
         <v>0</v>
       </c>
@@ -7157,7 +7173,7 @@
         <f>G34+H34</f>
         <v>1</v>
       </c>
-      <c r="K34" s="69"/>
+      <c r="K34" s="77"/>
       <c r="L34" s="63"/>
       <c r="M34" s="44">
         <f>J34-(K$2*E34)</f>
@@ -7173,8 +7189,8 @@
         <f t="shared" si="2"/>
         <v>10</v>
       </c>
-      <c r="Q34" s="69"/>
-      <c r="R34" s="53"/>
+      <c r="Q34" s="77"/>
+      <c r="R34" s="72"/>
       <c r="S34" s="44">
         <f t="shared" si="3"/>
         <v>9</v>
@@ -7189,7 +7205,7 @@
         <f t="shared" si="4"/>
         <v>19</v>
       </c>
-      <c r="W34" s="69"/>
+      <c r="W34" s="77"/>
       <c r="X34" s="53"/>
       <c r="Y34" s="44">
         <f t="shared" si="5"/>
@@ -7208,7 +7224,7 @@
       <c r="E35" s="44">
         <v>4</v>
       </c>
-      <c r="F35" s="58"/>
+      <c r="F35" s="53"/>
       <c r="G35" s="44">
         <v>26</v>
       </c>
@@ -7217,7 +7233,7 @@
         <f>G35+H35</f>
         <v>26</v>
       </c>
-      <c r="K35" s="69"/>
+      <c r="K35" s="77"/>
       <c r="L35" s="63"/>
       <c r="M35" s="44">
         <f>J35-(K$2*E35)</f>
@@ -7229,8 +7245,8 @@
         <f t="shared" si="2"/>
         <v>22</v>
       </c>
-      <c r="Q35" s="69"/>
-      <c r="R35" s="53"/>
+      <c r="Q35" s="77"/>
+      <c r="R35" s="72"/>
       <c r="S35" s="44">
         <f t="shared" si="3"/>
         <v>18</v>
@@ -7241,7 +7257,7 @@
         <f t="shared" si="4"/>
         <v>18</v>
       </c>
-      <c r="W35" s="69"/>
+      <c r="W35" s="77"/>
       <c r="X35" s="53"/>
       <c r="Y35" s="44">
         <f t="shared" si="5"/>
@@ -7257,7 +7273,6 @@
       <c r="D36" s="11" t="s">
         <v>52</v>
       </c>
-      <c r="F36" s="60"/>
       <c r="G36" s="54"/>
       <c r="H36" s="68" t="s">
         <v>136</v>
@@ -7266,7 +7281,7 @@
         <v>8.99</v>
       </c>
       <c r="J36" s="53"/>
-      <c r="K36" s="69"/>
+      <c r="K36" s="77"/>
       <c r="L36" s="63"/>
       <c r="M36" s="54"/>
       <c r="N36" s="68" t="s">
@@ -7276,8 +7291,8 @@
         <v>8.99</v>
       </c>
       <c r="P36" s="54"/>
-      <c r="Q36" s="69"/>
-      <c r="R36" s="53"/>
+      <c r="Q36" s="77"/>
+      <c r="R36" s="72"/>
       <c r="S36" s="54"/>
       <c r="T36" s="68" t="s">
         <v>136</v>
@@ -7286,7 +7301,7 @@
         <v>8.99</v>
       </c>
       <c r="V36" s="54"/>
-      <c r="W36" s="69"/>
+      <c r="W36" s="77"/>
       <c r="X36" s="53"/>
       <c r="Y36" s="54"/>
     </row>
@@ -7297,7 +7312,6 @@
       <c r="B37" s="1"/>
       <c r="C37" s="4"/>
       <c r="D37" s="11"/>
-      <c r="F37" s="60"/>
       <c r="G37" s="54"/>
       <c r="H37" s="68"/>
       <c r="I37" s="47">
@@ -7305,7 +7319,7 @@
         <v>10.8</v>
       </c>
       <c r="J37" s="53"/>
-      <c r="K37" s="69"/>
+      <c r="K37" s="77"/>
       <c r="L37" s="63"/>
       <c r="M37" s="54"/>
       <c r="N37" s="68"/>
@@ -7314,13 +7328,13 @@
         <v>10.8</v>
       </c>
       <c r="P37" s="54"/>
-      <c r="Q37" s="69"/>
-      <c r="R37" s="53"/>
+      <c r="Q37" s="77"/>
+      <c r="R37" s="72"/>
       <c r="S37" s="54"/>
       <c r="T37" s="68"/>
       <c r="U37" s="48"/>
       <c r="V37" s="54"/>
-      <c r="W37" s="69"/>
+      <c r="W37" s="77"/>
       <c r="X37" s="53"/>
       <c r="Y37" s="54"/>
     </row>
@@ -7331,14 +7345,13 @@
       <c r="B38" s="1"/>
       <c r="C38" s="4"/>
       <c r="D38" s="11"/>
-      <c r="F38" s="60"/>
       <c r="G38" s="54"/>
       <c r="H38" s="68"/>
       <c r="I38" s="47">
         <v>3.5</v>
       </c>
       <c r="J38" s="53"/>
-      <c r="K38" s="69"/>
+      <c r="K38" s="77"/>
       <c r="L38" s="63"/>
       <c r="M38" s="54"/>
       <c r="N38" s="68"/>
@@ -7347,13 +7360,13 @@
         <v>3.5</v>
       </c>
       <c r="P38" s="54"/>
-      <c r="Q38" s="69"/>
-      <c r="R38" s="53"/>
+      <c r="Q38" s="77"/>
+      <c r="R38" s="72"/>
       <c r="S38" s="54"/>
       <c r="T38" s="68"/>
       <c r="U38" s="48"/>
       <c r="V38" s="54"/>
-      <c r="W38" s="69"/>
+      <c r="W38" s="77"/>
       <c r="X38" s="53"/>
       <c r="Y38" s="54"/>
     </row>
@@ -7369,7 +7382,7 @@
       <c r="E39" s="46">
         <v>5.3699999999999998E-2</v>
       </c>
-      <c r="F39" s="61"/>
+      <c r="F39" s="70"/>
       <c r="G39" s="54"/>
       <c r="H39" s="68" t="s">
         <v>137</v>
@@ -7379,7 +7392,7 @@
         <v>2.2355310000000004</v>
       </c>
       <c r="J39" s="53"/>
-      <c r="K39" s="70"/>
+      <c r="K39" s="78"/>
       <c r="L39" s="64"/>
       <c r="M39" s="54"/>
       <c r="N39" s="68" t="s">
@@ -7390,8 +7403,8 @@
         <v>3.5952149999999992</v>
       </c>
       <c r="P39" s="54"/>
-      <c r="Q39" s="70"/>
-      <c r="R39" s="57"/>
+      <c r="Q39" s="78"/>
+      <c r="R39" s="73"/>
       <c r="S39" s="54"/>
       <c r="T39" s="68" t="s">
         <v>137</v>
@@ -7401,7 +7414,7 @@
         <v>1.5331349999999999</v>
       </c>
       <c r="V39" s="54"/>
-      <c r="W39" s="70"/>
+      <c r="W39" s="78"/>
       <c r="X39" s="57"/>
       <c r="Y39" s="54"/>
     </row>
@@ -7409,7 +7422,7 @@
       <c r="A40" s="49" t="s">
         <v>132</v>
       </c>
-      <c r="F40" s="62"/>
+      <c r="F40" s="55"/>
       <c r="G40" s="55"/>
       <c r="H40" s="67" t="s">
         <v>139</v>
@@ -7441,14 +7454,14 @@
         <f>99*Q2</f>
         <v>99</v>
       </c>
-      <c r="R40" s="55"/>
+      <c r="R40" s="74"/>
       <c r="S40" s="55"/>
       <c r="T40" s="67" t="s">
         <v>139</v>
       </c>
       <c r="U40" s="51">
         <f>-1*SUM(U2:U39)</f>
-        <v>-139.76313500000001</v>
+        <v>-136.05313499999997</v>
       </c>
       <c r="V40" s="67" t="s">
         <v>138</v>
@@ -7464,7 +7477,7 @@
       <c r="A41" s="49" t="s">
         <v>109</v>
       </c>
-      <c r="F41" s="62"/>
+      <c r="F41" s="55"/>
       <c r="G41" s="55"/>
       <c r="H41" s="56"/>
       <c r="I41" s="55"/>
@@ -7486,7 +7499,7 @@
         <f>Q40+O40</f>
         <v>-3.6352149999999739</v>
       </c>
-      <c r="R41" s="55"/>
+      <c r="R41" s="74"/>
       <c r="S41" s="55"/>
       <c r="T41" s="55"/>
       <c r="U41" s="55"/>
@@ -7495,24 +7508,26 @@
       </c>
       <c r="W41" s="51">
         <f>W40+U40</f>
-        <v>157.23686499999999</v>
+        <v>160.94686500000003</v>
       </c>
       <c r="X41" s="55"/>
       <c r="Y41" s="55"/>
     </row>
     <row r="42" spans="1:25" s="54" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="F42" s="60"/>
-      <c r="G42" s="60" t="s">
+      <c r="G42" s="54" t="s">
         <v>133</v>
       </c>
-      <c r="H42" s="58"/>
-      <c r="I42" s="60"/>
-      <c r="J42" s="58"/>
-      <c r="K42" s="60"/>
-      <c r="L42" s="60"/>
-      <c r="M42" s="54" t="s">
+      <c r="H42" s="53"/>
+      <c r="J42" s="53"/>
+      <c r="L42" s="71"/>
+      <c r="M42" s="71" t="s">
         <v>134</v>
       </c>
+      <c r="N42" s="71"/>
+      <c r="O42" s="71"/>
+      <c r="P42" s="71"/>
+      <c r="Q42" s="71"/>
+      <c r="R42" s="71"/>
       <c r="S42" s="54" t="s">
         <v>135</v>
       </c>
@@ -7521,7 +7536,7 @@
       <c r="H43" s="68" t="s">
         <v>143</v>
       </c>
-      <c r="I43" s="71">
+      <c r="I43" s="69">
         <v>80</v>
       </c>
       <c r="J43" s="53"/>
@@ -8334,7 +8349,7 @@
         <f>G2+H2</f>
         <v>4</v>
       </c>
-      <c r="K2" s="69">
+      <c r="K2" s="77">
         <v>1</v>
       </c>
       <c r="L2" s="63"/>
@@ -8365,7 +8380,7 @@
         <f t="shared" ref="J3:J34" si="0">G3+H3</f>
         <v>8</v>
       </c>
-      <c r="K3" s="69"/>
+      <c r="K3" s="77"/>
       <c r="L3" s="63"/>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
@@ -8394,7 +8409,7 @@
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="K4" s="69"/>
+      <c r="K4" s="77"/>
       <c r="L4" s="63"/>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
@@ -8427,7 +8442,7 @@
         <f t="shared" si="0"/>
         <v>100</v>
       </c>
-      <c r="K5" s="69"/>
+      <c r="K5" s="77"/>
       <c r="L5" s="63"/>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
@@ -8456,7 +8471,7 @@
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="K6" s="69"/>
+      <c r="K6" s="77"/>
       <c r="L6" s="63"/>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
@@ -8489,7 +8504,7 @@
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="K7" s="69"/>
+      <c r="K7" s="77"/>
       <c r="L7" s="63"/>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
@@ -8518,7 +8533,7 @@
         <f t="shared" si="0"/>
         <v>18</v>
       </c>
-      <c r="K8" s="69"/>
+      <c r="K8" s="77"/>
       <c r="L8" s="63"/>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
@@ -8547,7 +8562,7 @@
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="K9" s="69"/>
+      <c r="K9" s="77"/>
       <c r="L9" s="63"/>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
@@ -8580,7 +8595,7 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="K10" s="69"/>
+      <c r="K10" s="77"/>
       <c r="L10" s="63"/>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
@@ -8609,7 +8624,7 @@
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="K11" s="69"/>
+      <c r="K11" s="77"/>
       <c r="L11" s="63"/>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
@@ -8642,7 +8657,7 @@
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="K12" s="69"/>
+      <c r="K12" s="77"/>
       <c r="L12" s="63"/>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.25">
@@ -8671,7 +8686,7 @@
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="K13" s="69"/>
+      <c r="K13" s="77"/>
       <c r="L13" s="63"/>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.25">
@@ -8704,7 +8719,7 @@
         <f t="shared" si="0"/>
         <v>102</v>
       </c>
-      <c r="K14" s="69"/>
+      <c r="K14" s="77"/>
       <c r="L14" s="63"/>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.25">
@@ -8733,7 +8748,7 @@
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="K15" s="69"/>
+      <c r="K15" s="77"/>
       <c r="L15" s="63"/>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.25">
@@ -8762,7 +8777,7 @@
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="K16" s="69"/>
+      <c r="K16" s="77"/>
       <c r="L16" s="63"/>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.25">
@@ -8795,7 +8810,7 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="K17" s="69"/>
+      <c r="K17" s="77"/>
       <c r="L17" s="63"/>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.25">
@@ -8828,7 +8843,7 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="K18" s="69"/>
+      <c r="K18" s="77"/>
       <c r="L18" s="63"/>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.25">
@@ -8861,7 +8876,7 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="K19" s="69"/>
+      <c r="K19" s="77"/>
       <c r="L19" s="63"/>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.25">
@@ -8894,7 +8909,7 @@
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="K20" s="69"/>
+      <c r="K20" s="77"/>
       <c r="L20" s="63"/>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.25">
@@ -8927,7 +8942,7 @@
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="K21" s="69"/>
+      <c r="K21" s="77"/>
       <c r="L21" s="63"/>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.25">
@@ -8960,7 +8975,7 @@
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="K22" s="69"/>
+      <c r="K22" s="77"/>
       <c r="L22" s="63"/>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.25">
@@ -8993,7 +9008,7 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="K23" s="69"/>
+      <c r="K23" s="77"/>
       <c r="L23" s="63"/>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.25">
@@ -9026,7 +9041,7 @@
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="K24" s="69"/>
+      <c r="K24" s="77"/>
       <c r="L24" s="63"/>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.25">
@@ -9059,7 +9074,7 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="K25" s="69"/>
+      <c r="K25" s="77"/>
       <c r="L25" s="63"/>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.25">
@@ -9090,7 +9105,7 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="K26" s="69"/>
+      <c r="K26" s="77"/>
       <c r="L26" s="63"/>
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.25">
@@ -9115,7 +9130,7 @@
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="K27" s="69"/>
+      <c r="K27" s="77"/>
       <c r="L27" s="63"/>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.25">
@@ -9149,7 +9164,7 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="K28" s="69"/>
+      <c r="K28" s="77"/>
       <c r="L28" s="63"/>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.25">
@@ -9183,7 +9198,7 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="K29" s="69"/>
+      <c r="K29" s="77"/>
       <c r="L29" s="63"/>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.25">
@@ -9212,7 +9227,7 @@
         <f t="shared" si="0"/>
         <v>100</v>
       </c>
-      <c r="K30" s="69"/>
+      <c r="K30" s="77"/>
       <c r="L30" s="63"/>
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.25">
@@ -9237,7 +9252,7 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="K31" s="69"/>
+      <c r="K31" s="77"/>
       <c r="L31" s="63"/>
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.25">
@@ -9262,7 +9277,7 @@
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="K32" s="69"/>
+      <c r="K32" s="77"/>
       <c r="L32" s="63"/>
     </row>
     <row r="33" spans="1:12" x14ac:dyDescent="0.25">
@@ -9287,7 +9302,7 @@
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="K33" s="69"/>
+      <c r="K33" s="77"/>
       <c r="L33" s="63"/>
     </row>
     <row r="34" spans="1:12" x14ac:dyDescent="0.25">
@@ -9316,7 +9331,7 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="K34" s="69"/>
+      <c r="K34" s="77"/>
       <c r="L34" s="63"/>
     </row>
     <row r="35" spans="1:12" x14ac:dyDescent="0.25">
@@ -9337,7 +9352,7 @@
         <v>8.99</v>
       </c>
       <c r="J35" s="53"/>
-      <c r="K35" s="69"/>
+      <c r="K35" s="77"/>
       <c r="L35" s="63"/>
     </row>
     <row r="36" spans="1:12" x14ac:dyDescent="0.25">
@@ -9362,7 +9377,7 @@
         <v>2.2355310000000004</v>
       </c>
       <c r="J36" s="53"/>
-      <c r="K36" s="70"/>
+      <c r="K36" s="78"/>
       <c r="L36" s="64"/>
     </row>
     <row r="37" spans="1:12" x14ac:dyDescent="0.25">

--- a/BillOfMaterials/P6_BOM.xlsx
+++ b/BillOfMaterials/P6_BOM.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Braedin Butler\Desktop\vSpeedVario\BillOfMaterials\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{333E0C98-CBB2-45E1-826E-7EBF648D1A63}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{535E27D8-07D4-4E0C-8A4E-C10F5AE5AB21}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="7275" windowHeight="7500" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="772" uniqueCount="144">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="776" uniqueCount="148">
   <si>
     <t>C10</t>
   </si>
@@ -451,9 +451,6 @@
     <t>EXPENSES</t>
   </si>
   <si>
-    <t>M2 X 8 BOLTS</t>
-  </si>
-  <si>
     <t>EBAY LISTING FEE</t>
   </si>
   <si>
@@ -461,6 +458,21 @@
   </si>
   <si>
     <t>SELL PRICE:</t>
+  </si>
+  <si>
+    <t>M2 X 10 BOLTS</t>
+  </si>
+  <si>
+    <t>PAYPAL FEE</t>
+  </si>
+  <si>
+    <t>PAYPAL</t>
+  </si>
+  <si>
+    <t>FIRST CLASS</t>
+  </si>
+  <si>
+    <t>CL10C220JB8NFNC</t>
   </si>
 </sst>
 </file>
@@ -667,7 +679,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="79">
+  <cellXfs count="80">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -812,18 +824,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -855,7 +861,6 @@
     <xf numFmtId="10" fontId="0" fillId="5" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -863,9 +868,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -874,6 +876,17 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="5" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="0" fillId="5" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -5102,13 +5115,13 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:Y201"/>
+  <dimension ref="A1:Y202"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="K18" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="G24" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="T34" sqref="T34"/>
+      <selection pane="bottomRight" activeCell="U41" sqref="U41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5118,19 +5131,19 @@
     <col min="3" max="3" width="22.25" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11.875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="13" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="2.75" style="54" customWidth="1"/>
+    <col min="6" max="6" width="2.75" style="53" customWidth="1"/>
     <col min="7" max="7" width="9.875" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="4.875" style="44" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="10.875" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="14" style="44" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="10.875" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="2.875" style="54" customWidth="1"/>
+    <col min="12" max="12" width="2.875" style="53" customWidth="1"/>
     <col min="13" max="13" width="9.875" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="4.875" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="10.875" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="14" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="9.875" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="2.375" style="54" customWidth="1"/>
+    <col min="18" max="18" width="2.375" style="53" customWidth="1"/>
     <col min="20" max="20" width="5.25" customWidth="1"/>
     <col min="21" max="21" width="10.875" bestFit="1" customWidth="1"/>
     <col min="23" max="23" width="9.875" bestFit="1" customWidth="1"/>
@@ -5153,55 +5166,55 @@
       <c r="E1" s="44" t="s">
         <v>32</v>
       </c>
-      <c r="F1" s="53"/>
-      <c r="G1" s="53" t="s">
+      <c r="F1" s="52"/>
+      <c r="G1" s="52" t="s">
         <v>125</v>
       </c>
-      <c r="H1" s="76" t="s">
+      <c r="H1" s="72" t="s">
         <v>129</v>
       </c>
-      <c r="I1" s="76" t="s">
+      <c r="I1" s="72" t="s">
         <v>128</v>
       </c>
-      <c r="J1" s="53" t="s">
+      <c r="J1" s="52" t="s">
         <v>130</v>
       </c>
-      <c r="K1" s="53" t="s">
+      <c r="K1" s="52" t="s">
         <v>131</v>
       </c>
-      <c r="L1" s="72"/>
-      <c r="M1" s="72" t="s">
+      <c r="L1" s="52"/>
+      <c r="M1" s="52" t="s">
         <v>125</v>
       </c>
-      <c r="N1" s="72" t="s">
+      <c r="N1" s="52" t="s">
         <v>129</v>
       </c>
-      <c r="O1" s="72" t="s">
+      <c r="O1" s="52" t="s">
         <v>128</v>
       </c>
       <c r="P1" s="75" t="s">
         <v>130</v>
       </c>
-      <c r="Q1" s="72" t="s">
+      <c r="Q1" s="52" t="s">
         <v>131</v>
       </c>
-      <c r="R1" s="72"/>
-      <c r="S1" s="44" t="s">
+      <c r="R1" s="56"/>
+      <c r="S1" s="56" t="s">
         <v>125</v>
       </c>
-      <c r="T1" s="44" t="s">
+      <c r="T1" s="56" t="s">
         <v>129</v>
       </c>
-      <c r="U1" s="44" t="s">
+      <c r="U1" s="56" t="s">
         <v>128</v>
       </c>
-      <c r="V1" s="52" t="s">
+      <c r="V1" s="61" t="s">
         <v>130</v>
       </c>
-      <c r="W1" s="44" t="s">
+      <c r="W1" s="56" t="s">
         <v>131</v>
       </c>
-      <c r="X1" s="53"/>
+      <c r="X1" s="56"/>
       <c r="Y1" s="44" t="s">
         <v>125</v>
       </c>
@@ -5222,7 +5235,7 @@
       <c r="E2" s="44">
         <v>3</v>
       </c>
-      <c r="F2" s="53"/>
+      <c r="F2" s="52"/>
       <c r="G2" s="44">
         <v>4</v>
       </c>
@@ -5231,10 +5244,10 @@
         <f>G2+H2</f>
         <v>4</v>
       </c>
-      <c r="K2" s="77">
-        <v>1</v>
-      </c>
-      <c r="L2" s="63"/>
+      <c r="K2" s="73">
+        <v>1</v>
+      </c>
+      <c r="L2" s="75"/>
       <c r="M2" s="44">
         <f>J2-(K$2*E2)</f>
         <v>1</v>
@@ -5249,10 +5262,10 @@
         <f>M2+N2</f>
         <v>101</v>
       </c>
-      <c r="Q2" s="77">
-        <v>1</v>
-      </c>
-      <c r="R2" s="72"/>
+      <c r="Q2" s="73">
+        <v>1</v>
+      </c>
+      <c r="R2" s="69"/>
       <c r="S2" s="44">
         <f>P2-(Q$2*$E2)</f>
         <v>98</v>
@@ -5263,10 +5276,10 @@
         <f>S2+T2</f>
         <v>98</v>
       </c>
-      <c r="W2" s="77">
+      <c r="W2" s="73">
         <v>3</v>
       </c>
-      <c r="X2" s="53"/>
+      <c r="X2" s="56"/>
       <c r="Y2" s="44">
         <f>V2-(W$2*$E2)</f>
         <v>89</v>
@@ -5288,7 +5301,7 @@
       <c r="E3" s="44">
         <v>1</v>
       </c>
-      <c r="F3" s="53"/>
+      <c r="F3" s="52"/>
       <c r="G3" s="44">
         <v>8</v>
       </c>
@@ -5297,10 +5310,10 @@
         <f t="shared" ref="J3:J33" si="0">G3+H3</f>
         <v>8</v>
       </c>
-      <c r="K3" s="77"/>
-      <c r="L3" s="63"/>
+      <c r="K3" s="73"/>
+      <c r="L3" s="75"/>
       <c r="M3" s="44">
-        <f t="shared" ref="M3:M33" si="1">J3-(K$2*E3)</f>
+        <f t="shared" ref="M3:M31" si="1">J3-(K$2*E3)</f>
         <v>7</v>
       </c>
       <c r="N3" s="44"/>
@@ -5309,10 +5322,10 @@
         <f t="shared" ref="P3:P35" si="2">M3+N3</f>
         <v>7</v>
       </c>
-      <c r="Q3" s="77"/>
-      <c r="R3" s="72"/>
+      <c r="Q3" s="73"/>
+      <c r="R3" s="69"/>
       <c r="S3" s="44">
-        <f t="shared" ref="S3:S35" si="3">P3-(Q$2*$E3)</f>
+        <f t="shared" ref="S3:S34" si="3">P3-(Q$2*$E3)</f>
         <v>6</v>
       </c>
       <c r="T3" s="44"/>
@@ -5321,8 +5334,8 @@
         <f t="shared" ref="V3:V35" si="4">S3+T3</f>
         <v>6</v>
       </c>
-      <c r="W3" s="77"/>
-      <c r="X3" s="53"/>
+      <c r="W3" s="73"/>
+      <c r="X3" s="56"/>
       <c r="Y3" s="44">
         <f t="shared" ref="Y3:Y35" si="5">V3-(W$2*$E3)</f>
         <v>3</v>
@@ -5336,7 +5349,7 @@
         <v>28</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>77</v>
+        <v>147</v>
       </c>
       <c r="D4" s="11" t="s">
         <v>52</v>
@@ -5344,7 +5357,7 @@
       <c r="E4" s="44">
         <v>2</v>
       </c>
-      <c r="F4" s="53"/>
+      <c r="F4" s="52"/>
       <c r="G4" s="44">
         <v>6</v>
       </c>
@@ -5353,8 +5366,8 @@
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="K4" s="77"/>
-      <c r="L4" s="63"/>
+      <c r="K4" s="73"/>
+      <c r="L4" s="75"/>
       <c r="M4" s="44">
         <f t="shared" si="1"/>
         <v>4</v>
@@ -5365,8 +5378,8 @@
         <f t="shared" si="2"/>
         <v>4</v>
       </c>
-      <c r="Q4" s="77"/>
-      <c r="R4" s="72"/>
+      <c r="Q4" s="73"/>
+      <c r="R4" s="69"/>
       <c r="S4" s="44">
         <f t="shared" si="3"/>
         <v>2</v>
@@ -5375,14 +5388,14 @@
         <v>100</v>
       </c>
       <c r="U4" s="48">
-        <v>1.43</v>
+        <v>2.23</v>
       </c>
       <c r="V4" s="44">
         <f t="shared" si="4"/>
         <v>102</v>
       </c>
-      <c r="W4" s="77"/>
-      <c r="X4" s="53"/>
+      <c r="W4" s="73"/>
+      <c r="X4" s="56"/>
       <c r="Y4" s="44">
         <f t="shared" si="5"/>
         <v>96</v>
@@ -5404,7 +5417,7 @@
       <c r="E5" s="44">
         <v>5</v>
       </c>
-      <c r="F5" s="53"/>
+      <c r="F5" s="52"/>
       <c r="G5" s="44">
         <v>0</v>
       </c>
@@ -5418,8 +5431,8 @@
         <f t="shared" si="0"/>
         <v>100</v>
       </c>
-      <c r="K5" s="77"/>
-      <c r="L5" s="63"/>
+      <c r="K5" s="73"/>
+      <c r="L5" s="75"/>
       <c r="M5" s="44">
         <f t="shared" si="1"/>
         <v>95</v>
@@ -5430,8 +5443,8 @@
         <f t="shared" si="2"/>
         <v>95</v>
       </c>
-      <c r="Q5" s="77"/>
-      <c r="R5" s="72"/>
+      <c r="Q5" s="73"/>
+      <c r="R5" s="69"/>
       <c r="S5" s="44">
         <f t="shared" si="3"/>
         <v>90</v>
@@ -5442,8 +5455,8 @@
         <f t="shared" si="4"/>
         <v>90</v>
       </c>
-      <c r="W5" s="77"/>
-      <c r="X5" s="53"/>
+      <c r="W5" s="73"/>
+      <c r="X5" s="56"/>
       <c r="Y5" s="44">
         <f t="shared" si="5"/>
         <v>75</v>
@@ -5465,7 +5478,7 @@
       <c r="E6" s="44">
         <v>1</v>
       </c>
-      <c r="F6" s="53"/>
+      <c r="F6" s="52"/>
       <c r="G6" s="44">
         <v>9</v>
       </c>
@@ -5474,8 +5487,8 @@
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="K6" s="77"/>
-      <c r="L6" s="63"/>
+      <c r="K6" s="73"/>
+      <c r="L6" s="75"/>
       <c r="M6" s="44">
         <f t="shared" si="1"/>
         <v>8</v>
@@ -5486,8 +5499,8 @@
         <f t="shared" si="2"/>
         <v>8</v>
       </c>
-      <c r="Q6" s="77"/>
-      <c r="R6" s="72"/>
+      <c r="Q6" s="73"/>
+      <c r="R6" s="69"/>
       <c r="S6" s="44">
         <f t="shared" si="3"/>
         <v>7</v>
@@ -5498,8 +5511,8 @@
         <f t="shared" si="4"/>
         <v>7</v>
       </c>
-      <c r="W6" s="77"/>
-      <c r="X6" s="53"/>
+      <c r="W6" s="73"/>
+      <c r="X6" s="56"/>
       <c r="Y6" s="44">
         <f t="shared" si="5"/>
         <v>4</v>
@@ -5521,7 +5534,7 @@
       <c r="E7" s="44">
         <v>1</v>
       </c>
-      <c r="F7" s="53"/>
+      <c r="F7" s="52"/>
       <c r="G7" s="44">
         <v>0</v>
       </c>
@@ -5535,8 +5548,8 @@
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="K7" s="77"/>
-      <c r="L7" s="63"/>
+      <c r="K7" s="73"/>
+      <c r="L7" s="75"/>
       <c r="M7" s="44">
         <f t="shared" si="1"/>
         <v>9</v>
@@ -5547,8 +5560,8 @@
         <f t="shared" si="2"/>
         <v>9</v>
       </c>
-      <c r="Q7" s="77"/>
-      <c r="R7" s="72"/>
+      <c r="Q7" s="73"/>
+      <c r="R7" s="69"/>
       <c r="S7" s="44">
         <f t="shared" si="3"/>
         <v>8</v>
@@ -5559,8 +5572,8 @@
         <f t="shared" si="4"/>
         <v>8</v>
       </c>
-      <c r="W7" s="77"/>
-      <c r="X7" s="53"/>
+      <c r="W7" s="73"/>
+      <c r="X7" s="56"/>
       <c r="Y7" s="44">
         <f t="shared" si="5"/>
         <v>5</v>
@@ -5582,7 +5595,7 @@
       <c r="E8" s="44">
         <v>2</v>
       </c>
-      <c r="F8" s="53"/>
+      <c r="F8" s="52"/>
       <c r="G8" s="44">
         <v>18</v>
       </c>
@@ -5591,8 +5604,8 @@
         <f t="shared" si="0"/>
         <v>18</v>
       </c>
-      <c r="K8" s="77"/>
-      <c r="L8" s="63"/>
+      <c r="K8" s="73"/>
+      <c r="L8" s="75"/>
       <c r="M8" s="44">
         <f t="shared" si="1"/>
         <v>16</v>
@@ -5603,8 +5616,8 @@
         <f t="shared" si="2"/>
         <v>16</v>
       </c>
-      <c r="Q8" s="77"/>
-      <c r="R8" s="72"/>
+      <c r="Q8" s="73"/>
+      <c r="R8" s="69"/>
       <c r="S8" s="44">
         <f t="shared" si="3"/>
         <v>14</v>
@@ -5615,8 +5628,8 @@
         <f t="shared" si="4"/>
         <v>14</v>
       </c>
-      <c r="W8" s="77"/>
-      <c r="X8" s="53"/>
+      <c r="W8" s="73"/>
+      <c r="X8" s="56"/>
       <c r="Y8" s="44">
         <f t="shared" si="5"/>
         <v>8</v>
@@ -5638,7 +5651,7 @@
       <c r="E9" s="44">
         <v>1</v>
       </c>
-      <c r="F9" s="53"/>
+      <c r="F9" s="52"/>
       <c r="G9" s="44">
         <v>9</v>
       </c>
@@ -5647,8 +5660,8 @@
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="K9" s="77"/>
-      <c r="L9" s="63"/>
+      <c r="K9" s="73"/>
+      <c r="L9" s="75"/>
       <c r="M9" s="44">
         <f t="shared" si="1"/>
         <v>8</v>
@@ -5659,8 +5672,8 @@
         <f t="shared" si="2"/>
         <v>8</v>
       </c>
-      <c r="Q9" s="77"/>
-      <c r="R9" s="72"/>
+      <c r="Q9" s="73"/>
+      <c r="R9" s="69"/>
       <c r="S9" s="44">
         <f t="shared" si="3"/>
         <v>7</v>
@@ -5671,8 +5684,8 @@
         <f t="shared" si="4"/>
         <v>7</v>
       </c>
-      <c r="W9" s="77"/>
-      <c r="X9" s="53"/>
+      <c r="W9" s="73"/>
+      <c r="X9" s="56"/>
       <c r="Y9" s="44">
         <f t="shared" si="5"/>
         <v>4</v>
@@ -5694,7 +5707,7 @@
       <c r="E10" s="44">
         <v>1</v>
       </c>
-      <c r="F10" s="53"/>
+      <c r="F10" s="52"/>
       <c r="G10" s="44">
         <v>0</v>
       </c>
@@ -5708,8 +5721,8 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="K10" s="77"/>
-      <c r="L10" s="63"/>
+      <c r="K10" s="73"/>
+      <c r="L10" s="75"/>
       <c r="M10" s="44">
         <f>J10-(K$2*E10)</f>
         <v>0</v>
@@ -5724,8 +5737,8 @@
         <f t="shared" si="2"/>
         <v>10</v>
       </c>
-      <c r="Q10" s="77"/>
-      <c r="R10" s="72"/>
+      <c r="Q10" s="73"/>
+      <c r="R10" s="69"/>
       <c r="S10" s="44">
         <f t="shared" si="3"/>
         <v>9</v>
@@ -5736,8 +5749,8 @@
         <f t="shared" si="4"/>
         <v>9</v>
       </c>
-      <c r="W10" s="77"/>
-      <c r="X10" s="53"/>
+      <c r="W10" s="73"/>
+      <c r="X10" s="56"/>
       <c r="Y10" s="44">
         <f t="shared" si="5"/>
         <v>6</v>
@@ -5759,7 +5772,7 @@
       <c r="E11" s="44">
         <v>1</v>
       </c>
-      <c r="F11" s="53"/>
+      <c r="F11" s="52"/>
       <c r="G11" s="44">
         <v>9</v>
       </c>
@@ -5768,8 +5781,8 @@
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="K11" s="77"/>
-      <c r="L11" s="63"/>
+      <c r="K11" s="73"/>
+      <c r="L11" s="75"/>
       <c r="M11" s="44">
         <f t="shared" si="1"/>
         <v>8</v>
@@ -5780,8 +5793,8 @@
         <f t="shared" si="2"/>
         <v>8</v>
       </c>
-      <c r="Q11" s="77"/>
-      <c r="R11" s="72"/>
+      <c r="Q11" s="73"/>
+      <c r="R11" s="69"/>
       <c r="S11" s="44">
         <f t="shared" si="3"/>
         <v>7</v>
@@ -5792,8 +5805,8 @@
         <f t="shared" si="4"/>
         <v>7</v>
       </c>
-      <c r="W11" s="77"/>
-      <c r="X11" s="53"/>
+      <c r="W11" s="73"/>
+      <c r="X11" s="56"/>
       <c r="Y11" s="44">
         <f t="shared" si="5"/>
         <v>4</v>
@@ -5815,7 +5828,7 @@
       <c r="E12" s="44">
         <v>1</v>
       </c>
-      <c r="F12" s="53"/>
+      <c r="F12" s="52"/>
       <c r="G12" s="44">
         <v>0</v>
       </c>
@@ -5829,8 +5842,8 @@
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="K12" s="77"/>
-      <c r="L12" s="63"/>
+      <c r="K12" s="73"/>
+      <c r="L12" s="75"/>
       <c r="M12" s="44">
         <f t="shared" si="1"/>
         <v>9</v>
@@ -5841,8 +5854,8 @@
         <f t="shared" si="2"/>
         <v>9</v>
       </c>
-      <c r="Q12" s="77"/>
-      <c r="R12" s="72"/>
+      <c r="Q12" s="73"/>
+      <c r="R12" s="69"/>
       <c r="S12" s="44">
         <f t="shared" si="3"/>
         <v>8</v>
@@ -5853,8 +5866,8 @@
         <f t="shared" si="4"/>
         <v>8</v>
       </c>
-      <c r="W12" s="77"/>
-      <c r="X12" s="53"/>
+      <c r="W12" s="73"/>
+      <c r="X12" s="56"/>
       <c r="Y12" s="44">
         <f t="shared" si="5"/>
         <v>5</v>
@@ -5876,7 +5889,7 @@
       <c r="E13" s="44">
         <v>3</v>
       </c>
-      <c r="F13" s="53"/>
+      <c r="F13" s="52"/>
       <c r="G13" s="44">
         <v>4</v>
       </c>
@@ -5885,8 +5898,8 @@
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="K13" s="77"/>
-      <c r="L13" s="63"/>
+      <c r="K13" s="73"/>
+      <c r="L13" s="75"/>
       <c r="M13" s="44">
         <f t="shared" si="1"/>
         <v>1</v>
@@ -5901,8 +5914,8 @@
         <f t="shared" si="2"/>
         <v>101</v>
       </c>
-      <c r="Q13" s="77"/>
-      <c r="R13" s="72"/>
+      <c r="Q13" s="73"/>
+      <c r="R13" s="69"/>
       <c r="S13" s="44">
         <f t="shared" si="3"/>
         <v>98</v>
@@ -5913,8 +5926,8 @@
         <f t="shared" si="4"/>
         <v>98</v>
       </c>
-      <c r="W13" s="77"/>
-      <c r="X13" s="53"/>
+      <c r="W13" s="73"/>
+      <c r="X13" s="56"/>
       <c r="Y13" s="44">
         <f t="shared" si="5"/>
         <v>89</v>
@@ -5936,7 +5949,7 @@
       <c r="E14" s="44">
         <v>4</v>
       </c>
-      <c r="F14" s="53"/>
+      <c r="F14" s="52"/>
       <c r="G14" s="44">
         <v>2</v>
       </c>
@@ -5950,8 +5963,8 @@
         <f t="shared" si="0"/>
         <v>102</v>
       </c>
-      <c r="K14" s="77"/>
-      <c r="L14" s="63"/>
+      <c r="K14" s="73"/>
+      <c r="L14" s="75"/>
       <c r="M14" s="44">
         <f t="shared" si="1"/>
         <v>98</v>
@@ -5962,8 +5975,8 @@
         <f t="shared" si="2"/>
         <v>98</v>
       </c>
-      <c r="Q14" s="77"/>
-      <c r="R14" s="72"/>
+      <c r="Q14" s="73"/>
+      <c r="R14" s="69"/>
       <c r="S14" s="44">
         <f t="shared" si="3"/>
         <v>94</v>
@@ -5974,8 +5987,8 @@
         <f t="shared" si="4"/>
         <v>94</v>
       </c>
-      <c r="W14" s="77"/>
-      <c r="X14" s="53"/>
+      <c r="W14" s="73"/>
+      <c r="X14" s="56"/>
       <c r="Y14" s="44">
         <f t="shared" si="5"/>
         <v>82</v>
@@ -5997,7 +6010,7 @@
       <c r="E15" s="44">
         <v>3</v>
       </c>
-      <c r="F15" s="53"/>
+      <c r="F15" s="52"/>
       <c r="G15" s="44">
         <v>4</v>
       </c>
@@ -6006,8 +6019,8 @@
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="K15" s="77"/>
-      <c r="L15" s="63"/>
+      <c r="K15" s="73"/>
+      <c r="L15" s="75"/>
       <c r="M15" s="44">
         <f t="shared" si="1"/>
         <v>1</v>
@@ -6022,8 +6035,8 @@
         <f t="shared" si="2"/>
         <v>101</v>
       </c>
-      <c r="Q15" s="77"/>
-      <c r="R15" s="72"/>
+      <c r="Q15" s="73"/>
+      <c r="R15" s="69"/>
       <c r="S15" s="44">
         <f t="shared" si="3"/>
         <v>98</v>
@@ -6034,8 +6047,8 @@
         <f t="shared" si="4"/>
         <v>98</v>
       </c>
-      <c r="W15" s="77"/>
-      <c r="X15" s="53"/>
+      <c r="W15" s="73"/>
+      <c r="X15" s="56"/>
       <c r="Y15" s="44">
         <f t="shared" si="5"/>
         <v>89</v>
@@ -6057,7 +6070,7 @@
       <c r="E16" s="44">
         <v>1</v>
       </c>
-      <c r="F16" s="53"/>
+      <c r="F16" s="52"/>
       <c r="G16" s="44">
         <v>8</v>
       </c>
@@ -6066,8 +6079,8 @@
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="K16" s="77"/>
-      <c r="L16" s="63"/>
+      <c r="K16" s="73"/>
+      <c r="L16" s="75"/>
       <c r="M16" s="44">
         <f t="shared" si="1"/>
         <v>7</v>
@@ -6078,8 +6091,8 @@
         <f t="shared" si="2"/>
         <v>7</v>
       </c>
-      <c r="Q16" s="77"/>
-      <c r="R16" s="72"/>
+      <c r="Q16" s="73"/>
+      <c r="R16" s="69"/>
       <c r="S16" s="44">
         <f t="shared" si="3"/>
         <v>6</v>
@@ -6090,8 +6103,8 @@
         <f t="shared" si="4"/>
         <v>6</v>
       </c>
-      <c r="W16" s="77"/>
-      <c r="X16" s="53"/>
+      <c r="W16" s="73"/>
+      <c r="X16" s="56"/>
       <c r="Y16" s="44">
         <f t="shared" si="5"/>
         <v>3</v>
@@ -6113,7 +6126,7 @@
       <c r="E17" s="44">
         <v>1</v>
       </c>
-      <c r="F17" s="53"/>
+      <c r="F17" s="52"/>
       <c r="G17" s="44">
         <v>0</v>
       </c>
@@ -6127,8 +6140,8 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="K17" s="77"/>
-      <c r="L17" s="63"/>
+      <c r="K17" s="73"/>
+      <c r="L17" s="75"/>
       <c r="M17" s="44">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -6143,8 +6156,8 @@
         <f t="shared" si="2"/>
         <v>10</v>
       </c>
-      <c r="Q17" s="77"/>
-      <c r="R17" s="72"/>
+      <c r="Q17" s="73"/>
+      <c r="R17" s="69"/>
       <c r="S17" s="44">
         <f t="shared" si="3"/>
         <v>9</v>
@@ -6155,8 +6168,8 @@
         <f t="shared" si="4"/>
         <v>9</v>
       </c>
-      <c r="W17" s="77"/>
-      <c r="X17" s="53"/>
+      <c r="W17" s="73"/>
+      <c r="X17" s="56"/>
       <c r="Y17" s="44">
         <f t="shared" si="5"/>
         <v>6</v>
@@ -6178,7 +6191,7 @@
       <c r="E18" s="44">
         <v>1</v>
       </c>
-      <c r="F18" s="53"/>
+      <c r="F18" s="52"/>
       <c r="G18" s="44">
         <v>0</v>
       </c>
@@ -6192,8 +6205,8 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="K18" s="77"/>
-      <c r="L18" s="63"/>
+      <c r="K18" s="73"/>
+      <c r="L18" s="75"/>
       <c r="M18" s="44">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -6208,8 +6221,8 @@
         <f t="shared" si="2"/>
         <v>10</v>
       </c>
-      <c r="Q18" s="77"/>
-      <c r="R18" s="72"/>
+      <c r="Q18" s="73"/>
+      <c r="R18" s="69"/>
       <c r="S18" s="44">
         <f t="shared" si="3"/>
         <v>9</v>
@@ -6220,8 +6233,8 @@
         <f t="shared" si="4"/>
         <v>9</v>
       </c>
-      <c r="W18" s="77"/>
-      <c r="X18" s="53"/>
+      <c r="W18" s="73"/>
+      <c r="X18" s="56"/>
       <c r="Y18" s="44">
         <f t="shared" si="5"/>
         <v>6</v>
@@ -6243,7 +6256,7 @@
       <c r="E19" s="44">
         <v>1</v>
       </c>
-      <c r="F19" s="53"/>
+      <c r="F19" s="52"/>
       <c r="G19" s="44">
         <v>0</v>
       </c>
@@ -6257,8 +6270,8 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="K19" s="77"/>
-      <c r="L19" s="63"/>
+      <c r="K19" s="73"/>
+      <c r="L19" s="75"/>
       <c r="M19" s="44">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -6273,8 +6286,8 @@
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="Q19" s="77"/>
-      <c r="R19" s="72"/>
+      <c r="Q19" s="73"/>
+      <c r="R19" s="69"/>
       <c r="S19" s="44">
         <f t="shared" si="3"/>
         <v>0</v>
@@ -6290,8 +6303,8 @@
         <f t="shared" si="4"/>
         <v>3</v>
       </c>
-      <c r="W19" s="77"/>
-      <c r="X19" s="53"/>
+      <c r="W19" s="73"/>
+      <c r="X19" s="56"/>
       <c r="Y19" s="44">
         <f t="shared" si="5"/>
         <v>0</v>
@@ -6313,7 +6326,7 @@
       <c r="E20" s="44">
         <v>1</v>
       </c>
-      <c r="F20" s="53"/>
+      <c r="F20" s="52"/>
       <c r="G20" s="44">
         <v>0</v>
       </c>
@@ -6327,8 +6340,8 @@
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="K20" s="77"/>
-      <c r="L20" s="63"/>
+      <c r="K20" s="73"/>
+      <c r="L20" s="75"/>
       <c r="M20" s="44">
         <f t="shared" si="1"/>
         <v>9</v>
@@ -6339,8 +6352,8 @@
         <f t="shared" si="2"/>
         <v>9</v>
       </c>
-      <c r="Q20" s="77"/>
-      <c r="R20" s="72"/>
+      <c r="Q20" s="73"/>
+      <c r="R20" s="69"/>
       <c r="S20" s="44">
         <f t="shared" si="3"/>
         <v>8</v>
@@ -6351,8 +6364,8 @@
         <f t="shared" si="4"/>
         <v>8</v>
       </c>
-      <c r="W20" s="77"/>
-      <c r="X20" s="53"/>
+      <c r="W20" s="73"/>
+      <c r="X20" s="56"/>
       <c r="Y20" s="44">
         <f t="shared" si="5"/>
         <v>5</v>
@@ -6374,7 +6387,7 @@
       <c r="E21" s="44">
         <v>2</v>
       </c>
-      <c r="F21" s="53"/>
+      <c r="F21" s="52"/>
       <c r="G21" s="44">
         <v>0</v>
       </c>
@@ -6388,8 +6401,8 @@
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="K21" s="77"/>
-      <c r="L21" s="63"/>
+      <c r="K21" s="73"/>
+      <c r="L21" s="75"/>
       <c r="M21" s="44">
         <f t="shared" si="1"/>
         <v>8</v>
@@ -6400,8 +6413,8 @@
         <f t="shared" si="2"/>
         <v>8</v>
       </c>
-      <c r="Q21" s="77"/>
-      <c r="R21" s="72"/>
+      <c r="Q21" s="73"/>
+      <c r="R21" s="69"/>
       <c r="S21" s="44">
         <f t="shared" si="3"/>
         <v>6</v>
@@ -6412,8 +6425,8 @@
         <f t="shared" si="4"/>
         <v>6</v>
       </c>
-      <c r="W21" s="77"/>
-      <c r="X21" s="53"/>
+      <c r="W21" s="73"/>
+      <c r="X21" s="56"/>
       <c r="Y21" s="44">
         <f t="shared" si="5"/>
         <v>0</v>
@@ -6435,7 +6448,7 @@
       <c r="E22" s="44">
         <v>1</v>
       </c>
-      <c r="F22" s="53"/>
+      <c r="F22" s="52"/>
       <c r="G22" s="44">
         <v>0</v>
       </c>
@@ -6449,8 +6462,8 @@
         <f>G22+H22-1</f>
         <v>9</v>
       </c>
-      <c r="K22" s="77"/>
-      <c r="L22" s="63"/>
+      <c r="K22" s="73"/>
+      <c r="L22" s="75"/>
       <c r="M22" s="44">
         <f>J22-(K$2*E22)</f>
         <v>8</v>
@@ -6461,8 +6474,8 @@
         <f t="shared" si="2"/>
         <v>8</v>
       </c>
-      <c r="Q22" s="77"/>
-      <c r="R22" s="72"/>
+      <c r="Q22" s="73"/>
+      <c r="R22" s="69"/>
       <c r="S22" s="44">
         <f t="shared" si="3"/>
         <v>7</v>
@@ -6473,8 +6486,8 @@
         <f t="shared" si="4"/>
         <v>7</v>
       </c>
-      <c r="W22" s="77"/>
-      <c r="X22" s="53"/>
+      <c r="W22" s="73"/>
+      <c r="X22" s="56"/>
       <c r="Y22" s="44">
         <f t="shared" si="5"/>
         <v>4</v>
@@ -6496,7 +6509,7 @@
       <c r="E23" s="44">
         <v>1</v>
       </c>
-      <c r="F23" s="53"/>
+      <c r="F23" s="52"/>
       <c r="G23" s="44">
         <v>0</v>
       </c>
@@ -6510,8 +6523,8 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="K23" s="77"/>
-      <c r="L23" s="63"/>
+      <c r="K23" s="73"/>
+      <c r="L23" s="75"/>
       <c r="M23" s="44">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -6526,8 +6539,8 @@
         <f t="shared" si="2"/>
         <v>10</v>
       </c>
-      <c r="Q23" s="77"/>
-      <c r="R23" s="72"/>
+      <c r="Q23" s="73"/>
+      <c r="R23" s="69"/>
       <c r="S23" s="44">
         <f t="shared" si="3"/>
         <v>9</v>
@@ -6538,8 +6551,8 @@
         <f t="shared" si="4"/>
         <v>9</v>
       </c>
-      <c r="W23" s="77"/>
-      <c r="X23" s="53"/>
+      <c r="W23" s="73"/>
+      <c r="X23" s="56"/>
       <c r="Y23" s="44">
         <f t="shared" si="5"/>
         <v>6</v>
@@ -6561,7 +6574,7 @@
       <c r="E24" s="44">
         <v>1</v>
       </c>
-      <c r="F24" s="53"/>
+      <c r="F24" s="52"/>
       <c r="G24" s="44">
         <v>0</v>
       </c>
@@ -6575,8 +6588,8 @@
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="K24" s="77"/>
-      <c r="L24" s="63"/>
+      <c r="K24" s="73"/>
+      <c r="L24" s="75"/>
       <c r="M24" s="44">
         <f>J24-(K$2*E24)</f>
         <v>9</v>
@@ -6587,8 +6600,8 @@
         <f t="shared" si="2"/>
         <v>9</v>
       </c>
-      <c r="Q24" s="77"/>
-      <c r="R24" s="72"/>
+      <c r="Q24" s="73"/>
+      <c r="R24" s="69"/>
       <c r="S24" s="44">
         <f t="shared" si="3"/>
         <v>8</v>
@@ -6599,8 +6612,8 @@
         <f t="shared" si="4"/>
         <v>8</v>
       </c>
-      <c r="W24" s="77"/>
-      <c r="X24" s="53"/>
+      <c r="W24" s="73"/>
+      <c r="X24" s="56"/>
       <c r="Y24" s="44">
         <f t="shared" si="5"/>
         <v>5</v>
@@ -6622,7 +6635,7 @@
       <c r="E25" s="44">
         <v>1</v>
       </c>
-      <c r="F25" s="53"/>
+      <c r="F25" s="52"/>
       <c r="G25" s="44">
         <v>0</v>
       </c>
@@ -6636,8 +6649,8 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="K25" s="77"/>
-      <c r="L25" s="63"/>
+      <c r="K25" s="73"/>
+      <c r="L25" s="75"/>
       <c r="M25" s="44">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -6652,8 +6665,8 @@
         <f t="shared" si="2"/>
         <v>10</v>
       </c>
-      <c r="Q25" s="77"/>
-      <c r="R25" s="72"/>
+      <c r="Q25" s="73"/>
+      <c r="R25" s="69"/>
       <c r="S25" s="44">
         <f t="shared" si="3"/>
         <v>9</v>
@@ -6664,8 +6677,8 @@
         <f t="shared" si="4"/>
         <v>9</v>
       </c>
-      <c r="W25" s="77"/>
-      <c r="X25" s="53"/>
+      <c r="W25" s="73"/>
+      <c r="X25" s="56"/>
       <c r="Y25" s="44">
         <f t="shared" si="5"/>
         <v>6</v>
@@ -6685,7 +6698,7 @@
       <c r="E26" s="44">
         <v>1</v>
       </c>
-      <c r="F26" s="53"/>
+      <c r="F26" s="52"/>
       <c r="G26" s="44">
         <v>0</v>
       </c>
@@ -6699,8 +6712,8 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="K26" s="77"/>
-      <c r="L26" s="63"/>
+      <c r="K26" s="73"/>
+      <c r="L26" s="75"/>
       <c r="M26" s="44">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -6715,8 +6728,8 @@
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="Q26" s="77"/>
-      <c r="R26" s="72"/>
+      <c r="Q26" s="73"/>
+      <c r="R26" s="69"/>
       <c r="S26" s="44">
         <f t="shared" si="3"/>
         <v>0</v>
@@ -6732,8 +6745,8 @@
         <f t="shared" si="4"/>
         <v>3</v>
       </c>
-      <c r="W26" s="77"/>
-      <c r="X26" s="53"/>
+      <c r="W26" s="73"/>
+      <c r="X26" s="56"/>
       <c r="Y26" s="44">
         <f t="shared" si="5"/>
         <v>0</v>
@@ -6751,7 +6764,7 @@
       <c r="E27" s="44">
         <v>1</v>
       </c>
-      <c r="F27" s="53"/>
+      <c r="F27" s="52"/>
       <c r="G27" s="44">
         <v>8</v>
       </c>
@@ -6760,8 +6773,8 @@
         <f>G27+H27-1</f>
         <v>7</v>
       </c>
-      <c r="K27" s="77"/>
-      <c r="L27" s="63"/>
+      <c r="K27" s="73"/>
+      <c r="L27" s="75"/>
       <c r="M27" s="44">
         <f>J27-(K$2*E27)</f>
         <v>6</v>
@@ -6772,23 +6785,27 @@
         <f t="shared" si="2"/>
         <v>6</v>
       </c>
-      <c r="Q27" s="77"/>
-      <c r="R27" s="72"/>
+      <c r="Q27" s="73"/>
+      <c r="R27" s="69"/>
       <c r="S27" s="44">
-        <f t="shared" si="3"/>
-        <v>5</v>
-      </c>
-      <c r="T27" s="44"/>
-      <c r="U27" s="48"/>
+        <f>P27-(Q$2*$E27)-5</f>
+        <v>0</v>
+      </c>
+      <c r="T27" s="44">
+        <v>10</v>
+      </c>
+      <c r="U27" s="48">
+        <v>24.17</v>
+      </c>
       <c r="V27" s="44">
         <f t="shared" si="4"/>
-        <v>5</v>
-      </c>
-      <c r="W27" s="77"/>
-      <c r="X27" s="53"/>
+        <v>10</v>
+      </c>
+      <c r="W27" s="73"/>
+      <c r="X27" s="56"/>
       <c r="Y27" s="44">
         <f t="shared" si="5"/>
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="28" spans="1:25" x14ac:dyDescent="0.25">
@@ -6807,7 +6824,7 @@
       <c r="E28" s="44">
         <v>1</v>
       </c>
-      <c r="F28" s="53"/>
+      <c r="F28" s="52"/>
       <c r="G28" s="44">
         <v>0</v>
       </c>
@@ -6822,8 +6839,8 @@
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="K28" s="77"/>
-      <c r="L28" s="63"/>
+      <c r="K28" s="73"/>
+      <c r="L28" s="75"/>
       <c r="M28" s="44">
         <v>2</v>
       </c>
@@ -6833,8 +6850,8 @@
         <f t="shared" si="2"/>
         <v>2</v>
       </c>
-      <c r="Q28" s="77"/>
-      <c r="R28" s="72"/>
+      <c r="Q28" s="73"/>
+      <c r="R28" s="69"/>
       <c r="S28" s="44">
         <f t="shared" si="3"/>
         <v>1</v>
@@ -6850,8 +6867,8 @@
         <f t="shared" si="4"/>
         <v>6</v>
       </c>
-      <c r="W28" s="77"/>
-      <c r="X28" s="53"/>
+      <c r="W28" s="73"/>
+      <c r="X28" s="56"/>
       <c r="Y28" s="44">
         <f t="shared" si="5"/>
         <v>3</v>
@@ -6873,7 +6890,7 @@
       <c r="E29" s="44">
         <v>1</v>
       </c>
-      <c r="F29" s="53"/>
+      <c r="F29" s="52"/>
       <c r="G29" s="44">
         <v>0</v>
       </c>
@@ -6888,8 +6905,8 @@
         <f>G29+H29-2</f>
         <v>2</v>
       </c>
-      <c r="K29" s="77"/>
-      <c r="L29" s="63"/>
+      <c r="K29" s="73"/>
+      <c r="L29" s="75"/>
       <c r="M29" s="44">
         <f>J29-(K$2*E29)</f>
         <v>1</v>
@@ -6900,8 +6917,8 @@
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="Q29" s="77"/>
-      <c r="R29" s="72"/>
+      <c r="Q29" s="73"/>
+      <c r="R29" s="69"/>
       <c r="S29" s="44">
         <f t="shared" si="3"/>
         <v>0</v>
@@ -6910,14 +6927,14 @@
         <v>5</v>
       </c>
       <c r="U29" s="48">
-        <v>41</v>
+        <v>36.25</v>
       </c>
       <c r="V29" s="44">
         <f t="shared" si="4"/>
         <v>5</v>
       </c>
-      <c r="W29" s="77"/>
-      <c r="X29" s="53"/>
+      <c r="W29" s="73"/>
+      <c r="X29" s="56"/>
       <c r="Y29" s="44">
         <f t="shared" si="5"/>
         <v>2</v>
@@ -6935,7 +6952,7 @@
       <c r="E30" s="44">
         <v>1</v>
       </c>
-      <c r="F30" s="53"/>
+      <c r="F30" s="52"/>
       <c r="G30" s="44">
         <v>0</v>
       </c>
@@ -6949,8 +6966,8 @@
         <f t="shared" si="0"/>
         <v>100</v>
       </c>
-      <c r="K30" s="77"/>
-      <c r="L30" s="63"/>
+      <c r="K30" s="73"/>
+      <c r="L30" s="75"/>
       <c r="M30" s="44">
         <f t="shared" si="1"/>
         <v>99</v>
@@ -6961,8 +6978,8 @@
         <f t="shared" si="2"/>
         <v>99</v>
       </c>
-      <c r="Q30" s="77"/>
-      <c r="R30" s="72"/>
+      <c r="Q30" s="73"/>
+      <c r="R30" s="69"/>
       <c r="S30" s="44">
         <f t="shared" si="3"/>
         <v>98</v>
@@ -6973,8 +6990,8 @@
         <f t="shared" si="4"/>
         <v>98</v>
       </c>
-      <c r="W30" s="77"/>
-      <c r="X30" s="53"/>
+      <c r="W30" s="73"/>
+      <c r="X30" s="56"/>
       <c r="Y30" s="44">
         <f t="shared" si="5"/>
         <v>95</v>
@@ -6992,7 +7009,7 @@
       <c r="E31" s="44">
         <v>1</v>
       </c>
-      <c r="F31" s="53"/>
+      <c r="F31" s="52"/>
       <c r="G31" s="44">
         <v>1</v>
       </c>
@@ -7006,8 +7023,8 @@
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="K31" s="77"/>
-      <c r="L31" s="63"/>
+      <c r="K31" s="73"/>
+      <c r="L31" s="75"/>
       <c r="M31" s="44">
         <f t="shared" si="1"/>
         <v>2</v>
@@ -7018,27 +7035,27 @@
         <f t="shared" si="2"/>
         <v>2</v>
       </c>
-      <c r="Q31" s="77"/>
-      <c r="R31" s="72"/>
+      <c r="Q31" s="73"/>
+      <c r="R31" s="69"/>
       <c r="S31" s="44">
-        <f t="shared" si="3"/>
-        <v>1</v>
+        <f>P31-(Q$2*$E31)-1</f>
+        <v>0</v>
       </c>
       <c r="T31" s="44">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="U31" s="48">
-        <v>4.67</v>
+        <v>9.34</v>
       </c>
       <c r="V31" s="44">
         <f t="shared" si="4"/>
-        <v>3</v>
-      </c>
-      <c r="W31" s="77"/>
-      <c r="X31" s="53"/>
+        <v>4</v>
+      </c>
+      <c r="W31" s="73"/>
+      <c r="X31" s="56"/>
       <c r="Y31" s="44">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="32" spans="1:25" x14ac:dyDescent="0.25">
@@ -7053,7 +7070,7 @@
       <c r="E32" s="44">
         <v>1</v>
       </c>
-      <c r="F32" s="53"/>
+      <c r="F32" s="52"/>
       <c r="G32" s="44">
         <v>2</v>
       </c>
@@ -7062,8 +7079,8 @@
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="K32" s="77"/>
-      <c r="L32" s="63"/>
+      <c r="K32" s="73"/>
+      <c r="L32" s="75"/>
       <c r="M32" s="44">
         <v>128</v>
       </c>
@@ -7073,8 +7090,8 @@
         <f t="shared" si="2"/>
         <v>128</v>
       </c>
-      <c r="Q32" s="77"/>
-      <c r="R32" s="72"/>
+      <c r="Q32" s="73"/>
+      <c r="R32" s="69"/>
       <c r="S32" s="44">
         <f t="shared" si="3"/>
         <v>127</v>
@@ -7085,8 +7102,8 @@
         <f t="shared" si="4"/>
         <v>127</v>
       </c>
-      <c r="W32" s="77"/>
-      <c r="X32" s="53"/>
+      <c r="W32" s="73"/>
+      <c r="X32" s="56"/>
       <c r="Y32" s="44">
         <f t="shared" si="5"/>
         <v>124</v>
@@ -7104,7 +7121,7 @@
       <c r="E33" s="44">
         <v>1</v>
       </c>
-      <c r="F33" s="53"/>
+      <c r="F33" s="52"/>
       <c r="G33" s="44">
         <v>3</v>
       </c>
@@ -7113,8 +7130,8 @@
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="K33" s="77"/>
-      <c r="L33" s="63"/>
+      <c r="K33" s="73"/>
+      <c r="L33" s="75"/>
       <c r="M33" s="44">
         <v>1</v>
       </c>
@@ -7124,8 +7141,8 @@
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="Q33" s="77"/>
-      <c r="R33" s="72"/>
+      <c r="Q33" s="73"/>
+      <c r="R33" s="69"/>
       <c r="S33" s="44">
         <f t="shared" si="3"/>
         <v>0</v>
@@ -7140,11 +7157,11 @@
         <f t="shared" si="4"/>
         <v>25</v>
       </c>
-      <c r="W33" s="77"/>
-      <c r="X33" s="53"/>
+      <c r="W33" s="73"/>
+      <c r="X33" s="56"/>
       <c r="Y33" s="44">
-        <f t="shared" si="5"/>
-        <v>22</v>
+        <f>V33-(W$2*$E33)-1</f>
+        <v>21</v>
       </c>
     </row>
     <row r="34" spans="1:25" x14ac:dyDescent="0.25">
@@ -7159,7 +7176,7 @@
       <c r="E34" s="44">
         <v>1</v>
       </c>
-      <c r="F34" s="53"/>
+      <c r="F34" s="52"/>
       <c r="G34" s="44">
         <v>0</v>
       </c>
@@ -7173,8 +7190,8 @@
         <f>G34+H34</f>
         <v>1</v>
       </c>
-      <c r="K34" s="77"/>
-      <c r="L34" s="63"/>
+      <c r="K34" s="73"/>
+      <c r="L34" s="75"/>
       <c r="M34" s="44">
         <f>J34-(K$2*E34)</f>
         <v>0</v>
@@ -7189,32 +7206,28 @@
         <f t="shared" si="2"/>
         <v>10</v>
       </c>
-      <c r="Q34" s="77"/>
-      <c r="R34" s="72"/>
+      <c r="Q34" s="73"/>
+      <c r="R34" s="69"/>
       <c r="S34" s="44">
         <f t="shared" si="3"/>
         <v>9</v>
       </c>
-      <c r="T34" s="44">
-        <v>10</v>
-      </c>
-      <c r="U34" s="48">
-        <v>8.8000000000000007</v>
-      </c>
+      <c r="T34" s="44"/>
+      <c r="U34" s="48"/>
       <c r="V34" s="44">
         <f t="shared" si="4"/>
-        <v>19</v>
-      </c>
-      <c r="W34" s="77"/>
-      <c r="X34" s="53"/>
+        <v>9</v>
+      </c>
+      <c r="W34" s="73"/>
+      <c r="X34" s="56"/>
       <c r="Y34" s="44">
         <f t="shared" si="5"/>
-        <v>16</v>
+        <v>6</v>
       </c>
     </row>
     <row r="35" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="B35" s="1"/>
       <c r="C35" s="4"/>
@@ -7224,7 +7237,7 @@
       <c r="E35" s="44">
         <v>4</v>
       </c>
-      <c r="F35" s="53"/>
+      <c r="F35" s="52"/>
       <c r="G35" s="44">
         <v>26</v>
       </c>
@@ -7233,8 +7246,8 @@
         <f>G35+H35</f>
         <v>26</v>
       </c>
-      <c r="K35" s="77"/>
-      <c r="L35" s="63"/>
+      <c r="K35" s="73"/>
+      <c r="L35" s="75"/>
       <c r="M35" s="44">
         <f>J35-(K$2*E35)</f>
         <v>22</v>
@@ -7245,23 +7258,27 @@
         <f t="shared" si="2"/>
         <v>22</v>
       </c>
-      <c r="Q35" s="77"/>
-      <c r="R35" s="72"/>
+      <c r="Q35" s="73"/>
+      <c r="R35" s="69"/>
       <c r="S35" s="44">
-        <f t="shared" si="3"/>
-        <v>18</v>
-      </c>
-      <c r="T35" s="44"/>
-      <c r="U35" s="48"/>
+        <f>P35-(Q$2*$E35)-18</f>
+        <v>0</v>
+      </c>
+      <c r="T35" s="44">
+        <v>20</v>
+      </c>
+      <c r="U35" s="48">
+        <v>6.26</v>
+      </c>
       <c r="V35" s="44">
         <f t="shared" si="4"/>
-        <v>18</v>
-      </c>
-      <c r="W35" s="77"/>
-      <c r="X35" s="53"/>
+        <v>20</v>
+      </c>
+      <c r="W35" s="73"/>
+      <c r="X35" s="56"/>
       <c r="Y35" s="44">
         <f t="shared" si="5"/>
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="36" spans="1:25" x14ac:dyDescent="0.25">
@@ -7273,911 +7290,953 @@
       <c r="D36" s="11" t="s">
         <v>52</v>
       </c>
-      <c r="G36" s="54"/>
-      <c r="H36" s="68" t="s">
+      <c r="G36" s="53"/>
+      <c r="H36" s="66" t="s">
         <v>136</v>
       </c>
       <c r="I36" s="47">
         <v>8.99</v>
       </c>
-      <c r="J36" s="53"/>
-      <c r="K36" s="77"/>
-      <c r="L36" s="63"/>
-      <c r="M36" s="54"/>
-      <c r="N36" s="68" t="s">
+      <c r="J36" s="52"/>
+      <c r="K36" s="73"/>
+      <c r="L36" s="75"/>
+      <c r="M36" s="53"/>
+      <c r="N36" s="66" t="s">
         <v>136</v>
       </c>
       <c r="O36" s="48">
         <v>8.99</v>
       </c>
-      <c r="P36" s="54"/>
-      <c r="Q36" s="77"/>
-      <c r="R36" s="72"/>
-      <c r="S36" s="54"/>
-      <c r="T36" s="68" t="s">
+      <c r="P36" s="53"/>
+      <c r="Q36" s="73"/>
+      <c r="R36" s="69"/>
+      <c r="S36" s="53"/>
+      <c r="T36" s="66" t="s">
         <v>136</v>
       </c>
       <c r="U36" s="48">
         <v>8.99</v>
       </c>
-      <c r="V36" s="54"/>
-      <c r="W36" s="77"/>
-      <c r="X36" s="53"/>
-      <c r="Y36" s="54"/>
+      <c r="V36" s="53"/>
+      <c r="W36" s="73"/>
+      <c r="X36" s="56"/>
+      <c r="Y36" s="53"/>
     </row>
     <row r="37" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B37" s="1"/>
       <c r="C37" s="4"/>
       <c r="D37" s="11"/>
-      <c r="G37" s="54"/>
-      <c r="H37" s="68"/>
+      <c r="G37" s="53"/>
+      <c r="H37" s="66"/>
       <c r="I37" s="47">
-        <f>0.135*I43</f>
-        <v>10.8</v>
-      </c>
-      <c r="J37" s="53"/>
-      <c r="K37" s="77"/>
-      <c r="L37" s="63"/>
-      <c r="M37" s="54"/>
-      <c r="N37" s="68"/>
+        <v>8</v>
+      </c>
+      <c r="J37" s="52"/>
+      <c r="K37" s="73"/>
+      <c r="L37" s="75"/>
+      <c r="M37" s="53"/>
+      <c r="N37" s="66"/>
       <c r="O37" s="48">
-        <f>I37</f>
-        <v>10.8</v>
-      </c>
-      <c r="P37" s="54"/>
-      <c r="Q37" s="77"/>
-      <c r="R37" s="72"/>
-      <c r="S37" s="54"/>
-      <c r="T37" s="68"/>
-      <c r="U37" s="48"/>
-      <c r="V37" s="54"/>
-      <c r="W37" s="77"/>
-      <c r="X37" s="53"/>
-      <c r="Y37" s="54"/>
-    </row>
-    <row r="38" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>9.9</v>
+      </c>
+      <c r="P37" s="53"/>
+      <c r="Q37" s="73"/>
+      <c r="R37" s="69"/>
+      <c r="S37" s="53"/>
+      <c r="T37" s="66" t="s">
+        <v>53</v>
+      </c>
+      <c r="U37" s="48">
+        <f>0.1*W41</f>
+        <v>29.700000000000003</v>
+      </c>
+      <c r="V37" s="53"/>
+      <c r="W37" s="73"/>
+      <c r="X37" s="56"/>
+      <c r="Y37" s="53"/>
+    </row>
+    <row r="38" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="B38" s="1"/>
       <c r="C38" s="4"/>
       <c r="D38" s="11"/>
-      <c r="G38" s="54"/>
-      <c r="H38" s="68"/>
+      <c r="G38" s="53"/>
+      <c r="H38" s="66"/>
       <c r="I38" s="47">
-        <v>3.5</v>
-      </c>
-      <c r="J38" s="53"/>
-      <c r="K38" s="77"/>
-      <c r="L38" s="63"/>
-      <c r="M38" s="54"/>
-      <c r="N38" s="68"/>
+        <v>2.62</v>
+      </c>
+      <c r="J38" s="52"/>
+      <c r="K38" s="73"/>
+      <c r="L38" s="75"/>
+      <c r="M38" s="53"/>
+      <c r="N38" s="66"/>
       <c r="O38" s="48">
-        <f>I38</f>
-        <v>3.5</v>
-      </c>
-      <c r="P38" s="54"/>
-      <c r="Q38" s="77"/>
-      <c r="R38" s="72"/>
-      <c r="S38" s="54"/>
-      <c r="T38" s="68"/>
-      <c r="U38" s="48"/>
-      <c r="V38" s="54"/>
-      <c r="W38" s="77"/>
-      <c r="X38" s="53"/>
-      <c r="Y38" s="54"/>
-    </row>
-    <row r="39" spans="1:25" x14ac:dyDescent="0.25">
+        <v>3.17</v>
+      </c>
+      <c r="P38" s="53"/>
+      <c r="Q38" s="73"/>
+      <c r="R38" s="69"/>
+      <c r="S38" s="53"/>
+      <c r="T38" s="66" t="s">
+        <v>145</v>
+      </c>
+      <c r="U38" s="48">
+        <f>0.032*W41</f>
+        <v>9.5039999999999996</v>
+      </c>
+      <c r="V38" s="53"/>
+      <c r="W38" s="73"/>
+      <c r="X38" s="56"/>
+      <c r="Y38" s="53"/>
+    </row>
+    <row r="39" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
-        <v>124</v>
+        <v>141</v>
       </c>
       <c r="B39" s="1"/>
       <c r="C39" s="4"/>
-      <c r="D39" s="11" t="s">
-        <v>52</v>
-      </c>
-      <c r="E39" s="46">
+      <c r="D39" s="11"/>
+      <c r="G39" s="53"/>
+      <c r="H39" s="66"/>
+      <c r="I39" s="47">
+        <v>2.66</v>
+      </c>
+      <c r="J39" s="52"/>
+      <c r="K39" s="73"/>
+      <c r="L39" s="75"/>
+      <c r="M39" s="53"/>
+      <c r="N39" s="66"/>
+      <c r="O39" s="48">
+        <v>2.79</v>
+      </c>
+      <c r="P39" s="53"/>
+      <c r="Q39" s="73"/>
+      <c r="R39" s="69"/>
+      <c r="S39" s="53"/>
+      <c r="T39" s="66" t="s">
+        <v>146</v>
+      </c>
+      <c r="U39" s="48">
+        <f>2.79*3</f>
+        <v>8.370000000000001</v>
+      </c>
+      <c r="V39" s="53"/>
+      <c r="W39" s="73"/>
+      <c r="X39" s="56"/>
+      <c r="Y39" s="53"/>
+    </row>
+    <row r="40" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A40" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="B40" s="1"/>
+      <c r="C40" s="4"/>
+      <c r="D40" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="E40" s="46">
         <v>5.3699999999999998E-2</v>
       </c>
-      <c r="F39" s="70"/>
-      <c r="G39" s="54"/>
-      <c r="H39" s="68" t="s">
+      <c r="F40" s="68"/>
+      <c r="G40" s="53"/>
+      <c r="H40" s="66" t="s">
         <v>137</v>
       </c>
-      <c r="I39" s="48">
-        <f>($E39*SUM(I2:I26))</f>
+      <c r="I40" s="48">
+        <f>($E40*SUM(I2:I26))</f>
         <v>2.2355310000000004</v>
       </c>
-      <c r="J39" s="53"/>
-      <c r="K39" s="78"/>
-      <c r="L39" s="64"/>
-      <c r="M39" s="54"/>
-      <c r="N39" s="68" t="s">
+      <c r="J40" s="52"/>
+      <c r="K40" s="74"/>
+      <c r="L40" s="76"/>
+      <c r="M40" s="53"/>
+      <c r="N40" s="66" t="s">
         <v>137</v>
       </c>
-      <c r="O39" s="48">
-        <f>($E39*SUM(O2:O26))</f>
+      <c r="O40" s="48">
+        <f>($E40*SUM(O2:O26))</f>
         <v>3.5952149999999992</v>
       </c>
-      <c r="P39" s="54"/>
-      <c r="Q39" s="78"/>
-      <c r="R39" s="73"/>
-      <c r="S39" s="54"/>
-      <c r="T39" s="68" t="s">
+      <c r="P40" s="53"/>
+      <c r="Q40" s="74"/>
+      <c r="R40" s="70"/>
+      <c r="S40" s="53"/>
+      <c r="T40" s="66" t="s">
         <v>137</v>
       </c>
-      <c r="U39" s="48">
-        <f>($E39*SUM(U2:U26))</f>
-        <v>1.5331349999999999</v>
-      </c>
-      <c r="V39" s="54"/>
-      <c r="W39" s="78"/>
-      <c r="X39" s="57"/>
-      <c r="Y39" s="54"/>
-    </row>
-    <row r="40" spans="1:25" s="49" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="49" t="s">
+      <c r="U40" s="48">
+        <v>2.0099999999999998</v>
+      </c>
+      <c r="V40" s="53"/>
+      <c r="W40" s="74"/>
+      <c r="X40" s="79"/>
+      <c r="Y40" s="53"/>
+    </row>
+    <row r="41" spans="1:25" s="49" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="49" t="s">
         <v>132</v>
       </c>
-      <c r="F40" s="55"/>
-      <c r="G40" s="55"/>
-      <c r="H40" s="67" t="s">
+      <c r="F41" s="54"/>
+      <c r="G41" s="54"/>
+      <c r="H41" s="65" t="s">
         <v>139</v>
       </c>
-      <c r="I40" s="50">
-        <f>-1*SUM(I1:I39)</f>
-        <v>-124.715531</v>
-      </c>
-      <c r="J40" s="67" t="s">
+      <c r="I41" s="50">
+        <f>-1*SUM(I1:I40)</f>
+        <v>-123.695531</v>
+      </c>
+      <c r="J41" s="65" t="s">
         <v>138</v>
       </c>
-      <c r="K40" s="50">
-        <f>I43*(K2)-(0.135*I43)</f>
+      <c r="K41" s="50">
+        <f>I44*(K2)-(0.135*I44)</f>
         <v>69.2</v>
       </c>
-      <c r="L40" s="65"/>
-      <c r="M40" s="55"/>
-      <c r="N40" s="67" t="s">
+      <c r="L41" s="77"/>
+      <c r="M41" s="54"/>
+      <c r="N41" s="65" t="s">
         <v>139</v>
       </c>
-      <c r="O40" s="51">
-        <f>-1*SUM(O2:O39)</f>
-        <v>-102.63521499999997</v>
-      </c>
-      <c r="P40" s="67" t="s">
+      <c r="O41" s="51">
+        <f>-1*SUM(O2:O40)</f>
+        <v>-104.19521499999999</v>
+      </c>
+      <c r="P41" s="65" t="s">
         <v>138</v>
       </c>
-      <c r="Q40" s="50">
+      <c r="Q41" s="50">
         <f>99*Q2</f>
         <v>99</v>
       </c>
-      <c r="R40" s="74"/>
-      <c r="S40" s="55"/>
-      <c r="T40" s="67" t="s">
+      <c r="R41" s="71"/>
+      <c r="S41" s="54"/>
+      <c r="T41" s="65" t="s">
         <v>139</v>
       </c>
-      <c r="U40" s="51">
-        <f>-1*SUM(U2:U39)</f>
-        <v>-136.05313499999997</v>
-      </c>
-      <c r="V40" s="67" t="s">
+      <c r="U41" s="51">
+        <f>-1*SUM(U2:U40)</f>
+        <v>-206.45399999999998</v>
+      </c>
+      <c r="V41" s="65" t="s">
         <v>138</v>
       </c>
-      <c r="W40" s="50">
+      <c r="W41" s="50">
         <f>99*W2</f>
         <v>297</v>
       </c>
-      <c r="X40" s="55"/>
-      <c r="Y40" s="55"/>
-    </row>
-    <row r="41" spans="1:25" s="49" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="49" t="s">
+      <c r="X41" s="60"/>
+      <c r="Y41" s="54"/>
+    </row>
+    <row r="42" spans="1:25" s="49" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="49" t="s">
         <v>109</v>
       </c>
-      <c r="F41" s="55"/>
-      <c r="G41" s="55"/>
-      <c r="H41" s="56"/>
-      <c r="I41" s="55"/>
-      <c r="J41" s="67" t="s">
+      <c r="F42" s="54"/>
+      <c r="G42" s="54"/>
+      <c r="H42" s="55"/>
+      <c r="I42" s="54"/>
+      <c r="J42" s="65" t="s">
         <v>128</v>
       </c>
-      <c r="K41" s="51">
-        <f>K40+I40</f>
-        <v>-55.515530999999996</v>
-      </c>
-      <c r="L41" s="66"/>
-      <c r="M41" s="55"/>
-      <c r="N41" s="55"/>
-      <c r="O41" s="55"/>
-      <c r="P41" s="67" t="s">
+      <c r="K42" s="51">
+        <f>K41+I41</f>
+        <v>-54.495531</v>
+      </c>
+      <c r="L42" s="78"/>
+      <c r="M42" s="54"/>
+      <c r="N42" s="54"/>
+      <c r="O42" s="54"/>
+      <c r="P42" s="65" t="s">
         <v>109</v>
       </c>
-      <c r="Q41" s="51">
-        <f>Q40+O40</f>
-        <v>-3.6352149999999739</v>
-      </c>
-      <c r="R41" s="74"/>
-      <c r="S41" s="55"/>
-      <c r="T41" s="55"/>
-      <c r="U41" s="55"/>
-      <c r="V41" s="67" t="s">
+      <c r="Q42" s="51">
+        <f>Q41+O41</f>
+        <v>-5.1952149999999904</v>
+      </c>
+      <c r="R42" s="71"/>
+      <c r="S42" s="54"/>
+      <c r="T42" s="54"/>
+      <c r="U42" s="54"/>
+      <c r="V42" s="65" t="s">
         <v>109</v>
       </c>
-      <c r="W41" s="51">
-        <f>W40+U40</f>
-        <v>160.94686500000003</v>
-      </c>
-      <c r="X41" s="55"/>
-      <c r="Y41" s="55"/>
-    </row>
-    <row r="42" spans="1:25" s="54" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="G42" s="54" t="s">
+      <c r="W42" s="51">
+        <f>W41+U41</f>
+        <v>90.546000000000021</v>
+      </c>
+      <c r="X42" s="60"/>
+      <c r="Y42" s="54"/>
+    </row>
+    <row r="43" spans="1:25" s="53" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="G43" s="53" t="s">
         <v>133</v>
       </c>
-      <c r="H42" s="53"/>
-      <c r="J42" s="53"/>
-      <c r="L42" s="71"/>
-      <c r="M42" s="71" t="s">
+      <c r="H43" s="52"/>
+      <c r="J43" s="52"/>
+      <c r="M43" s="53" t="s">
         <v>134</v>
       </c>
-      <c r="N42" s="71"/>
-      <c r="O42" s="71"/>
-      <c r="P42" s="71"/>
-      <c r="Q42" s="71"/>
-      <c r="R42" s="71"/>
-      <c r="S42" s="54" t="s">
+      <c r="R43" s="58"/>
+      <c r="S43" s="58" t="s">
         <v>135</v>
       </c>
-    </row>
-    <row r="43" spans="1:25" s="54" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="H43" s="68" t="s">
-        <v>143</v>
-      </c>
-      <c r="I43" s="69">
+      <c r="T43" s="58"/>
+      <c r="U43" s="58"/>
+      <c r="V43" s="58"/>
+      <c r="W43" s="58"/>
+      <c r="X43" s="58"/>
+    </row>
+    <row r="44" spans="1:25" s="53" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="H44" s="66" t="s">
+        <v>142</v>
+      </c>
+      <c r="I44" s="67">
         <v>80</v>
       </c>
-      <c r="J43" s="53"/>
-    </row>
-    <row r="44" spans="1:25" s="54" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="H44" s="53"/>
-      <c r="J44" s="53"/>
-    </row>
-    <row r="45" spans="1:25" s="54" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="H45" s="53"/>
-      <c r="J45" s="53"/>
-    </row>
-    <row r="46" spans="1:25" s="54" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="H46" s="53"/>
-      <c r="J46" s="53"/>
-    </row>
-    <row r="47" spans="1:25" s="54" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="H47" s="53"/>
-      <c r="J47" s="53"/>
-    </row>
-    <row r="48" spans="1:25" s="54" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="H48" s="53"/>
-      <c r="J48" s="53"/>
-    </row>
-    <row r="49" spans="8:10" s="54" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="H49" s="53"/>
-      <c r="J49" s="53"/>
-    </row>
-    <row r="50" spans="8:10" s="54" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="H50" s="53"/>
-      <c r="J50" s="53"/>
-    </row>
-    <row r="51" spans="8:10" s="54" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="H51" s="53"/>
-      <c r="J51" s="53"/>
-    </row>
-    <row r="52" spans="8:10" s="54" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="H52" s="53"/>
-      <c r="J52" s="53"/>
-    </row>
-    <row r="53" spans="8:10" s="54" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="H53" s="53"/>
-      <c r="J53" s="53"/>
-    </row>
-    <row r="54" spans="8:10" s="54" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="H54" s="53"/>
-      <c r="J54" s="53"/>
-    </row>
-    <row r="55" spans="8:10" s="54" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="H55" s="53"/>
-      <c r="J55" s="53"/>
-    </row>
-    <row r="56" spans="8:10" s="54" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="H56" s="53"/>
-      <c r="J56" s="53"/>
-    </row>
-    <row r="57" spans="8:10" s="54" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="H57" s="53"/>
-      <c r="J57" s="53"/>
-    </row>
-    <row r="58" spans="8:10" s="54" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="H58" s="53"/>
-      <c r="J58" s="53"/>
-    </row>
-    <row r="59" spans="8:10" s="54" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="H59" s="53"/>
-      <c r="J59" s="53"/>
-    </row>
-    <row r="60" spans="8:10" s="54" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="H60" s="53"/>
-      <c r="J60" s="53"/>
-    </row>
-    <row r="61" spans="8:10" s="54" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="H61" s="53"/>
-      <c r="J61" s="53"/>
-    </row>
-    <row r="62" spans="8:10" s="54" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="H62" s="53"/>
-      <c r="J62" s="53"/>
-    </row>
-    <row r="63" spans="8:10" s="54" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="H63" s="53"/>
-      <c r="J63" s="53"/>
-    </row>
-    <row r="64" spans="8:10" s="54" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="H64" s="53"/>
-      <c r="J64" s="53"/>
-    </row>
-    <row r="65" spans="8:10" s="54" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="H65" s="53"/>
-      <c r="J65" s="53"/>
-    </row>
-    <row r="66" spans="8:10" s="54" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="H66" s="53"/>
-      <c r="J66" s="53"/>
-    </row>
-    <row r="67" spans="8:10" s="54" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="H67" s="53"/>
-      <c r="J67" s="53"/>
-    </row>
-    <row r="68" spans="8:10" s="54" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="H68" s="53"/>
-      <c r="J68" s="53"/>
-    </row>
-    <row r="69" spans="8:10" s="54" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="H69" s="53"/>
-      <c r="J69" s="53"/>
-    </row>
-    <row r="70" spans="8:10" s="54" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="H70" s="53"/>
-      <c r="J70" s="53"/>
-    </row>
-    <row r="71" spans="8:10" s="54" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="H71" s="53"/>
-      <c r="J71" s="53"/>
-    </row>
-    <row r="72" spans="8:10" s="54" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="H72" s="53"/>
-      <c r="J72" s="53"/>
-    </row>
-    <row r="73" spans="8:10" s="54" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="H73" s="53"/>
-      <c r="J73" s="53"/>
-    </row>
-    <row r="74" spans="8:10" s="54" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="H74" s="53"/>
-      <c r="J74" s="53"/>
-    </row>
-    <row r="75" spans="8:10" s="54" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="H75" s="53"/>
-      <c r="J75" s="53"/>
-    </row>
-    <row r="76" spans="8:10" s="54" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="H76" s="53"/>
-      <c r="J76" s="53"/>
-    </row>
-    <row r="77" spans="8:10" s="54" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="H77" s="53"/>
-      <c r="J77" s="53"/>
-    </row>
-    <row r="78" spans="8:10" s="54" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="H78" s="53"/>
-      <c r="J78" s="53"/>
-    </row>
-    <row r="79" spans="8:10" s="54" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="H79" s="53"/>
-      <c r="J79" s="53"/>
-    </row>
-    <row r="80" spans="8:10" s="54" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="H80" s="53"/>
-      <c r="J80" s="53"/>
-    </row>
-    <row r="81" spans="8:10" s="54" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="H81" s="53"/>
-      <c r="J81" s="53"/>
-    </row>
-    <row r="82" spans="8:10" s="54" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="H82" s="53"/>
-      <c r="J82" s="53"/>
-    </row>
-    <row r="83" spans="8:10" s="54" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="H83" s="53"/>
-      <c r="J83" s="53"/>
-    </row>
-    <row r="84" spans="8:10" s="54" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="H84" s="53"/>
-      <c r="J84" s="53"/>
-    </row>
-    <row r="85" spans="8:10" s="54" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="H85" s="53"/>
-      <c r="J85" s="53"/>
-    </row>
-    <row r="86" spans="8:10" s="54" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="H86" s="53"/>
-      <c r="J86" s="53"/>
-    </row>
-    <row r="87" spans="8:10" s="54" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="H87" s="53"/>
-      <c r="J87" s="53"/>
-    </row>
-    <row r="88" spans="8:10" s="54" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="H88" s="53"/>
-      <c r="J88" s="53"/>
-    </row>
-    <row r="89" spans="8:10" s="54" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="H89" s="53"/>
-      <c r="J89" s="53"/>
-    </row>
-    <row r="90" spans="8:10" s="54" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="H90" s="53"/>
-      <c r="J90" s="53"/>
-    </row>
-    <row r="91" spans="8:10" s="54" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="H91" s="53"/>
-      <c r="J91" s="53"/>
-    </row>
-    <row r="92" spans="8:10" s="54" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="H92" s="53"/>
-      <c r="J92" s="53"/>
-    </row>
-    <row r="93" spans="8:10" s="54" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="H93" s="53"/>
-      <c r="J93" s="53"/>
-    </row>
-    <row r="94" spans="8:10" s="54" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="H94" s="53"/>
-      <c r="J94" s="53"/>
-    </row>
-    <row r="95" spans="8:10" s="54" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="H95" s="53"/>
-      <c r="J95" s="53"/>
-    </row>
-    <row r="96" spans="8:10" s="54" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="H96" s="53"/>
-      <c r="J96" s="53"/>
-    </row>
-    <row r="97" spans="8:10" s="54" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="H97" s="53"/>
-      <c r="J97" s="53"/>
-    </row>
-    <row r="98" spans="8:10" s="54" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="H98" s="53"/>
-      <c r="J98" s="53"/>
-    </row>
-    <row r="99" spans="8:10" s="54" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="H99" s="53"/>
-      <c r="J99" s="53"/>
-    </row>
-    <row r="100" spans="8:10" s="54" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="H100" s="53"/>
-      <c r="J100" s="53"/>
-    </row>
-    <row r="101" spans="8:10" s="54" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="H101" s="53"/>
-      <c r="J101" s="53"/>
-    </row>
-    <row r="102" spans="8:10" s="54" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="H102" s="53"/>
-      <c r="J102" s="53"/>
-    </row>
-    <row r="103" spans="8:10" s="54" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="H103" s="53"/>
-      <c r="J103" s="53"/>
-    </row>
-    <row r="104" spans="8:10" s="54" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="H104" s="53"/>
-      <c r="J104" s="53"/>
-    </row>
-    <row r="105" spans="8:10" s="54" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="H105" s="53"/>
-      <c r="J105" s="53"/>
-    </row>
-    <row r="106" spans="8:10" s="54" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="H106" s="53"/>
-      <c r="J106" s="53"/>
-    </row>
-    <row r="107" spans="8:10" s="54" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="H107" s="53"/>
-      <c r="J107" s="53"/>
-    </row>
-    <row r="108" spans="8:10" s="54" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="H108" s="53"/>
-      <c r="J108" s="53"/>
-    </row>
-    <row r="109" spans="8:10" s="54" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="H109" s="53"/>
-      <c r="J109" s="53"/>
-    </row>
-    <row r="110" spans="8:10" s="54" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="H110" s="53"/>
-      <c r="J110" s="53"/>
-    </row>
-    <row r="111" spans="8:10" s="54" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="H111" s="53"/>
-      <c r="J111" s="53"/>
-    </row>
-    <row r="112" spans="8:10" s="54" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="H112" s="53"/>
-      <c r="J112" s="53"/>
-    </row>
-    <row r="113" spans="8:10" s="54" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="H113" s="53"/>
-      <c r="J113" s="53"/>
-    </row>
-    <row r="114" spans="8:10" s="54" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="H114" s="53"/>
-      <c r="J114" s="53"/>
-    </row>
-    <row r="115" spans="8:10" s="54" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="H115" s="53"/>
-      <c r="J115" s="53"/>
-    </row>
-    <row r="116" spans="8:10" s="54" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="H116" s="53"/>
-      <c r="J116" s="53"/>
-    </row>
-    <row r="117" spans="8:10" s="54" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="H117" s="53"/>
-      <c r="J117" s="53"/>
-    </row>
-    <row r="118" spans="8:10" s="54" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="H118" s="53"/>
-      <c r="J118" s="53"/>
-    </row>
-    <row r="119" spans="8:10" s="54" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="H119" s="53"/>
-      <c r="J119" s="53"/>
-    </row>
-    <row r="120" spans="8:10" s="54" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="H120" s="53"/>
-      <c r="J120" s="53"/>
-    </row>
-    <row r="121" spans="8:10" s="54" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="H121" s="53"/>
-      <c r="J121" s="53"/>
-    </row>
-    <row r="122" spans="8:10" s="54" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="H122" s="53"/>
-      <c r="J122" s="53"/>
-    </row>
-    <row r="123" spans="8:10" s="54" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="H123" s="53"/>
-      <c r="J123" s="53"/>
-    </row>
-    <row r="124" spans="8:10" s="54" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="H124" s="53"/>
-      <c r="J124" s="53"/>
-    </row>
-    <row r="125" spans="8:10" s="54" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="H125" s="53"/>
-      <c r="J125" s="53"/>
-    </row>
-    <row r="126" spans="8:10" s="54" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="H126" s="53"/>
-      <c r="J126" s="53"/>
-    </row>
-    <row r="127" spans="8:10" s="54" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="H127" s="53"/>
-      <c r="J127" s="53"/>
-    </row>
-    <row r="128" spans="8:10" s="54" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="H128" s="53"/>
-      <c r="J128" s="53"/>
-    </row>
-    <row r="129" spans="8:10" s="54" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="H129" s="53"/>
-      <c r="J129" s="53"/>
-    </row>
-    <row r="130" spans="8:10" s="54" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="H130" s="53"/>
-      <c r="J130" s="53"/>
-    </row>
-    <row r="131" spans="8:10" s="54" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="H131" s="53"/>
-      <c r="J131" s="53"/>
-    </row>
-    <row r="132" spans="8:10" s="54" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="H132" s="53"/>
-      <c r="J132" s="53"/>
-    </row>
-    <row r="133" spans="8:10" s="54" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="H133" s="53"/>
-      <c r="J133" s="53"/>
-    </row>
-    <row r="134" spans="8:10" s="54" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="H134" s="53"/>
-      <c r="J134" s="53"/>
-    </row>
-    <row r="135" spans="8:10" s="54" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="H135" s="53"/>
-      <c r="J135" s="53"/>
-    </row>
-    <row r="136" spans="8:10" s="54" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="H136" s="53"/>
-      <c r="J136" s="53"/>
-    </row>
-    <row r="137" spans="8:10" s="54" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="H137" s="53"/>
-      <c r="J137" s="53"/>
-    </row>
-    <row r="138" spans="8:10" s="54" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="H138" s="53"/>
-      <c r="J138" s="53"/>
-    </row>
-    <row r="139" spans="8:10" s="54" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="H139" s="53"/>
-      <c r="J139" s="53"/>
-    </row>
-    <row r="140" spans="8:10" s="54" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="H140" s="53"/>
-      <c r="J140" s="53"/>
-    </row>
-    <row r="141" spans="8:10" s="54" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="H141" s="53"/>
-      <c r="J141" s="53"/>
-    </row>
-    <row r="142" spans="8:10" s="54" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="H142" s="53"/>
-      <c r="J142" s="53"/>
-    </row>
-    <row r="143" spans="8:10" s="54" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="H143" s="53"/>
-      <c r="J143" s="53"/>
-    </row>
-    <row r="144" spans="8:10" s="54" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="H144" s="53"/>
-      <c r="J144" s="53"/>
-    </row>
-    <row r="145" spans="8:10" s="54" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="H145" s="53"/>
-      <c r="J145" s="53"/>
-    </row>
-    <row r="146" spans="8:10" s="54" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="H146" s="53"/>
-      <c r="J146" s="53"/>
-    </row>
-    <row r="147" spans="8:10" s="54" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="H147" s="53"/>
-      <c r="J147" s="53"/>
-    </row>
-    <row r="148" spans="8:10" s="54" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="H148" s="53"/>
-      <c r="J148" s="53"/>
-    </row>
-    <row r="149" spans="8:10" s="54" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="H149" s="53"/>
-      <c r="J149" s="53"/>
-    </row>
-    <row r="150" spans="8:10" s="54" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="H150" s="53"/>
-      <c r="J150" s="53"/>
-    </row>
-    <row r="151" spans="8:10" s="54" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="H151" s="53"/>
-      <c r="J151" s="53"/>
-    </row>
-    <row r="152" spans="8:10" s="54" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="H152" s="53"/>
-      <c r="J152" s="53"/>
-    </row>
-    <row r="153" spans="8:10" s="54" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="H153" s="53"/>
-      <c r="J153" s="53"/>
-    </row>
-    <row r="154" spans="8:10" s="54" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="H154" s="53"/>
-      <c r="J154" s="53"/>
-    </row>
-    <row r="155" spans="8:10" s="54" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="H155" s="53"/>
-      <c r="J155" s="53"/>
-    </row>
-    <row r="156" spans="8:10" s="54" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="H156" s="53"/>
-      <c r="J156" s="53"/>
-    </row>
-    <row r="157" spans="8:10" s="54" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="H157" s="53"/>
-      <c r="J157" s="53"/>
-    </row>
-    <row r="158" spans="8:10" s="54" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="H158" s="53"/>
-      <c r="J158" s="53"/>
-    </row>
-    <row r="159" spans="8:10" s="54" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="H159" s="53"/>
-      <c r="J159" s="53"/>
-    </row>
-    <row r="160" spans="8:10" s="54" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="H160" s="53"/>
-      <c r="J160" s="53"/>
-    </row>
-    <row r="161" spans="8:10" s="54" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="H161" s="53"/>
-      <c r="J161" s="53"/>
-    </row>
-    <row r="162" spans="8:10" s="54" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="H162" s="53"/>
-      <c r="J162" s="53"/>
-    </row>
-    <row r="163" spans="8:10" s="54" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="H163" s="53"/>
-      <c r="J163" s="53"/>
-    </row>
-    <row r="164" spans="8:10" s="54" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="H164" s="53"/>
-      <c r="J164" s="53"/>
-    </row>
-    <row r="165" spans="8:10" s="54" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="H165" s="53"/>
-      <c r="J165" s="53"/>
-    </row>
-    <row r="166" spans="8:10" s="54" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="H166" s="53"/>
-      <c r="J166" s="53"/>
-    </row>
-    <row r="167" spans="8:10" s="54" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="H167" s="53"/>
-      <c r="J167" s="53"/>
-    </row>
-    <row r="168" spans="8:10" s="54" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="H168" s="53"/>
-      <c r="J168" s="53"/>
-    </row>
-    <row r="169" spans="8:10" s="54" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="H169" s="53"/>
-      <c r="J169" s="53"/>
-    </row>
-    <row r="170" spans="8:10" s="54" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="H170" s="53"/>
-      <c r="J170" s="53"/>
-    </row>
-    <row r="171" spans="8:10" s="54" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="H171" s="53"/>
-      <c r="J171" s="53"/>
-    </row>
-    <row r="172" spans="8:10" s="54" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="H172" s="53"/>
-      <c r="J172" s="53"/>
-    </row>
-    <row r="173" spans="8:10" s="54" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="H173" s="53"/>
-      <c r="J173" s="53"/>
-    </row>
-    <row r="174" spans="8:10" s="54" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="H174" s="53"/>
-      <c r="J174" s="53"/>
-    </row>
-    <row r="175" spans="8:10" s="54" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="H175" s="53"/>
-      <c r="J175" s="53"/>
-    </row>
-    <row r="176" spans="8:10" s="54" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="H176" s="53"/>
-      <c r="J176" s="53"/>
-    </row>
-    <row r="177" spans="8:10" s="54" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="H177" s="53"/>
-      <c r="J177" s="53"/>
-    </row>
-    <row r="178" spans="8:10" s="54" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="H178" s="53"/>
-      <c r="J178" s="53"/>
-    </row>
-    <row r="179" spans="8:10" s="54" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="H179" s="53"/>
-      <c r="J179" s="53"/>
-    </row>
-    <row r="180" spans="8:10" s="54" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="H180" s="53"/>
-      <c r="J180" s="53"/>
-    </row>
-    <row r="181" spans="8:10" s="54" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="H181" s="53"/>
-      <c r="J181" s="53"/>
-    </row>
-    <row r="182" spans="8:10" s="54" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="H182" s="53"/>
-      <c r="J182" s="53"/>
-    </row>
-    <row r="183" spans="8:10" s="54" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="H183" s="53"/>
-      <c r="J183" s="53"/>
-    </row>
-    <row r="184" spans="8:10" s="54" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="H184" s="53"/>
-      <c r="J184" s="53"/>
-    </row>
-    <row r="185" spans="8:10" s="54" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="H185" s="53"/>
-      <c r="J185" s="53"/>
-    </row>
-    <row r="186" spans="8:10" s="54" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="H186" s="53"/>
-      <c r="J186" s="53"/>
-    </row>
-    <row r="187" spans="8:10" s="54" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="H187" s="53"/>
-      <c r="J187" s="53"/>
-    </row>
-    <row r="188" spans="8:10" s="54" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="H188" s="53"/>
-      <c r="J188" s="53"/>
-    </row>
-    <row r="189" spans="8:10" s="54" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="H189" s="53"/>
-      <c r="J189" s="53"/>
-    </row>
-    <row r="190" spans="8:10" s="54" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="H190" s="53"/>
-      <c r="J190" s="53"/>
-    </row>
-    <row r="191" spans="8:10" s="54" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="H191" s="53"/>
-      <c r="J191" s="53"/>
-    </row>
-    <row r="192" spans="8:10" s="54" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="H192" s="53"/>
-      <c r="J192" s="53"/>
-    </row>
-    <row r="193" spans="8:10" s="54" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="H193" s="53"/>
-      <c r="J193" s="53"/>
-    </row>
-    <row r="194" spans="8:10" s="54" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="H194" s="53"/>
-      <c r="J194" s="53"/>
-    </row>
-    <row r="195" spans="8:10" s="54" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="H195" s="53"/>
-      <c r="J195" s="53"/>
-    </row>
-    <row r="196" spans="8:10" s="54" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="H196" s="53"/>
-      <c r="J196" s="53"/>
-    </row>
-    <row r="197" spans="8:10" s="54" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="H197" s="53"/>
-      <c r="J197" s="53"/>
-    </row>
-    <row r="198" spans="8:10" s="54" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="H198" s="53"/>
-      <c r="J198" s="53"/>
-    </row>
-    <row r="199" spans="8:10" s="54" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="H199" s="53"/>
-      <c r="J199" s="53"/>
-    </row>
-    <row r="200" spans="8:10" s="54" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="H200" s="53"/>
-      <c r="J200" s="53"/>
-    </row>
-    <row r="201" spans="8:10" s="54" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="H201" s="53"/>
-      <c r="J201" s="53"/>
+      <c r="J44" s="52"/>
+    </row>
+    <row r="45" spans="1:25" s="53" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="H45" s="52"/>
+      <c r="J45" s="52"/>
+    </row>
+    <row r="46" spans="1:25" s="53" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="H46" s="52"/>
+      <c r="J46" s="52"/>
+    </row>
+    <row r="47" spans="1:25" s="53" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="H47" s="52"/>
+      <c r="J47" s="52"/>
+    </row>
+    <row r="48" spans="1:25" s="53" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="H48" s="52"/>
+      <c r="J48" s="52"/>
+    </row>
+    <row r="49" spans="8:10" s="53" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="H49" s="52"/>
+      <c r="J49" s="52"/>
+    </row>
+    <row r="50" spans="8:10" s="53" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="H50" s="52"/>
+      <c r="J50" s="52"/>
+    </row>
+    <row r="51" spans="8:10" s="53" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="H51" s="52"/>
+      <c r="J51" s="52"/>
+    </row>
+    <row r="52" spans="8:10" s="53" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="H52" s="52"/>
+      <c r="J52" s="52"/>
+    </row>
+    <row r="53" spans="8:10" s="53" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="H53" s="52"/>
+      <c r="J53" s="52"/>
+    </row>
+    <row r="54" spans="8:10" s="53" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="H54" s="52"/>
+      <c r="J54" s="52"/>
+    </row>
+    <row r="55" spans="8:10" s="53" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="H55" s="52"/>
+      <c r="J55" s="52"/>
+    </row>
+    <row r="56" spans="8:10" s="53" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="H56" s="52"/>
+      <c r="J56" s="52"/>
+    </row>
+    <row r="57" spans="8:10" s="53" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="H57" s="52"/>
+      <c r="J57" s="52"/>
+    </row>
+    <row r="58" spans="8:10" s="53" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="H58" s="52"/>
+      <c r="J58" s="52"/>
+    </row>
+    <row r="59" spans="8:10" s="53" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="H59" s="52"/>
+      <c r="J59" s="52"/>
+    </row>
+    <row r="60" spans="8:10" s="53" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="H60" s="52"/>
+      <c r="J60" s="52"/>
+    </row>
+    <row r="61" spans="8:10" s="53" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="H61" s="52"/>
+      <c r="J61" s="52"/>
+    </row>
+    <row r="62" spans="8:10" s="53" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="H62" s="52"/>
+      <c r="J62" s="52"/>
+    </row>
+    <row r="63" spans="8:10" s="53" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="H63" s="52"/>
+      <c r="J63" s="52"/>
+    </row>
+    <row r="64" spans="8:10" s="53" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="H64" s="52"/>
+      <c r="J64" s="52"/>
+    </row>
+    <row r="65" spans="8:10" s="53" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="H65" s="52"/>
+      <c r="J65" s="52"/>
+    </row>
+    <row r="66" spans="8:10" s="53" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="H66" s="52"/>
+      <c r="J66" s="52"/>
+    </row>
+    <row r="67" spans="8:10" s="53" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="H67" s="52"/>
+      <c r="J67" s="52"/>
+    </row>
+    <row r="68" spans="8:10" s="53" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="H68" s="52"/>
+      <c r="J68" s="52"/>
+    </row>
+    <row r="69" spans="8:10" s="53" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="H69" s="52"/>
+      <c r="J69" s="52"/>
+    </row>
+    <row r="70" spans="8:10" s="53" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="H70" s="52"/>
+      <c r="J70" s="52"/>
+    </row>
+    <row r="71" spans="8:10" s="53" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="H71" s="52"/>
+      <c r="J71" s="52"/>
+    </row>
+    <row r="72" spans="8:10" s="53" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="H72" s="52"/>
+      <c r="J72" s="52"/>
+    </row>
+    <row r="73" spans="8:10" s="53" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="H73" s="52"/>
+      <c r="J73" s="52"/>
+    </row>
+    <row r="74" spans="8:10" s="53" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="H74" s="52"/>
+      <c r="J74" s="52"/>
+    </row>
+    <row r="75" spans="8:10" s="53" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="H75" s="52"/>
+      <c r="J75" s="52"/>
+    </row>
+    <row r="76" spans="8:10" s="53" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="H76" s="52"/>
+      <c r="J76" s="52"/>
+    </row>
+    <row r="77" spans="8:10" s="53" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="H77" s="52"/>
+      <c r="J77" s="52"/>
+    </row>
+    <row r="78" spans="8:10" s="53" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="H78" s="52"/>
+      <c r="J78" s="52"/>
+    </row>
+    <row r="79" spans="8:10" s="53" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="H79" s="52"/>
+      <c r="J79" s="52"/>
+    </row>
+    <row r="80" spans="8:10" s="53" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="H80" s="52"/>
+      <c r="J80" s="52"/>
+    </row>
+    <row r="81" spans="8:10" s="53" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="H81" s="52"/>
+      <c r="J81" s="52"/>
+    </row>
+    <row r="82" spans="8:10" s="53" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="H82" s="52"/>
+      <c r="J82" s="52"/>
+    </row>
+    <row r="83" spans="8:10" s="53" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="H83" s="52"/>
+      <c r="J83" s="52"/>
+    </row>
+    <row r="84" spans="8:10" s="53" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="H84" s="52"/>
+      <c r="J84" s="52"/>
+    </row>
+    <row r="85" spans="8:10" s="53" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="H85" s="52"/>
+      <c r="J85" s="52"/>
+    </row>
+    <row r="86" spans="8:10" s="53" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="H86" s="52"/>
+      <c r="J86" s="52"/>
+    </row>
+    <row r="87" spans="8:10" s="53" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="H87" s="52"/>
+      <c r="J87" s="52"/>
+    </row>
+    <row r="88" spans="8:10" s="53" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="H88" s="52"/>
+      <c r="J88" s="52"/>
+    </row>
+    <row r="89" spans="8:10" s="53" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="H89" s="52"/>
+      <c r="J89" s="52"/>
+    </row>
+    <row r="90" spans="8:10" s="53" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="H90" s="52"/>
+      <c r="J90" s="52"/>
+    </row>
+    <row r="91" spans="8:10" s="53" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="H91" s="52"/>
+      <c r="J91" s="52"/>
+    </row>
+    <row r="92" spans="8:10" s="53" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="H92" s="52"/>
+      <c r="J92" s="52"/>
+    </row>
+    <row r="93" spans="8:10" s="53" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="H93" s="52"/>
+      <c r="J93" s="52"/>
+    </row>
+    <row r="94" spans="8:10" s="53" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="H94" s="52"/>
+      <c r="J94" s="52"/>
+    </row>
+    <row r="95" spans="8:10" s="53" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="H95" s="52"/>
+      <c r="J95" s="52"/>
+    </row>
+    <row r="96" spans="8:10" s="53" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="H96" s="52"/>
+      <c r="J96" s="52"/>
+    </row>
+    <row r="97" spans="8:10" s="53" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="H97" s="52"/>
+      <c r="J97" s="52"/>
+    </row>
+    <row r="98" spans="8:10" s="53" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="H98" s="52"/>
+      <c r="J98" s="52"/>
+    </row>
+    <row r="99" spans="8:10" s="53" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="H99" s="52"/>
+      <c r="J99" s="52"/>
+    </row>
+    <row r="100" spans="8:10" s="53" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="H100" s="52"/>
+      <c r="J100" s="52"/>
+    </row>
+    <row r="101" spans="8:10" s="53" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="H101" s="52"/>
+      <c r="J101" s="52"/>
+    </row>
+    <row r="102" spans="8:10" s="53" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="H102" s="52"/>
+      <c r="J102" s="52"/>
+    </row>
+    <row r="103" spans="8:10" s="53" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="H103" s="52"/>
+      <c r="J103" s="52"/>
+    </row>
+    <row r="104" spans="8:10" s="53" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="H104" s="52"/>
+      <c r="J104" s="52"/>
+    </row>
+    <row r="105" spans="8:10" s="53" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="H105" s="52"/>
+      <c r="J105" s="52"/>
+    </row>
+    <row r="106" spans="8:10" s="53" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="H106" s="52"/>
+      <c r="J106" s="52"/>
+    </row>
+    <row r="107" spans="8:10" s="53" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="H107" s="52"/>
+      <c r="J107" s="52"/>
+    </row>
+    <row r="108" spans="8:10" s="53" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="H108" s="52"/>
+      <c r="J108" s="52"/>
+    </row>
+    <row r="109" spans="8:10" s="53" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="H109" s="52"/>
+      <c r="J109" s="52"/>
+    </row>
+    <row r="110" spans="8:10" s="53" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="H110" s="52"/>
+      <c r="J110" s="52"/>
+    </row>
+    <row r="111" spans="8:10" s="53" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="H111" s="52"/>
+      <c r="J111" s="52"/>
+    </row>
+    <row r="112" spans="8:10" s="53" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="H112" s="52"/>
+      <c r="J112" s="52"/>
+    </row>
+    <row r="113" spans="8:10" s="53" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="H113" s="52"/>
+      <c r="J113" s="52"/>
+    </row>
+    <row r="114" spans="8:10" s="53" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="H114" s="52"/>
+      <c r="J114" s="52"/>
+    </row>
+    <row r="115" spans="8:10" s="53" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="H115" s="52"/>
+      <c r="J115" s="52"/>
+    </row>
+    <row r="116" spans="8:10" s="53" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="H116" s="52"/>
+      <c r="J116" s="52"/>
+    </row>
+    <row r="117" spans="8:10" s="53" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="H117" s="52"/>
+      <c r="J117" s="52"/>
+    </row>
+    <row r="118" spans="8:10" s="53" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="H118" s="52"/>
+      <c r="J118" s="52"/>
+    </row>
+    <row r="119" spans="8:10" s="53" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="H119" s="52"/>
+      <c r="J119" s="52"/>
+    </row>
+    <row r="120" spans="8:10" s="53" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="H120" s="52"/>
+      <c r="J120" s="52"/>
+    </row>
+    <row r="121" spans="8:10" s="53" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="H121" s="52"/>
+      <c r="J121" s="52"/>
+    </row>
+    <row r="122" spans="8:10" s="53" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="H122" s="52"/>
+      <c r="J122" s="52"/>
+    </row>
+    <row r="123" spans="8:10" s="53" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="H123" s="52"/>
+      <c r="J123" s="52"/>
+    </row>
+    <row r="124" spans="8:10" s="53" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="H124" s="52"/>
+      <c r="J124" s="52"/>
+    </row>
+    <row r="125" spans="8:10" s="53" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="H125" s="52"/>
+      <c r="J125" s="52"/>
+    </row>
+    <row r="126" spans="8:10" s="53" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="H126" s="52"/>
+      <c r="J126" s="52"/>
+    </row>
+    <row r="127" spans="8:10" s="53" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="H127" s="52"/>
+      <c r="J127" s="52"/>
+    </row>
+    <row r="128" spans="8:10" s="53" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="H128" s="52"/>
+      <c r="J128" s="52"/>
+    </row>
+    <row r="129" spans="8:10" s="53" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="H129" s="52"/>
+      <c r="J129" s="52"/>
+    </row>
+    <row r="130" spans="8:10" s="53" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="H130" s="52"/>
+      <c r="J130" s="52"/>
+    </row>
+    <row r="131" spans="8:10" s="53" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="H131" s="52"/>
+      <c r="J131" s="52"/>
+    </row>
+    <row r="132" spans="8:10" s="53" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="H132" s="52"/>
+      <c r="J132" s="52"/>
+    </row>
+    <row r="133" spans="8:10" s="53" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="H133" s="52"/>
+      <c r="J133" s="52"/>
+    </row>
+    <row r="134" spans="8:10" s="53" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="H134" s="52"/>
+      <c r="J134" s="52"/>
+    </row>
+    <row r="135" spans="8:10" s="53" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="H135" s="52"/>
+      <c r="J135" s="52"/>
+    </row>
+    <row r="136" spans="8:10" s="53" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="H136" s="52"/>
+      <c r="J136" s="52"/>
+    </row>
+    <row r="137" spans="8:10" s="53" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="H137" s="52"/>
+      <c r="J137" s="52"/>
+    </row>
+    <row r="138" spans="8:10" s="53" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="H138" s="52"/>
+      <c r="J138" s="52"/>
+    </row>
+    <row r="139" spans="8:10" s="53" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="H139" s="52"/>
+      <c r="J139" s="52"/>
+    </row>
+    <row r="140" spans="8:10" s="53" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="H140" s="52"/>
+      <c r="J140" s="52"/>
+    </row>
+    <row r="141" spans="8:10" s="53" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="H141" s="52"/>
+      <c r="J141" s="52"/>
+    </row>
+    <row r="142" spans="8:10" s="53" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="H142" s="52"/>
+      <c r="J142" s="52"/>
+    </row>
+    <row r="143" spans="8:10" s="53" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="H143" s="52"/>
+      <c r="J143" s="52"/>
+    </row>
+    <row r="144" spans="8:10" s="53" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="H144" s="52"/>
+      <c r="J144" s="52"/>
+    </row>
+    <row r="145" spans="8:10" s="53" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="H145" s="52"/>
+      <c r="J145" s="52"/>
+    </row>
+    <row r="146" spans="8:10" s="53" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="H146" s="52"/>
+      <c r="J146" s="52"/>
+    </row>
+    <row r="147" spans="8:10" s="53" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="H147" s="52"/>
+      <c r="J147" s="52"/>
+    </row>
+    <row r="148" spans="8:10" s="53" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="H148" s="52"/>
+      <c r="J148" s="52"/>
+    </row>
+    <row r="149" spans="8:10" s="53" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="H149" s="52"/>
+      <c r="J149" s="52"/>
+    </row>
+    <row r="150" spans="8:10" s="53" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="H150" s="52"/>
+      <c r="J150" s="52"/>
+    </row>
+    <row r="151" spans="8:10" s="53" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="H151" s="52"/>
+      <c r="J151" s="52"/>
+    </row>
+    <row r="152" spans="8:10" s="53" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="H152" s="52"/>
+      <c r="J152" s="52"/>
+    </row>
+    <row r="153" spans="8:10" s="53" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="H153" s="52"/>
+      <c r="J153" s="52"/>
+    </row>
+    <row r="154" spans="8:10" s="53" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="H154" s="52"/>
+      <c r="J154" s="52"/>
+    </row>
+    <row r="155" spans="8:10" s="53" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="H155" s="52"/>
+      <c r="J155" s="52"/>
+    </row>
+    <row r="156" spans="8:10" s="53" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="H156" s="52"/>
+      <c r="J156" s="52"/>
+    </row>
+    <row r="157" spans="8:10" s="53" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="H157" s="52"/>
+      <c r="J157" s="52"/>
+    </row>
+    <row r="158" spans="8:10" s="53" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="H158" s="52"/>
+      <c r="J158" s="52"/>
+    </row>
+    <row r="159" spans="8:10" s="53" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="H159" s="52"/>
+      <c r="J159" s="52"/>
+    </row>
+    <row r="160" spans="8:10" s="53" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="H160" s="52"/>
+      <c r="J160" s="52"/>
+    </row>
+    <row r="161" spans="8:10" s="53" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="H161" s="52"/>
+      <c r="J161" s="52"/>
+    </row>
+    <row r="162" spans="8:10" s="53" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="H162" s="52"/>
+      <c r="J162" s="52"/>
+    </row>
+    <row r="163" spans="8:10" s="53" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="H163" s="52"/>
+      <c r="J163" s="52"/>
+    </row>
+    <row r="164" spans="8:10" s="53" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="H164" s="52"/>
+      <c r="J164" s="52"/>
+    </row>
+    <row r="165" spans="8:10" s="53" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="H165" s="52"/>
+      <c r="J165" s="52"/>
+    </row>
+    <row r="166" spans="8:10" s="53" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="H166" s="52"/>
+      <c r="J166" s="52"/>
+    </row>
+    <row r="167" spans="8:10" s="53" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="H167" s="52"/>
+      <c r="J167" s="52"/>
+    </row>
+    <row r="168" spans="8:10" s="53" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="H168" s="52"/>
+      <c r="J168" s="52"/>
+    </row>
+    <row r="169" spans="8:10" s="53" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="H169" s="52"/>
+      <c r="J169" s="52"/>
+    </row>
+    <row r="170" spans="8:10" s="53" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="H170" s="52"/>
+      <c r="J170" s="52"/>
+    </row>
+    <row r="171" spans="8:10" s="53" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="H171" s="52"/>
+      <c r="J171" s="52"/>
+    </row>
+    <row r="172" spans="8:10" s="53" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="H172" s="52"/>
+      <c r="J172" s="52"/>
+    </row>
+    <row r="173" spans="8:10" s="53" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="H173" s="52"/>
+      <c r="J173" s="52"/>
+    </row>
+    <row r="174" spans="8:10" s="53" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="H174" s="52"/>
+      <c r="J174" s="52"/>
+    </row>
+    <row r="175" spans="8:10" s="53" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="H175" s="52"/>
+      <c r="J175" s="52"/>
+    </row>
+    <row r="176" spans="8:10" s="53" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="H176" s="52"/>
+      <c r="J176" s="52"/>
+    </row>
+    <row r="177" spans="8:10" s="53" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="H177" s="52"/>
+      <c r="J177" s="52"/>
+    </row>
+    <row r="178" spans="8:10" s="53" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="H178" s="52"/>
+      <c r="J178" s="52"/>
+    </row>
+    <row r="179" spans="8:10" s="53" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="H179" s="52"/>
+      <c r="J179" s="52"/>
+    </row>
+    <row r="180" spans="8:10" s="53" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="H180" s="52"/>
+      <c r="J180" s="52"/>
+    </row>
+    <row r="181" spans="8:10" s="53" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="H181" s="52"/>
+      <c r="J181" s="52"/>
+    </row>
+    <row r="182" spans="8:10" s="53" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="H182" s="52"/>
+      <c r="J182" s="52"/>
+    </row>
+    <row r="183" spans="8:10" s="53" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="H183" s="52"/>
+      <c r="J183" s="52"/>
+    </row>
+    <row r="184" spans="8:10" s="53" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="H184" s="52"/>
+      <c r="J184" s="52"/>
+    </row>
+    <row r="185" spans="8:10" s="53" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="H185" s="52"/>
+      <c r="J185" s="52"/>
+    </row>
+    <row r="186" spans="8:10" s="53" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="H186" s="52"/>
+      <c r="J186" s="52"/>
+    </row>
+    <row r="187" spans="8:10" s="53" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="H187" s="52"/>
+      <c r="J187" s="52"/>
+    </row>
+    <row r="188" spans="8:10" s="53" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="H188" s="52"/>
+      <c r="J188" s="52"/>
+    </row>
+    <row r="189" spans="8:10" s="53" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="H189" s="52"/>
+      <c r="J189" s="52"/>
+    </row>
+    <row r="190" spans="8:10" s="53" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="H190" s="52"/>
+      <c r="J190" s="52"/>
+    </row>
+    <row r="191" spans="8:10" s="53" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="H191" s="52"/>
+      <c r="J191" s="52"/>
+    </row>
+    <row r="192" spans="8:10" s="53" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="H192" s="52"/>
+      <c r="J192" s="52"/>
+    </row>
+    <row r="193" spans="8:10" s="53" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="H193" s="52"/>
+      <c r="J193" s="52"/>
+    </row>
+    <row r="194" spans="8:10" s="53" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="H194" s="52"/>
+      <c r="J194" s="52"/>
+    </row>
+    <row r="195" spans="8:10" s="53" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="H195" s="52"/>
+      <c r="J195" s="52"/>
+    </row>
+    <row r="196" spans="8:10" s="53" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="H196" s="52"/>
+      <c r="J196" s="52"/>
+    </row>
+    <row r="197" spans="8:10" s="53" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="H197" s="52"/>
+      <c r="J197" s="52"/>
+    </row>
+    <row r="198" spans="8:10" s="53" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="H198" s="52"/>
+      <c r="J198" s="52"/>
+    </row>
+    <row r="199" spans="8:10" s="53" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="H199" s="52"/>
+      <c r="J199" s="52"/>
+    </row>
+    <row r="200" spans="8:10" s="53" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="H200" s="52"/>
+      <c r="J200" s="52"/>
+    </row>
+    <row r="201" spans="8:10" s="53" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="H201" s="52"/>
+      <c r="J201" s="52"/>
+    </row>
+    <row r="202" spans="8:10" s="53" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="H202" s="52"/>
+      <c r="J202" s="52"/>
     </row>
   </sheetData>
   <mergeCells count="3">
-    <mergeCell ref="K2:K39"/>
-    <mergeCell ref="Q2:Q39"/>
-    <mergeCell ref="W2:W39"/>
+    <mergeCell ref="K2:K40"/>
+    <mergeCell ref="Q2:Q40"/>
+    <mergeCell ref="W2:W40"/>
   </mergeCells>
   <conditionalFormatting sqref="G2:G35">
     <cfRule type="cellIs" dxfId="17" priority="15" operator="greaterThanOrEqual">
@@ -8305,23 +8364,23 @@
       <c r="E1" s="44" t="s">
         <v>32</v>
       </c>
-      <c r="F1" s="58"/>
-      <c r="G1" s="58" t="s">
+      <c r="F1" s="56"/>
+      <c r="G1" s="56" t="s">
         <v>125</v>
       </c>
-      <c r="H1" s="59" t="s">
+      <c r="H1" s="57" t="s">
         <v>129</v>
       </c>
-      <c r="I1" s="59" t="s">
+      <c r="I1" s="57" t="s">
         <v>128</v>
       </c>
-      <c r="J1" s="58" t="s">
+      <c r="J1" s="56" t="s">
         <v>130</v>
       </c>
-      <c r="K1" s="58" t="s">
+      <c r="K1" s="56" t="s">
         <v>131</v>
       </c>
-      <c r="L1" s="58"/>
+      <c r="L1" s="56"/>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
@@ -8339,7 +8398,7 @@
       <c r="E2" s="44">
         <v>3</v>
       </c>
-      <c r="F2" s="58"/>
+      <c r="F2" s="56"/>
       <c r="G2" s="44">
         <v>4</v>
       </c>
@@ -8349,10 +8408,10 @@
         <f>G2+H2</f>
         <v>4</v>
       </c>
-      <c r="K2" s="77">
-        <v>1</v>
-      </c>
-      <c r="L2" s="63"/>
+      <c r="K2" s="73">
+        <v>1</v>
+      </c>
+      <c r="L2" s="61"/>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
@@ -8370,7 +8429,7 @@
       <c r="E3" s="44">
         <v>1</v>
       </c>
-      <c r="F3" s="58"/>
+      <c r="F3" s="56"/>
       <c r="G3" s="44">
         <v>8</v>
       </c>
@@ -8380,8 +8439,8 @@
         <f t="shared" ref="J3:J34" si="0">G3+H3</f>
         <v>8</v>
       </c>
-      <c r="K3" s="77"/>
-      <c r="L3" s="63"/>
+      <c r="K3" s="73"/>
+      <c r="L3" s="61"/>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
@@ -8399,7 +8458,7 @@
       <c r="E4" s="44">
         <v>2</v>
       </c>
-      <c r="F4" s="58"/>
+      <c r="F4" s="56"/>
       <c r="G4" s="44">
         <v>6</v>
       </c>
@@ -8409,8 +8468,8 @@
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="K4" s="77"/>
-      <c r="L4" s="63"/>
+      <c r="K4" s="73"/>
+      <c r="L4" s="61"/>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" s="12" t="s">
@@ -8428,7 +8487,7 @@
       <c r="E5" s="44">
         <v>5</v>
       </c>
-      <c r="F5" s="58"/>
+      <c r="F5" s="56"/>
       <c r="G5" s="44">
         <v>0</v>
       </c>
@@ -8442,8 +8501,8 @@
         <f t="shared" si="0"/>
         <v>100</v>
       </c>
-      <c r="K5" s="77"/>
-      <c r="L5" s="63"/>
+      <c r="K5" s="73"/>
+      <c r="L5" s="61"/>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
@@ -8461,7 +8520,7 @@
       <c r="E6" s="44">
         <v>1</v>
       </c>
-      <c r="F6" s="58"/>
+      <c r="F6" s="56"/>
       <c r="G6" s="44">
         <v>9</v>
       </c>
@@ -8471,8 +8530,8 @@
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="K6" s="77"/>
-      <c r="L6" s="63"/>
+      <c r="K6" s="73"/>
+      <c r="L6" s="61"/>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
@@ -8490,7 +8549,7 @@
       <c r="E7" s="44">
         <v>1</v>
       </c>
-      <c r="F7" s="58"/>
+      <c r="F7" s="56"/>
       <c r="G7" s="44">
         <v>0</v>
       </c>
@@ -8504,8 +8563,8 @@
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="K7" s="77"/>
-      <c r="L7" s="63"/>
+      <c r="K7" s="73"/>
+      <c r="L7" s="61"/>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
@@ -8523,7 +8582,7 @@
       <c r="E8" s="44">
         <v>2</v>
       </c>
-      <c r="F8" s="58"/>
+      <c r="F8" s="56"/>
       <c r="G8" s="44">
         <v>18</v>
       </c>
@@ -8533,8 +8592,8 @@
         <f t="shared" si="0"/>
         <v>18</v>
       </c>
-      <c r="K8" s="77"/>
-      <c r="L8" s="63"/>
+      <c r="K8" s="73"/>
+      <c r="L8" s="61"/>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
@@ -8552,7 +8611,7 @@
       <c r="E9" s="44">
         <v>1</v>
       </c>
-      <c r="F9" s="58"/>
+      <c r="F9" s="56"/>
       <c r="G9" s="44">
         <v>9</v>
       </c>
@@ -8562,8 +8621,8 @@
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="K9" s="77"/>
-      <c r="L9" s="63"/>
+      <c r="K9" s="73"/>
+      <c r="L9" s="61"/>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
@@ -8581,7 +8640,7 @@
       <c r="E10" s="44">
         <v>1</v>
       </c>
-      <c r="F10" s="58"/>
+      <c r="F10" s="56"/>
       <c r="G10" s="44">
         <v>0</v>
       </c>
@@ -8595,8 +8654,8 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="K10" s="77"/>
-      <c r="L10" s="63"/>
+      <c r="K10" s="73"/>
+      <c r="L10" s="61"/>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
@@ -8614,7 +8673,7 @@
       <c r="E11" s="44">
         <v>1</v>
       </c>
-      <c r="F11" s="58"/>
+      <c r="F11" s="56"/>
       <c r="G11" s="44">
         <v>9</v>
       </c>
@@ -8624,8 +8683,8 @@
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="K11" s="77"/>
-      <c r="L11" s="63"/>
+      <c r="K11" s="73"/>
+      <c r="L11" s="61"/>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
@@ -8643,7 +8702,7 @@
       <c r="E12" s="44">
         <v>1</v>
       </c>
-      <c r="F12" s="58"/>
+      <c r="F12" s="56"/>
       <c r="G12" s="44">
         <v>0</v>
       </c>
@@ -8657,8 +8716,8 @@
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="K12" s="77"/>
-      <c r="L12" s="63"/>
+      <c r="K12" s="73"/>
+      <c r="L12" s="61"/>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
@@ -8676,7 +8735,7 @@
       <c r="E13" s="44">
         <v>3</v>
       </c>
-      <c r="F13" s="58"/>
+      <c r="F13" s="56"/>
       <c r="G13" s="44">
         <v>4</v>
       </c>
@@ -8686,8 +8745,8 @@
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="K13" s="77"/>
-      <c r="L13" s="63"/>
+      <c r="K13" s="73"/>
+      <c r="L13" s="61"/>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
@@ -8705,7 +8764,7 @@
       <c r="E14" s="44">
         <v>4</v>
       </c>
-      <c r="F14" s="58"/>
+      <c r="F14" s="56"/>
       <c r="G14" s="44">
         <v>2</v>
       </c>
@@ -8719,8 +8778,8 @@
         <f t="shared" si="0"/>
         <v>102</v>
       </c>
-      <c r="K14" s="77"/>
-      <c r="L14" s="63"/>
+      <c r="K14" s="73"/>
+      <c r="L14" s="61"/>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
@@ -8738,7 +8797,7 @@
       <c r="E15" s="44">
         <v>3</v>
       </c>
-      <c r="F15" s="58"/>
+      <c r="F15" s="56"/>
       <c r="G15" s="44">
         <v>4</v>
       </c>
@@ -8748,8 +8807,8 @@
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="K15" s="77"/>
-      <c r="L15" s="63"/>
+      <c r="K15" s="73"/>
+      <c r="L15" s="61"/>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
@@ -8767,7 +8826,7 @@
       <c r="E16" s="44">
         <v>1</v>
       </c>
-      <c r="F16" s="58"/>
+      <c r="F16" s="56"/>
       <c r="G16" s="44">
         <v>8</v>
       </c>
@@ -8777,8 +8836,8 @@
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="K16" s="77"/>
-      <c r="L16" s="63"/>
+      <c r="K16" s="73"/>
+      <c r="L16" s="61"/>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
@@ -8796,7 +8855,7 @@
       <c r="E17" s="44">
         <v>1</v>
       </c>
-      <c r="F17" s="58"/>
+      <c r="F17" s="56"/>
       <c r="G17" s="44">
         <v>0</v>
       </c>
@@ -8810,8 +8869,8 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="K17" s="77"/>
-      <c r="L17" s="63"/>
+      <c r="K17" s="73"/>
+      <c r="L17" s="61"/>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
@@ -8829,7 +8888,7 @@
       <c r="E18" s="44">
         <v>1</v>
       </c>
-      <c r="F18" s="58"/>
+      <c r="F18" s="56"/>
       <c r="G18" s="44">
         <v>0</v>
       </c>
@@ -8843,8 +8902,8 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="K18" s="77"/>
-      <c r="L18" s="63"/>
+      <c r="K18" s="73"/>
+      <c r="L18" s="61"/>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
@@ -8862,7 +8921,7 @@
       <c r="E19" s="44">
         <v>1</v>
       </c>
-      <c r="F19" s="58"/>
+      <c r="F19" s="56"/>
       <c r="G19" s="44">
         <v>0</v>
       </c>
@@ -8876,8 +8935,8 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="K19" s="77"/>
-      <c r="L19" s="63"/>
+      <c r="K19" s="73"/>
+      <c r="L19" s="61"/>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
@@ -8895,7 +8954,7 @@
       <c r="E20" s="44">
         <v>1</v>
       </c>
-      <c r="F20" s="58"/>
+      <c r="F20" s="56"/>
       <c r="G20" s="44">
         <v>0</v>
       </c>
@@ -8909,8 +8968,8 @@
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="K20" s="77"/>
-      <c r="L20" s="63"/>
+      <c r="K20" s="73"/>
+      <c r="L20" s="61"/>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
@@ -8928,7 +8987,7 @@
       <c r="E21" s="44">
         <v>2</v>
       </c>
-      <c r="F21" s="58"/>
+      <c r="F21" s="56"/>
       <c r="G21" s="44">
         <v>0</v>
       </c>
@@ -8942,8 +9001,8 @@
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="K21" s="77"/>
-      <c r="L21" s="63"/>
+      <c r="K21" s="73"/>
+      <c r="L21" s="61"/>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
@@ -8961,7 +9020,7 @@
       <c r="E22" s="44">
         <v>1</v>
       </c>
-      <c r="F22" s="58"/>
+      <c r="F22" s="56"/>
       <c r="G22" s="44">
         <v>0</v>
       </c>
@@ -8975,8 +9034,8 @@
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="K22" s="77"/>
-      <c r="L22" s="63"/>
+      <c r="K22" s="73"/>
+      <c r="L22" s="61"/>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
@@ -8994,7 +9053,7 @@
       <c r="E23" s="44">
         <v>1</v>
       </c>
-      <c r="F23" s="58"/>
+      <c r="F23" s="56"/>
       <c r="G23" s="44">
         <v>0</v>
       </c>
@@ -9008,8 +9067,8 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="K23" s="77"/>
-      <c r="L23" s="63"/>
+      <c r="K23" s="73"/>
+      <c r="L23" s="61"/>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
@@ -9027,7 +9086,7 @@
       <c r="E24" s="44">
         <v>1</v>
       </c>
-      <c r="F24" s="58"/>
+      <c r="F24" s="56"/>
       <c r="G24" s="44">
         <v>0</v>
       </c>
@@ -9041,8 +9100,8 @@
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="K24" s="77"/>
-      <c r="L24" s="63"/>
+      <c r="K24" s="73"/>
+      <c r="L24" s="61"/>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
@@ -9060,7 +9119,7 @@
       <c r="E25" s="44">
         <v>1</v>
       </c>
-      <c r="F25" s="58"/>
+      <c r="F25" s="56"/>
       <c r="G25" s="44">
         <v>0</v>
       </c>
@@ -9074,8 +9133,8 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="K25" s="77"/>
-      <c r="L25" s="63"/>
+      <c r="K25" s="73"/>
+      <c r="L25" s="61"/>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
@@ -9091,7 +9150,7 @@
       <c r="E26" s="44">
         <v>1</v>
       </c>
-      <c r="F26" s="58"/>
+      <c r="F26" s="56"/>
       <c r="G26" s="44">
         <v>0</v>
       </c>
@@ -9105,8 +9164,8 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="K26" s="77"/>
-      <c r="L26" s="63"/>
+      <c r="K26" s="73"/>
+      <c r="L26" s="61"/>
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
@@ -9120,7 +9179,7 @@
       <c r="E27" s="44">
         <v>1</v>
       </c>
-      <c r="F27" s="58"/>
+      <c r="F27" s="56"/>
       <c r="G27" s="44">
         <v>8</v>
       </c>
@@ -9130,8 +9189,8 @@
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="K27" s="77"/>
-      <c r="L27" s="63"/>
+      <c r="K27" s="73"/>
+      <c r="L27" s="61"/>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
@@ -9149,7 +9208,7 @@
       <c r="E28" s="44">
         <v>1</v>
       </c>
-      <c r="F28" s="58"/>
+      <c r="F28" s="56"/>
       <c r="G28" s="44">
         <v>0</v>
       </c>
@@ -9164,8 +9223,8 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="K28" s="77"/>
-      <c r="L28" s="63"/>
+      <c r="K28" s="73"/>
+      <c r="L28" s="61"/>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
@@ -9183,7 +9242,7 @@
       <c r="E29" s="44">
         <v>1</v>
       </c>
-      <c r="F29" s="58"/>
+      <c r="F29" s="56"/>
       <c r="G29" s="44">
         <v>0</v>
       </c>
@@ -9198,8 +9257,8 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="K29" s="77"/>
-      <c r="L29" s="63"/>
+      <c r="K29" s="73"/>
+      <c r="L29" s="61"/>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
@@ -9213,7 +9272,7 @@
       <c r="E30" s="44">
         <v>1</v>
       </c>
-      <c r="F30" s="58"/>
+      <c r="F30" s="56"/>
       <c r="G30" s="44">
         <v>0</v>
       </c>
@@ -9227,8 +9286,8 @@
         <f t="shared" si="0"/>
         <v>100</v>
       </c>
-      <c r="K30" s="77"/>
-      <c r="L30" s="63"/>
+      <c r="K30" s="73"/>
+      <c r="L30" s="61"/>
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
@@ -9242,7 +9301,7 @@
       <c r="E31" s="44">
         <v>1</v>
       </c>
-      <c r="F31" s="58"/>
+      <c r="F31" s="56"/>
       <c r="G31" s="44">
         <v>1</v>
       </c>
@@ -9252,8 +9311,8 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="K31" s="77"/>
-      <c r="L31" s="63"/>
+      <c r="K31" s="73"/>
+      <c r="L31" s="61"/>
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
@@ -9267,7 +9326,7 @@
       <c r="E32" s="44">
         <v>1</v>
       </c>
-      <c r="F32" s="58"/>
+      <c r="F32" s="56"/>
       <c r="G32" s="44">
         <v>2</v>
       </c>
@@ -9277,8 +9336,8 @@
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="K32" s="77"/>
-      <c r="L32" s="63"/>
+      <c r="K32" s="73"/>
+      <c r="L32" s="61"/>
     </row>
     <row r="33" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
@@ -9292,7 +9351,7 @@
       <c r="E33" s="44">
         <v>1</v>
       </c>
-      <c r="F33" s="58"/>
+      <c r="F33" s="56"/>
       <c r="G33" s="44">
         <v>3</v>
       </c>
@@ -9302,8 +9361,8 @@
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="K33" s="77"/>
-      <c r="L33" s="63"/>
+      <c r="K33" s="73"/>
+      <c r="L33" s="61"/>
     </row>
     <row r="34" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
@@ -9317,7 +9376,7 @@
       <c r="E34" s="44">
         <v>1</v>
       </c>
-      <c r="F34" s="58"/>
+      <c r="F34" s="56"/>
       <c r="G34" s="44">
         <v>0</v>
       </c>
@@ -9331,8 +9390,8 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="K34" s="77"/>
-      <c r="L34" s="63"/>
+      <c r="K34" s="73"/>
+      <c r="L34" s="61"/>
     </row>
     <row r="35" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
@@ -9343,17 +9402,17 @@
       <c r="D35" s="11" t="s">
         <v>52</v>
       </c>
-      <c r="F35" s="60"/>
-      <c r="G35" s="54"/>
-      <c r="H35" s="68" t="s">
+      <c r="F35" s="58"/>
+      <c r="G35" s="53"/>
+      <c r="H35" s="66" t="s">
         <v>136</v>
       </c>
       <c r="I35" s="47">
         <v>8.99</v>
       </c>
-      <c r="J35" s="53"/>
-      <c r="K35" s="77"/>
-      <c r="L35" s="63"/>
+      <c r="J35" s="52"/>
+      <c r="K35" s="73"/>
+      <c r="L35" s="61"/>
     </row>
     <row r="36" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
@@ -9367,18 +9426,18 @@
       <c r="E36" s="46">
         <v>5.3699999999999998E-2</v>
       </c>
-      <c r="F36" s="61"/>
-      <c r="G36" s="54"/>
-      <c r="H36" s="68" t="s">
+      <c r="F36" s="59"/>
+      <c r="G36" s="53"/>
+      <c r="H36" s="66" t="s">
         <v>137</v>
       </c>
       <c r="I36" s="48">
         <f>($E36*SUM(I2:I26))</f>
         <v>2.2355310000000004</v>
       </c>
-      <c r="J36" s="53"/>
-      <c r="K36" s="78"/>
-      <c r="L36" s="64"/>
+      <c r="J36" s="52"/>
+      <c r="K36" s="74"/>
+      <c r="L36" s="62"/>
     </row>
     <row r="37" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A37" s="49" t="s">
@@ -9388,23 +9447,23 @@
       <c r="C37" s="49"/>
       <c r="D37" s="49"/>
       <c r="E37" s="49"/>
-      <c r="F37" s="62"/>
-      <c r="G37" s="55"/>
-      <c r="H37" s="67" t="s">
+      <c r="F37" s="60"/>
+      <c r="G37" s="54"/>
+      <c r="H37" s="65" t="s">
         <v>139</v>
       </c>
       <c r="I37" s="50">
         <f>-1*SUM(I1:I36)</f>
         <v>-73.745531</v>
       </c>
-      <c r="J37" s="67" t="s">
+      <c r="J37" s="65" t="s">
         <v>138</v>
       </c>
       <c r="K37" s="50">
         <f>99*K2</f>
         <v>99</v>
       </c>
-      <c r="L37" s="65"/>
+      <c r="L37" s="63"/>
     </row>
     <row r="38" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A38" s="49" t="s">
@@ -9414,34 +9473,34 @@
       <c r="C38" s="49"/>
       <c r="D38" s="49"/>
       <c r="E38" s="49"/>
-      <c r="F38" s="62"/>
-      <c r="G38" s="55"/>
-      <c r="H38" s="56"/>
-      <c r="I38" s="55"/>
-      <c r="J38" s="67" t="s">
+      <c r="F38" s="60"/>
+      <c r="G38" s="54"/>
+      <c r="H38" s="55"/>
+      <c r="I38" s="54"/>
+      <c r="J38" s="65" t="s">
         <v>109</v>
       </c>
       <c r="K38" s="51">
         <f>K37+I37</f>
         <v>25.254469</v>
       </c>
-      <c r="L38" s="66"/>
+      <c r="L38" s="64"/>
     </row>
     <row r="39" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A39" s="54"/>
-      <c r="B39" s="54"/>
-      <c r="C39" s="54"/>
-      <c r="D39" s="54"/>
-      <c r="E39" s="54"/>
-      <c r="F39" s="60"/>
-      <c r="G39" s="60" t="s">
+      <c r="A39" s="53"/>
+      <c r="B39" s="53"/>
+      <c r="C39" s="53"/>
+      <c r="D39" s="53"/>
+      <c r="E39" s="53"/>
+      <c r="F39" s="58"/>
+      <c r="G39" s="58" t="s">
         <v>133</v>
       </c>
-      <c r="H39" s="58"/>
-      <c r="I39" s="60"/>
-      <c r="J39" s="58"/>
-      <c r="K39" s="60"/>
-      <c r="L39" s="60"/>
+      <c r="H39" s="56"/>
+      <c r="I39" s="58"/>
+      <c r="J39" s="56"/>
+      <c r="K39" s="58"/>
+      <c r="L39" s="58"/>
     </row>
   </sheetData>
   <mergeCells count="1">
